--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KHO" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="CHI PHÍ" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,7 +22,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -814,12 +814,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
@@ -1246,11 +1246,11 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="335">
@@ -1360,16 +1360,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,13 +1378,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,15 +1392,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,15 +1410,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1434,14 +1434,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,25 +1449,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1491,15 +1491,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,28 +1507,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,14 +1537,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1561,21 +1561,21 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1584,7 +1584,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1602,7 +1602,7 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1618,13 +1618,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1636,7 +1636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1648,7 +1648,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1660,13 +1660,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1681,16 +1681,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1747,13 +1747,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,101 +1850,101 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1868,108 +1955,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,10 +1988,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2018,6 +2018,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2066,7 +2069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2101,7 +2104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2312,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z52" sqref="Z52:AA52"/>
     </sheetView>
@@ -2330,14 +2333,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
+      <c r="A1" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2370,11 +2373,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2410,235 +2413,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="277"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="277"/>
-      <c r="T3" s="277"/>
-      <c r="U3" s="277"/>
-      <c r="V3" s="277"/>
-      <c r="W3" s="277"/>
-      <c r="X3" s="277"/>
-      <c r="Y3" s="277"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="277"/>
-      <c r="AB3" s="277"/>
-      <c r="AC3" s="277"/>
-      <c r="AD3" s="277"/>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="277"/>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="277"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="258"/>
+      <c r="AD3" s="258"/>
+      <c r="AE3" s="258"/>
+      <c r="AF3" s="258"/>
+      <c r="AG3" s="258"/>
+      <c r="AH3" s="258"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="277"/>
-      <c r="U4" s="277"/>
-      <c r="V4" s="277"/>
-      <c r="W4" s="277"/>
-      <c r="X4" s="277"/>
-      <c r="Y4" s="277"/>
-      <c r="Z4" s="277"/>
-      <c r="AA4" s="277"/>
-      <c r="AB4" s="277"/>
-      <c r="AC4" s="277"/>
-      <c r="AD4" s="277"/>
-      <c r="AE4" s="277"/>
-      <c r="AF4" s="277"/>
-      <c r="AG4" s="277"/>
-      <c r="AH4" s="277"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="258"/>
+      <c r="T4" s="258"/>
+      <c r="U4" s="258"/>
+      <c r="V4" s="258"/>
+      <c r="W4" s="258"/>
+      <c r="X4" s="258"/>
+      <c r="Y4" s="258"/>
+      <c r="Z4" s="258"/>
+      <c r="AA4" s="258"/>
+      <c r="AB4" s="258"/>
+      <c r="AC4" s="258"/>
+      <c r="AD4" s="258"/>
+      <c r="AE4" s="258"/>
+      <c r="AF4" s="258"/>
+      <c r="AG4" s="258"/>
+      <c r="AH4" s="258"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="277"/>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
+      <c r="A5" s="258"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="258"/>
+      <c r="S5" s="258"/>
+      <c r="T5" s="258"/>
+      <c r="U5" s="258"/>
+      <c r="V5" s="258"/>
+      <c r="W5" s="258"/>
+      <c r="X5" s="258"/>
+      <c r="Y5" s="258"/>
+      <c r="Z5" s="258"/>
+      <c r="AA5" s="258"/>
+      <c r="AB5" s="258"/>
+      <c r="AC5" s="258"/>
+      <c r="AD5" s="258"/>
+      <c r="AE5" s="258"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="278" t="s">
+      <c r="B6" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="280" t="s">
+      <c r="D6" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="281"/>
-      <c r="N6" s="281"/>
-      <c r="O6" s="281"/>
-      <c r="P6" s="281"/>
-      <c r="Q6" s="281"/>
-      <c r="R6" s="281"/>
-      <c r="S6" s="281"/>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="281"/>
-      <c r="W6" s="281"/>
-      <c r="X6" s="281"/>
-      <c r="Y6" s="281"/>
-      <c r="Z6" s="281"/>
-      <c r="AA6" s="281"/>
-      <c r="AB6" s="281"/>
-      <c r="AC6" s="281"/>
-      <c r="AD6" s="281"/>
-      <c r="AE6" s="281"/>
-      <c r="AF6" s="281"/>
-      <c r="AG6" s="282"/>
-      <c r="AH6" s="255" t="s">
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="263"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="263"/>
+      <c r="Q6" s="263"/>
+      <c r="R6" s="263"/>
+      <c r="S6" s="263"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="263"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="263"/>
+      <c r="Y6" s="263"/>
+      <c r="Z6" s="263"/>
+      <c r="AA6" s="263"/>
+      <c r="AB6" s="263"/>
+      <c r="AC6" s="263"/>
+      <c r="AD6" s="263"/>
+      <c r="AE6" s="263"/>
+      <c r="AF6" s="263"/>
+      <c r="AG6" s="264"/>
+      <c r="AH6" s="259" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="255"/>
-      <c r="B7" s="278"/>
-      <c r="C7" s="279"/>
-      <c r="D7" s="283" t="s">
+      <c r="A7" s="259"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="255" t="s">
+      <c r="E7" s="265"/>
+      <c r="F7" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="255"/>
-      <c r="H7" s="284" t="s">
+      <c r="G7" s="259"/>
+      <c r="H7" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="284"/>
-      <c r="J7" s="255" t="s">
+      <c r="I7" s="266"/>
+      <c r="J7" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="255"/>
-      <c r="L7" s="259" t="s">
+      <c r="K7" s="259"/>
+      <c r="L7" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="259"/>
-      <c r="N7" s="255" t="s">
+      <c r="M7" s="280"/>
+      <c r="N7" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="255"/>
-      <c r="P7" s="254" t="s">
+      <c r="O7" s="259"/>
+      <c r="P7" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="255" t="s">
+      <c r="Q7" s="283"/>
+      <c r="R7" s="259" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="255"/>
-      <c r="T7" s="256" t="s">
+      <c r="S7" s="259"/>
+      <c r="T7" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="256"/>
-      <c r="V7" s="255" t="s">
+      <c r="U7" s="284"/>
+      <c r="V7" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="255"/>
-      <c r="X7" s="274" t="s">
+      <c r="W7" s="259"/>
+      <c r="X7" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="274"/>
-      <c r="Z7" s="255" t="s">
+      <c r="Y7" s="254"/>
+      <c r="Z7" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="253" t="s">
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="255" t="s">
+      <c r="AC7" s="282"/>
+      <c r="AD7" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="255"/>
-      <c r="AF7" s="257" t="s">
+      <c r="AE7" s="259"/>
+      <c r="AF7" s="252" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="257" t="s">
+      <c r="AG7" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="255"/>
+      <c r="AH7" s="259"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="255"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="279"/>
+      <c r="A8" s="259"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="261"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2723,9 +2726,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="258"/>
-      <c r="AG8" s="258"/>
-      <c r="AH8" s="255"/>
+      <c r="AF8" s="253"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="259"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -4901,78 +4904,78 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="271"/>
-      <c r="C52" s="272"/>
-      <c r="D52" s="273">
+      <c r="B52" s="277"/>
+      <c r="C52" s="278"/>
+      <c r="D52" s="279">
         <f>SUM(D9:D50)-SUM(E9:E50)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="273"/>
-      <c r="F52" s="262">
+      <c r="E52" s="279"/>
+      <c r="F52" s="256">
         <f>SUM(F9:F50)-SUM(G9:G50)</f>
         <v>19</v>
       </c>
-      <c r="G52" s="262"/>
-      <c r="H52" s="275">
+      <c r="G52" s="256"/>
+      <c r="H52" s="255">
         <f>SUM(H9:H50)-SUM(I9:I50)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="275"/>
-      <c r="J52" s="262">
+      <c r="I52" s="255"/>
+      <c r="J52" s="256">
         <f>SUM(J9:J50)-SUM(K9:K50)</f>
         <v>26</v>
       </c>
-      <c r="K52" s="262"/>
-      <c r="L52" s="270">
+      <c r="K52" s="256"/>
+      <c r="L52" s="276">
         <f>SUM(L9:L50)-SUM(M9:M50)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="270"/>
-      <c r="N52" s="262">
+      <c r="M52" s="276"/>
+      <c r="N52" s="256">
         <f>SUM(N9:N50)-SUM(O9:O50)</f>
         <v>52</v>
       </c>
-      <c r="O52" s="262"/>
-      <c r="P52" s="263">
+      <c r="O52" s="256"/>
+      <c r="P52" s="269">
         <f>SUM(P9:P50)-SUM(Q9:Q50)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="263"/>
-      <c r="R52" s="262">
+      <c r="Q52" s="269"/>
+      <c r="R52" s="256">
         <f>SUM(R9:R50)-SUM(S9:S50)</f>
         <v>74</v>
       </c>
-      <c r="S52" s="262"/>
-      <c r="T52" s="264">
+      <c r="S52" s="256"/>
+      <c r="T52" s="270">
         <f>SUM(T9:T50)-SUM(U9:U50)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="264"/>
-      <c r="V52" s="262">
+      <c r="U52" s="270"/>
+      <c r="V52" s="256">
         <f>SUM(V9:V50)-SUM(W9:W50)</f>
         <v>12</v>
       </c>
-      <c r="W52" s="262"/>
-      <c r="X52" s="265">
+      <c r="W52" s="256"/>
+      <c r="X52" s="271">
         <f>SUM(X9:X50)-SUM(Y9:Y50)</f>
         <v>71</v>
       </c>
-      <c r="Y52" s="265"/>
-      <c r="Z52" s="262">
+      <c r="Y52" s="271"/>
+      <c r="Z52" s="256">
         <f>SUM(Z9:Z50)-SUM(AA9:AA50)</f>
         <v>63</v>
       </c>
-      <c r="AA52" s="262"/>
-      <c r="AB52" s="266">
+      <c r="AA52" s="256"/>
+      <c r="AB52" s="272">
         <f>SUM(AB9:AB50)-SUM(AC9:AC50)</f>
         <v>57</v>
       </c>
-      <c r="AC52" s="266"/>
-      <c r="AD52" s="262">
+      <c r="AC52" s="272"/>
+      <c r="AD52" s="256">
         <f>SUM(AD9:AD50)-SUM(AE9:AE50)</f>
         <v>0</v>
       </c>
-      <c r="AE52" s="262"/>
+      <c r="AE52" s="256"/>
       <c r="AF52" s="48"/>
       <c r="AG52" s="20">
         <f t="shared" si="1"/>
@@ -4981,39 +4984,39 @@
       <c r="AH52" s="64"/>
     </row>
     <row r="53" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="267" t="s">
+      <c r="A53" s="273" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="268"/>
-      <c r="C53" s="268"/>
-      <c r="D53" s="268"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="268"/>
-      <c r="G53" s="268"/>
-      <c r="H53" s="268"/>
-      <c r="I53" s="268"/>
-      <c r="J53" s="268"/>
-      <c r="K53" s="268"/>
-      <c r="L53" s="268"/>
-      <c r="M53" s="268"/>
-      <c r="N53" s="268"/>
-      <c r="O53" s="268"/>
-      <c r="P53" s="268"/>
-      <c r="Q53" s="268"/>
-      <c r="R53" s="268"/>
-      <c r="S53" s="268"/>
-      <c r="T53" s="268"/>
-      <c r="U53" s="268"/>
-      <c r="V53" s="268"/>
-      <c r="W53" s="268"/>
-      <c r="X53" s="268"/>
-      <c r="Y53" s="268"/>
-      <c r="Z53" s="268"/>
-      <c r="AA53" s="268"/>
-      <c r="AB53" s="268"/>
-      <c r="AC53" s="268"/>
-      <c r="AD53" s="268"/>
-      <c r="AE53" s="269"/>
+      <c r="B53" s="274"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="274"/>
+      <c r="E53" s="274"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="274"/>
+      <c r="H53" s="274"/>
+      <c r="I53" s="274"/>
+      <c r="J53" s="274"/>
+      <c r="K53" s="274"/>
+      <c r="L53" s="274"/>
+      <c r="M53" s="274"/>
+      <c r="N53" s="274"/>
+      <c r="O53" s="274"/>
+      <c r="P53" s="274"/>
+      <c r="Q53" s="274"/>
+      <c r="R53" s="274"/>
+      <c r="S53" s="274"/>
+      <c r="T53" s="274"/>
+      <c r="U53" s="274"/>
+      <c r="V53" s="274"/>
+      <c r="W53" s="274"/>
+      <c r="X53" s="274"/>
+      <c r="Y53" s="274"/>
+      <c r="Z53" s="274"/>
+      <c r="AA53" s="274"/>
+      <c r="AB53" s="274"/>
+      <c r="AC53" s="274"/>
+      <c r="AD53" s="274"/>
+      <c r="AE53" s="275"/>
       <c r="AF53" s="65">
         <f>SUM(AF9:AF50)</f>
         <v>339</v>
@@ -5025,48 +5028,76 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="267" t="s">
+      <c r="A54" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="268"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="268"/>
-      <c r="E54" s="268"/>
-      <c r="F54" s="268"/>
-      <c r="G54" s="268"/>
-      <c r="H54" s="268"/>
-      <c r="I54" s="268"/>
-      <c r="J54" s="268"/>
-      <c r="K54" s="268"/>
-      <c r="L54" s="268"/>
-      <c r="M54" s="268"/>
-      <c r="N54" s="268"/>
-      <c r="O54" s="268"/>
-      <c r="P54" s="268"/>
-      <c r="Q54" s="268"/>
-      <c r="R54" s="268"/>
-      <c r="S54" s="268"/>
-      <c r="T54" s="268"/>
-      <c r="U54" s="268"/>
-      <c r="V54" s="268"/>
-      <c r="W54" s="268"/>
-      <c r="X54" s="268"/>
-      <c r="Y54" s="268"/>
-      <c r="Z54" s="268"/>
-      <c r="AA54" s="268"/>
-      <c r="AB54" s="268"/>
-      <c r="AC54" s="268"/>
-      <c r="AD54" s="268"/>
-      <c r="AE54" s="269"/>
-      <c r="AF54" s="260">
+      <c r="B54" s="274"/>
+      <c r="C54" s="274"/>
+      <c r="D54" s="274"/>
+      <c r="E54" s="274"/>
+      <c r="F54" s="274"/>
+      <c r="G54" s="274"/>
+      <c r="H54" s="274"/>
+      <c r="I54" s="274"/>
+      <c r="J54" s="274"/>
+      <c r="K54" s="274"/>
+      <c r="L54" s="274"/>
+      <c r="M54" s="274"/>
+      <c r="N54" s="274"/>
+      <c r="O54" s="274"/>
+      <c r="P54" s="274"/>
+      <c r="Q54" s="274"/>
+      <c r="R54" s="274"/>
+      <c r="S54" s="274"/>
+      <c r="T54" s="274"/>
+      <c r="U54" s="274"/>
+      <c r="V54" s="274"/>
+      <c r="W54" s="274"/>
+      <c r="X54" s="274"/>
+      <c r="Y54" s="274"/>
+      <c r="Z54" s="274"/>
+      <c r="AA54" s="274"/>
+      <c r="AB54" s="274"/>
+      <c r="AC54" s="274"/>
+      <c r="AD54" s="274"/>
+      <c r="AE54" s="275"/>
+      <c r="AF54" s="267">
         <f>AG53-AF53</f>
         <v>374</v>
       </c>
-      <c r="AG54" s="261"/>
+      <c r="AG54" s="268"/>
       <c r="AH54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="A53:AE53"/>
+    <mergeCell ref="A54:AE54"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="H52:I52"/>
@@ -5083,34 +5114,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="A53:AE53"/>
-    <mergeCell ref="A54:AE54"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5178,146 +5181,146 @@
       <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="313"/>
+      <c r="B3" s="285"/>
+      <c r="C3" s="285"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
+      <c r="G3" s="285"/>
+      <c r="H3" s="285"/>
+      <c r="I3" s="285"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="285"/>
       <c r="O3" s="124"/>
       <c r="P3" s="124"/>
       <c r="Q3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="313" t="s">
+      <c r="A4" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="313"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="313"/>
-      <c r="I4" s="313"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="313"/>
-      <c r="L4" s="313"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="313"/>
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
+      <c r="M4" s="285"/>
+      <c r="N4" s="285"/>
       <c r="O4" s="124"/>
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="313"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="313"/>
-      <c r="H5" s="313"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="314"/>
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286"/>
       <c r="K5" s="73"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74"/>
     </row>
     <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="315" t="s">
+      <c r="A6" s="287" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="289" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="317"/>
-      <c r="D6" s="318" t="s">
+      <c r="C6" s="289"/>
+      <c r="D6" s="290" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="321" t="s">
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="290"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="290"/>
+      <c r="K6" s="295" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="321"/>
-      <c r="M6" s="321"/>
-      <c r="N6" s="322" t="s">
+      <c r="L6" s="295"/>
+      <c r="M6" s="295"/>
+      <c r="N6" s="296" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="316"/>
-      <c r="B7" s="319" t="s">
+      <c r="A7" s="288"/>
+      <c r="B7" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="319" t="s">
+      <c r="C7" s="291" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="319" t="s">
+      <c r="D7" s="291" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="319" t="s">
+      <c r="E7" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="285" t="s">
+      <c r="F7" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="285" t="s">
+      <c r="G7" s="293" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="296" t="s">
+      <c r="H7" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="296"/>
-      <c r="J7" s="285" t="s">
+      <c r="I7" s="323"/>
+      <c r="J7" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="285" t="s">
+      <c r="K7" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="285" t="s">
+      <c r="L7" s="293" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="285" t="s">
+      <c r="M7" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="323"/>
+      <c r="N7" s="297"/>
     </row>
     <row r="8" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="316"/>
-      <c r="B8" s="320"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="320"/>
-      <c r="E8" s="320"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
+      <c r="A8" s="288"/>
+      <c r="B8" s="292"/>
+      <c r="C8" s="292"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="294"/>
       <c r="H8" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="286"/>
-      <c r="N8" s="323"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="294"/>
+      <c r="N8" s="297"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="132">
@@ -5359,10 +5362,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="293">
+      <c r="A10" s="308">
         <v>43958</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="316" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="115"/>
@@ -5393,8 +5396,8 @@
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="295"/>
-      <c r="B11" s="289"/>
+      <c r="A11" s="309"/>
+      <c r="B11" s="318"/>
       <c r="C11" s="137"/>
       <c r="D11" s="84" t="s">
         <v>21</v>
@@ -5423,10 +5426,10 @@
       <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="293">
+      <c r="A12" s="308">
         <v>43958</v>
       </c>
-      <c r="B12" s="287" t="s">
+      <c r="B12" s="316" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="115"/>
@@ -5457,8 +5460,8 @@
       <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="295"/>
-      <c r="B13" s="289"/>
+      <c r="A13" s="309"/>
+      <c r="B13" s="318"/>
       <c r="C13" s="90"/>
       <c r="D13" s="84" t="s">
         <v>16</v>
@@ -5521,10 +5524,10 @@
       <c r="N14" s="145"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="293">
+      <c r="A15" s="308">
         <v>43958</v>
       </c>
-      <c r="B15" s="287" t="s">
+      <c r="B15" s="316" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="115"/>
@@ -5541,7 +5544,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="290">
+      <c r="H15" s="319">
         <v>288000</v>
       </c>
       <c r="I15" s="83">
@@ -5557,13 +5560,13 @@
       </c>
       <c r="L15" s="139"/>
       <c r="M15" s="139"/>
-      <c r="N15" s="300" t="s">
+      <c r="N15" s="305" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="294"/>
-      <c r="B16" s="288"/>
+      <c r="A16" s="322"/>
+      <c r="B16" s="317"/>
       <c r="C16" s="116"/>
       <c r="D16" s="91" t="s">
         <v>20</v>
@@ -5578,7 +5581,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="291"/>
+      <c r="H16" s="320"/>
       <c r="I16" s="93">
         <v>0.1</v>
       </c>
@@ -5592,11 +5595,11 @@
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
-      <c r="N16" s="301"/>
+      <c r="N16" s="306"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="294"/>
-      <c r="B17" s="288"/>
+      <c r="A17" s="322"/>
+      <c r="B17" s="317"/>
       <c r="C17" s="116"/>
       <c r="D17" s="91" t="s">
         <v>10</v>
@@ -5611,7 +5614,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="291"/>
+      <c r="H17" s="320"/>
       <c r="I17" s="93">
         <v>0.1</v>
       </c>
@@ -5625,11 +5628,11 @@
       </c>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
-      <c r="N17" s="301"/>
+      <c r="N17" s="306"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="289"/>
+      <c r="A18" s="309"/>
+      <c r="B18" s="318"/>
       <c r="C18" s="90"/>
       <c r="D18" s="90" t="s">
         <v>21</v>
@@ -5644,7 +5647,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="292"/>
+      <c r="H18" s="321"/>
       <c r="I18" s="149">
         <v>0.1</v>
       </c>
@@ -5658,13 +5661,13 @@
       </c>
       <c r="L18" s="148"/>
       <c r="M18" s="148"/>
-      <c r="N18" s="302"/>
+      <c r="N18" s="307"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="293">
+      <c r="A19" s="308">
         <v>43958</v>
       </c>
-      <c r="B19" s="287" t="s">
+      <c r="B19" s="316" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="138"/>
@@ -5697,13 +5700,13 @@
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="146"/>
-      <c r="N19" s="304" t="s">
+      <c r="N19" s="311" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="294"/>
-      <c r="B20" s="288"/>
+      <c r="A20" s="322"/>
+      <c r="B20" s="317"/>
       <c r="C20" s="87"/>
       <c r="D20" s="87" t="s">
         <v>21</v>
@@ -5734,11 +5737,11 @@
       </c>
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
-      <c r="N20" s="305"/>
+      <c r="N20" s="312"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="295"/>
-      <c r="B21" s="289"/>
+      <c r="A21" s="309"/>
+      <c r="B21" s="318"/>
       <c r="C21" s="150"/>
       <c r="D21" s="150" t="s">
         <v>14</v>
@@ -5769,7 +5772,7 @@
       </c>
       <c r="L21" s="151"/>
       <c r="M21" s="151"/>
-      <c r="N21" s="306"/>
+      <c r="N21" s="313"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="142">
@@ -5851,7 +5854,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="293">
+      <c r="A24" s="308">
         <v>43962</v>
       </c>
       <c r="B24" s="178" t="s">
@@ -5887,12 +5890,12 @@
       </c>
       <c r="L24" s="82"/>
       <c r="M24" s="82"/>
-      <c r="N24" s="307" t="s">
+      <c r="N24" s="314" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="295"/>
+      <c r="A25" s="309"/>
       <c r="B25" s="90" t="s">
         <v>69</v>
       </c>
@@ -5926,7 +5929,7 @@
       </c>
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
-      <c r="N25" s="308"/>
+      <c r="N25" s="315"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="142">
@@ -6163,7 +6166,7 @@
       <c r="K35" s="92"/>
       <c r="L35" s="92"/>
       <c r="M35" s="92"/>
-      <c r="N35" s="311"/>
+      <c r="N35" s="302"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="118"/>
@@ -6185,7 +6188,7 @@
       <c r="K36" s="92"/>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
-      <c r="N36" s="311"/>
+      <c r="N36" s="302"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
@@ -6207,7 +6210,7 @@
       <c r="K37" s="92"/>
       <c r="L37" s="92"/>
       <c r="M37" s="92"/>
-      <c r="N37" s="311"/>
+      <c r="N37" s="302"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
@@ -6229,7 +6232,7 @@
       <c r="K38" s="92"/>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
-      <c r="N38" s="311"/>
+      <c r="N38" s="302"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
@@ -6251,7 +6254,7 @@
       <c r="K39" s="92"/>
       <c r="L39" s="92"/>
       <c r="M39" s="92"/>
-      <c r="N39" s="311"/>
+      <c r="N39" s="302"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
@@ -6273,7 +6276,7 @@
       <c r="K40" s="92"/>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
-      <c r="N40" s="311"/>
+      <c r="N40" s="302"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="117"/>
@@ -6339,7 +6342,7 @@
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
       <c r="M43" s="96"/>
-      <c r="N43" s="312"/>
+      <c r="N43" s="303"/>
     </row>
     <row r="44" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
@@ -6361,7 +6364,7 @@
       <c r="K44" s="96"/>
       <c r="L44" s="96"/>
       <c r="M44" s="96"/>
-      <c r="N44" s="312"/>
+      <c r="N44" s="303"/>
     </row>
     <row r="45" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
@@ -6383,7 +6386,7 @@
       <c r="K45" s="96"/>
       <c r="L45" s="96"/>
       <c r="M45" s="96"/>
-      <c r="N45" s="312"/>
+      <c r="N45" s="303"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
@@ -6958,12 +6961,12 @@
       <c r="N71" s="84"/>
     </row>
     <row r="72" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="309" t="s">
+      <c r="A72" s="300" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="310"/>
-      <c r="C72" s="310"/>
-      <c r="D72" s="310"/>
+      <c r="B72" s="301"/>
+      <c r="C72" s="301"/>
+      <c r="D72" s="301"/>
       <c r="E72" s="158">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -6989,7 +6992,7 @@
       </c>
       <c r="M72" s="162"/>
       <c r="N72" s="180"/>
-      <c r="O72" s="297"/>
+      <c r="O72" s="304"/>
     </row>
     <row r="73" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="298" t="s">
@@ -7011,7 +7014,7 @@
       <c r="L73" s="102"/>
       <c r="M73" s="102"/>
       <c r="N73" s="180"/>
-      <c r="O73" s="297"/>
+      <c r="O73" s="304"/>
     </row>
     <row r="74" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="298" t="s">
@@ -7019,7 +7022,7 @@
       </c>
       <c r="B74" s="299"/>
       <c r="C74" s="299"/>
-      <c r="D74" s="303"/>
+      <c r="D74" s="310"/>
       <c r="E74" s="156"/>
       <c r="F74" s="156"/>
       <c r="G74" s="99">
@@ -7124,6 +7127,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -7140,32 +7169,6 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7176,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7900,7 +7903,7 @@
       <c r="D48" s="192"/>
       <c r="E48" s="193"/>
       <c r="F48" s="192">
-        <v>11500000</v>
+        <v>1150000</v>
       </c>
       <c r="G48" s="193"/>
       <c r="H48" s="193"/>
@@ -8123,7 +8126,7 @@
       </c>
       <c r="F68" s="198">
         <f>SUM(F9:F51)</f>
-        <v>47157500</v>
+        <v>36807500</v>
       </c>
       <c r="G68" s="199"/>
       <c r="H68" s="199"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="KHO" sheetId="1" r:id="rId1"/>
-    <sheet name="DOANH THU" sheetId="2" r:id="rId2"/>
-    <sheet name="CHI PHÍ" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
+    <sheet name="KHO T6" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="DOANH THU" sheetId="2" r:id="rId4"/>
+    <sheet name="CHI PHÍ" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -364,8 +365,356 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -556,9 +905,6 @@
     <t>SỔ THEO DÕI ĐẠI LÝ QUỲNH TRANG</t>
   </si>
   <si>
-    <t>Từ 5/5/2020 đến hết 14/05/2020</t>
-  </si>
-  <si>
     <t>Khách AL ng quốc trị</t>
   </si>
   <si>
@@ -604,9 +950,6 @@
     <t>Tổng doanh số bán hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">           Độc lập – Tự do – Hạnh phúc</t>
-  </si>
-  <si>
     <t xml:space="preserve"> THEO DÕI THU CHI ĐẠI LÝ QUỲNH TRANG</t>
   </si>
   <si>
@@ -619,9 +962,6 @@
     <t>Anh Lâm</t>
   </si>
   <si>
-    <t>Anh Tâm</t>
-  </si>
-  <si>
     <t>Ký xác nhận</t>
   </si>
   <si>
@@ -809,6 +1149,36 @@
   </si>
   <si>
     <t>Xuất tình thu (CTY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng </t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Chị Thắm Yên Bái</t>
+  </si>
+  <si>
+    <t>Huệ ĐB</t>
+  </si>
+  <si>
+    <t>Phương Yên Châu</t>
+  </si>
+  <si>
+    <t>Nhập từ kho</t>
+  </si>
+  <si>
+    <t>Xuất về văn phòng</t>
+  </si>
+  <si>
+    <t>Từ 5/5/2020</t>
+  </si>
+  <si>
+    <t>Mành</t>
+  </si>
+  <si>
+    <t>Hoa</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1623,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1581,9 +1951,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,9 +1982,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,18 +2044,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1754,6 +2106,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,12 +2377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2313,11 +2692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z52" sqref="Z52:AA52"/>
+      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R44" sqref="R44:S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,14 +2712,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
+      <c r="A1" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2373,11 +2752,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2413,235 +2792,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="263" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="258"/>
-      <c r="U3" s="258"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="258"/>
-      <c r="AD3" s="258"/>
-      <c r="AE3" s="258"/>
-      <c r="AF3" s="258"/>
-      <c r="AG3" s="258"/>
-      <c r="AH3" s="258"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="263"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="263"/>
+      <c r="AB3" s="263"/>
+      <c r="AC3" s="263"/>
+      <c r="AD3" s="263"/>
+      <c r="AE3" s="263"/>
+      <c r="AF3" s="263"/>
+      <c r="AG3" s="263"/>
+      <c r="AH3" s="263"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="258" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="258"/>
-      <c r="W4" s="258"/>
-      <c r="X4" s="258"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="258"/>
-      <c r="AA4" s="258"/>
-      <c r="AB4" s="258"/>
-      <c r="AC4" s="258"/>
-      <c r="AD4" s="258"/>
-      <c r="AE4" s="258"/>
-      <c r="AF4" s="258"/>
-      <c r="AG4" s="258"/>
-      <c r="AH4" s="258"/>
+      <c r="A4" s="263" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="263"/>
+      <c r="Y4" s="263"/>
+      <c r="Z4" s="263"/>
+      <c r="AA4" s="263"/>
+      <c r="AB4" s="263"/>
+      <c r="AC4" s="263"/>
+      <c r="AD4" s="263"/>
+      <c r="AE4" s="263"/>
+      <c r="AF4" s="263"/>
+      <c r="AG4" s="263"/>
+      <c r="AH4" s="263"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="258"/>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="258"/>
-      <c r="S5" s="258"/>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="258"/>
-      <c r="AB5" s="258"/>
-      <c r="AC5" s="258"/>
-      <c r="AD5" s="258"/>
-      <c r="AE5" s="258"/>
+      <c r="A5" s="263"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="262" t="s">
+      <c r="D6" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="264"/>
-      <c r="AH6" s="259" t="s">
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="268"/>
+      <c r="N6" s="268"/>
+      <c r="O6" s="268"/>
+      <c r="P6" s="268"/>
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="268"/>
+      <c r="T6" s="268"/>
+      <c r="U6" s="268"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="268"/>
+      <c r="Z6" s="268"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="268"/>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="268"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="264" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="259"/>
-      <c r="B7" s="260"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="265" t="s">
+      <c r="A7" s="264"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="259" t="s">
+      <c r="E7" s="270"/>
+      <c r="F7" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="259"/>
-      <c r="H7" s="266" t="s">
+      <c r="G7" s="264"/>
+      <c r="H7" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="259" t="s">
+      <c r="I7" s="271"/>
+      <c r="J7" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="259"/>
-      <c r="L7" s="280" t="s">
+      <c r="K7" s="264"/>
+      <c r="L7" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="280"/>
-      <c r="N7" s="259" t="s">
+      <c r="M7" s="285"/>
+      <c r="N7" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="259"/>
-      <c r="P7" s="283" t="s">
+      <c r="O7" s="264"/>
+      <c r="P7" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="283"/>
-      <c r="R7" s="259" t="s">
+      <c r="Q7" s="288"/>
+      <c r="R7" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="259"/>
-      <c r="T7" s="284" t="s">
+      <c r="S7" s="264"/>
+      <c r="T7" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="284"/>
-      <c r="V7" s="259" t="s">
+      <c r="U7" s="289"/>
+      <c r="V7" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="259"/>
-      <c r="X7" s="254" t="s">
+      <c r="W7" s="264"/>
+      <c r="X7" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="254"/>
-      <c r="Z7" s="259" t="s">
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="264" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="282" t="s">
+      <c r="AA7" s="264"/>
+      <c r="AB7" s="287" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="259" t="s">
+      <c r="AC7" s="287"/>
+      <c r="AD7" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="259"/>
-      <c r="AF7" s="252" t="s">
+      <c r="AE7" s="264"/>
+      <c r="AF7" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="252" t="s">
+      <c r="AG7" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="259"/>
+      <c r="AH7" s="264"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="259"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="261"/>
+      <c r="A8" s="264"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2726,64 +3105,64 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="253"/>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="259"/>
+      <c r="AF8" s="258"/>
+      <c r="AG8" s="258"/>
+      <c r="AH8" s="264"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
         <v>1</v>
       </c>
-      <c r="B9" s="218">
+      <c r="B9" s="212">
         <v>43956</v>
       </c>
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="220">
+      <c r="D9" s="214">
         <v>24</v>
       </c>
-      <c r="E9" s="220"/>
+      <c r="E9" s="214"/>
       <c r="F9" s="81">
         <v>47</v>
       </c>
       <c r="G9" s="81"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
       <c r="J9" s="81">
         <v>59</v>
       </c>
       <c r="K9" s="81"/>
-      <c r="L9" s="222"/>
-      <c r="M9" s="222"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="216"/>
       <c r="N9" s="81">
         <v>47</v>
       </c>
       <c r="O9" s="81"/>
-      <c r="P9" s="223"/>
-      <c r="Q9" s="223"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="217"/>
       <c r="R9" s="81">
         <v>59</v>
       </c>
       <c r="S9" s="81"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
+      <c r="T9" s="218"/>
+      <c r="U9" s="218"/>
       <c r="V9" s="81">
         <v>11</v>
       </c>
       <c r="W9" s="81"/>
-      <c r="X9" s="225">
+      <c r="X9" s="219">
         <v>35</v>
       </c>
-      <c r="Y9" s="225"/>
+      <c r="Y9" s="219"/>
       <c r="Z9" s="81">
         <v>35</v>
       </c>
       <c r="AA9" s="81"/>
-      <c r="AB9" s="226">
+      <c r="AB9" s="220">
         <v>47</v>
       </c>
-      <c r="AC9" s="226"/>
+      <c r="AC9" s="220"/>
       <c r="AD9" s="81"/>
       <c r="AE9" s="81"/>
       <c r="AF9" s="91">
@@ -2794,106 +3173,106 @@
         <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
         <v>364</v>
       </c>
-      <c r="AH9" s="207"/>
+      <c r="AH9" s="201"/>
     </row>
     <row r="10" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177">
+      <c r="A10" s="176">
         <v>2</v>
       </c>
-      <c r="B10" s="227">
+      <c r="B10" s="221">
         <v>43957</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="177">
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="176">
         <v>36</v>
       </c>
-      <c r="G10" s="177"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="177">
+      <c r="G10" s="176"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="176">
         <v>36</v>
       </c>
-      <c r="K10" s="177"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="177">
+      <c r="K10" s="176"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="176">
         <v>36</v>
       </c>
-      <c r="O10" s="177"/>
-      <c r="P10" s="232"/>
-      <c r="Q10" s="232"/>
-      <c r="R10" s="177">
+      <c r="O10" s="176"/>
+      <c r="P10" s="226"/>
+      <c r="Q10" s="226"/>
+      <c r="R10" s="176">
         <v>72</v>
       </c>
-      <c r="S10" s="177"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="234">
+      <c r="S10" s="176"/>
+      <c r="T10" s="227"/>
+      <c r="U10" s="227"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="228">
         <v>48</v>
       </c>
-      <c r="Y10" s="234"/>
-      <c r="Z10" s="177">
+      <c r="Y10" s="228"/>
+      <c r="Z10" s="176">
         <v>48</v>
       </c>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="235">
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="229">
         <v>24</v>
       </c>
-      <c r="AC10" s="235"/>
-      <c r="AD10" s="177"/>
-      <c r="AE10" s="177"/>
+      <c r="AC10" s="229"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="176"/>
       <c r="AF10" s="91">
-        <f t="shared" ref="AF10:AF50" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF42" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>0</v>
       </c>
       <c r="AG10" s="91">
-        <f t="shared" ref="AG10:AG52" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG44" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>300</v>
       </c>
-      <c r="AH10" s="208"/>
+      <c r="AH10" s="202"/>
     </row>
     <row r="11" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81">
         <v>3</v>
       </c>
-      <c r="B11" s="209">
+      <c r="B11" s="203">
         <v>43957</v>
       </c>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
       <c r="F11" s="91"/>
       <c r="G11" s="91"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
       <c r="J11" s="91"/>
       <c r="K11" s="91"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
       <c r="N11" s="91"/>
       <c r="O11" s="91"/>
-      <c r="P11" s="214"/>
-      <c r="Q11" s="214"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="208"/>
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="215"/>
-      <c r="U11" s="215"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="209"/>
       <c r="V11" s="91"/>
       <c r="W11" s="91"/>
-      <c r="X11" s="216"/>
-      <c r="Y11" s="216"/>
+      <c r="X11" s="210"/>
+      <c r="Y11" s="210"/>
       <c r="Z11" s="91"/>
       <c r="AA11" s="91"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217">
+      <c r="AB11" s="211"/>
+      <c r="AC11" s="211">
         <v>1</v>
       </c>
       <c r="AD11" s="91"/>
@@ -2909,43 +3288,43 @@
       <c r="AH11" s="95"/>
     </row>
     <row r="12" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177">
+      <c r="A12" s="176">
         <v>4</v>
       </c>
-      <c r="B12" s="209">
+      <c r="B12" s="203">
         <v>43958</v>
       </c>
-      <c r="C12" s="210" t="s">
+      <c r="C12" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211">
+      <c r="D12" s="205"/>
+      <c r="E12" s="205">
         <v>2</v>
       </c>
       <c r="F12" s="91"/>
       <c r="G12" s="91"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
       <c r="J12" s="91"/>
       <c r="K12" s="91"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
       <c r="N12" s="91"/>
       <c r="O12" s="91"/>
-      <c r="P12" s="214"/>
-      <c r="Q12" s="214"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="208"/>
       <c r="R12" s="91"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="215"/>
-      <c r="U12" s="215"/>
+      <c r="T12" s="209"/>
+      <c r="U12" s="209"/>
       <c r="V12" s="91"/>
       <c r="W12" s="91"/>
-      <c r="X12" s="216"/>
-      <c r="Y12" s="216"/>
+      <c r="X12" s="210"/>
+      <c r="Y12" s="210"/>
       <c r="Z12" s="91"/>
       <c r="AA12" s="91"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217">
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="211">
         <v>1</v>
       </c>
       <c r="AD12" s="91"/>
@@ -2964,42 +3343,42 @@
       <c r="A13" s="81">
         <v>5</v>
       </c>
-      <c r="B13" s="209">
+      <c r="B13" s="203">
         <v>43958</v>
       </c>
-      <c r="C13" s="210" t="s">
+      <c r="C13" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
       <c r="F13" s="91"/>
       <c r="G13" s="91"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
       <c r="J13" s="91"/>
       <c r="K13" s="91">
         <v>1</v>
       </c>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="207"/>
       <c r="N13" s="91"/>
       <c r="O13" s="91"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
+      <c r="P13" s="208"/>
+      <c r="Q13" s="208"/>
       <c r="R13" s="91"/>
       <c r="S13" s="91">
         <v>10</v>
       </c>
-      <c r="T13" s="215"/>
-      <c r="U13" s="215"/>
+      <c r="T13" s="209"/>
+      <c r="U13" s="209"/>
       <c r="V13" s="91"/>
       <c r="W13" s="91"/>
-      <c r="X13" s="216"/>
-      <c r="Y13" s="216"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="210"/>
       <c r="Z13" s="91"/>
       <c r="AA13" s="91"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="217"/>
+      <c r="AB13" s="211"/>
+      <c r="AC13" s="211"/>
       <c r="AD13" s="91"/>
       <c r="AE13" s="91"/>
       <c r="AF13" s="91">
@@ -3013,45 +3392,45 @@
       <c r="AH13" s="95"/>
     </row>
     <row r="14" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="177">
+      <c r="A14" s="176">
         <v>6</v>
       </c>
-      <c r="B14" s="209">
+      <c r="B14" s="203">
         <v>43958</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="238"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
-      <c r="N14" s="238"/>
-      <c r="O14" s="238"/>
-      <c r="P14" s="241"/>
-      <c r="Q14" s="241"/>
-      <c r="R14" s="238"/>
-      <c r="S14" s="238"/>
-      <c r="T14" s="242"/>
-      <c r="U14" s="242"/>
-      <c r="V14" s="238"/>
-      <c r="W14" s="238"/>
-      <c r="X14" s="243"/>
-      <c r="Y14" s="243"/>
-      <c r="Z14" s="238"/>
-      <c r="AA14" s="238"/>
-      <c r="AB14" s="244"/>
-      <c r="AC14" s="244">
+      <c r="D14" s="231"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="234"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="232"/>
+      <c r="S14" s="232"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="236"/>
+      <c r="V14" s="232"/>
+      <c r="W14" s="232"/>
+      <c r="X14" s="237"/>
+      <c r="Y14" s="237"/>
+      <c r="Z14" s="232"/>
+      <c r="AA14" s="232"/>
+      <c r="AB14" s="238"/>
+      <c r="AC14" s="238">
         <v>2</v>
       </c>
-      <c r="AD14" s="238"/>
-      <c r="AE14" s="238"/>
+      <c r="AD14" s="232"/>
+      <c r="AE14" s="232"/>
       <c r="AF14" s="91">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3066,50 +3445,50 @@
       <c r="A15" s="81">
         <v>7</v>
       </c>
-      <c r="B15" s="209">
+      <c r="B15" s="203">
         <v>43958</v>
       </c>
-      <c r="C15" s="236" t="s">
+      <c r="C15" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238">
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232">
         <v>1</v>
       </c>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238">
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="232">
         <v>1</v>
       </c>
-      <c r="L15" s="240"/>
-      <c r="M15" s="240"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="241"/>
-      <c r="Q15" s="241"/>
-      <c r="R15" s="238"/>
-      <c r="S15" s="238">
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="232"/>
+      <c r="O15" s="232"/>
+      <c r="P15" s="235"/>
+      <c r="Q15" s="235"/>
+      <c r="R15" s="232"/>
+      <c r="S15" s="232">
         <v>3</v>
       </c>
-      <c r="T15" s="242"/>
-      <c r="U15" s="242"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="243"/>
-      <c r="Y15" s="243"/>
-      <c r="Z15" s="238"/>
-      <c r="AA15" s="238">
+      <c r="T15" s="236"/>
+      <c r="U15" s="236"/>
+      <c r="V15" s="232"/>
+      <c r="W15" s="232"/>
+      <c r="X15" s="237"/>
+      <c r="Y15" s="237"/>
+      <c r="Z15" s="232"/>
+      <c r="AA15" s="232">
         <v>1</v>
       </c>
-      <c r="AB15" s="244"/>
-      <c r="AC15" s="244">
+      <c r="AB15" s="238"/>
+      <c r="AC15" s="238">
         <v>1</v>
       </c>
-      <c r="AD15" s="238"/>
-      <c r="AE15" s="238"/>
+      <c r="AD15" s="232"/>
+      <c r="AE15" s="232"/>
       <c r="AF15" s="91">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3121,45 +3500,45 @@
       <c r="AH15" s="95"/>
     </row>
     <row r="16" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="177">
+      <c r="A16" s="176">
         <v>8</v>
       </c>
-      <c r="B16" s="209">
+      <c r="B16" s="203">
         <v>43958</v>
       </c>
-      <c r="C16" s="210" t="s">
+      <c r="C16" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
       <c r="F16" s="91"/>
       <c r="G16" s="91"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
       <c r="J16" s="91"/>
       <c r="K16" s="91">
         <v>1</v>
       </c>
-      <c r="L16" s="213"/>
-      <c r="M16" s="213"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
       <c r="N16" s="91"/>
       <c r="O16" s="91">
         <v>1</v>
       </c>
-      <c r="P16" s="214"/>
-      <c r="Q16" s="214"/>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="208"/>
       <c r="R16" s="91"/>
       <c r="S16" s="91"/>
-      <c r="T16" s="215"/>
-      <c r="U16" s="215"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="209"/>
       <c r="V16" s="91"/>
       <c r="W16" s="91"/>
-      <c r="X16" s="216"/>
-      <c r="Y16" s="216"/>
+      <c r="X16" s="210"/>
+      <c r="Y16" s="210"/>
       <c r="Z16" s="91"/>
       <c r="AA16" s="91"/>
-      <c r="AB16" s="217"/>
-      <c r="AC16" s="217">
+      <c r="AB16" s="211"/>
+      <c r="AC16" s="211">
         <v>1</v>
       </c>
       <c r="AD16" s="91"/>
@@ -3178,38 +3557,38 @@
       <c r="A17" s="81">
         <v>9</v>
       </c>
-      <c r="B17" s="209">
+      <c r="B17" s="203">
         <v>43958</v>
       </c>
-      <c r="C17" s="210" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
+      <c r="C17" s="204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
       <c r="N17" s="91"/>
       <c r="O17" s="91"/>
-      <c r="P17" s="214"/>
-      <c r="Q17" s="214"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="208"/>
       <c r="R17" s="91"/>
       <c r="S17" s="91"/>
-      <c r="T17" s="215"/>
-      <c r="U17" s="215"/>
+      <c r="T17" s="209"/>
+      <c r="U17" s="209"/>
       <c r="V17" s="91"/>
       <c r="W17" s="91"/>
-      <c r="X17" s="216"/>
-      <c r="Y17" s="216"/>
+      <c r="X17" s="210"/>
+      <c r="Y17" s="210"/>
       <c r="Z17" s="91"/>
       <c r="AA17" s="91"/>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217">
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="211">
         <v>2</v>
       </c>
       <c r="AD17" s="91"/>
@@ -3225,43 +3604,43 @@
       <c r="AH17" s="95"/>
     </row>
     <row r="18" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="177">
+      <c r="A18" s="176">
         <v>10</v>
       </c>
-      <c r="B18" s="209">
+      <c r="B18" s="203">
         <v>43959</v>
       </c>
-      <c r="C18" s="210" t="s">
+      <c r="C18" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
       <c r="F18" s="91"/>
       <c r="G18" s="91"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
       <c r="J18" s="91"/>
       <c r="K18" s="91"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="207"/>
       <c r="N18" s="91"/>
       <c r="O18" s="91"/>
-      <c r="P18" s="214"/>
-      <c r="Q18" s="214"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="208"/>
       <c r="R18" s="91"/>
       <c r="S18" s="91">
         <v>1</v>
       </c>
-      <c r="T18" s="215"/>
-      <c r="U18" s="215"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="209"/>
       <c r="V18" s="91"/>
       <c r="W18" s="91"/>
-      <c r="X18" s="216"/>
-      <c r="Y18" s="216"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
       <c r="Z18" s="91"/>
       <c r="AA18" s="91"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
+      <c r="AB18" s="211"/>
+      <c r="AC18" s="211"/>
       <c r="AD18" s="91"/>
       <c r="AE18" s="91"/>
       <c r="AF18" s="91">
@@ -3278,44 +3657,44 @@
       <c r="A19" s="81">
         <v>11</v>
       </c>
-      <c r="B19" s="209">
+      <c r="B19" s="203">
         <v>43959</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
       <c r="F19" s="91"/>
       <c r="G19" s="91">
         <v>3</v>
       </c>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
       <c r="J19" s="91"/>
       <c r="K19" s="91"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
       <c r="N19" s="91"/>
       <c r="O19" s="91"/>
-      <c r="P19" s="214"/>
-      <c r="Q19" s="214"/>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="208"/>
       <c r="R19" s="91"/>
       <c r="S19" s="91">
         <v>1</v>
       </c>
-      <c r="T19" s="215"/>
-      <c r="U19" s="215"/>
+      <c r="T19" s="209"/>
+      <c r="U19" s="209"/>
       <c r="V19" s="91"/>
       <c r="W19" s="91"/>
-      <c r="X19" s="216"/>
-      <c r="Y19" s="216">
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210">
         <v>1</v>
       </c>
       <c r="Z19" s="91"/>
       <c r="AA19" s="91"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
+      <c r="AB19" s="211"/>
+      <c r="AC19" s="211"/>
       <c r="AD19" s="91"/>
       <c r="AE19" s="91"/>
       <c r="AF19" s="91">
@@ -3329,45 +3708,45 @@
       <c r="AH19" s="95"/>
     </row>
     <row r="20" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="177">
+      <c r="A20" s="176">
         <v>12</v>
       </c>
-      <c r="B20" s="209">
+      <c r="B20" s="203">
         <v>43960</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="C20" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
       <c r="F20" s="91"/>
       <c r="G20" s="91">
         <v>2</v>
       </c>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
       <c r="J20" s="91"/>
       <c r="K20" s="91">
         <v>5</v>
       </c>
-      <c r="L20" s="213"/>
-      <c r="M20" s="213"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
       <c r="N20" s="91"/>
       <c r="O20" s="91"/>
-      <c r="P20" s="214"/>
-      <c r="Q20" s="214"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="208"/>
       <c r="R20" s="91"/>
       <c r="S20" s="91"/>
-      <c r="T20" s="215"/>
-      <c r="U20" s="215"/>
+      <c r="T20" s="209"/>
+      <c r="U20" s="209"/>
       <c r="V20" s="91"/>
       <c r="W20" s="91"/>
-      <c r="X20" s="216"/>
-      <c r="Y20" s="216"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
       <c r="Z20" s="91"/>
       <c r="AA20" s="91"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
+      <c r="AB20" s="211"/>
+      <c r="AC20" s="211"/>
       <c r="AD20" s="91"/>
       <c r="AE20" s="91"/>
       <c r="AF20" s="91">
@@ -3384,46 +3763,46 @@
       <c r="A21" s="81">
         <v>13</v>
       </c>
-      <c r="B21" s="209">
+      <c r="B21" s="203">
         <v>43960</v>
       </c>
-      <c r="C21" s="210" t="s">
+      <c r="C21" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
       <c r="F21" s="91">
         <v>5</v>
       </c>
       <c r="G21" s="91"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
       <c r="J21" s="91">
         <v>5</v>
       </c>
       <c r="K21" s="91"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
       <c r="N21" s="91"/>
       <c r="O21" s="91"/>
-      <c r="P21" s="214"/>
-      <c r="Q21" s="214"/>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="208"/>
       <c r="R21" s="91">
         <v>1</v>
       </c>
       <c r="S21" s="91"/>
-      <c r="T21" s="215"/>
-      <c r="U21" s="215"/>
+      <c r="T21" s="209"/>
+      <c r="U21" s="209"/>
       <c r="V21" s="91"/>
       <c r="W21" s="91"/>
-      <c r="X21" s="216">
+      <c r="X21" s="210">
         <v>1</v>
       </c>
-      <c r="Y21" s="216"/>
+      <c r="Y21" s="210"/>
       <c r="Z21" s="91"/>
       <c r="AA21" s="91"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="211"/>
       <c r="AD21" s="91"/>
       <c r="AE21" s="91"/>
       <c r="AF21" s="91">
@@ -3437,45 +3816,45 @@
       <c r="AH21" s="95"/>
     </row>
     <row r="22" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="177">
+      <c r="A22" s="176">
         <v>14</v>
       </c>
-      <c r="B22" s="209">
+      <c r="B22" s="203">
         <v>43962</v>
       </c>
-      <c r="C22" s="210" t="s">
+      <c r="C22" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
       <c r="F22" s="91"/>
       <c r="G22" s="91">
         <v>24</v>
       </c>
-      <c r="H22" s="212"/>
-      <c r="I22" s="212"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
       <c r="J22" s="91"/>
       <c r="K22" s="91">
         <v>24</v>
       </c>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
+      <c r="L22" s="207"/>
+      <c r="M22" s="207"/>
       <c r="N22" s="91"/>
       <c r="O22" s="91"/>
-      <c r="P22" s="214"/>
-      <c r="Q22" s="214"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="208"/>
       <c r="R22" s="91"/>
       <c r="S22" s="91"/>
-      <c r="T22" s="215"/>
-      <c r="U22" s="215"/>
+      <c r="T22" s="209"/>
+      <c r="U22" s="209"/>
       <c r="V22" s="91"/>
       <c r="W22" s="91"/>
-      <c r="X22" s="216"/>
-      <c r="Y22" s="216"/>
+      <c r="X22" s="210"/>
+      <c r="Y22" s="210"/>
       <c r="Z22" s="91"/>
       <c r="AA22" s="91"/>
-      <c r="AB22" s="217"/>
-      <c r="AC22" s="217"/>
+      <c r="AB22" s="211"/>
+      <c r="AC22" s="211"/>
       <c r="AD22" s="91"/>
       <c r="AE22" s="91"/>
       <c r="AF22" s="91">
@@ -3492,42 +3871,42 @@
       <c r="A23" s="81">
         <v>15</v>
       </c>
-      <c r="B23" s="209">
+      <c r="B23" s="203">
         <v>43962</v>
       </c>
-      <c r="C23" s="210" t="s">
+      <c r="C23" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
       <c r="F23" s="91"/>
       <c r="G23" s="91">
         <v>1</v>
       </c>
-      <c r="H23" s="212"/>
-      <c r="I23" s="212"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
       <c r="J23" s="91"/>
       <c r="K23" s="91"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="213"/>
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
       <c r="N23" s="91"/>
       <c r="O23" s="91"/>
-      <c r="P23" s="214"/>
-      <c r="Q23" s="214"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="208"/>
       <c r="R23" s="91"/>
       <c r="S23" s="91"/>
-      <c r="T23" s="215"/>
-      <c r="U23" s="215"/>
+      <c r="T23" s="209"/>
+      <c r="U23" s="209"/>
       <c r="V23" s="91"/>
       <c r="W23" s="91"/>
-      <c r="X23" s="216"/>
-      <c r="Y23" s="216"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="210"/>
       <c r="Z23" s="91"/>
       <c r="AA23" s="91">
         <v>1</v>
       </c>
-      <c r="AB23" s="217"/>
-      <c r="AC23" s="217"/>
+      <c r="AB23" s="211"/>
+      <c r="AC23" s="211"/>
       <c r="AD23" s="91"/>
       <c r="AE23" s="91"/>
       <c r="AF23" s="91">
@@ -3541,43 +3920,43 @@
       <c r="AH23" s="95"/>
     </row>
     <row r="24" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="177">
+      <c r="A24" s="176">
         <v>16</v>
       </c>
-      <c r="B24" s="209">
+      <c r="B24" s="203">
         <v>43964</v>
       </c>
-      <c r="C24" s="210" t="s">
+      <c r="C24" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
       <c r="F24" s="91"/>
       <c r="G24" s="91"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
       <c r="J24" s="91"/>
       <c r="K24" s="91"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
       <c r="N24" s="91"/>
       <c r="O24" s="91">
         <v>1</v>
       </c>
-      <c r="P24" s="214"/>
-      <c r="Q24" s="214"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="208"/>
       <c r="R24" s="91"/>
       <c r="S24" s="91"/>
-      <c r="T24" s="215"/>
-      <c r="U24" s="215"/>
+      <c r="T24" s="209"/>
+      <c r="U24" s="209"/>
       <c r="V24" s="91"/>
       <c r="W24" s="91"/>
-      <c r="X24" s="216"/>
-      <c r="Y24" s="216"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
       <c r="Z24" s="91"/>
       <c r="AA24" s="91"/>
-      <c r="AB24" s="217"/>
-      <c r="AC24" s="217"/>
+      <c r="AB24" s="211"/>
+      <c r="AC24" s="211"/>
       <c r="AD24" s="91"/>
       <c r="AE24" s="91"/>
       <c r="AF24" s="91">
@@ -3594,46 +3973,46 @@
       <c r="A25" s="81">
         <v>17</v>
       </c>
-      <c r="B25" s="209">
+      <c r="B25" s="203">
         <v>43965</v>
       </c>
-      <c r="C25" s="210" t="s">
+      <c r="C25" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
       <c r="F25" s="91"/>
       <c r="G25" s="91">
         <v>12</v>
       </c>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
       <c r="J25" s="91"/>
       <c r="K25" s="91"/>
-      <c r="L25" s="213"/>
-      <c r="M25" s="213"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="207"/>
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
-      <c r="P25" s="214"/>
-      <c r="Q25" s="214"/>
+      <c r="P25" s="208"/>
+      <c r="Q25" s="208"/>
       <c r="R25" s="91"/>
       <c r="S25" s="91"/>
-      <c r="T25" s="215"/>
-      <c r="U25" s="215"/>
+      <c r="T25" s="209"/>
+      <c r="U25" s="209"/>
       <c r="V25" s="91"/>
       <c r="W25" s="91">
         <v>11</v>
       </c>
-      <c r="X25" s="216"/>
-      <c r="Y25" s="216">
+      <c r="X25" s="210"/>
+      <c r="Y25" s="210">
         <v>24</v>
       </c>
       <c r="Z25" s="91"/>
       <c r="AA25" s="91">
         <v>12</v>
       </c>
-      <c r="AB25" s="217"/>
-      <c r="AC25" s="217"/>
+      <c r="AB25" s="211"/>
+      <c r="AC25" s="211"/>
       <c r="AD25" s="91"/>
       <c r="AE25" s="91"/>
       <c r="AF25" s="91">
@@ -3647,47 +4026,47 @@
       <c r="AH25" s="95"/>
     </row>
     <row r="26" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="177">
+      <c r="A26" s="176">
         <v>18</v>
       </c>
-      <c r="B26" s="209">
+      <c r="B26" s="203">
         <v>43965</v>
       </c>
-      <c r="C26" s="210" t="s">
+      <c r="C26" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
       <c r="F26" s="91"/>
       <c r="G26" s="91">
         <v>2</v>
       </c>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
       <c r="J26" s="91"/>
       <c r="K26" s="91">
         <v>1</v>
       </c>
-      <c r="L26" s="213"/>
-      <c r="M26" s="213"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
       <c r="N26" s="91"/>
       <c r="O26" s="91"/>
-      <c r="P26" s="214"/>
-      <c r="Q26" s="214"/>
+      <c r="P26" s="208"/>
+      <c r="Q26" s="208"/>
       <c r="R26" s="91"/>
       <c r="S26" s="91"/>
-      <c r="T26" s="215"/>
-      <c r="U26" s="215"/>
+      <c r="T26" s="209"/>
+      <c r="U26" s="209"/>
       <c r="V26" s="91"/>
       <c r="W26" s="91"/>
-      <c r="X26" s="216"/>
-      <c r="Y26" s="216"/>
+      <c r="X26" s="210"/>
+      <c r="Y26" s="210"/>
       <c r="Z26" s="91"/>
       <c r="AA26" s="91">
         <v>1</v>
       </c>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
+      <c r="AB26" s="211"/>
+      <c r="AC26" s="211"/>
       <c r="AD26" s="91"/>
       <c r="AE26" s="91"/>
       <c r="AF26" s="91">
@@ -3704,42 +4083,42 @@
       <c r="A27" s="81">
         <v>19</v>
       </c>
-      <c r="B27" s="209">
+      <c r="B27" s="203">
         <v>43967</v>
       </c>
-      <c r="C27" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
+      <c r="C27" s="204" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
       <c r="F27" s="91"/>
       <c r="G27" s="91">
         <v>10</v>
       </c>
-      <c r="H27" s="212"/>
-      <c r="I27" s="212"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
       <c r="J27" s="91"/>
       <c r="K27" s="91">
         <v>16</v>
       </c>
-      <c r="L27" s="213"/>
-      <c r="M27" s="213"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="207"/>
       <c r="N27" s="91"/>
       <c r="O27" s="91"/>
-      <c r="P27" s="214"/>
-      <c r="Q27" s="214"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="208"/>
       <c r="R27" s="91"/>
       <c r="S27" s="91"/>
-      <c r="T27" s="215"/>
-      <c r="U27" s="215"/>
+      <c r="T27" s="209"/>
+      <c r="U27" s="209"/>
       <c r="V27" s="91"/>
       <c r="W27" s="91"/>
-      <c r="X27" s="216"/>
-      <c r="Y27" s="216"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
       <c r="Z27" s="91"/>
       <c r="AA27" s="91"/>
-      <c r="AB27" s="217"/>
-      <c r="AC27" s="217">
+      <c r="AB27" s="211"/>
+      <c r="AC27" s="211">
         <v>6</v>
       </c>
       <c r="AD27" s="91"/>
@@ -3755,43 +4134,43 @@
       <c r="AH27" s="95"/>
     </row>
     <row r="28" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="177">
+      <c r="A28" s="176">
         <v>20</v>
       </c>
-      <c r="B28" s="209">
+      <c r="B28" s="203">
         <v>43967</v>
       </c>
-      <c r="C28" s="210" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
+      <c r="C28" s="204" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
       <c r="F28" s="91"/>
       <c r="G28" s="91"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="212"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
       <c r="J28" s="91"/>
       <c r="K28" s="91"/>
-      <c r="L28" s="213"/>
-      <c r="M28" s="213"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207"/>
       <c r="N28" s="91"/>
       <c r="O28" s="91"/>
-      <c r="P28" s="214"/>
-      <c r="Q28" s="214"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="208"/>
       <c r="R28" s="91"/>
       <c r="S28" s="91">
         <v>12</v>
       </c>
-      <c r="T28" s="215"/>
-      <c r="U28" s="215"/>
+      <c r="T28" s="209"/>
+      <c r="U28" s="209"/>
       <c r="V28" s="91"/>
       <c r="W28" s="91"/>
-      <c r="X28" s="216"/>
-      <c r="Y28" s="216"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
       <c r="Z28" s="91"/>
       <c r="AA28" s="91"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="217"/>
+      <c r="AB28" s="211"/>
+      <c r="AC28" s="211"/>
       <c r="AD28" s="91"/>
       <c r="AE28" s="91"/>
       <c r="AF28" s="91">
@@ -3808,40 +4187,40 @@
       <c r="A29" s="81">
         <v>21</v>
       </c>
-      <c r="B29" s="209">
+      <c r="B29" s="203">
         <v>43967</v>
       </c>
-      <c r="C29" s="210" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="211"/>
-      <c r="E29" s="211"/>
+      <c r="C29" s="204" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
       <c r="F29" s="91"/>
       <c r="G29" s="91"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="212"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
       <c r="J29" s="91"/>
       <c r="K29" s="91"/>
-      <c r="L29" s="213"/>
-      <c r="M29" s="213"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="207"/>
       <c r="N29" s="91"/>
       <c r="O29" s="91"/>
-      <c r="P29" s="214"/>
-      <c r="Q29" s="214"/>
+      <c r="P29" s="208"/>
+      <c r="Q29" s="208"/>
       <c r="R29" s="91"/>
       <c r="S29" s="91">
         <v>1</v>
       </c>
-      <c r="T29" s="215"/>
-      <c r="U29" s="215"/>
+      <c r="T29" s="209"/>
+      <c r="U29" s="209"/>
       <c r="V29" s="91"/>
       <c r="W29" s="91"/>
-      <c r="X29" s="216"/>
-      <c r="Y29" s="216"/>
+      <c r="X29" s="210"/>
+      <c r="Y29" s="210"/>
       <c r="Z29" s="91"/>
       <c r="AA29" s="91"/>
-      <c r="AB29" s="217"/>
-      <c r="AC29" s="217"/>
+      <c r="AB29" s="211"/>
+      <c r="AC29" s="211"/>
       <c r="AD29" s="91"/>
       <c r="AE29" s="91"/>
       <c r="AF29" s="91">
@@ -3855,43 +4234,43 @@
       <c r="AH29" s="95"/>
     </row>
     <row r="30" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="177">
+      <c r="A30" s="176">
         <v>22</v>
       </c>
-      <c r="B30" s="209">
+      <c r="B30" s="203">
         <v>43969</v>
       </c>
-      <c r="C30" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211"/>
+      <c r="C30" s="204" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="91"/>
       <c r="G30" s="91">
         <v>12</v>
       </c>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
       <c r="J30" s="91"/>
       <c r="K30" s="91"/>
-      <c r="L30" s="213"/>
-      <c r="M30" s="213"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207"/>
       <c r="N30" s="91"/>
       <c r="O30" s="91"/>
-      <c r="P30" s="214"/>
-      <c r="Q30" s="214"/>
+      <c r="P30" s="208"/>
+      <c r="Q30" s="208"/>
       <c r="R30" s="91"/>
       <c r="S30" s="91"/>
-      <c r="T30" s="215"/>
-      <c r="U30" s="215"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="209"/>
       <c r="V30" s="91"/>
       <c r="W30" s="91"/>
-      <c r="X30" s="216"/>
-      <c r="Y30" s="216"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
       <c r="Z30" s="91"/>
       <c r="AA30" s="91"/>
-      <c r="AB30" s="217"/>
-      <c r="AC30" s="217"/>
+      <c r="AB30" s="211"/>
+      <c r="AC30" s="211"/>
       <c r="AD30" s="91"/>
       <c r="AE30" s="91"/>
       <c r="AF30" s="91">
@@ -3908,40 +4287,40 @@
       <c r="A31" s="81">
         <v>23</v>
       </c>
-      <c r="B31" s="209">
+      <c r="B31" s="203">
         <v>43971</v>
       </c>
-      <c r="C31" s="210" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="211"/>
-      <c r="E31" s="211"/>
+      <c r="C31" s="204" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
       <c r="F31" s="91"/>
       <c r="G31" s="91">
         <v>2</v>
       </c>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="206"/>
       <c r="J31" s="91"/>
       <c r="K31" s="91"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
-      <c r="P31" s="214"/>
-      <c r="Q31" s="214"/>
+      <c r="P31" s="208"/>
+      <c r="Q31" s="208"/>
       <c r="R31" s="91"/>
       <c r="S31" s="91"/>
-      <c r="T31" s="215"/>
-      <c r="U31" s="215"/>
+      <c r="T31" s="209"/>
+      <c r="U31" s="209"/>
       <c r="V31" s="91"/>
       <c r="W31" s="91"/>
-      <c r="X31" s="216"/>
-      <c r="Y31" s="216"/>
+      <c r="X31" s="210"/>
+      <c r="Y31" s="210"/>
       <c r="Z31" s="91"/>
       <c r="AA31" s="91"/>
-      <c r="AB31" s="217"/>
-      <c r="AC31" s="217"/>
+      <c r="AB31" s="211"/>
+      <c r="AC31" s="211"/>
       <c r="AD31" s="91"/>
       <c r="AE31" s="91"/>
       <c r="AF31" s="91">
@@ -3955,45 +4334,45 @@
       <c r="AH31" s="95"/>
     </row>
     <row r="32" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="177">
+      <c r="A32" s="176">
         <v>24</v>
       </c>
-      <c r="B32" s="209">
+      <c r="B32" s="203">
         <v>43969</v>
       </c>
-      <c r="C32" s="210" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="211"/>
-      <c r="E32" s="211">
+      <c r="C32" s="204" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205">
         <v>2</v>
       </c>
       <c r="F32" s="91"/>
       <c r="G32" s="91"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="212"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="206"/>
       <c r="J32" s="91"/>
       <c r="K32" s="91"/>
-      <c r="L32" s="213"/>
-      <c r="M32" s="213"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="207"/>
       <c r="N32" s="91"/>
       <c r="O32" s="91">
         <v>1</v>
       </c>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214"/>
+      <c r="P32" s="208"/>
+      <c r="Q32" s="208"/>
       <c r="R32" s="91"/>
       <c r="S32" s="91"/>
-      <c r="T32" s="215"/>
-      <c r="U32" s="215"/>
+      <c r="T32" s="209"/>
+      <c r="U32" s="209"/>
       <c r="V32" s="91"/>
       <c r="W32" s="91"/>
-      <c r="X32" s="216"/>
-      <c r="Y32" s="216"/>
+      <c r="X32" s="210"/>
+      <c r="Y32" s="210"/>
       <c r="Z32" s="91"/>
       <c r="AA32" s="91"/>
-      <c r="AB32" s="217"/>
-      <c r="AC32" s="217"/>
+      <c r="AB32" s="211"/>
+      <c r="AC32" s="211"/>
       <c r="AD32" s="91"/>
       <c r="AE32" s="91"/>
       <c r="AF32" s="91">
@@ -4010,99 +4389,99 @@
       <c r="A33" s="81">
         <v>25</v>
       </c>
-      <c r="B33" s="209">
+      <c r="B33" s="203">
         <v>43969</v>
       </c>
-      <c r="C33" s="210" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="211"/>
-      <c r="E33" s="211"/>
+      <c r="C33" s="204" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
       <c r="F33" s="91"/>
       <c r="G33" s="91"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
       <c r="J33" s="91"/>
       <c r="K33" s="91"/>
-      <c r="L33" s="213"/>
-      <c r="M33" s="213"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
       <c r="N33" s="91"/>
       <c r="O33" s="91"/>
-      <c r="P33" s="214"/>
-      <c r="Q33" s="214"/>
+      <c r="P33" s="208"/>
+      <c r="Q33" s="208"/>
       <c r="R33" s="91"/>
       <c r="S33" s="91"/>
-      <c r="T33" s="215"/>
-      <c r="U33" s="215"/>
+      <c r="T33" s="209"/>
+      <c r="U33" s="209"/>
       <c r="V33" s="91"/>
       <c r="W33" s="91"/>
-      <c r="X33" s="216"/>
-      <c r="Y33" s="216"/>
+      <c r="X33" s="210"/>
+      <c r="Y33" s="210"/>
       <c r="Z33" s="91"/>
       <c r="AA33" s="91">
         <v>5</v>
       </c>
-      <c r="AB33" s="217"/>
-      <c r="AC33" s="217"/>
+      <c r="AB33" s="211"/>
+      <c r="AC33" s="211"/>
       <c r="AD33" s="91"/>
       <c r="AE33" s="91"/>
-      <c r="AF33" s="177">
+      <c r="AF33" s="176">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AG33" s="177">
+      <c r="AG33" s="176">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH33" s="95"/>
     </row>
     <row r="34" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="177">
+      <c r="A34" s="176">
         <v>26</v>
       </c>
-      <c r="B34" s="209">
+      <c r="B34" s="203">
         <v>43969</v>
       </c>
-      <c r="C34" s="210" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
+      <c r="C34" s="204" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
       <c r="F34" s="91"/>
       <c r="G34" s="91"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="212"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
       <c r="J34" s="91"/>
       <c r="K34" s="91">
         <v>1</v>
       </c>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
+      <c r="L34" s="207"/>
+      <c r="M34" s="207"/>
       <c r="N34" s="91"/>
       <c r="O34" s="91">
         <v>1</v>
       </c>
-      <c r="P34" s="214"/>
-      <c r="Q34" s="214"/>
+      <c r="P34" s="208"/>
+      <c r="Q34" s="208"/>
       <c r="R34" s="91"/>
       <c r="S34" s="91"/>
-      <c r="T34" s="215"/>
-      <c r="U34" s="215"/>
+      <c r="T34" s="209"/>
+      <c r="U34" s="209"/>
       <c r="V34" s="91"/>
       <c r="W34" s="91"/>
-      <c r="X34" s="216"/>
-      <c r="Y34" s="216"/>
+      <c r="X34" s="210"/>
+      <c r="Y34" s="210"/>
       <c r="Z34" s="91"/>
       <c r="AA34" s="91"/>
-      <c r="AB34" s="217"/>
-      <c r="AC34" s="217"/>
+      <c r="AB34" s="211"/>
+      <c r="AC34" s="211"/>
       <c r="AD34" s="91"/>
       <c r="AE34" s="91"/>
-      <c r="AF34" s="177">
+      <c r="AF34" s="176">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AG34" s="177">
+      <c r="AG34" s="176">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4112,40 +4491,40 @@
       <c r="A35" s="81">
         <v>27</v>
       </c>
-      <c r="B35" s="209">
+      <c r="B35" s="203">
         <v>43974</v>
       </c>
-      <c r="C35" s="210" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
+      <c r="C35" s="204" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
       <c r="F35" s="91"/>
       <c r="G35" s="91"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
       <c r="J35" s="91"/>
       <c r="K35" s="91"/>
-      <c r="L35" s="213"/>
-      <c r="M35" s="213"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="207"/>
       <c r="N35" s="91"/>
       <c r="O35" s="91">
         <v>3</v>
       </c>
-      <c r="P35" s="214"/>
-      <c r="Q35" s="214"/>
+      <c r="P35" s="208"/>
+      <c r="Q35" s="208"/>
       <c r="R35" s="91"/>
       <c r="S35" s="91"/>
-      <c r="T35" s="215"/>
-      <c r="U35" s="215"/>
+      <c r="T35" s="209"/>
+      <c r="U35" s="209"/>
       <c r="V35" s="91"/>
       <c r="W35" s="91"/>
-      <c r="X35" s="216"/>
-      <c r="Y35" s="216"/>
+      <c r="X35" s="210"/>
+      <c r="Y35" s="210"/>
       <c r="Z35" s="91"/>
       <c r="AA35" s="91"/>
-      <c r="AB35" s="217"/>
-      <c r="AC35" s="217"/>
+      <c r="AB35" s="211"/>
+      <c r="AC35" s="211"/>
       <c r="AD35" s="91"/>
       <c r="AE35" s="91"/>
       <c r="AF35" s="81">
@@ -4159,45 +4538,45 @@
       <c r="AH35" s="21"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="251">
+      <c r="A36" s="245">
         <v>28</v>
       </c>
-      <c r="B36" s="209">
+      <c r="B36" s="203">
         <v>43974</v>
       </c>
-      <c r="C36" s="210" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
+      <c r="C36" s="204" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205"/>
       <c r="F36" s="91"/>
       <c r="G36" s="91"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
       <c r="J36" s="91"/>
       <c r="K36" s="91"/>
-      <c r="L36" s="213"/>
-      <c r="M36" s="213"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="207"/>
       <c r="N36" s="91"/>
       <c r="O36" s="91">
         <v>6</v>
       </c>
-      <c r="P36" s="214"/>
-      <c r="Q36" s="214"/>
+      <c r="P36" s="208"/>
+      <c r="Q36" s="208"/>
       <c r="R36" s="91"/>
       <c r="S36" s="91">
         <v>6</v>
       </c>
-      <c r="T36" s="215"/>
-      <c r="U36" s="215"/>
+      <c r="T36" s="209"/>
+      <c r="U36" s="209"/>
       <c r="V36" s="91"/>
       <c r="W36" s="91"/>
-      <c r="X36" s="216"/>
-      <c r="Y36" s="216"/>
+      <c r="X36" s="210"/>
+      <c r="Y36" s="210"/>
       <c r="Z36" s="91"/>
       <c r="AA36" s="91"/>
-      <c r="AB36" s="217"/>
-      <c r="AC36" s="217"/>
+      <c r="AB36" s="211"/>
+      <c r="AC36" s="211"/>
       <c r="AD36" s="91"/>
       <c r="AE36" s="91"/>
       <c r="AF36" s="81">
@@ -4214,42 +4593,42 @@
       <c r="A37" s="81">
         <v>29</v>
       </c>
-      <c r="B37" s="209">
+      <c r="B37" s="203">
         <v>43976</v>
       </c>
-      <c r="C37" s="210" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="211"/>
-      <c r="E37" s="211">
+      <c r="C37" s="204" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205">
         <v>21</v>
       </c>
       <c r="F37" s="91"/>
       <c r="G37" s="91"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="212"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
       <c r="J37" s="91"/>
       <c r="K37" s="91"/>
-      <c r="L37" s="213"/>
-      <c r="M37" s="213"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
       <c r="N37" s="91"/>
       <c r="O37" s="91"/>
-      <c r="P37" s="214"/>
-      <c r="Q37" s="214"/>
+      <c r="P37" s="208"/>
+      <c r="Q37" s="208"/>
       <c r="R37" s="91"/>
       <c r="S37" s="91"/>
-      <c r="T37" s="215"/>
-      <c r="U37" s="215"/>
+      <c r="T37" s="209"/>
+      <c r="U37" s="209"/>
       <c r="V37" s="91"/>
       <c r="W37" s="91"/>
-      <c r="X37" s="216"/>
-      <c r="Y37" s="216">
+      <c r="X37" s="210"/>
+      <c r="Y37" s="210">
         <v>12</v>
       </c>
       <c r="Z37" s="91"/>
       <c r="AA37" s="91"/>
-      <c r="AB37" s="217"/>
-      <c r="AC37" s="217"/>
+      <c r="AB37" s="211"/>
+      <c r="AC37" s="211"/>
       <c r="AD37" s="91"/>
       <c r="AE37" s="91"/>
       <c r="AF37" s="81">
@@ -4263,45 +4642,45 @@
       <c r="AH37" s="21"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="177">
+      <c r="A38" s="176">
         <v>30</v>
       </c>
-      <c r="B38" s="209">
+      <c r="B38" s="203">
         <v>43981</v>
       </c>
-      <c r="C38" s="210" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="211"/>
-      <c r="E38" s="211"/>
+      <c r="C38" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
       <c r="F38" s="91"/>
       <c r="G38" s="91"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
       <c r="J38" s="91"/>
       <c r="K38" s="91"/>
-      <c r="L38" s="213"/>
-      <c r="M38" s="213"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
       <c r="N38" s="91"/>
       <c r="O38" s="91"/>
-      <c r="P38" s="214"/>
-      <c r="Q38" s="214"/>
+      <c r="P38" s="208"/>
+      <c r="Q38" s="208"/>
       <c r="R38" s="91"/>
       <c r="S38" s="91"/>
-      <c r="T38" s="215"/>
-      <c r="U38" s="215"/>
+      <c r="T38" s="209"/>
+      <c r="U38" s="209"/>
       <c r="V38" s="91">
         <v>12</v>
       </c>
       <c r="W38" s="91"/>
-      <c r="X38" s="216">
+      <c r="X38" s="210">
         <v>24</v>
       </c>
-      <c r="Y38" s="216"/>
+      <c r="Y38" s="210"/>
       <c r="Z38" s="91"/>
       <c r="AA38" s="91"/>
-      <c r="AB38" s="217"/>
-      <c r="AC38" s="217"/>
+      <c r="AB38" s="211"/>
+      <c r="AC38" s="211"/>
       <c r="AD38" s="91"/>
       <c r="AE38" s="91"/>
       <c r="AF38" s="81">
@@ -4318,40 +4697,40 @@
       <c r="A39" s="81">
         <v>31</v>
       </c>
-      <c r="B39" s="209">
+      <c r="B39" s="203">
         <v>43976</v>
       </c>
-      <c r="C39" s="210" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="211">
+      <c r="C39" s="204" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="205">
         <v>1</v>
       </c>
-      <c r="E39" s="211"/>
+      <c r="E39" s="205"/>
       <c r="F39" s="91"/>
       <c r="G39" s="91"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
       <c r="J39" s="91"/>
       <c r="K39" s="91"/>
-      <c r="L39" s="213"/>
-      <c r="M39" s="213"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207"/>
       <c r="N39" s="91"/>
       <c r="O39" s="91"/>
-      <c r="P39" s="214"/>
-      <c r="Q39" s="214"/>
+      <c r="P39" s="208"/>
+      <c r="Q39" s="208"/>
       <c r="R39" s="91"/>
       <c r="S39" s="91"/>
-      <c r="T39" s="215"/>
-      <c r="U39" s="215"/>
+      <c r="T39" s="209"/>
+      <c r="U39" s="209"/>
       <c r="V39" s="91"/>
       <c r="W39" s="91"/>
-      <c r="X39" s="216"/>
-      <c r="Y39" s="216"/>
+      <c r="X39" s="210"/>
+      <c r="Y39" s="210"/>
       <c r="Z39" s="91"/>
       <c r="AA39" s="91"/>
-      <c r="AB39" s="217"/>
-      <c r="AC39" s="217"/>
+      <c r="AB39" s="211"/>
+      <c r="AC39" s="211"/>
       <c r="AD39" s="91"/>
       <c r="AE39" s="91"/>
       <c r="AF39" s="81">
@@ -4365,47 +4744,47 @@
       <c r="AH39" s="21"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="177">
+      <c r="A40" s="176">
         <v>32</v>
       </c>
-      <c r="B40" s="245">
+      <c r="B40" s="239">
         <v>43976</v>
       </c>
-      <c r="C40" s="236" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="237"/>
-      <c r="E40" s="237"/>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="239"/>
-      <c r="I40" s="239"/>
-      <c r="J40" s="238"/>
-      <c r="K40" s="238">
+      <c r="C40" s="230" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="231"/>
+      <c r="E40" s="231"/>
+      <c r="F40" s="232"/>
+      <c r="G40" s="232"/>
+      <c r="H40" s="233"/>
+      <c r="I40" s="233"/>
+      <c r="J40" s="232"/>
+      <c r="K40" s="232">
         <v>24</v>
       </c>
-      <c r="L40" s="240"/>
-      <c r="M40" s="240"/>
-      <c r="N40" s="238"/>
-      <c r="O40" s="238">
+      <c r="L40" s="234"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="232"/>
+      <c r="O40" s="232">
         <v>18</v>
       </c>
-      <c r="P40" s="241"/>
-      <c r="Q40" s="241"/>
-      <c r="R40" s="238"/>
-      <c r="S40" s="238"/>
-      <c r="T40" s="242"/>
-      <c r="U40" s="242"/>
-      <c r="V40" s="238"/>
-      <c r="W40" s="238"/>
-      <c r="X40" s="243"/>
-      <c r="Y40" s="243"/>
-      <c r="Z40" s="238"/>
-      <c r="AA40" s="238"/>
-      <c r="AB40" s="244"/>
-      <c r="AC40" s="244"/>
-      <c r="AD40" s="238"/>
-      <c r="AE40" s="238"/>
+      <c r="P40" s="235"/>
+      <c r="Q40" s="235"/>
+      <c r="R40" s="232"/>
+      <c r="S40" s="232"/>
+      <c r="T40" s="236"/>
+      <c r="U40" s="236"/>
+      <c r="V40" s="232"/>
+      <c r="W40" s="232"/>
+      <c r="X40" s="237"/>
+      <c r="Y40" s="237"/>
+      <c r="Z40" s="232"/>
+      <c r="AA40" s="232"/>
+      <c r="AB40" s="238"/>
+      <c r="AC40" s="238"/>
+      <c r="AD40" s="232"/>
+      <c r="AE40" s="232"/>
       <c r="AF40" s="81">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4422,42 +4801,42 @@
       <c r="A41" s="81">
         <v>33</v>
       </c>
-      <c r="B41" s="245">
+      <c r="B41" s="239">
         <v>43980</v>
       </c>
-      <c r="C41" s="236" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="237"/>
-      <c r="E41" s="237"/>
-      <c r="F41" s="238"/>
-      <c r="G41" s="238"/>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="238"/>
-      <c r="K41" s="238"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="240"/>
-      <c r="N41" s="238"/>
-      <c r="O41" s="238"/>
-      <c r="P41" s="241"/>
-      <c r="Q41" s="241"/>
-      <c r="R41" s="238"/>
-      <c r="S41" s="238">
+      <c r="C41" s="230" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="231"/>
+      <c r="E41" s="231"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="233"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="232"/>
+      <c r="K41" s="232"/>
+      <c r="L41" s="234"/>
+      <c r="M41" s="234"/>
+      <c r="N41" s="232"/>
+      <c r="O41" s="232"/>
+      <c r="P41" s="235"/>
+      <c r="Q41" s="235"/>
+      <c r="R41" s="232"/>
+      <c r="S41" s="232">
         <v>24</v>
       </c>
-      <c r="T41" s="242"/>
-      <c r="U41" s="242"/>
-      <c r="V41" s="238"/>
-      <c r="W41" s="238"/>
-      <c r="X41" s="243"/>
-      <c r="Y41" s="243"/>
-      <c r="Z41" s="238"/>
-      <c r="AA41" s="238"/>
-      <c r="AB41" s="244"/>
-      <c r="AC41" s="244"/>
-      <c r="AD41" s="238"/>
-      <c r="AE41" s="238"/>
+      <c r="T41" s="236"/>
+      <c r="U41" s="236"/>
+      <c r="V41" s="232"/>
+      <c r="W41" s="232"/>
+      <c r="X41" s="237"/>
+      <c r="Y41" s="237"/>
+      <c r="Z41" s="232"/>
+      <c r="AA41" s="232"/>
+      <c r="AB41" s="238"/>
+      <c r="AC41" s="238"/>
+      <c r="AD41" s="232"/>
+      <c r="AE41" s="232"/>
       <c r="AF41" s="81">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4471,602 +4850,256 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="177">
+      <c r="A42" s="176">
         <v>34</v>
       </c>
-      <c r="B42" s="245"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="237"/>
-      <c r="E42" s="237"/>
-      <c r="F42" s="238"/>
-      <c r="G42" s="238"/>
-      <c r="H42" s="239"/>
-      <c r="I42" s="239"/>
-      <c r="J42" s="238"/>
-      <c r="K42" s="238"/>
-      <c r="L42" s="240"/>
-      <c r="M42" s="240"/>
-      <c r="N42" s="238"/>
-      <c r="O42" s="238"/>
-      <c r="P42" s="241"/>
-      <c r="Q42" s="241"/>
-      <c r="R42" s="238"/>
-      <c r="S42" s="238"/>
-      <c r="T42" s="242"/>
-      <c r="U42" s="242"/>
-      <c r="V42" s="238"/>
-      <c r="W42" s="238"/>
-      <c r="X42" s="243"/>
-      <c r="Y42" s="243"/>
-      <c r="Z42" s="238"/>
-      <c r="AA42" s="238"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="238"/>
-      <c r="AE42" s="238"/>
-      <c r="AF42" s="246">
+      <c r="B42" s="239">
+        <v>43982</v>
+      </c>
+      <c r="C42" s="230" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="231"/>
+      <c r="E42" s="231"/>
+      <c r="F42" s="232"/>
+      <c r="G42" s="232"/>
+      <c r="H42" s="233"/>
+      <c r="I42" s="233"/>
+      <c r="J42" s="232"/>
+      <c r="K42" s="232"/>
+      <c r="L42" s="234"/>
+      <c r="M42" s="234"/>
+      <c r="N42" s="232"/>
+      <c r="O42" s="232"/>
+      <c r="P42" s="235"/>
+      <c r="Q42" s="235"/>
+      <c r="R42" s="232"/>
+      <c r="S42" s="232"/>
+      <c r="T42" s="236"/>
+      <c r="U42" s="236"/>
+      <c r="V42" s="232"/>
+      <c r="W42" s="232"/>
+      <c r="X42" s="237"/>
+      <c r="Y42" s="237"/>
+      <c r="Z42" s="232"/>
+      <c r="AA42" s="232">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="238"/>
+      <c r="AC42" s="238"/>
+      <c r="AD42" s="232"/>
+      <c r="AE42" s="232"/>
+      <c r="AF42" s="240">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="246">
+        <v>2</v>
+      </c>
+      <c r="AG42" s="240">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
-        <v>35</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="22"/>
+    <row r="43" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="60"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="60"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
-        <v>36</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A44" s="63"/>
+      <c r="B44" s="282"/>
+      <c r="C44" s="283"/>
+      <c r="D44" s="284">
+        <f>SUM(D9:D42)-SUM(E9:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="284"/>
+      <c r="F44" s="261">
+        <f>SUM(F9:F42)-SUM(G9:G42)</f>
+        <v>19</v>
+      </c>
+      <c r="G44" s="261"/>
+      <c r="H44" s="260">
+        <f>SUM(H9:H42)-SUM(I9:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="260"/>
+      <c r="J44" s="261">
+        <f>SUM(J9:J42)-SUM(K9:K42)</f>
+        <v>26</v>
+      </c>
+      <c r="K44" s="261"/>
+      <c r="L44" s="281">
+        <f>SUM(L9:L42)-SUM(M9:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="281"/>
+      <c r="N44" s="261">
+        <f>SUM(N9:N42)-SUM(O9:O42)</f>
+        <v>52</v>
+      </c>
+      <c r="O44" s="261"/>
+      <c r="P44" s="274">
+        <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="274"/>
+      <c r="R44" s="261">
+        <f>SUM(R9:R42)-SUM(S9:S42)</f>
+        <v>74</v>
+      </c>
+      <c r="S44" s="261"/>
+      <c r="T44" s="275">
+        <f>SUM(T9:T42)-SUM(U9:U42)</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="275"/>
+      <c r="V44" s="261">
+        <f>SUM(V9:V42)-SUM(W9:W42)</f>
+        <v>12</v>
+      </c>
+      <c r="W44" s="261"/>
+      <c r="X44" s="276">
+        <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
+        <v>71</v>
+      </c>
+      <c r="Y44" s="276"/>
+      <c r="Z44" s="261">
+        <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
+        <v>61</v>
+      </c>
+      <c r="AA44" s="261"/>
+      <c r="AB44" s="277">
+        <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
+        <v>57</v>
+      </c>
+      <c r="AC44" s="277"/>
+      <c r="AD44" s="261">
+        <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="261"/>
+      <c r="AF44" s="48"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="21"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
-        <v>37</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="21"/>
+        <v>372</v>
+      </c>
+      <c r="AH44" s="64"/>
+    </row>
+    <row r="45" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="278" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="279"/>
+      <c r="C45" s="279"/>
+      <c r="D45" s="279"/>
+      <c r="E45" s="279"/>
+      <c r="F45" s="279"/>
+      <c r="G45" s="279"/>
+      <c r="H45" s="279"/>
+      <c r="I45" s="279"/>
+      <c r="J45" s="279"/>
+      <c r="K45" s="279"/>
+      <c r="L45" s="279"/>
+      <c r="M45" s="279"/>
+      <c r="N45" s="279"/>
+      <c r="O45" s="279"/>
+      <c r="P45" s="279"/>
+      <c r="Q45" s="279"/>
+      <c r="R45" s="279"/>
+      <c r="S45" s="279"/>
+      <c r="T45" s="279"/>
+      <c r="U45" s="279"/>
+      <c r="V45" s="279"/>
+      <c r="W45" s="279"/>
+      <c r="X45" s="279"/>
+      <c r="Y45" s="279"/>
+      <c r="Z45" s="279"/>
+      <c r="AA45" s="279"/>
+      <c r="AB45" s="279"/>
+      <c r="AC45" s="279"/>
+      <c r="AD45" s="279"/>
+      <c r="AE45" s="280"/>
+      <c r="AF45" s="65">
+        <f>SUM(AF9:AF42)</f>
+        <v>341</v>
+      </c>
+      <c r="AG45" s="65">
+        <f>SUM(AG9:AG42)</f>
+        <v>713</v>
+      </c>
+      <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
-        <v>38</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="21"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>39</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="21"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>40</v>
-      </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="40"/>
-      <c r="AF48" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="20">
-        <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="21"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>41</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="20">
-        <f t="shared" ref="AG49:AG50" si="2">D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="21"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
-        <v>42</v>
-      </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="50"/>
-      <c r="AB50" s="57"/>
-      <c r="AC50" s="57"/>
-      <c r="AD50" s="50"/>
-      <c r="AE50" s="50"/>
-      <c r="AF50" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="50"/>
-    </row>
-    <row r="51" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="60"/>
-      <c r="V51" s="60"/>
-      <c r="W51" s="60"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="60"/>
-      <c r="AA51" s="60"/>
-      <c r="AB51" s="60"/>
-      <c r="AC51" s="60"/>
-      <c r="AD51" s="60"/>
-      <c r="AE51" s="60"/>
-      <c r="AF51" s="60"/>
-      <c r="AG51" s="61"/>
-      <c r="AH51" s="60"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="277"/>
-      <c r="C52" s="278"/>
-      <c r="D52" s="279">
-        <f>SUM(D9:D50)-SUM(E9:E50)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="279"/>
-      <c r="F52" s="256">
-        <f>SUM(F9:F50)-SUM(G9:G50)</f>
-        <v>19</v>
-      </c>
-      <c r="G52" s="256"/>
-      <c r="H52" s="255">
-        <f>SUM(H9:H50)-SUM(I9:I50)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="255"/>
-      <c r="J52" s="256">
-        <f>SUM(J9:J50)-SUM(K9:K50)</f>
+      <c r="A46" s="278" t="s">
         <v>26</v>
       </c>
-      <c r="K52" s="256"/>
-      <c r="L52" s="276">
-        <f>SUM(L9:L50)-SUM(M9:M50)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="276"/>
-      <c r="N52" s="256">
-        <f>SUM(N9:N50)-SUM(O9:O50)</f>
-        <v>52</v>
-      </c>
-      <c r="O52" s="256"/>
-      <c r="P52" s="269">
-        <f>SUM(P9:P50)-SUM(Q9:Q50)</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="269"/>
-      <c r="R52" s="256">
-        <f>SUM(R9:R50)-SUM(S9:S50)</f>
-        <v>74</v>
-      </c>
-      <c r="S52" s="256"/>
-      <c r="T52" s="270">
-        <f>SUM(T9:T50)-SUM(U9:U50)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="270"/>
-      <c r="V52" s="256">
-        <f>SUM(V9:V50)-SUM(W9:W50)</f>
-        <v>12</v>
-      </c>
-      <c r="W52" s="256"/>
-      <c r="X52" s="271">
-        <f>SUM(X9:X50)-SUM(Y9:Y50)</f>
-        <v>71</v>
-      </c>
-      <c r="Y52" s="271"/>
-      <c r="Z52" s="256">
-        <f>SUM(Z9:Z50)-SUM(AA9:AA50)</f>
-        <v>63</v>
-      </c>
-      <c r="AA52" s="256"/>
-      <c r="AB52" s="272">
-        <f>SUM(AB9:AB50)-SUM(AC9:AC50)</f>
-        <v>57</v>
-      </c>
-      <c r="AC52" s="272"/>
-      <c r="AD52" s="256">
-        <f>SUM(AD9:AD50)-SUM(AE9:AE50)</f>
-        <v>0</v>
-      </c>
-      <c r="AE52" s="256"/>
-      <c r="AF52" s="48"/>
-      <c r="AG52" s="20">
-        <f t="shared" si="1"/>
-        <v>374</v>
-      </c>
-      <c r="AH52" s="64"/>
-    </row>
-    <row r="53" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="273" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="274"/>
-      <c r="C53" s="274"/>
-      <c r="D53" s="274"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="274"/>
-      <c r="G53" s="274"/>
-      <c r="H53" s="274"/>
-      <c r="I53" s="274"/>
-      <c r="J53" s="274"/>
-      <c r="K53" s="274"/>
-      <c r="L53" s="274"/>
-      <c r="M53" s="274"/>
-      <c r="N53" s="274"/>
-      <c r="O53" s="274"/>
-      <c r="P53" s="274"/>
-      <c r="Q53" s="274"/>
-      <c r="R53" s="274"/>
-      <c r="S53" s="274"/>
-      <c r="T53" s="274"/>
-      <c r="U53" s="274"/>
-      <c r="V53" s="274"/>
-      <c r="W53" s="274"/>
-      <c r="X53" s="274"/>
-      <c r="Y53" s="274"/>
-      <c r="Z53" s="274"/>
-      <c r="AA53" s="274"/>
-      <c r="AB53" s="274"/>
-      <c r="AC53" s="274"/>
-      <c r="AD53" s="274"/>
-      <c r="AE53" s="275"/>
-      <c r="AF53" s="65">
-        <f>SUM(AF9:AF50)</f>
-        <v>339</v>
-      </c>
-      <c r="AG53" s="65">
-        <f>SUM(AG9:AG50)</f>
-        <v>713</v>
-      </c>
-      <c r="AH53" s="66"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="273" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="274"/>
-      <c r="C54" s="274"/>
-      <c r="D54" s="274"/>
-      <c r="E54" s="274"/>
-      <c r="F54" s="274"/>
-      <c r="G54" s="274"/>
-      <c r="H54" s="274"/>
-      <c r="I54" s="274"/>
-      <c r="J54" s="274"/>
-      <c r="K54" s="274"/>
-      <c r="L54" s="274"/>
-      <c r="M54" s="274"/>
-      <c r="N54" s="274"/>
-      <c r="O54" s="274"/>
-      <c r="P54" s="274"/>
-      <c r="Q54" s="274"/>
-      <c r="R54" s="274"/>
-      <c r="S54" s="274"/>
-      <c r="T54" s="274"/>
-      <c r="U54" s="274"/>
-      <c r="V54" s="274"/>
-      <c r="W54" s="274"/>
-      <c r="X54" s="274"/>
-      <c r="Y54" s="274"/>
-      <c r="Z54" s="274"/>
-      <c r="AA54" s="274"/>
-      <c r="AB54" s="274"/>
-      <c r="AC54" s="274"/>
-      <c r="AD54" s="274"/>
-      <c r="AE54" s="275"/>
-      <c r="AF54" s="267">
-        <f>AG53-AF53</f>
-        <v>374</v>
-      </c>
-      <c r="AG54" s="268"/>
-      <c r="AH54" s="66"/>
+      <c r="B46" s="279"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="279"/>
+      <c r="E46" s="279"/>
+      <c r="F46" s="279"/>
+      <c r="G46" s="279"/>
+      <c r="H46" s="279"/>
+      <c r="I46" s="279"/>
+      <c r="J46" s="279"/>
+      <c r="K46" s="279"/>
+      <c r="L46" s="279"/>
+      <c r="M46" s="279"/>
+      <c r="N46" s="279"/>
+      <c r="O46" s="279"/>
+      <c r="P46" s="279"/>
+      <c r="Q46" s="279"/>
+      <c r="R46" s="279"/>
+      <c r="S46" s="279"/>
+      <c r="T46" s="279"/>
+      <c r="U46" s="279"/>
+      <c r="V46" s="279"/>
+      <c r="W46" s="279"/>
+      <c r="X46" s="279"/>
+      <c r="Y46" s="279"/>
+      <c r="Z46" s="279"/>
+      <c r="AA46" s="279"/>
+      <c r="AB46" s="279"/>
+      <c r="AC46" s="279"/>
+      <c r="AD46" s="279"/>
+      <c r="AE46" s="280"/>
+      <c r="AF46" s="272">
+        <f>AG45-AF45</f>
+        <v>372</v>
+      </c>
+      <c r="AG46" s="273"/>
+      <c r="AH46" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -5082,26 +5115,26 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="A53:AE53"/>
-    <mergeCell ref="A54:AE54"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:AH3"/>
     <mergeCell ref="A4:AH4"/>
@@ -5122,11 +5155,1685 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="253"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="263" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="263"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="263"/>
+      <c r="AB3" s="263"/>
+      <c r="AC3" s="263"/>
+      <c r="AD3" s="263"/>
+      <c r="AE3" s="263"/>
+      <c r="AF3" s="263"/>
+      <c r="AG3" s="263"/>
+      <c r="AH3" s="263"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="263" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="263"/>
+      <c r="Y4" s="263"/>
+      <c r="Z4" s="263"/>
+      <c r="AA4" s="263"/>
+      <c r="AB4" s="263"/>
+      <c r="AC4" s="263"/>
+      <c r="AD4" s="263"/>
+      <c r="AE4" s="263"/>
+      <c r="AF4" s="263"/>
+      <c r="AG4" s="263"/>
+      <c r="AH4" s="263"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="263"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
+      <c r="AF5" s="254"/>
+      <c r="AG5" s="254"/>
+      <c r="AH5" s="254"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="268"/>
+      <c r="N6" s="268"/>
+      <c r="O6" s="268"/>
+      <c r="P6" s="268"/>
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="268"/>
+      <c r="T6" s="268"/>
+      <c r="U6" s="268"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="268"/>
+      <c r="Z6" s="268"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="268"/>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="268"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="264"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="270"/>
+      <c r="F7" s="264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="264"/>
+      <c r="H7" s="271" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="271"/>
+      <c r="J7" s="264" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="264"/>
+      <c r="L7" s="285" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="285"/>
+      <c r="N7" s="264" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="264"/>
+      <c r="P7" s="288" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="288"/>
+      <c r="R7" s="264" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="264"/>
+      <c r="T7" s="289" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="289"/>
+      <c r="V7" s="264" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="264"/>
+      <c r="X7" s="259" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="264" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="264"/>
+      <c r="AB7" s="287" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="287"/>
+      <c r="AD7" s="264" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="264"/>
+      <c r="AF7" s="257" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="257" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="264"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="264"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="255" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="255" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="256" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="256" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="251" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="251" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="248" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="248" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="252" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="252" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="247" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="247" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF8" s="258"/>
+      <c r="AG8" s="258"/>
+      <c r="AH8" s="264"/>
+    </row>
+    <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
+        <v>1</v>
+      </c>
+      <c r="B9" s="212">
+        <v>43956</v>
+      </c>
+      <c r="C9" s="213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="81">
+        <v>19</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="81">
+        <v>26</v>
+      </c>
+      <c r="K9" s="81"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="216"/>
+      <c r="N9" s="81">
+        <v>52</v>
+      </c>
+      <c r="O9" s="81"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="81">
+        <v>74</v>
+      </c>
+      <c r="S9" s="81"/>
+      <c r="T9" s="218"/>
+      <c r="U9" s="218"/>
+      <c r="V9" s="81">
+        <v>12</v>
+      </c>
+      <c r="W9" s="81"/>
+      <c r="X9" s="219">
+        <v>71</v>
+      </c>
+      <c r="Y9" s="219"/>
+      <c r="Z9" s="81">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="220">
+        <v>57</v>
+      </c>
+      <c r="AC9" s="220"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="91">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="91">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>372</v>
+      </c>
+      <c r="AH9" s="201"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23">
+        <v>43983</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="20">
+        <f t="shared" ref="AF10:AF31" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <v>12</v>
+      </c>
+      <c r="AG10" s="20">
+        <f t="shared" ref="AG10:AG33" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="22"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
+        <v>3</v>
+      </c>
+      <c r="B11" s="31">
+        <v>43987</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21">
+        <v>12</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="21"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>4</v>
+      </c>
+      <c r="B12" s="31">
+        <v>43990</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
+        <v>24</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="21"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
+        <v>5</v>
+      </c>
+      <c r="B13" s="31">
+        <v>43990</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21">
+        <v>9</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="21"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>6</v>
+      </c>
+      <c r="B14" s="39">
+        <v>43990</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="40">
+        <v>15</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AH14" s="21"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39">
+        <v>43991</v>
+      </c>
+      <c r="C15" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40">
+        <v>3</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40">
+        <v>2</v>
+      </c>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AG15" s="20">
+        <f>D15+F15+H15+J15+L15+N15+P15+R15+T15+V15+X15+Z15+AB15+AD15</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="21"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>8</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="21"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
+        <v>9</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="21"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>10</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="21"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
+        <v>11</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="21"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="21"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>14</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="21"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>16</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="21"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
+        <v>17</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="21"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="21"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
+        <v>19</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="21"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="21"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="81">
+        <v>21</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="21"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>22</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="20">
+        <f t="shared" ref="AG30:AG31" si="2">D30+F30+H30+J30+L30+N30+P30+R30+T30+V30+X30+Z30+AB30+AD30</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="21"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
+        <v>23</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="50"/>
+    </row>
+    <row r="32" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="60"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="63"/>
+      <c r="B33" s="282"/>
+      <c r="C33" s="283"/>
+      <c r="D33" s="284">
+        <f>SUM(D9:D31)-SUM(E9:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="284"/>
+      <c r="F33" s="261">
+        <f>SUM(F9:F31)-SUM(G9:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="261"/>
+      <c r="H33" s="260">
+        <f>SUM(H9:H31)-SUM(I9:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="260"/>
+      <c r="J33" s="261">
+        <f>SUM(J9:J31)-SUM(K9:K31)</f>
+        <v>23</v>
+      </c>
+      <c r="K33" s="261"/>
+      <c r="L33" s="281">
+        <f>SUM(L9:L31)-SUM(M9:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="281"/>
+      <c r="N33" s="261">
+        <f>SUM(N9:N31)-SUM(O9:O31)</f>
+        <v>40</v>
+      </c>
+      <c r="O33" s="261"/>
+      <c r="P33" s="274">
+        <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="274"/>
+      <c r="R33" s="261">
+        <f>SUM(R9:R31)-SUM(S9:S31)</f>
+        <v>74</v>
+      </c>
+      <c r="S33" s="261"/>
+      <c r="T33" s="275">
+        <f>SUM(T9:T31)-SUM(U9:U31)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="275"/>
+      <c r="V33" s="261">
+        <f>SUM(V9:V31)-SUM(W9:W31)</f>
+        <v>10</v>
+      </c>
+      <c r="W33" s="261"/>
+      <c r="X33" s="276">
+        <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
+        <v>59</v>
+      </c>
+      <c r="Y33" s="276"/>
+      <c r="Z33" s="261">
+        <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
+        <v>55</v>
+      </c>
+      <c r="AA33" s="261"/>
+      <c r="AB33" s="277">
+        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
+        <v>57</v>
+      </c>
+      <c r="AC33" s="277"/>
+      <c r="AD33" s="261">
+        <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="261"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="20">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+      <c r="AH33" s="64"/>
+    </row>
+    <row r="34" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="278" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="279"/>
+      <c r="C34" s="279"/>
+      <c r="D34" s="279"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="279"/>
+      <c r="K34" s="279"/>
+      <c r="L34" s="279"/>
+      <c r="M34" s="279"/>
+      <c r="N34" s="279"/>
+      <c r="O34" s="279"/>
+      <c r="P34" s="279"/>
+      <c r="Q34" s="279"/>
+      <c r="R34" s="279"/>
+      <c r="S34" s="279"/>
+      <c r="T34" s="279"/>
+      <c r="U34" s="279"/>
+      <c r="V34" s="279"/>
+      <c r="W34" s="279"/>
+      <c r="X34" s="279"/>
+      <c r="Y34" s="279"/>
+      <c r="Z34" s="279"/>
+      <c r="AA34" s="279"/>
+      <c r="AB34" s="279"/>
+      <c r="AC34" s="279"/>
+      <c r="AD34" s="279"/>
+      <c r="AE34" s="280"/>
+      <c r="AF34" s="65">
+        <f>SUM(AF9:AF31)</f>
+        <v>68</v>
+      </c>
+      <c r="AG34" s="65">
+        <f>SUM(AG9:AG31)</f>
+        <v>387</v>
+      </c>
+      <c r="AH34" s="66"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="278" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="279"/>
+      <c r="C35" s="279"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
+      <c r="K35" s="279"/>
+      <c r="L35" s="279"/>
+      <c r="M35" s="279"/>
+      <c r="N35" s="279"/>
+      <c r="O35" s="279"/>
+      <c r="P35" s="279"/>
+      <c r="Q35" s="279"/>
+      <c r="R35" s="279"/>
+      <c r="S35" s="279"/>
+      <c r="T35" s="279"/>
+      <c r="U35" s="279"/>
+      <c r="V35" s="279"/>
+      <c r="W35" s="279"/>
+      <c r="X35" s="279"/>
+      <c r="Y35" s="279"/>
+      <c r="Z35" s="279"/>
+      <c r="AA35" s="279"/>
+      <c r="AB35" s="279"/>
+      <c r="AC35" s="279"/>
+      <c r="AD35" s="279"/>
+      <c r="AE35" s="280"/>
+      <c r="AF35" s="272">
+        <f>AG34-AF34</f>
+        <v>319</v>
+      </c>
+      <c r="AG35" s="273"/>
+      <c r="AH35" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5181,153 +6888,153 @@
       <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="285" t="s">
+      <c r="A3" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
-      <c r="J3" s="285"/>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="290"/>
       <c r="O3" s="124"/>
       <c r="P3" s="124"/>
       <c r="Q3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="285"/>
-      <c r="N4" s="285"/>
+      <c r="A4" s="290" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
+      <c r="M4" s="290"/>
+      <c r="N4" s="290"/>
       <c r="O4" s="124"/>
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
+      <c r="A5" s="290"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
       <c r="K5" s="73"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74"/>
     </row>
     <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="292" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="289" t="s">
+      <c r="B6" s="294" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="289"/>
-      <c r="D6" s="290" t="s">
+      <c r="C6" s="294"/>
+      <c r="D6" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="295" t="s">
+      <c r="E6" s="295"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="295"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="295"/>
-      <c r="M6" s="295"/>
-      <c r="N6" s="296" t="s">
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="301" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="288"/>
-      <c r="B7" s="291" t="s">
+      <c r="A7" s="293"/>
+      <c r="B7" s="296" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="296" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="291" t="s">
+      <c r="D7" s="296" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="291" t="s">
+      <c r="E7" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="293" t="s">
+      <c r="F7" s="298" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="293" t="s">
+      <c r="G7" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="323" t="s">
+      <c r="H7" s="328" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="323"/>
-      <c r="J7" s="293" t="s">
+      <c r="I7" s="328"/>
+      <c r="J7" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="293" t="s">
+      <c r="K7" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="293" t="s">
+      <c r="L7" s="298" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="293" t="s">
+      <c r="M7" s="298" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="297"/>
+      <c r="N7" s="302"/>
     </row>
     <row r="8" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="288"/>
-      <c r="B8" s="292"/>
-      <c r="C8" s="292"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="294"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="297"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
       <c r="H8" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
-      <c r="N8" s="297"/>
+      <c r="J8" s="299"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="299"/>
+      <c r="N8" s="302"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="132">
         <v>43957</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="133"/>
       <c r="D9" s="134" t="s">
@@ -5358,15 +7065,15 @@
       <c r="L9" s="135"/>
       <c r="M9" s="135"/>
       <c r="N9" s="134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="308">
+      <c r="A10" s="313">
         <v>43958</v>
       </c>
-      <c r="B10" s="316" t="s">
-        <v>66</v>
+      <c r="B10" s="321" t="s">
+        <v>65</v>
       </c>
       <c r="C10" s="115"/>
       <c r="D10" s="81" t="s">
@@ -5396,8 +7103,8 @@
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="309"/>
-      <c r="B11" s="318"/>
+      <c r="A11" s="314"/>
+      <c r="B11" s="323"/>
       <c r="C11" s="137"/>
       <c r="D11" s="84" t="s">
         <v>21</v>
@@ -5426,11 +7133,11 @@
       <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="308">
+      <c r="A12" s="313">
         <v>43958</v>
       </c>
-      <c r="B12" s="316" t="s">
-        <v>67</v>
+      <c r="B12" s="321" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="115"/>
       <c r="D12" s="81" t="s">
@@ -5460,8 +7167,8 @@
       <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="309"/>
-      <c r="B13" s="318"/>
+      <c r="A13" s="314"/>
+      <c r="B13" s="323"/>
       <c r="C13" s="90"/>
       <c r="D13" s="84" t="s">
         <v>16</v>
@@ -5494,7 +7201,7 @@
         <v>43958</v>
       </c>
       <c r="B14" s="143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="143"/>
       <c r="D14" s="134" t="s">
@@ -5524,11 +7231,11 @@
       <c r="N14" s="145"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="308">
+      <c r="A15" s="313">
         <v>43958</v>
       </c>
-      <c r="B15" s="316" t="s">
-        <v>69</v>
+      <c r="B15" s="321" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="81" t="s">
@@ -5544,7 +7251,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="319">
+      <c r="H15" s="324">
         <v>288000</v>
       </c>
       <c r="I15" s="83">
@@ -5560,13 +7267,13 @@
       </c>
       <c r="L15" s="139"/>
       <c r="M15" s="139"/>
-      <c r="N15" s="305" t="s">
-        <v>139</v>
+      <c r="N15" s="310" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="322"/>
-      <c r="B16" s="317"/>
+      <c r="A16" s="327"/>
+      <c r="B16" s="322"/>
       <c r="C16" s="116"/>
       <c r="D16" s="91" t="s">
         <v>20</v>
@@ -5581,7 +7288,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="320"/>
+      <c r="H16" s="325"/>
       <c r="I16" s="93">
         <v>0.1</v>
       </c>
@@ -5595,11 +7302,11 @@
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
-      <c r="N16" s="306"/>
+      <c r="N16" s="311"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="322"/>
-      <c r="B17" s="317"/>
+      <c r="A17" s="327"/>
+      <c r="B17" s="322"/>
       <c r="C17" s="116"/>
       <c r="D17" s="91" t="s">
         <v>10</v>
@@ -5614,7 +7321,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="320"/>
+      <c r="H17" s="325"/>
       <c r="I17" s="93">
         <v>0.1</v>
       </c>
@@ -5628,11 +7335,11 @@
       </c>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
-      <c r="N17" s="306"/>
+      <c r="N17" s="311"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="309"/>
-      <c r="B18" s="318"/>
+      <c r="A18" s="314"/>
+      <c r="B18" s="323"/>
       <c r="C18" s="90"/>
       <c r="D18" s="90" t="s">
         <v>21</v>
@@ -5647,7 +7354,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="321"/>
+      <c r="H18" s="326"/>
       <c r="I18" s="149">
         <v>0.1</v>
       </c>
@@ -5661,14 +7368,14 @@
       </c>
       <c r="L18" s="148"/>
       <c r="M18" s="148"/>
-      <c r="N18" s="307"/>
+      <c r="N18" s="312"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="308">
+      <c r="A19" s="313">
         <v>43958</v>
       </c>
-      <c r="B19" s="316" t="s">
-        <v>69</v>
+      <c r="B19" s="321" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="138"/>
       <c r="D19" s="138" t="s">
@@ -5700,13 +7407,13 @@
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="146"/>
-      <c r="N19" s="311" t="s">
-        <v>138</v>
+      <c r="N19" s="316" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="322"/>
-      <c r="B20" s="317"/>
+      <c r="A20" s="327"/>
+      <c r="B20" s="322"/>
       <c r="C20" s="87"/>
       <c r="D20" s="87" t="s">
         <v>21</v>
@@ -5737,11 +7444,11 @@
       </c>
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
-      <c r="N20" s="312"/>
+      <c r="N20" s="317"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="309"/>
-      <c r="B21" s="318"/>
+      <c r="A21" s="314"/>
+      <c r="B21" s="323"/>
       <c r="C21" s="150"/>
       <c r="D21" s="150" t="s">
         <v>14</v>
@@ -5772,14 +7479,14 @@
       </c>
       <c r="L21" s="151"/>
       <c r="M21" s="151"/>
-      <c r="N21" s="313"/>
+      <c r="N21" s="318"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="142">
         <v>43958</v>
       </c>
       <c r="B22" s="143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="143"/>
       <c r="D22" s="143" t="s">
@@ -5810,7 +7517,7 @@
       </c>
       <c r="M22" s="154"/>
       <c r="N22" s="143" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -5818,10 +7525,10 @@
         <v>43959</v>
       </c>
       <c r="B23" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="143" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="143" t="s">
-        <v>72</v>
       </c>
       <c r="D23" s="143" t="s">
         <v>16</v>
@@ -5850,17 +7557,17 @@
       <c r="L23" s="154"/>
       <c r="M23" s="154"/>
       <c r="N23" s="143" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="308">
+      <c r="A24" s="313">
         <v>43962</v>
       </c>
-      <c r="B24" s="178" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="178"/>
+      <c r="B24" s="177" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="177"/>
       <c r="D24" s="81" t="s">
         <v>10</v>
       </c>
@@ -5890,14 +7597,14 @@
       </c>
       <c r="L24" s="82"/>
       <c r="M24" s="82"/>
-      <c r="N24" s="314" t="s">
-        <v>140</v>
+      <c r="N24" s="319" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="309"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="90"/>
       <c r="D25" s="84" t="s">
@@ -5929,14 +7636,14 @@
       </c>
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
-      <c r="N25" s="315"/>
+      <c r="N25" s="320"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="142">
         <v>43964</v>
       </c>
       <c r="B26" s="143" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="143"/>
       <c r="D26" s="134" t="s">
@@ -5967,7 +7674,7 @@
       <c r="L26" s="135"/>
       <c r="M26" s="135"/>
       <c r="N26" s="134" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
@@ -6166,7 +7873,7 @@
       <c r="K35" s="92"/>
       <c r="L35" s="92"/>
       <c r="M35" s="92"/>
-      <c r="N35" s="302"/>
+      <c r="N35" s="307"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="118"/>
@@ -6188,7 +7895,7 @@
       <c r="K36" s="92"/>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
-      <c r="N36" s="302"/>
+      <c r="N36" s="307"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
@@ -6210,7 +7917,7 @@
       <c r="K37" s="92"/>
       <c r="L37" s="92"/>
       <c r="M37" s="92"/>
-      <c r="N37" s="302"/>
+      <c r="N37" s="307"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
@@ -6232,7 +7939,7 @@
       <c r="K38" s="92"/>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
-      <c r="N38" s="302"/>
+      <c r="N38" s="307"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
@@ -6254,7 +7961,7 @@
       <c r="K39" s="92"/>
       <c r="L39" s="92"/>
       <c r="M39" s="92"/>
-      <c r="N39" s="302"/>
+      <c r="N39" s="307"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
@@ -6276,7 +7983,7 @@
       <c r="K40" s="92"/>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
-      <c r="N40" s="302"/>
+      <c r="N40" s="307"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="117"/>
@@ -6342,7 +8049,7 @@
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
       <c r="M43" s="96"/>
-      <c r="N43" s="303"/>
+      <c r="N43" s="308"/>
     </row>
     <row r="44" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
@@ -6364,7 +8071,7 @@
       <c r="K44" s="96"/>
       <c r="L44" s="96"/>
       <c r="M44" s="96"/>
-      <c r="N44" s="303"/>
+      <c r="N44" s="308"/>
     </row>
     <row r="45" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
@@ -6386,7 +8093,7 @@
       <c r="K45" s="96"/>
       <c r="L45" s="96"/>
       <c r="M45" s="96"/>
-      <c r="N45" s="303"/>
+      <c r="N45" s="308"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
@@ -6961,12 +8668,12 @@
       <c r="N71" s="84"/>
     </row>
     <row r="72" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="300" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="301"/>
-      <c r="C72" s="301"/>
-      <c r="D72" s="301"/>
+      <c r="A72" s="305" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="306"/>
+      <c r="C72" s="306"/>
+      <c r="D72" s="306"/>
       <c r="E72" s="158">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -6991,16 +8698,16 @@
         <v>990000</v>
       </c>
       <c r="M72" s="162"/>
-      <c r="N72" s="180"/>
-      <c r="O72" s="304"/>
+      <c r="N72" s="179"/>
+      <c r="O72" s="309"/>
     </row>
     <row r="73" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A73" s="298" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="299"/>
-      <c r="C73" s="299"/>
-      <c r="D73" s="299"/>
+      <c r="A73" s="303" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="304"/>
+      <c r="C73" s="304"/>
+      <c r="D73" s="304"/>
       <c r="E73" s="156"/>
       <c r="F73" s="156"/>
       <c r="G73" s="99">
@@ -7013,16 +8720,16 @@
       <c r="K73" s="102"/>
       <c r="L73" s="102"/>
       <c r="M73" s="102"/>
-      <c r="N73" s="180"/>
-      <c r="O73" s="304"/>
+      <c r="N73" s="179"/>
+      <c r="O73" s="309"/>
     </row>
     <row r="74" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A74" s="298" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="299"/>
-      <c r="C74" s="299"/>
-      <c r="D74" s="310"/>
+      <c r="A74" s="303" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="304"/>
+      <c r="C74" s="304"/>
+      <c r="D74" s="315"/>
       <c r="E74" s="156"/>
       <c r="F74" s="156"/>
       <c r="G74" s="99">
@@ -7035,16 +8742,16 @@
       <c r="K74" s="102"/>
       <c r="L74" s="102"/>
       <c r="M74" s="102"/>
-      <c r="N74" s="180"/>
+      <c r="N74" s="179"/>
       <c r="O74" s="163"/>
     </row>
     <row r="75" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A75" s="298" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="299"/>
-      <c r="C75" s="299"/>
-      <c r="D75" s="299"/>
+      <c r="A75" s="303" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="304"/>
+      <c r="C75" s="304"/>
+      <c r="D75" s="304"/>
       <c r="E75" s="156"/>
       <c r="F75" s="156"/>
       <c r="G75" s="157">
@@ -7057,15 +8764,15 @@
       <c r="K75" s="102"/>
       <c r="L75" s="102"/>
       <c r="M75" s="102"/>
-      <c r="N75" s="180"/>
+      <c r="N75" s="179"/>
     </row>
     <row r="76" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A76" s="298" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="299"/>
-      <c r="C76" s="299"/>
-      <c r="D76" s="299"/>
+      <c r="A76" s="303" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="304"/>
+      <c r="C76" s="304"/>
+      <c r="D76" s="304"/>
       <c r="E76" s="156"/>
       <c r="F76" s="156"/>
       <c r="G76" s="98">
@@ -7078,15 +8785,15 @@
       <c r="K76" s="102"/>
       <c r="L76" s="102"/>
       <c r="M76" s="102"/>
-      <c r="N76" s="180"/>
+      <c r="N76" s="179"/>
     </row>
     <row r="77" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A77" s="298" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="299"/>
-      <c r="C77" s="299"/>
-      <c r="D77" s="299"/>
+      <c r="A77" s="303" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="304"/>
+      <c r="C77" s="304"/>
+      <c r="D77" s="304"/>
       <c r="E77" s="156"/>
       <c r="F77" s="156"/>
       <c r="G77" s="98">
@@ -7098,7 +8805,7 @@
       <c r="K77" s="102"/>
       <c r="L77" s="102"/>
       <c r="M77" s="102"/>
-      <c r="N77" s="180"/>
+      <c r="N77" s="179"/>
     </row>
     <row r="79" spans="1:15" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="106" t="s">
@@ -7175,996 +8882,849 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="201" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="202" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="184" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="184" customWidth="1"/>
-    <col min="5" max="5" width="11" style="185" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="184" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="185" customWidth="1"/>
-    <col min="8" max="8" width="16" style="185" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="185"/>
+    <col min="1" max="1" width="10.140625" style="199" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="200" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="182" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="182" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="183" customWidth="1"/>
+    <col min="6" max="6" width="16" style="183" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="183"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="325"/>
-      <c r="F1" s="204" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="330"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
+      <c r="J1" s="165"/>
       <c r="K1" s="164"/>
-      <c r="L1" s="165"/>
+      <c r="L1" s="164"/>
       <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="168"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="N1" s="166"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="168"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="F2" s="205" t="s">
-        <v>79</v>
-      </c>
+      <c r="B2" s="181"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="164"/>
-      <c r="L2" s="165"/>
+      <c r="L2" s="164"/>
       <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
+      <c r="L3" s="164"/>
       <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-    </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="326" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="331" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="331"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
       <c r="I4" s="172"/>
       <c r="J4" s="172"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-    </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="327" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="327"/>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="327"/>
-      <c r="H5" s="327"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="332" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
       <c r="I5" s="172"/>
       <c r="J5" s="172"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-    </row>
-    <row r="7" spans="1:18" s="174" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="328" t="s">
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+    </row>
+    <row r="7" spans="1:16" s="173" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="333" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="334" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="335" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="329" t="s">
+      <c r="D7" s="336"/>
+      <c r="E7" s="337" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="334" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="330" t="s">
+    </row>
+    <row r="8" spans="1:16" s="178" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="333"/>
+      <c r="B8" s="334"/>
+      <c r="C8" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="331"/>
-      <c r="E7" s="332" t="s">
+      <c r="D8" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="333"/>
-      <c r="G7" s="334" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="329" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="179" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="328"/>
-      <c r="B8" s="329"/>
-      <c r="C8" s="182" t="s">
+      <c r="E8" s="337"/>
+      <c r="F8" s="334"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="184">
+        <v>43955</v>
+      </c>
+      <c r="B9" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="182" t="s">
+      <c r="C9" s="186"/>
+      <c r="D9" s="186">
+        <v>700000</v>
+      </c>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="188"/>
+      <c r="B10" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="203" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="334"/>
-      <c r="H8" s="329"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="186">
-        <v>43955</v>
-      </c>
-      <c r="B9" s="187" t="s">
+      <c r="C10" s="190"/>
+      <c r="D10" s="190">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="188"/>
+      <c r="B11" s="189" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190">
+        <v>24000</v>
+      </c>
+      <c r="E11" s="191"/>
+      <c r="F11" s="191"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="188"/>
+      <c r="B12" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188">
-        <v>700000</v>
-      </c>
-      <c r="E9" s="189"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="190"/>
-      <c r="B10" s="191" t="s">
+      <c r="C12" s="190"/>
+      <c r="D12" s="190">
+        <v>60000</v>
+      </c>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="188"/>
+      <c r="B13" s="189" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192">
-        <v>150000</v>
-      </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="190"/>
-      <c r="B11" s="191" t="s">
+      <c r="C13" s="190"/>
+      <c r="D13" s="190">
+        <v>55000</v>
+      </c>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="188"/>
+      <c r="B14" s="189" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192">
-        <v>24000</v>
-      </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="190"/>
-      <c r="B12" s="191" t="s">
+      <c r="C14" s="190"/>
+      <c r="D14" s="190">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="188"/>
+      <c r="B15" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192">
+      <c r="C15" s="190"/>
+      <c r="D15" s="190">
+        <v>75000</v>
+      </c>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="188"/>
+      <c r="B16" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190">
+        <v>80000</v>
+      </c>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="188"/>
+      <c r="B17" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190">
+        <v>30000</v>
+      </c>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="188"/>
+      <c r="B18" s="189" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="188"/>
+      <c r="B19" s="189" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190">
+        <v>35000</v>
+      </c>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="188"/>
+      <c r="B20" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="188"/>
+      <c r="B21" s="189" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190">
         <v>60000</v>
       </c>
-      <c r="E12" s="193"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="190"/>
-      <c r="B13" s="191" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192">
-        <v>55000</v>
-      </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="190"/>
-      <c r="B14" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192">
-        <v>4000</v>
-      </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="190"/>
-      <c r="B15" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192">
-        <v>75000</v>
-      </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="190"/>
-      <c r="B16" s="191" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192">
-        <v>80000</v>
-      </c>
-      <c r="E16" s="193"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="190"/>
-      <c r="B17" s="191" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192">
-        <v>30000</v>
-      </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="190"/>
-      <c r="B18" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192">
-        <v>45000</v>
-      </c>
-      <c r="E18" s="193"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="190"/>
-      <c r="B19" s="191" t="s">
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="188"/>
+      <c r="B22" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192">
+      <c r="C22" s="190"/>
+      <c r="D22" s="190">
         <v>35000</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="190"/>
-      <c r="B20" s="191" t="s">
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="188"/>
+      <c r="B23" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192">
-        <v>100000</v>
-      </c>
-      <c r="E20" s="193"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="190"/>
-      <c r="B21" s="191" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192">
-        <v>60000</v>
-      </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
-      <c r="B22" s="191" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192">
-        <v>35000</v>
-      </c>
-      <c r="E22" s="193"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="190"/>
-      <c r="B23" s="191" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192">
+      <c r="C23" s="190"/>
+      <c r="D23" s="190">
         <f>15000+20000+5000+10000</f>
         <v>50000</v>
       </c>
-      <c r="E23" s="193"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="190">
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="188">
         <v>43957</v>
       </c>
-      <c r="B24" s="191" t="s">
+      <c r="B24" s="189" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="190"/>
+      <c r="D24" s="190">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="188"/>
+      <c r="B25" s="189" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="190"/>
+      <c r="D25" s="190">
+        <v>55000</v>
+      </c>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="188"/>
+      <c r="B26" s="189" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="188"/>
+      <c r="B27" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192">
-        <v>15000</v>
-      </c>
-      <c r="E24" s="193"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="190"/>
-      <c r="B25" s="191" t="s">
+      <c r="C27" s="190"/>
+      <c r="D27" s="190">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="188"/>
+      <c r="B28" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192">
-        <v>55000</v>
-      </c>
-      <c r="E25" s="193"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="190"/>
-      <c r="B26" s="191" t="s">
+      <c r="C28" s="190"/>
+      <c r="D28" s="190">
+        <v>25000</v>
+      </c>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="188"/>
+      <c r="B29" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192">
-        <v>4000</v>
-      </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="190"/>
-      <c r="B27" s="191" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192">
-        <v>100000</v>
-      </c>
-      <c r="E27" s="193"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="190"/>
-      <c r="B28" s="191" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192">
-        <v>25000</v>
-      </c>
-      <c r="E28" s="193"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="190"/>
-      <c r="B29" s="191" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192">
+      <c r="C29" s="190"/>
+      <c r="D29" s="190">
         <f>45000+26000</f>
         <v>71000</v>
       </c>
-      <c r="E29" s="193"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="190"/>
-      <c r="B30" s="191" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192">
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="188"/>
+      <c r="B30" s="189" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190">
         <f>25000</f>
         <v>25000</v>
       </c>
-      <c r="E30" s="193"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="190"/>
-      <c r="B31" s="191" t="s">
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="188"/>
+      <c r="B31" s="189" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190">
+        <v>45000</v>
+      </c>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="188"/>
+      <c r="B32" s="189" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190">
+        <v>18000</v>
+      </c>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="188"/>
+      <c r="B33" s="189" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190">
+        <v>62000</v>
+      </c>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="188"/>
+      <c r="B34" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192">
-        <v>45000</v>
-      </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="190"/>
-      <c r="B32" s="191" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192">
-        <v>18000</v>
-      </c>
-      <c r="E32" s="193"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="190"/>
-      <c r="B33" s="191" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192">
-        <v>62000</v>
-      </c>
-      <c r="E33" s="193"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="190"/>
-      <c r="B34" s="191" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192">
+      <c r="C34" s="190"/>
+      <c r="D34" s="190">
         <f>60000+35000+66000</f>
         <v>161000</v>
       </c>
-      <c r="E34" s="193"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="190"/>
-      <c r="B35" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192">
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="188"/>
+      <c r="B35" s="189" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190">
         <v>90000</v>
       </c>
-      <c r="E35" s="193"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="190">
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="188">
         <v>43958</v>
       </c>
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="190">
+        <v>2749000</v>
+      </c>
+      <c r="D36" s="190"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="188">
+        <v>43959</v>
+      </c>
+      <c r="B37" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="190">
+        <v>1630000</v>
+      </c>
+      <c r="D37" s="190"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="188">
+        <v>43959</v>
+      </c>
+      <c r="B38" s="189" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="190">
+        <v>990000</v>
+      </c>
+      <c r="D38" s="190"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="188">
+        <v>43959</v>
+      </c>
+      <c r="B39" s="189" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="190">
+        <v>185000</v>
+      </c>
+      <c r="D39" s="190"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="188">
+        <v>43962</v>
+      </c>
+      <c r="B40" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="192">
-        <v>2749000</v>
-      </c>
-      <c r="D36" s="192"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="190">
-        <v>43959</v>
-      </c>
-      <c r="B37" s="191" t="s">
+      <c r="C40" s="190">
+        <v>835000</v>
+      </c>
+      <c r="D40" s="190"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="188">
+        <v>43964</v>
+      </c>
+      <c r="B41" s="189" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="190">
+        <v>475000</v>
+      </c>
+      <c r="D41" s="190"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="191"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="188">
+        <v>43964</v>
+      </c>
+      <c r="B42" s="189" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190">
+        <v>75000</v>
+      </c>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="188"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="188"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="188"/>
+      <c r="B45" s="189"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="192"/>
+      <c r="B46" s="193"/>
+      <c r="C46" s="194"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="188">
+        <v>43962</v>
+      </c>
+      <c r="B47" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="192">
-        <v>1630000</v>
-      </c>
-      <c r="D37" s="192"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="190">
-        <v>43959</v>
-      </c>
-      <c r="B38" s="191" t="s">
+      <c r="C47" s="190"/>
+      <c r="D47" s="190">
+        <v>1314000</v>
+      </c>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="188"/>
+      <c r="B48" s="189" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="190"/>
+      <c r="D48" s="190">
+        <v>1150000</v>
+      </c>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="188"/>
+      <c r="B49" s="189" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="190"/>
+      <c r="D49" s="190">
+        <v>14657500</v>
+      </c>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="188"/>
+      <c r="B50" s="189" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190">
+        <v>18000000</v>
+      </c>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="188"/>
+      <c r="B51" s="189" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190">
+        <v>1000000</v>
+      </c>
+      <c r="E51" s="191"/>
+      <c r="F51" s="191"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="188"/>
+      <c r="B52" s="189" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="190"/>
+      <c r="D52" s="190">
+        <v>2000000</v>
+      </c>
+      <c r="E52" s="191"/>
+      <c r="F52" s="191"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="241">
+        <v>43987</v>
+      </c>
+      <c r="B53" s="242" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="243"/>
+      <c r="D53" s="243">
+        <v>1512000</v>
+      </c>
+      <c r="E53" s="244"/>
+      <c r="F53" s="244"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="241"/>
+      <c r="B54" s="242"/>
+      <c r="C54" s="243"/>
+      <c r="D54" s="243"/>
+      <c r="E54" s="244"/>
+      <c r="F54" s="244"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="241"/>
+      <c r="B55" s="242"/>
+      <c r="C55" s="243"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="244"/>
+      <c r="F55" s="244"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="241"/>
+      <c r="B56" s="242"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="244"/>
+      <c r="F56" s="244"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="241"/>
+      <c r="B57" s="242"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="244"/>
+      <c r="F57" s="244"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="241"/>
+      <c r="B58" s="242"/>
+      <c r="C58" s="243"/>
+      <c r="D58" s="243"/>
+      <c r="E58" s="244"/>
+      <c r="F58" s="244"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="241"/>
+      <c r="B59" s="242"/>
+      <c r="C59" s="243"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="244"/>
+      <c r="F59" s="244"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="241"/>
+      <c r="B60" s="242"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="244"/>
+      <c r="F60" s="244"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="241"/>
+      <c r="B61" s="242"/>
+      <c r="C61" s="243"/>
+      <c r="D61" s="243"/>
+      <c r="E61" s="244"/>
+      <c r="F61" s="244"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="241"/>
+      <c r="B62" s="242"/>
+      <c r="C62" s="243"/>
+      <c r="D62" s="243"/>
+      <c r="E62" s="244"/>
+      <c r="F62" s="244"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="241"/>
+      <c r="B63" s="242"/>
+      <c r="C63" s="243"/>
+      <c r="D63" s="243"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="244"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="241"/>
+      <c r="B64" s="242"/>
+      <c r="C64" s="243"/>
+      <c r="D64" s="243"/>
+      <c r="E64" s="244"/>
+      <c r="F64" s="244"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="241"/>
+      <c r="B65" s="242"/>
+      <c r="C65" s="243"/>
+      <c r="D65" s="243"/>
+      <c r="E65" s="244"/>
+      <c r="F65" s="244"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="241"/>
+      <c r="B66" s="242"/>
+      <c r="C66" s="243"/>
+      <c r="D66" s="243"/>
+      <c r="E66" s="244"/>
+      <c r="F66" s="244"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="241"/>
+      <c r="B67" s="242"/>
+      <c r="C67" s="243"/>
+      <c r="D67" s="243"/>
+      <c r="E67" s="244"/>
+      <c r="F67" s="244"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="241"/>
+      <c r="B68" s="242"/>
+      <c r="C68" s="243"/>
+      <c r="D68" s="243"/>
+      <c r="E68" s="244"/>
+      <c r="F68" s="244"/>
+    </row>
+    <row r="69" spans="1:6" s="198" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="329" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="192">
-        <v>990000</v>
-      </c>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="190">
-        <v>43959</v>
-      </c>
-      <c r="B39" s="191" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="192">
-        <v>185000</v>
-      </c>
-      <c r="D39" s="192"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="193"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="190">
-        <v>43962</v>
-      </c>
-      <c r="B40" s="191" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="192">
-        <v>835000</v>
-      </c>
-      <c r="D40" s="192"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="190">
-        <v>43964</v>
-      </c>
-      <c r="B41" s="191" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="192">
-        <v>475000</v>
-      </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="190">
-        <v>43964</v>
-      </c>
-      <c r="B42" s="191" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192">
-        <v>314000</v>
-      </c>
-      <c r="E42" s="193"/>
-      <c r="F42" s="192">
-        <v>1000000</v>
-      </c>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="190"/>
-      <c r="B43" s="191"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="193"/>
-      <c r="F43" s="192"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="190"/>
-      <c r="B44" s="191"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="190"/>
-      <c r="B45" s="191"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="193"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="194"/>
-      <c r="B46" s="195"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="197"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
-      <c r="H46" s="197"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="190">
-        <v>43962</v>
-      </c>
-      <c r="B47" s="191" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="192"/>
-      <c r="D47" s="192">
-        <v>75000</v>
-      </c>
-      <c r="E47" s="193"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="193"/>
-      <c r="H47" s="193"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="190"/>
-      <c r="B48" s="191" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="192"/>
-      <c r="D48" s="192"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="192">
-        <v>1150000</v>
-      </c>
-      <c r="G48" s="193"/>
-      <c r="H48" s="193"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="190"/>
-      <c r="B49" s="191" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="192"/>
-      <c r="D49" s="192"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="192">
-        <v>14657500</v>
-      </c>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="190"/>
-      <c r="B50" s="191" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="192"/>
-      <c r="D50" s="192"/>
-      <c r="E50" s="193"/>
-      <c r="F50" s="192">
-        <v>18000000</v>
-      </c>
-      <c r="G50" s="193"/>
-      <c r="H50" s="193"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="190"/>
-      <c r="B51" s="191" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="192"/>
-      <c r="D51" s="192"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="192">
-        <v>2000000</v>
-      </c>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="247"/>
-      <c r="B52" s="248"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="250"/>
-      <c r="F52" s="249"/>
-      <c r="G52" s="250"/>
-      <c r="H52" s="250"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="247"/>
-      <c r="B53" s="248"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="250"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="250"/>
-      <c r="H53" s="250"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="247"/>
-      <c r="B54" s="248"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="250"/>
-      <c r="F54" s="249"/>
-      <c r="G54" s="250"/>
-      <c r="H54" s="250"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="247"/>
-      <c r="B55" s="248"/>
-      <c r="C55" s="249"/>
-      <c r="D55" s="249"/>
-      <c r="E55" s="250"/>
-      <c r="F55" s="249"/>
-      <c r="G55" s="250"/>
-      <c r="H55" s="250"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="247"/>
-      <c r="B56" s="248"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="249"/>
-      <c r="E56" s="250"/>
-      <c r="F56" s="249"/>
-      <c r="G56" s="250"/>
-      <c r="H56" s="250"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="247"/>
-      <c r="B57" s="248"/>
-      <c r="C57" s="249"/>
-      <c r="D57" s="249"/>
-      <c r="E57" s="250"/>
-      <c r="F57" s="249"/>
-      <c r="G57" s="250"/>
-      <c r="H57" s="250"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="247"/>
-      <c r="B58" s="248"/>
-      <c r="C58" s="249"/>
-      <c r="D58" s="249"/>
-      <c r="E58" s="250"/>
-      <c r="F58" s="249"/>
-      <c r="G58" s="250"/>
-      <c r="H58" s="250"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="247"/>
-      <c r="B59" s="248"/>
-      <c r="C59" s="249"/>
-      <c r="D59" s="249"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="249"/>
-      <c r="G59" s="250"/>
-      <c r="H59" s="250"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="247"/>
-      <c r="B60" s="248"/>
-      <c r="C60" s="249"/>
-      <c r="D60" s="249"/>
-      <c r="E60" s="250"/>
-      <c r="F60" s="249"/>
-      <c r="G60" s="250"/>
-      <c r="H60" s="250"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="247"/>
-      <c r="B61" s="248"/>
-      <c r="C61" s="249"/>
-      <c r="D61" s="249"/>
-      <c r="E61" s="250"/>
-      <c r="F61" s="249"/>
-      <c r="G61" s="250"/>
-      <c r="H61" s="250"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="247"/>
-      <c r="B62" s="248"/>
-      <c r="C62" s="249"/>
-      <c r="D62" s="249"/>
-      <c r="E62" s="250"/>
-      <c r="F62" s="249"/>
-      <c r="G62" s="250"/>
-      <c r="H62" s="250"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="247"/>
-      <c r="B63" s="248"/>
-      <c r="C63" s="249"/>
-      <c r="D63" s="249"/>
-      <c r="E63" s="250"/>
-      <c r="F63" s="249"/>
-      <c r="G63" s="250"/>
-      <c r="H63" s="250"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="247"/>
-      <c r="B64" s="248"/>
-      <c r="C64" s="249"/>
-      <c r="D64" s="249"/>
-      <c r="E64" s="250"/>
-      <c r="F64" s="249"/>
-      <c r="G64" s="250"/>
-      <c r="H64" s="250"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="247"/>
-      <c r="B65" s="248"/>
-      <c r="C65" s="249"/>
-      <c r="D65" s="249"/>
-      <c r="E65" s="250"/>
-      <c r="F65" s="249"/>
-      <c r="G65" s="250"/>
-      <c r="H65" s="250"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="247"/>
-      <c r="B66" s="248"/>
-      <c r="C66" s="249"/>
-      <c r="D66" s="249"/>
-      <c r="E66" s="250"/>
-      <c r="F66" s="249"/>
-      <c r="G66" s="250"/>
-      <c r="H66" s="250"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="247"/>
-      <c r="B67" s="248"/>
-      <c r="C67" s="249"/>
-      <c r="D67" s="249"/>
-      <c r="E67" s="250"/>
-      <c r="F67" s="249"/>
-      <c r="G67" s="250"/>
-      <c r="H67" s="250"/>
-    </row>
-    <row r="68" spans="1:8" s="200" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="324" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="324"/>
-      <c r="C68" s="198">
-        <f>SUM(C9:C51)</f>
+      <c r="B69" s="329"/>
+      <c r="C69" s="196">
+        <f>SUM(C9:C52)</f>
         <v>6864000</v>
       </c>
-      <c r="D68" s="198"/>
-      <c r="E68" s="198">
-        <f t="shared" ref="E68" si="0">SUM(E9:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="198">
-        <f>SUM(F9:F51)</f>
-        <v>36807500</v>
-      </c>
-      <c r="G68" s="199"/>
-      <c r="H68" s="199"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F70" s="206"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" s="185" t="s">
-        <v>88</v>
+      <c r="D69" s="196">
+        <f>SUM(D9:D68)</f>
+        <v>41882500</v>
+      </c>
+      <c r="E69" s="197"/>
+      <c r="F69" s="197"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="183" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A68:B68"/>
+  <mergeCells count="9">
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.24" top="0.45" bottom="0.48" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="156">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>Hoa</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1626,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2139,30 +2142,84 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2184,59 +2241,89 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2262,12 +2349,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2277,84 +2358,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2382,6 +2385,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2712,14 +2716,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
+      <c r="A1" s="257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2752,11 +2756,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2792,235 +2796,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="282" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="263"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="263"/>
-      <c r="AB3" s="263"/>
-      <c r="AC3" s="263"/>
-      <c r="AD3" s="263"/>
-      <c r="AE3" s="263"/>
-      <c r="AF3" s="263"/>
-      <c r="AG3" s="263"/>
-      <c r="AH3" s="263"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
+      <c r="O3" s="282"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="282"/>
+      <c r="S3" s="282"/>
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="282"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="282"/>
+      <c r="AB3" s="282"/>
+      <c r="AC3" s="282"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="282"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="282"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="282" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
-      <c r="U4" s="263"/>
-      <c r="V4" s="263"/>
-      <c r="W4" s="263"/>
-      <c r="X4" s="263"/>
-      <c r="Y4" s="263"/>
-      <c r="Z4" s="263"/>
-      <c r="AA4" s="263"/>
-      <c r="AB4" s="263"/>
-      <c r="AC4" s="263"/>
-      <c r="AD4" s="263"/>
-      <c r="AE4" s="263"/>
-      <c r="AF4" s="263"/>
-      <c r="AG4" s="263"/>
-      <c r="AH4" s="263"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="282"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="282"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="282"/>
+      <c r="T4" s="282"/>
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="282"/>
+      <c r="AA4" s="282"/>
+      <c r="AB4" s="282"/>
+      <c r="AC4" s="282"/>
+      <c r="AD4" s="282"/>
+      <c r="AE4" s="282"/>
+      <c r="AF4" s="282"/>
+      <c r="AG4" s="282"/>
+      <c r="AH4" s="282"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="263"/>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="263"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="263"/>
-      <c r="S5" s="263"/>
-      <c r="T5" s="263"/>
-      <c r="U5" s="263"/>
-      <c r="V5" s="263"/>
-      <c r="W5" s="263"/>
-      <c r="X5" s="263"/>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="263"/>
-      <c r="AB5" s="263"/>
-      <c r="AC5" s="263"/>
-      <c r="AD5" s="263"/>
-      <c r="AE5" s="263"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="282"/>
+      <c r="O5" s="282"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="282"/>
+      <c r="R5" s="282"/>
+      <c r="S5" s="282"/>
+      <c r="T5" s="282"/>
+      <c r="U5" s="282"/>
+      <c r="V5" s="282"/>
+      <c r="W5" s="282"/>
+      <c r="X5" s="282"/>
+      <c r="Y5" s="282"/>
+      <c r="Z5" s="282"/>
+      <c r="AA5" s="282"/>
+      <c r="AB5" s="282"/>
+      <c r="AC5" s="282"/>
+      <c r="AD5" s="282"/>
+      <c r="AE5" s="282"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="266" t="s">
+      <c r="C6" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="267" t="s">
+      <c r="D6" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="268"/>
-      <c r="N6" s="268"/>
-      <c r="O6" s="268"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="268"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="268"/>
-      <c r="T6" s="268"/>
-      <c r="U6" s="268"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="268"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="268"/>
-      <c r="Z6" s="268"/>
-      <c r="AA6" s="268"/>
-      <c r="AB6" s="268"/>
-      <c r="AC6" s="268"/>
-      <c r="AD6" s="268"/>
-      <c r="AE6" s="268"/>
-      <c r="AF6" s="268"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="264" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="286"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="286"/>
+      <c r="T6" s="286"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="286"/>
+      <c r="Y6" s="286"/>
+      <c r="Z6" s="286"/>
+      <c r="AA6" s="286"/>
+      <c r="AB6" s="286"/>
+      <c r="AC6" s="286"/>
+      <c r="AD6" s="286"/>
+      <c r="AE6" s="286"/>
+      <c r="AF6" s="286"/>
+      <c r="AG6" s="287"/>
+      <c r="AH6" s="260" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="264"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="270" t="s">
+      <c r="A7" s="260"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="264" t="s">
+      <c r="E7" s="288"/>
+      <c r="F7" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="271" t="s">
+      <c r="G7" s="260"/>
+      <c r="H7" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="264" t="s">
+      <c r="I7" s="289"/>
+      <c r="J7" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="285" t="s">
+      <c r="K7" s="260"/>
+      <c r="L7" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="285"/>
-      <c r="N7" s="264" t="s">
+      <c r="M7" s="264"/>
+      <c r="N7" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="264"/>
-      <c r="P7" s="288" t="s">
+      <c r="O7" s="260"/>
+      <c r="P7" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="288"/>
-      <c r="R7" s="264" t="s">
+      <c r="Q7" s="259"/>
+      <c r="R7" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="264"/>
-      <c r="T7" s="289" t="s">
+      <c r="S7" s="260"/>
+      <c r="T7" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="289"/>
-      <c r="V7" s="264" t="s">
+      <c r="U7" s="261"/>
+      <c r="V7" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="264"/>
-      <c r="X7" s="259" t="s">
+      <c r="W7" s="260"/>
+      <c r="X7" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="259"/>
-      <c r="Z7" s="264" t="s">
+      <c r="Y7" s="279"/>
+      <c r="Z7" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="264"/>
-      <c r="AB7" s="287" t="s">
+      <c r="AA7" s="260"/>
+      <c r="AB7" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="287"/>
-      <c r="AD7" s="264" t="s">
+      <c r="AC7" s="258"/>
+      <c r="AD7" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="264"/>
-      <c r="AF7" s="257" t="s">
+      <c r="AE7" s="260"/>
+      <c r="AF7" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="257" t="s">
+      <c r="AG7" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="264"/>
+      <c r="AH7" s="260"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="264"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="266"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="284"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3105,9 +3109,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="258"/>
-      <c r="AG8" s="258"/>
-      <c r="AH8" s="264"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="260"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -4937,78 +4941,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="282"/>
-      <c r="C44" s="283"/>
-      <c r="D44" s="284">
+      <c r="B44" s="276"/>
+      <c r="C44" s="277"/>
+      <c r="D44" s="278">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="284"/>
-      <c r="F44" s="261">
+      <c r="E44" s="278"/>
+      <c r="F44" s="267">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="261"/>
-      <c r="H44" s="260">
+      <c r="G44" s="267"/>
+      <c r="H44" s="280">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="260"/>
-      <c r="J44" s="261">
+      <c r="I44" s="280"/>
+      <c r="J44" s="267">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="261"/>
-      <c r="L44" s="281">
+      <c r="K44" s="267"/>
+      <c r="L44" s="275">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="281"/>
-      <c r="N44" s="261">
+      <c r="M44" s="275"/>
+      <c r="N44" s="267">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="261"/>
-      <c r="P44" s="274">
+      <c r="O44" s="267"/>
+      <c r="P44" s="268">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="274"/>
-      <c r="R44" s="261">
+      <c r="Q44" s="268"/>
+      <c r="R44" s="267">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="261"/>
-      <c r="T44" s="275">
+      <c r="S44" s="267"/>
+      <c r="T44" s="269">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="275"/>
-      <c r="V44" s="261">
+      <c r="U44" s="269"/>
+      <c r="V44" s="267">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="261"/>
-      <c r="X44" s="276">
+      <c r="W44" s="267"/>
+      <c r="X44" s="270">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="276"/>
-      <c r="Z44" s="261">
+      <c r="Y44" s="270"/>
+      <c r="Z44" s="267">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="261"/>
-      <c r="AB44" s="277">
+      <c r="AA44" s="267"/>
+      <c r="AB44" s="271">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="277"/>
-      <c r="AD44" s="261">
+      <c r="AC44" s="271"/>
+      <c r="AD44" s="267">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="261"/>
+      <c r="AE44" s="267"/>
       <c r="AF44" s="48"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5017,39 +5021,39 @@
       <c r="AH44" s="64"/>
     </row>
     <row r="45" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="278" t="s">
+      <c r="A45" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="279"/>
-      <c r="C45" s="279"/>
-      <c r="D45" s="279"/>
-      <c r="E45" s="279"/>
-      <c r="F45" s="279"/>
-      <c r="G45" s="279"/>
-      <c r="H45" s="279"/>
-      <c r="I45" s="279"/>
-      <c r="J45" s="279"/>
-      <c r="K45" s="279"/>
-      <c r="L45" s="279"/>
-      <c r="M45" s="279"/>
-      <c r="N45" s="279"/>
-      <c r="O45" s="279"/>
-      <c r="P45" s="279"/>
-      <c r="Q45" s="279"/>
-      <c r="R45" s="279"/>
-      <c r="S45" s="279"/>
-      <c r="T45" s="279"/>
-      <c r="U45" s="279"/>
-      <c r="V45" s="279"/>
-      <c r="W45" s="279"/>
-      <c r="X45" s="279"/>
-      <c r="Y45" s="279"/>
-      <c r="Z45" s="279"/>
-      <c r="AA45" s="279"/>
-      <c r="AB45" s="279"/>
-      <c r="AC45" s="279"/>
-      <c r="AD45" s="279"/>
-      <c r="AE45" s="280"/>
+      <c r="B45" s="273"/>
+      <c r="C45" s="273"/>
+      <c r="D45" s="273"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="273"/>
+      <c r="G45" s="273"/>
+      <c r="H45" s="273"/>
+      <c r="I45" s="273"/>
+      <c r="J45" s="273"/>
+      <c r="K45" s="273"/>
+      <c r="L45" s="273"/>
+      <c r="M45" s="273"/>
+      <c r="N45" s="273"/>
+      <c r="O45" s="273"/>
+      <c r="P45" s="273"/>
+      <c r="Q45" s="273"/>
+      <c r="R45" s="273"/>
+      <c r="S45" s="273"/>
+      <c r="T45" s="273"/>
+      <c r="U45" s="273"/>
+      <c r="V45" s="273"/>
+      <c r="W45" s="273"/>
+      <c r="X45" s="273"/>
+      <c r="Y45" s="273"/>
+      <c r="Z45" s="273"/>
+      <c r="AA45" s="273"/>
+      <c r="AB45" s="273"/>
+      <c r="AC45" s="273"/>
+      <c r="AD45" s="273"/>
+      <c r="AE45" s="274"/>
       <c r="AF45" s="65">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5061,60 +5065,64 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="278" t="s">
+      <c r="A46" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="279"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="279"/>
-      <c r="E46" s="279"/>
-      <c r="F46" s="279"/>
-      <c r="G46" s="279"/>
-      <c r="H46" s="279"/>
-      <c r="I46" s="279"/>
-      <c r="J46" s="279"/>
-      <c r="K46" s="279"/>
-      <c r="L46" s="279"/>
-      <c r="M46" s="279"/>
-      <c r="N46" s="279"/>
-      <c r="O46" s="279"/>
-      <c r="P46" s="279"/>
-      <c r="Q46" s="279"/>
-      <c r="R46" s="279"/>
-      <c r="S46" s="279"/>
-      <c r="T46" s="279"/>
-      <c r="U46" s="279"/>
-      <c r="V46" s="279"/>
-      <c r="W46" s="279"/>
-      <c r="X46" s="279"/>
-      <c r="Y46" s="279"/>
-      <c r="Z46" s="279"/>
-      <c r="AA46" s="279"/>
-      <c r="AB46" s="279"/>
-      <c r="AC46" s="279"/>
-      <c r="AD46" s="279"/>
-      <c r="AE46" s="280"/>
-      <c r="AF46" s="272">
+      <c r="B46" s="273"/>
+      <c r="C46" s="273"/>
+      <c r="D46" s="273"/>
+      <c r="E46" s="273"/>
+      <c r="F46" s="273"/>
+      <c r="G46" s="273"/>
+      <c r="H46" s="273"/>
+      <c r="I46" s="273"/>
+      <c r="J46" s="273"/>
+      <c r="K46" s="273"/>
+      <c r="L46" s="273"/>
+      <c r="M46" s="273"/>
+      <c r="N46" s="273"/>
+      <c r="O46" s="273"/>
+      <c r="P46" s="273"/>
+      <c r="Q46" s="273"/>
+      <c r="R46" s="273"/>
+      <c r="S46" s="273"/>
+      <c r="T46" s="273"/>
+      <c r="U46" s="273"/>
+      <c r="V46" s="273"/>
+      <c r="W46" s="273"/>
+      <c r="X46" s="273"/>
+      <c r="Y46" s="273"/>
+      <c r="Z46" s="273"/>
+      <c r="AA46" s="273"/>
+      <c r="AB46" s="273"/>
+      <c r="AC46" s="273"/>
+      <c r="AD46" s="273"/>
+      <c r="AE46" s="274"/>
+      <c r="AF46" s="265">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="273"/>
+      <c r="AG46" s="266"/>
       <c r="AH46" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="AF46:AG46"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
@@ -5131,22 +5139,18 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5158,8 +5162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5175,14 +5180,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
+      <c r="A1" s="257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
       <c r="I1" s="246"/>
@@ -5215,11 +5220,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
       <c r="D2" s="253"/>
       <c r="E2" s="253"/>
       <c r="F2" s="253"/>
@@ -5255,235 +5260,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="282" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="263"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="263"/>
-      <c r="Y3" s="263"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="263"/>
-      <c r="AB3" s="263"/>
-      <c r="AC3" s="263"/>
-      <c r="AD3" s="263"/>
-      <c r="AE3" s="263"/>
-      <c r="AF3" s="263"/>
-      <c r="AG3" s="263"/>
-      <c r="AH3" s="263"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
+      <c r="O3" s="282"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="282"/>
+      <c r="S3" s="282"/>
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="282"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="282"/>
+      <c r="AB3" s="282"/>
+      <c r="AC3" s="282"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="282"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="282"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="282" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
-      <c r="U4" s="263"/>
-      <c r="V4" s="263"/>
-      <c r="W4" s="263"/>
-      <c r="X4" s="263"/>
-      <c r="Y4" s="263"/>
-      <c r="Z4" s="263"/>
-      <c r="AA4" s="263"/>
-      <c r="AB4" s="263"/>
-      <c r="AC4" s="263"/>
-      <c r="AD4" s="263"/>
-      <c r="AE4" s="263"/>
-      <c r="AF4" s="263"/>
-      <c r="AG4" s="263"/>
-      <c r="AH4" s="263"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="282"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="282"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="282"/>
+      <c r="T4" s="282"/>
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="282"/>
+      <c r="AA4" s="282"/>
+      <c r="AB4" s="282"/>
+      <c r="AC4" s="282"/>
+      <c r="AD4" s="282"/>
+      <c r="AE4" s="282"/>
+      <c r="AF4" s="282"/>
+      <c r="AG4" s="282"/>
+      <c r="AH4" s="282"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="263"/>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="263"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="263"/>
-      <c r="S5" s="263"/>
-      <c r="T5" s="263"/>
-      <c r="U5" s="263"/>
-      <c r="V5" s="263"/>
-      <c r="W5" s="263"/>
-      <c r="X5" s="263"/>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="263"/>
-      <c r="AB5" s="263"/>
-      <c r="AC5" s="263"/>
-      <c r="AD5" s="263"/>
-      <c r="AE5" s="263"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="282"/>
+      <c r="O5" s="282"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="282"/>
+      <c r="R5" s="282"/>
+      <c r="S5" s="282"/>
+      <c r="T5" s="282"/>
+      <c r="U5" s="282"/>
+      <c r="V5" s="282"/>
+      <c r="W5" s="282"/>
+      <c r="X5" s="282"/>
+      <c r="Y5" s="282"/>
+      <c r="Z5" s="282"/>
+      <c r="AA5" s="282"/>
+      <c r="AB5" s="282"/>
+      <c r="AC5" s="282"/>
+      <c r="AD5" s="282"/>
+      <c r="AE5" s="282"/>
       <c r="AF5" s="254"/>
       <c r="AG5" s="254"/>
       <c r="AH5" s="254"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="266" t="s">
+      <c r="C6" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="267" t="s">
+      <c r="D6" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="268"/>
-      <c r="N6" s="268"/>
-      <c r="O6" s="268"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="268"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="268"/>
-      <c r="T6" s="268"/>
-      <c r="U6" s="268"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="268"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="268"/>
-      <c r="Z6" s="268"/>
-      <c r="AA6" s="268"/>
-      <c r="AB6" s="268"/>
-      <c r="AC6" s="268"/>
-      <c r="AD6" s="268"/>
-      <c r="AE6" s="268"/>
-      <c r="AF6" s="268"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="264" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="286"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="286"/>
+      <c r="T6" s="286"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="286"/>
+      <c r="Y6" s="286"/>
+      <c r="Z6" s="286"/>
+      <c r="AA6" s="286"/>
+      <c r="AB6" s="286"/>
+      <c r="AC6" s="286"/>
+      <c r="AD6" s="286"/>
+      <c r="AE6" s="286"/>
+      <c r="AF6" s="286"/>
+      <c r="AG6" s="287"/>
+      <c r="AH6" s="260" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="264"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="270" t="s">
+      <c r="A7" s="260"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="264" t="s">
+      <c r="E7" s="288"/>
+      <c r="F7" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="271" t="s">
+      <c r="G7" s="260"/>
+      <c r="H7" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="264" t="s">
+      <c r="I7" s="289"/>
+      <c r="J7" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="285" t="s">
+      <c r="K7" s="260"/>
+      <c r="L7" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="285"/>
-      <c r="N7" s="264" t="s">
+      <c r="M7" s="264"/>
+      <c r="N7" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="264"/>
-      <c r="P7" s="288" t="s">
+      <c r="O7" s="260"/>
+      <c r="P7" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="288"/>
-      <c r="R7" s="264" t="s">
+      <c r="Q7" s="259"/>
+      <c r="R7" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="264"/>
-      <c r="T7" s="289" t="s">
+      <c r="S7" s="260"/>
+      <c r="T7" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="289"/>
-      <c r="V7" s="264" t="s">
+      <c r="U7" s="261"/>
+      <c r="V7" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="264"/>
-      <c r="X7" s="259" t="s">
+      <c r="W7" s="260"/>
+      <c r="X7" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="259"/>
-      <c r="Z7" s="264" t="s">
+      <c r="Y7" s="279"/>
+      <c r="Z7" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="264"/>
-      <c r="AB7" s="287" t="s">
+      <c r="AA7" s="260"/>
+      <c r="AB7" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="287"/>
-      <c r="AD7" s="264" t="s">
+      <c r="AC7" s="258"/>
+      <c r="AD7" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="264"/>
-      <c r="AF7" s="257" t="s">
+      <c r="AE7" s="260"/>
+      <c r="AF7" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="257" t="s">
+      <c r="AG7" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="264"/>
+      <c r="AH7" s="260"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="264"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="266"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="284"/>
       <c r="D8" s="255" t="s">
         <v>23</v>
       </c>
@@ -5568,9 +5573,9 @@
       <c r="AE8" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="258"/>
-      <c r="AG8" s="258"/>
-      <c r="AH8" s="264"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="260"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -5946,8 +5951,12 @@
       <c r="A16" s="20">
         <v>8</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="127"/>
+      <c r="B16" s="39">
+        <v>43992</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
@@ -5973,19 +5982,31 @@
       <c r="Z16" s="40"/>
       <c r="AA16" s="40"/>
       <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
+      <c r="AC16" s="47">
+        <v>1</v>
+      </c>
       <c r="AD16" s="40"/>
       <c r="AE16" s="40"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
+      <c r="AF16" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="20">
+        <f t="shared" ref="AG16:AG31" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
+        <v>0</v>
+      </c>
       <c r="AH16" s="21"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="81">
         <v>9</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="127"/>
+      <c r="B17" s="39">
+        <v>43992</v>
+      </c>
+      <c r="C17" s="127" t="s">
+        <v>137</v>
+      </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="40"/>
@@ -6011,19 +6032,31 @@
       <c r="Z17" s="40"/>
       <c r="AA17" s="40"/>
       <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
+      <c r="AC17" s="47">
+        <v>1</v>
+      </c>
       <c r="AD17" s="40"/>
       <c r="AE17" s="40"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
+      <c r="AF17" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH17" s="21"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>10</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="127"/>
+      <c r="B18" s="39">
+        <v>43993</v>
+      </c>
+      <c r="C18" s="127" t="s">
+        <v>137</v>
+      </c>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="40"/>
@@ -6047,13 +6080,21 @@
       <c r="X18" s="46"/>
       <c r="Y18" s="46"/>
       <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
+      <c r="AA18" s="40">
+        <v>2</v>
+      </c>
       <c r="AB18" s="47"/>
       <c r="AC18" s="47"/>
       <c r="AD18" s="40"/>
       <c r="AE18" s="40"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
+      <c r="AF18" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH18" s="21"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -6090,8 +6131,14 @@
       <c r="AC19" s="47"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
+      <c r="AF19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH19" s="21"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -6128,8 +6175,14 @@
       <c r="AC20" s="47"/>
       <c r="AD20" s="40"/>
       <c r="AE20" s="40"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
+      <c r="AF20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -6166,8 +6219,14 @@
       <c r="AC21" s="47"/>
       <c r="AD21" s="40"/>
       <c r="AE21" s="40"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
+      <c r="AF21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH21" s="21"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -6204,8 +6263,14 @@
       <c r="AC22" s="47"/>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
+      <c r="AF22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH22" s="21"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -6242,8 +6307,14 @@
       <c r="AC23" s="47"/>
       <c r="AD23" s="40"/>
       <c r="AE23" s="40"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
+      <c r="AF23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH23" s="21"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -6280,8 +6351,14 @@
       <c r="AC24" s="47"/>
       <c r="AD24" s="40"/>
       <c r="AE24" s="40"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
+      <c r="AF24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH24" s="21"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -6318,8 +6395,14 @@
       <c r="AC25" s="47"/>
       <c r="AD25" s="40"/>
       <c r="AE25" s="40"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
+      <c r="AF25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH25" s="21"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -6356,8 +6439,14 @@
       <c r="AC26" s="47"/>
       <c r="AD26" s="40"/>
       <c r="AE26" s="40"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
+      <c r="AF26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH26" s="21"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -6394,8 +6483,14 @@
       <c r="AC27" s="47"/>
       <c r="AD27" s="40"/>
       <c r="AE27" s="40"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
+      <c r="AF27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH27" s="21"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -6432,8 +6527,14 @@
       <c r="AC28" s="47"/>
       <c r="AD28" s="40"/>
       <c r="AE28" s="40"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
+      <c r="AF28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH28" s="21"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -6470,8 +6571,14 @@
       <c r="AC29" s="47"/>
       <c r="AD29" s="40"/>
       <c r="AE29" s="40"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
+      <c r="AF29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH29" s="21"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -6513,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="20">
-        <f t="shared" ref="AG30:AG31" si="2">D30+F30+H30+J30+L30+N30+P30+R30+T30+V30+X30+Z30+AB30+AD30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH30" s="21"/>
@@ -6600,122 +6707,122 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="282"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="284">
+      <c r="B33" s="276"/>
+      <c r="C33" s="277"/>
+      <c r="D33" s="278">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="284"/>
-      <c r="F33" s="261">
+      <c r="E33" s="278"/>
+      <c r="F33" s="267">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="261"/>
-      <c r="H33" s="260">
+      <c r="G33" s="267"/>
+      <c r="H33" s="280">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="260"/>
-      <c r="J33" s="261">
+      <c r="I33" s="280"/>
+      <c r="J33" s="267">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
         <v>23</v>
       </c>
-      <c r="K33" s="261"/>
-      <c r="L33" s="281">
+      <c r="K33" s="267"/>
+      <c r="L33" s="275">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="281"/>
-      <c r="N33" s="261">
+      <c r="M33" s="275"/>
+      <c r="N33" s="267">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>40</v>
       </c>
-      <c r="O33" s="261"/>
-      <c r="P33" s="274">
+      <c r="O33" s="267"/>
+      <c r="P33" s="268">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="274"/>
-      <c r="R33" s="261">
+      <c r="Q33" s="268"/>
+      <c r="R33" s="267">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>74</v>
       </c>
-      <c r="S33" s="261"/>
-      <c r="T33" s="275">
+      <c r="S33" s="267"/>
+      <c r="T33" s="269">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="275"/>
-      <c r="V33" s="261">
+      <c r="U33" s="269"/>
+      <c r="V33" s="267">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
         <v>10</v>
       </c>
-      <c r="W33" s="261"/>
-      <c r="X33" s="276">
+      <c r="W33" s="267"/>
+      <c r="X33" s="270">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
         <v>59</v>
       </c>
-      <c r="Y33" s="276"/>
-      <c r="Z33" s="261">
+      <c r="Y33" s="270"/>
+      <c r="Z33" s="267">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
+        <v>53</v>
+      </c>
+      <c r="AA33" s="267"/>
+      <c r="AB33" s="271">
+        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
         <v>55</v>
       </c>
-      <c r="AA33" s="261"/>
-      <c r="AB33" s="277">
-        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
-        <v>57</v>
-      </c>
-      <c r="AC33" s="277"/>
-      <c r="AD33" s="261">
+      <c r="AC33" s="271"/>
+      <c r="AD33" s="267">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="261"/>
+      <c r="AE33" s="267"/>
       <c r="AF33" s="48"/>
-      <c r="AG33" s="20">
+      <c r="AG33" s="338">
         <f t="shared" si="1"/>
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AH33" s="64"/>
     </row>
     <row r="34" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="278" t="s">
+      <c r="A34" s="272" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="279"/>
-      <c r="C34" s="279"/>
-      <c r="D34" s="279"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279"/>
-      <c r="K34" s="279"/>
-      <c r="L34" s="279"/>
-      <c r="M34" s="279"/>
-      <c r="N34" s="279"/>
-      <c r="O34" s="279"/>
-      <c r="P34" s="279"/>
-      <c r="Q34" s="279"/>
-      <c r="R34" s="279"/>
-      <c r="S34" s="279"/>
-      <c r="T34" s="279"/>
-      <c r="U34" s="279"/>
-      <c r="V34" s="279"/>
-      <c r="W34" s="279"/>
-      <c r="X34" s="279"/>
-      <c r="Y34" s="279"/>
-      <c r="Z34" s="279"/>
-      <c r="AA34" s="279"/>
-      <c r="AB34" s="279"/>
-      <c r="AC34" s="279"/>
-      <c r="AD34" s="279"/>
-      <c r="AE34" s="280"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="273"/>
+      <c r="E34" s="273"/>
+      <c r="F34" s="273"/>
+      <c r="G34" s="273"/>
+      <c r="H34" s="273"/>
+      <c r="I34" s="273"/>
+      <c r="J34" s="273"/>
+      <c r="K34" s="273"/>
+      <c r="L34" s="273"/>
+      <c r="M34" s="273"/>
+      <c r="N34" s="273"/>
+      <c r="O34" s="273"/>
+      <c r="P34" s="273"/>
+      <c r="Q34" s="273"/>
+      <c r="R34" s="273"/>
+      <c r="S34" s="273"/>
+      <c r="T34" s="273"/>
+      <c r="U34" s="273"/>
+      <c r="V34" s="273"/>
+      <c r="W34" s="273"/>
+      <c r="X34" s="273"/>
+      <c r="Y34" s="273"/>
+      <c r="Z34" s="273"/>
+      <c r="AA34" s="273"/>
+      <c r="AB34" s="273"/>
+      <c r="AC34" s="273"/>
+      <c r="AD34" s="273"/>
+      <c r="AE34" s="274"/>
       <c r="AF34" s="65">
         <f>SUM(AF9:AF31)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG34" s="65">
         <f>SUM(AG9:AG31)</f>
@@ -6724,60 +6831,64 @@
       <c r="AH34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="278" t="s">
+      <c r="A35" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="279"/>
-      <c r="C35" s="279"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
-      <c r="K35" s="279"/>
-      <c r="L35" s="279"/>
-      <c r="M35" s="279"/>
-      <c r="N35" s="279"/>
-      <c r="O35" s="279"/>
-      <c r="P35" s="279"/>
-      <c r="Q35" s="279"/>
-      <c r="R35" s="279"/>
-      <c r="S35" s="279"/>
-      <c r="T35" s="279"/>
-      <c r="U35" s="279"/>
-      <c r="V35" s="279"/>
-      <c r="W35" s="279"/>
-      <c r="X35" s="279"/>
-      <c r="Y35" s="279"/>
-      <c r="Z35" s="279"/>
-      <c r="AA35" s="279"/>
-      <c r="AB35" s="279"/>
-      <c r="AC35" s="279"/>
-      <c r="AD35" s="279"/>
-      <c r="AE35" s="280"/>
-      <c r="AF35" s="272">
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="273"/>
+      <c r="G35" s="273"/>
+      <c r="H35" s="273"/>
+      <c r="I35" s="273"/>
+      <c r="J35" s="273"/>
+      <c r="K35" s="273"/>
+      <c r="L35" s="273"/>
+      <c r="M35" s="273"/>
+      <c r="N35" s="273"/>
+      <c r="O35" s="273"/>
+      <c r="P35" s="273"/>
+      <c r="Q35" s="273"/>
+      <c r="R35" s="273"/>
+      <c r="S35" s="273"/>
+      <c r="T35" s="273"/>
+      <c r="U35" s="273"/>
+      <c r="V35" s="273"/>
+      <c r="W35" s="273"/>
+      <c r="X35" s="273"/>
+      <c r="Y35" s="273"/>
+      <c r="Z35" s="273"/>
+      <c r="AA35" s="273"/>
+      <c r="AB35" s="273"/>
+      <c r="AC35" s="273"/>
+      <c r="AD35" s="273"/>
+      <c r="AE35" s="274"/>
+      <c r="AF35" s="265">
         <f>AG34-AF34</f>
-        <v>319</v>
-      </c>
-      <c r="AG35" s="273"/>
+        <v>315</v>
+      </c>
+      <c r="AG35" s="266"/>
       <c r="AH35" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -6794,25 +6905,22 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6888,146 +6996,146 @@
       <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="318" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="318"/>
       <c r="O3" s="124"/>
       <c r="P3" s="124"/>
       <c r="Q3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="318" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="290"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318"/>
+      <c r="H4" s="318"/>
+      <c r="I4" s="318"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="318"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="318"/>
       <c r="O4" s="124"/>
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="290"/>
-      <c r="B5" s="290"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
+      <c r="A5" s="318"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="319"/>
+      <c r="J5" s="319"/>
       <c r="K5" s="73"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74"/>
     </row>
     <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="294" t="s">
+      <c r="B6" s="322" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="294"/>
-      <c r="D6" s="295" t="s">
+      <c r="C6" s="322"/>
+      <c r="D6" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="295"/>
-      <c r="F6" s="295"/>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="295"/>
-      <c r="K6" s="300" t="s">
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="326" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="301" t="s">
+      <c r="L6" s="326"/>
+      <c r="M6" s="326"/>
+      <c r="N6" s="327" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="293"/>
-      <c r="B7" s="296" t="s">
+      <c r="A7" s="321"/>
+      <c r="B7" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="296" t="s">
+      <c r="C7" s="324" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="296" t="s">
+      <c r="D7" s="324" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="296" t="s">
+      <c r="E7" s="324" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="298" t="s">
+      <c r="F7" s="290" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="298" t="s">
+      <c r="G7" s="290" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="328" t="s">
+      <c r="H7" s="301" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="328"/>
-      <c r="J7" s="298" t="s">
+      <c r="I7" s="301"/>
+      <c r="J7" s="290" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="298" t="s">
+      <c r="K7" s="290" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="298" t="s">
+      <c r="L7" s="290" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="298" t="s">
+      <c r="M7" s="290" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="302"/>
+      <c r="N7" s="328"/>
     </row>
     <row r="8" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="293"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
+      <c r="A8" s="321"/>
+      <c r="B8" s="325"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="291"/>
+      <c r="G8" s="291"/>
       <c r="H8" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="299"/>
-      <c r="N8" s="302"/>
+      <c r="J8" s="291"/>
+      <c r="K8" s="291"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="328"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="132">
@@ -7069,10 +7177,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="313">
+      <c r="A10" s="298">
         <v>43958</v>
       </c>
-      <c r="B10" s="321" t="s">
+      <c r="B10" s="292" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="115"/>
@@ -7103,8 +7211,8 @@
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="314"/>
-      <c r="B11" s="323"/>
+      <c r="A11" s="300"/>
+      <c r="B11" s="294"/>
       <c r="C11" s="137"/>
       <c r="D11" s="84" t="s">
         <v>21</v>
@@ -7133,10 +7241,10 @@
       <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="313">
+      <c r="A12" s="298">
         <v>43958</v>
       </c>
-      <c r="B12" s="321" t="s">
+      <c r="B12" s="292" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="115"/>
@@ -7167,8 +7275,8 @@
       <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="314"/>
-      <c r="B13" s="323"/>
+      <c r="A13" s="300"/>
+      <c r="B13" s="294"/>
       <c r="C13" s="90"/>
       <c r="D13" s="84" t="s">
         <v>16</v>
@@ -7231,10 +7339,10 @@
       <c r="N14" s="145"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="313">
+      <c r="A15" s="298">
         <v>43958</v>
       </c>
-      <c r="B15" s="321" t="s">
+      <c r="B15" s="292" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="115"/>
@@ -7251,7 +7359,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="324">
+      <c r="H15" s="295">
         <v>288000</v>
       </c>
       <c r="I15" s="83">
@@ -7267,13 +7375,13 @@
       </c>
       <c r="L15" s="139"/>
       <c r="M15" s="139"/>
-      <c r="N15" s="310" t="s">
+      <c r="N15" s="305" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="327"/>
-      <c r="B16" s="322"/>
+      <c r="A16" s="299"/>
+      <c r="B16" s="293"/>
       <c r="C16" s="116"/>
       <c r="D16" s="91" t="s">
         <v>20</v>
@@ -7288,7 +7396,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="325"/>
+      <c r="H16" s="296"/>
       <c r="I16" s="93">
         <v>0.1</v>
       </c>
@@ -7302,11 +7410,11 @@
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
-      <c r="N16" s="311"/>
+      <c r="N16" s="306"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="327"/>
-      <c r="B17" s="322"/>
+      <c r="A17" s="299"/>
+      <c r="B17" s="293"/>
       <c r="C17" s="116"/>
       <c r="D17" s="91" t="s">
         <v>10</v>
@@ -7321,7 +7429,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="325"/>
+      <c r="H17" s="296"/>
       <c r="I17" s="93">
         <v>0.1</v>
       </c>
@@ -7335,11 +7443,11 @@
       </c>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
-      <c r="N17" s="311"/>
+      <c r="N17" s="306"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="314"/>
-      <c r="B18" s="323"/>
+      <c r="A18" s="300"/>
+      <c r="B18" s="294"/>
       <c r="C18" s="90"/>
       <c r="D18" s="90" t="s">
         <v>21</v>
@@ -7354,7 +7462,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="326"/>
+      <c r="H18" s="297"/>
       <c r="I18" s="149">
         <v>0.1</v>
       </c>
@@ -7368,13 +7476,13 @@
       </c>
       <c r="L18" s="148"/>
       <c r="M18" s="148"/>
-      <c r="N18" s="312"/>
+      <c r="N18" s="307"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="313">
+      <c r="A19" s="298">
         <v>43958</v>
       </c>
-      <c r="B19" s="321" t="s">
+      <c r="B19" s="292" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="138"/>
@@ -7407,13 +7515,13 @@
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="146"/>
-      <c r="N19" s="316" t="s">
+      <c r="N19" s="309" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="327"/>
-      <c r="B20" s="322"/>
+      <c r="A20" s="299"/>
+      <c r="B20" s="293"/>
       <c r="C20" s="87"/>
       <c r="D20" s="87" t="s">
         <v>21</v>
@@ -7444,11 +7552,11 @@
       </c>
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
-      <c r="N20" s="317"/>
+      <c r="N20" s="310"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="314"/>
-      <c r="B21" s="323"/>
+      <c r="A21" s="300"/>
+      <c r="B21" s="294"/>
       <c r="C21" s="150"/>
       <c r="D21" s="150" t="s">
         <v>14</v>
@@ -7479,7 +7587,7 @@
       </c>
       <c r="L21" s="151"/>
       <c r="M21" s="151"/>
-      <c r="N21" s="318"/>
+      <c r="N21" s="311"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="142">
@@ -7561,7 +7669,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="313">
+      <c r="A24" s="298">
         <v>43962</v>
       </c>
       <c r="B24" s="177" t="s">
@@ -7597,12 +7705,12 @@
       </c>
       <c r="L24" s="82"/>
       <c r="M24" s="82"/>
-      <c r="N24" s="319" t="s">
+      <c r="N24" s="312" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="314"/>
+      <c r="A25" s="300"/>
       <c r="B25" s="90" t="s">
         <v>68</v>
       </c>
@@ -7636,7 +7744,7 @@
       </c>
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
-      <c r="N25" s="320"/>
+      <c r="N25" s="313"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="142">
@@ -7873,7 +7981,7 @@
       <c r="K35" s="92"/>
       <c r="L35" s="92"/>
       <c r="M35" s="92"/>
-      <c r="N35" s="307"/>
+      <c r="N35" s="316"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="118"/>
@@ -7895,7 +8003,7 @@
       <c r="K36" s="92"/>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
-      <c r="N36" s="307"/>
+      <c r="N36" s="316"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
@@ -7917,7 +8025,7 @@
       <c r="K37" s="92"/>
       <c r="L37" s="92"/>
       <c r="M37" s="92"/>
-      <c r="N37" s="307"/>
+      <c r="N37" s="316"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
@@ -7939,7 +8047,7 @@
       <c r="K38" s="92"/>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
-      <c r="N38" s="307"/>
+      <c r="N38" s="316"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
@@ -7961,7 +8069,7 @@
       <c r="K39" s="92"/>
       <c r="L39" s="92"/>
       <c r="M39" s="92"/>
-      <c r="N39" s="307"/>
+      <c r="N39" s="316"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
@@ -7983,7 +8091,7 @@
       <c r="K40" s="92"/>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
-      <c r="N40" s="307"/>
+      <c r="N40" s="316"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="117"/>
@@ -8049,7 +8157,7 @@
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
       <c r="M43" s="96"/>
-      <c r="N43" s="308"/>
+      <c r="N43" s="317"/>
     </row>
     <row r="44" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
@@ -8071,7 +8179,7 @@
       <c r="K44" s="96"/>
       <c r="L44" s="96"/>
       <c r="M44" s="96"/>
-      <c r="N44" s="308"/>
+      <c r="N44" s="317"/>
     </row>
     <row r="45" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
@@ -8093,7 +8201,7 @@
       <c r="K45" s="96"/>
       <c r="L45" s="96"/>
       <c r="M45" s="96"/>
-      <c r="N45" s="308"/>
+      <c r="N45" s="317"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
@@ -8668,12 +8776,12 @@
       <c r="N71" s="84"/>
     </row>
     <row r="72" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="305" t="s">
+      <c r="A72" s="314" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="306"/>
-      <c r="C72" s="306"/>
-      <c r="D72" s="306"/>
+      <c r="B72" s="315"/>
+      <c r="C72" s="315"/>
+      <c r="D72" s="315"/>
       <c r="E72" s="158">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -8699,7 +8807,7 @@
       </c>
       <c r="M72" s="162"/>
       <c r="N72" s="179"/>
-      <c r="O72" s="309"/>
+      <c r="O72" s="302"/>
     </row>
     <row r="73" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="303" t="s">
@@ -8721,7 +8829,7 @@
       <c r="L73" s="102"/>
       <c r="M73" s="102"/>
       <c r="N73" s="179"/>
-      <c r="O73" s="309"/>
+      <c r="O73" s="302"/>
     </row>
     <row r="74" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="303" t="s">
@@ -8729,7 +8837,7 @@
       </c>
       <c r="B74" s="304"/>
       <c r="C74" s="304"/>
-      <c r="D74" s="315"/>
+      <c r="D74" s="308"/>
       <c r="E74" s="156"/>
       <c r="F74" s="156"/>
       <c r="G74" s="99">
@@ -8834,32 +8942,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -8876,6 +8958,32 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8886,7 +8994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DOANH THU" sheetId="2" r:id="rId4"/>
     <sheet name="CHI PHÍ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1187,7 +1187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -2142,6 +2142,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2385,7 +2386,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2452,7 +2452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2487,7 +2487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2703,27 +2703,27 @@
       <selection pane="bottomLeft" activeCell="R44" sqref="R44:S44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="68" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="257" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
+      <c r="A1" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2756,11 +2756,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2796,235 +2796,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="283" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="282"/>
-      <c r="N3" s="282"/>
-      <c r="O3" s="282"/>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="282"/>
-      <c r="R3" s="282"/>
-      <c r="S3" s="282"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="283"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="283"/>
+      <c r="T3" s="283"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283"/>
+      <c r="W3" s="283"/>
+      <c r="X3" s="283"/>
+      <c r="Y3" s="283"/>
+      <c r="Z3" s="283"/>
+      <c r="AA3" s="283"/>
+      <c r="AB3" s="283"/>
+      <c r="AC3" s="283"/>
+      <c r="AD3" s="283"/>
+      <c r="AE3" s="283"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="283"/>
+      <c r="AH3" s="283"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="283" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="282"/>
-      <c r="AA4" s="282"/>
-      <c r="AB4" s="282"/>
-      <c r="AC4" s="282"/>
-      <c r="AD4" s="282"/>
-      <c r="AE4" s="282"/>
-      <c r="AF4" s="282"/>
-      <c r="AG4" s="282"/>
-      <c r="AH4" s="282"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="282"/>
-      <c r="J5" s="282"/>
-      <c r="K5" s="282"/>
-      <c r="L5" s="282"/>
-      <c r="M5" s="282"/>
-      <c r="N5" s="282"/>
-      <c r="O5" s="282"/>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="282"/>
-      <c r="R5" s="282"/>
-      <c r="S5" s="282"/>
-      <c r="T5" s="282"/>
-      <c r="U5" s="282"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="282"/>
-      <c r="X5" s="282"/>
-      <c r="Y5" s="282"/>
-      <c r="Z5" s="282"/>
-      <c r="AA5" s="282"/>
-      <c r="AB5" s="282"/>
-      <c r="AC5" s="282"/>
-      <c r="AD5" s="282"/>
-      <c r="AE5" s="282"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
+      <c r="M4" s="283"/>
+      <c r="N4" s="283"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="283"/>
+      <c r="Q4" s="283"/>
+      <c r="R4" s="283"/>
+      <c r="S4" s="283"/>
+      <c r="T4" s="283"/>
+      <c r="U4" s="283"/>
+      <c r="V4" s="283"/>
+      <c r="W4" s="283"/>
+      <c r="X4" s="283"/>
+      <c r="Y4" s="283"/>
+      <c r="Z4" s="283"/>
+      <c r="AA4" s="283"/>
+      <c r="AB4" s="283"/>
+      <c r="AC4" s="283"/>
+      <c r="AD4" s="283"/>
+      <c r="AE4" s="283"/>
+      <c r="AF4" s="283"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="283"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="283"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="283"/>
+      <c r="R5" s="283"/>
+      <c r="S5" s="283"/>
+      <c r="T5" s="283"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="283"/>
+      <c r="W5" s="283"/>
+      <c r="X5" s="283"/>
+      <c r="Y5" s="283"/>
+      <c r="Z5" s="283"/>
+      <c r="AA5" s="283"/>
+      <c r="AB5" s="283"/>
+      <c r="AC5" s="283"/>
+      <c r="AD5" s="283"/>
+      <c r="AE5" s="283"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="284" t="s">
+      <c r="C6" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="285" t="s">
+      <c r="D6" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="286"/>
-      <c r="N6" s="286"/>
-      <c r="O6" s="286"/>
-      <c r="P6" s="286"/>
-      <c r="Q6" s="286"/>
-      <c r="R6" s="286"/>
-      <c r="S6" s="286"/>
-      <c r="T6" s="286"/>
-      <c r="U6" s="286"/>
-      <c r="V6" s="286"/>
-      <c r="W6" s="286"/>
-      <c r="X6" s="286"/>
-      <c r="Y6" s="286"/>
-      <c r="Z6" s="286"/>
-      <c r="AA6" s="286"/>
-      <c r="AB6" s="286"/>
-      <c r="AC6" s="286"/>
-      <c r="AD6" s="286"/>
-      <c r="AE6" s="286"/>
-      <c r="AF6" s="286"/>
-      <c r="AG6" s="287"/>
-      <c r="AH6" s="260" t="s">
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="287"/>
+      <c r="P6" s="287"/>
+      <c r="Q6" s="287"/>
+      <c r="R6" s="287"/>
+      <c r="S6" s="287"/>
+      <c r="T6" s="287"/>
+      <c r="U6" s="287"/>
+      <c r="V6" s="287"/>
+      <c r="W6" s="287"/>
+      <c r="X6" s="287"/>
+      <c r="Y6" s="287"/>
+      <c r="Z6" s="287"/>
+      <c r="AA6" s="287"/>
+      <c r="AB6" s="287"/>
+      <c r="AC6" s="287"/>
+      <c r="AD6" s="287"/>
+      <c r="AE6" s="287"/>
+      <c r="AF6" s="287"/>
+      <c r="AG6" s="288"/>
+      <c r="AH6" s="261" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="260"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="288" t="s">
+      <c r="A7" s="261"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="289" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="288"/>
-      <c r="F7" s="260" t="s">
+      <c r="E7" s="289"/>
+      <c r="F7" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="289" t="s">
+      <c r="G7" s="261"/>
+      <c r="H7" s="290" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="289"/>
-      <c r="J7" s="260" t="s">
+      <c r="I7" s="290"/>
+      <c r="J7" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="260"/>
-      <c r="L7" s="264" t="s">
+      <c r="K7" s="261"/>
+      <c r="L7" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="264"/>
-      <c r="N7" s="260" t="s">
+      <c r="M7" s="265"/>
+      <c r="N7" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="260"/>
-      <c r="P7" s="259" t="s">
+      <c r="O7" s="261"/>
+      <c r="P7" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="260" t="s">
+      <c r="Q7" s="260"/>
+      <c r="R7" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261" t="s">
+      <c r="S7" s="261"/>
+      <c r="T7" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="261"/>
-      <c r="V7" s="260" t="s">
+      <c r="U7" s="262"/>
+      <c r="V7" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="260"/>
-      <c r="X7" s="279" t="s">
+      <c r="W7" s="261"/>
+      <c r="X7" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="279"/>
-      <c r="Z7" s="260" t="s">
+      <c r="Y7" s="280"/>
+      <c r="Z7" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="260"/>
-      <c r="AB7" s="258" t="s">
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="258"/>
-      <c r="AD7" s="260" t="s">
+      <c r="AC7" s="259"/>
+      <c r="AD7" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="260"/>
-      <c r="AF7" s="262" t="s">
+      <c r="AE7" s="261"/>
+      <c r="AF7" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="262" t="s">
+      <c r="AG7" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="260"/>
+      <c r="AH7" s="261"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="260"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="284"/>
+      <c r="A8" s="261"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="285"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3109,9 +3109,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="260"/>
+      <c r="AF8" s="264"/>
+      <c r="AG8" s="264"/>
+      <c r="AH8" s="261"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="AH13" s="95"/>
     </row>
-    <row r="14" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="94" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="176">
         <v>6</v>
       </c>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="AH21" s="95"/>
     </row>
-    <row r="22" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="176">
         <v>14</v>
       </c>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="AH24" s="95"/>
     </row>
-    <row r="25" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="81">
         <v>17</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="AH25" s="95"/>
     </row>
-    <row r="26" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="176">
         <v>18</v>
       </c>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="AH26" s="95"/>
     </row>
-    <row r="27" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="81">
         <v>19</v>
       </c>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="AH27" s="95"/>
     </row>
-    <row r="28" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="176">
         <v>20</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="AH28" s="95"/>
     </row>
-    <row r="29" spans="1:34" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="94" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="81">
         <v>21</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="AH29" s="95"/>
     </row>
-    <row r="30" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="176">
         <v>22</v>
       </c>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="AH30" s="95"/>
     </row>
-    <row r="31" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="81">
         <v>23</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="AH32" s="95"/>
     </row>
-    <row r="33" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="81">
         <v>25</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="AH33" s="95"/>
     </row>
-    <row r="34" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="176">
         <v>26</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="81">
         <v>33</v>
       </c>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="59"/>
       <c r="C43" s="129"/>
@@ -4939,80 +4939,80 @@
       <c r="AG43" s="61"/>
       <c r="AH43" s="60"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="276"/>
-      <c r="C44" s="277"/>
-      <c r="D44" s="278">
+      <c r="B44" s="277"/>
+      <c r="C44" s="278"/>
+      <c r="D44" s="279">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="278"/>
-      <c r="F44" s="267">
+      <c r="E44" s="279"/>
+      <c r="F44" s="268">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="267"/>
-      <c r="H44" s="280">
+      <c r="G44" s="268"/>
+      <c r="H44" s="281">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="280"/>
-      <c r="J44" s="267">
+      <c r="I44" s="281"/>
+      <c r="J44" s="268">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="267"/>
-      <c r="L44" s="275">
+      <c r="K44" s="268"/>
+      <c r="L44" s="276">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="275"/>
-      <c r="N44" s="267">
+      <c r="M44" s="276"/>
+      <c r="N44" s="268">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="267"/>
-      <c r="P44" s="268">
+      <c r="O44" s="268"/>
+      <c r="P44" s="269">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="268"/>
-      <c r="R44" s="267">
+      <c r="Q44" s="269"/>
+      <c r="R44" s="268">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="267"/>
-      <c r="T44" s="269">
+      <c r="S44" s="268"/>
+      <c r="T44" s="270">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="269"/>
-      <c r="V44" s="267">
+      <c r="U44" s="270"/>
+      <c r="V44" s="268">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="267"/>
-      <c r="X44" s="270">
+      <c r="W44" s="268"/>
+      <c r="X44" s="271">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="270"/>
-      <c r="Z44" s="267">
+      <c r="Y44" s="271"/>
+      <c r="Z44" s="268">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="267"/>
-      <c r="AB44" s="271">
+      <c r="AA44" s="268"/>
+      <c r="AB44" s="272">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="271"/>
-      <c r="AD44" s="267">
+      <c r="AC44" s="272"/>
+      <c r="AD44" s="268">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="267"/>
+      <c r="AE44" s="268"/>
       <c r="AF44" s="48"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5021,39 +5021,39 @@
       <c r="AH44" s="64"/>
     </row>
     <row r="45" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="272" t="s">
+      <c r="A45" s="273" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="273"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="273"/>
-      <c r="E45" s="273"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="273"/>
-      <c r="H45" s="273"/>
-      <c r="I45" s="273"/>
-      <c r="J45" s="273"/>
-      <c r="K45" s="273"/>
-      <c r="L45" s="273"/>
-      <c r="M45" s="273"/>
-      <c r="N45" s="273"/>
-      <c r="O45" s="273"/>
-      <c r="P45" s="273"/>
-      <c r="Q45" s="273"/>
-      <c r="R45" s="273"/>
-      <c r="S45" s="273"/>
-      <c r="T45" s="273"/>
-      <c r="U45" s="273"/>
-      <c r="V45" s="273"/>
-      <c r="W45" s="273"/>
-      <c r="X45" s="273"/>
-      <c r="Y45" s="273"/>
-      <c r="Z45" s="273"/>
-      <c r="AA45" s="273"/>
-      <c r="AB45" s="273"/>
-      <c r="AC45" s="273"/>
-      <c r="AD45" s="273"/>
-      <c r="AE45" s="274"/>
+      <c r="B45" s="274"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="274"/>
+      <c r="E45" s="274"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="274"/>
+      <c r="H45" s="274"/>
+      <c r="I45" s="274"/>
+      <c r="J45" s="274"/>
+      <c r="K45" s="274"/>
+      <c r="L45" s="274"/>
+      <c r="M45" s="274"/>
+      <c r="N45" s="274"/>
+      <c r="O45" s="274"/>
+      <c r="P45" s="274"/>
+      <c r="Q45" s="274"/>
+      <c r="R45" s="274"/>
+      <c r="S45" s="274"/>
+      <c r="T45" s="274"/>
+      <c r="U45" s="274"/>
+      <c r="V45" s="274"/>
+      <c r="W45" s="274"/>
+      <c r="X45" s="274"/>
+      <c r="Y45" s="274"/>
+      <c r="Z45" s="274"/>
+      <c r="AA45" s="274"/>
+      <c r="AB45" s="274"/>
+      <c r="AC45" s="274"/>
+      <c r="AD45" s="274"/>
+      <c r="AE45" s="275"/>
       <c r="AF45" s="65">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5065,44 +5065,44 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="272" t="s">
+      <c r="A46" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="273"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="273"/>
-      <c r="E46" s="273"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="273"/>
-      <c r="H46" s="273"/>
-      <c r="I46" s="273"/>
-      <c r="J46" s="273"/>
-      <c r="K46" s="273"/>
-      <c r="L46" s="273"/>
-      <c r="M46" s="273"/>
-      <c r="N46" s="273"/>
-      <c r="O46" s="273"/>
-      <c r="P46" s="273"/>
-      <c r="Q46" s="273"/>
-      <c r="R46" s="273"/>
-      <c r="S46" s="273"/>
-      <c r="T46" s="273"/>
-      <c r="U46" s="273"/>
-      <c r="V46" s="273"/>
-      <c r="W46" s="273"/>
-      <c r="X46" s="273"/>
-      <c r="Y46" s="273"/>
-      <c r="Z46" s="273"/>
-      <c r="AA46" s="273"/>
-      <c r="AB46" s="273"/>
-      <c r="AC46" s="273"/>
-      <c r="AD46" s="273"/>
-      <c r="AE46" s="274"/>
-      <c r="AF46" s="265">
+      <c r="B46" s="274"/>
+      <c r="C46" s="274"/>
+      <c r="D46" s="274"/>
+      <c r="E46" s="274"/>
+      <c r="F46" s="274"/>
+      <c r="G46" s="274"/>
+      <c r="H46" s="274"/>
+      <c r="I46" s="274"/>
+      <c r="J46" s="274"/>
+      <c r="K46" s="274"/>
+      <c r="L46" s="274"/>
+      <c r="M46" s="274"/>
+      <c r="N46" s="274"/>
+      <c r="O46" s="274"/>
+      <c r="P46" s="274"/>
+      <c r="Q46" s="274"/>
+      <c r="R46" s="274"/>
+      <c r="S46" s="274"/>
+      <c r="T46" s="274"/>
+      <c r="U46" s="274"/>
+      <c r="V46" s="274"/>
+      <c r="W46" s="274"/>
+      <c r="X46" s="274"/>
+      <c r="Y46" s="274"/>
+      <c r="Z46" s="274"/>
+      <c r="AA46" s="274"/>
+      <c r="AB46" s="274"/>
+      <c r="AC46" s="274"/>
+      <c r="AD46" s="274"/>
+      <c r="AE46" s="275"/>
+      <c r="AF46" s="266">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="266"/>
+      <c r="AG46" s="267"/>
       <c r="AH46" s="66"/>
     </row>
   </sheetData>
@@ -5163,31 +5163,31 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL29" sqref="AL29"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="68" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="257" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
+      <c r="A1" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
       <c r="I1" s="246"/>
@@ -5220,11 +5220,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
       <c r="D2" s="253"/>
       <c r="E2" s="253"/>
       <c r="F2" s="253"/>
@@ -5260,235 +5260,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="283" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="282"/>
-      <c r="N3" s="282"/>
-      <c r="O3" s="282"/>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="282"/>
-      <c r="R3" s="282"/>
-      <c r="S3" s="282"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="283"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="283"/>
+      <c r="T3" s="283"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283"/>
+      <c r="W3" s="283"/>
+      <c r="X3" s="283"/>
+      <c r="Y3" s="283"/>
+      <c r="Z3" s="283"/>
+      <c r="AA3" s="283"/>
+      <c r="AB3" s="283"/>
+      <c r="AC3" s="283"/>
+      <c r="AD3" s="283"/>
+      <c r="AE3" s="283"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="283"/>
+      <c r="AH3" s="283"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="283" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="282"/>
-      <c r="AA4" s="282"/>
-      <c r="AB4" s="282"/>
-      <c r="AC4" s="282"/>
-      <c r="AD4" s="282"/>
-      <c r="AE4" s="282"/>
-      <c r="AF4" s="282"/>
-      <c r="AG4" s="282"/>
-      <c r="AH4" s="282"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
+      <c r="M4" s="283"/>
+      <c r="N4" s="283"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="283"/>
+      <c r="Q4" s="283"/>
+      <c r="R4" s="283"/>
+      <c r="S4" s="283"/>
+      <c r="T4" s="283"/>
+      <c r="U4" s="283"/>
+      <c r="V4" s="283"/>
+      <c r="W4" s="283"/>
+      <c r="X4" s="283"/>
+      <c r="Y4" s="283"/>
+      <c r="Z4" s="283"/>
+      <c r="AA4" s="283"/>
+      <c r="AB4" s="283"/>
+      <c r="AC4" s="283"/>
+      <c r="AD4" s="283"/>
+      <c r="AE4" s="283"/>
+      <c r="AF4" s="283"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="283"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="282"/>
-      <c r="J5" s="282"/>
-      <c r="K5" s="282"/>
-      <c r="L5" s="282"/>
-      <c r="M5" s="282"/>
-      <c r="N5" s="282"/>
-      <c r="O5" s="282"/>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="282"/>
-      <c r="R5" s="282"/>
-      <c r="S5" s="282"/>
-      <c r="T5" s="282"/>
-      <c r="U5" s="282"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="282"/>
-      <c r="X5" s="282"/>
-      <c r="Y5" s="282"/>
-      <c r="Z5" s="282"/>
-      <c r="AA5" s="282"/>
-      <c r="AB5" s="282"/>
-      <c r="AC5" s="282"/>
-      <c r="AD5" s="282"/>
-      <c r="AE5" s="282"/>
+      <c r="A5" s="283"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="283"/>
+      <c r="R5" s="283"/>
+      <c r="S5" s="283"/>
+      <c r="T5" s="283"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="283"/>
+      <c r="W5" s="283"/>
+      <c r="X5" s="283"/>
+      <c r="Y5" s="283"/>
+      <c r="Z5" s="283"/>
+      <c r="AA5" s="283"/>
+      <c r="AB5" s="283"/>
+      <c r="AC5" s="283"/>
+      <c r="AD5" s="283"/>
+      <c r="AE5" s="283"/>
       <c r="AF5" s="254"/>
       <c r="AG5" s="254"/>
       <c r="AH5" s="254"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="284" t="s">
+      <c r="C6" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="285" t="s">
+      <c r="D6" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="286"/>
-      <c r="N6" s="286"/>
-      <c r="O6" s="286"/>
-      <c r="P6" s="286"/>
-      <c r="Q6" s="286"/>
-      <c r="R6" s="286"/>
-      <c r="S6" s="286"/>
-      <c r="T6" s="286"/>
-      <c r="U6" s="286"/>
-      <c r="V6" s="286"/>
-      <c r="W6" s="286"/>
-      <c r="X6" s="286"/>
-      <c r="Y6" s="286"/>
-      <c r="Z6" s="286"/>
-      <c r="AA6" s="286"/>
-      <c r="AB6" s="286"/>
-      <c r="AC6" s="286"/>
-      <c r="AD6" s="286"/>
-      <c r="AE6" s="286"/>
-      <c r="AF6" s="286"/>
-      <c r="AG6" s="287"/>
-      <c r="AH6" s="260" t="s">
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="287"/>
+      <c r="P6" s="287"/>
+      <c r="Q6" s="287"/>
+      <c r="R6" s="287"/>
+      <c r="S6" s="287"/>
+      <c r="T6" s="287"/>
+      <c r="U6" s="287"/>
+      <c r="V6" s="287"/>
+      <c r="W6" s="287"/>
+      <c r="X6" s="287"/>
+      <c r="Y6" s="287"/>
+      <c r="Z6" s="287"/>
+      <c r="AA6" s="287"/>
+      <c r="AB6" s="287"/>
+      <c r="AC6" s="287"/>
+      <c r="AD6" s="287"/>
+      <c r="AE6" s="287"/>
+      <c r="AF6" s="287"/>
+      <c r="AG6" s="288"/>
+      <c r="AH6" s="261" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="260"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="288" t="s">
+      <c r="A7" s="261"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="289" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="288"/>
-      <c r="F7" s="260" t="s">
+      <c r="E7" s="289"/>
+      <c r="F7" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="289" t="s">
+      <c r="G7" s="261"/>
+      <c r="H7" s="290" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="289"/>
-      <c r="J7" s="260" t="s">
+      <c r="I7" s="290"/>
+      <c r="J7" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="260"/>
-      <c r="L7" s="264" t="s">
+      <c r="K7" s="261"/>
+      <c r="L7" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="264"/>
-      <c r="N7" s="260" t="s">
+      <c r="M7" s="265"/>
+      <c r="N7" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="260"/>
-      <c r="P7" s="259" t="s">
+      <c r="O7" s="261"/>
+      <c r="P7" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="260" t="s">
+      <c r="Q7" s="260"/>
+      <c r="R7" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261" t="s">
+      <c r="S7" s="261"/>
+      <c r="T7" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="261"/>
-      <c r="V7" s="260" t="s">
+      <c r="U7" s="262"/>
+      <c r="V7" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="260"/>
-      <c r="X7" s="279" t="s">
+      <c r="W7" s="261"/>
+      <c r="X7" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="279"/>
-      <c r="Z7" s="260" t="s">
+      <c r="Y7" s="280"/>
+      <c r="Z7" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="260"/>
-      <c r="AB7" s="258" t="s">
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="258"/>
-      <c r="AD7" s="260" t="s">
+      <c r="AC7" s="259"/>
+      <c r="AD7" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="260"/>
-      <c r="AF7" s="262" t="s">
+      <c r="AE7" s="261"/>
+      <c r="AF7" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="262" t="s">
+      <c r="AG7" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="260"/>
+      <c r="AH7" s="261"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="260"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="284"/>
+      <c r="A8" s="261"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="285"/>
       <c r="D8" s="255" t="s">
         <v>23</v>
       </c>
@@ -5573,9 +5573,9 @@
       <c r="AE8" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="260"/>
+      <c r="AF8" s="264"/>
+      <c r="AG8" s="264"/>
+      <c r="AH8" s="261"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -5952,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="39">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C16" s="127" t="s">
         <v>155</v>
@@ -6002,7 +6002,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="39">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="C17" s="127" t="s">
         <v>137</v>
@@ -6101,8 +6101,12 @@
       <c r="A19" s="81">
         <v>11</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="127"/>
+      <c r="B19" s="39">
+        <v>43994</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>137</v>
+      </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="40"/>
@@ -6126,14 +6130,16 @@
       <c r="X19" s="46"/>
       <c r="Y19" s="46"/>
       <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
+      <c r="AA19" s="40">
+        <v>1</v>
+      </c>
       <c r="AB19" s="47"/>
       <c r="AC19" s="47"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
       <c r="AF19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="20">
         <f t="shared" si="2"/>
@@ -6707,122 +6713,122 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="276"/>
-      <c r="C33" s="277"/>
-      <c r="D33" s="278">
+      <c r="B33" s="277"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="279">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="278"/>
-      <c r="F33" s="267">
+      <c r="E33" s="279"/>
+      <c r="F33" s="268">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="267"/>
-      <c r="H33" s="280">
+      <c r="G33" s="268"/>
+      <c r="H33" s="281">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="280"/>
-      <c r="J33" s="267">
+      <c r="I33" s="281"/>
+      <c r="J33" s="268">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
         <v>23</v>
       </c>
-      <c r="K33" s="267"/>
-      <c r="L33" s="275">
+      <c r="K33" s="268"/>
+      <c r="L33" s="276">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="275"/>
-      <c r="N33" s="267">
+      <c r="M33" s="276"/>
+      <c r="N33" s="268">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
         <v>40</v>
       </c>
-      <c r="O33" s="267"/>
-      <c r="P33" s="268">
+      <c r="O33" s="268"/>
+      <c r="P33" s="269">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="268"/>
-      <c r="R33" s="267">
+      <c r="Q33" s="269"/>
+      <c r="R33" s="268">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>74</v>
       </c>
-      <c r="S33" s="267"/>
-      <c r="T33" s="269">
+      <c r="S33" s="268"/>
+      <c r="T33" s="270">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="269"/>
-      <c r="V33" s="267">
+      <c r="U33" s="270"/>
+      <c r="V33" s="268">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
         <v>10</v>
       </c>
-      <c r="W33" s="267"/>
-      <c r="X33" s="270">
+      <c r="W33" s="268"/>
+      <c r="X33" s="271">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
         <v>59</v>
       </c>
-      <c r="Y33" s="270"/>
-      <c r="Z33" s="267">
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="268">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
-        <v>53</v>
-      </c>
-      <c r="AA33" s="267"/>
-      <c r="AB33" s="271">
+        <v>52</v>
+      </c>
+      <c r="AA33" s="268"/>
+      <c r="AB33" s="272">
         <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
         <v>55</v>
       </c>
-      <c r="AC33" s="271"/>
-      <c r="AD33" s="267">
+      <c r="AC33" s="272"/>
+      <c r="AD33" s="268">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="267"/>
+      <c r="AE33" s="268"/>
       <c r="AF33" s="48"/>
-      <c r="AG33" s="338">
+      <c r="AG33" s="257">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH33" s="64"/>
     </row>
     <row r="34" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="272" t="s">
+      <c r="A34" s="273" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="273"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="273"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="273"/>
-      <c r="I34" s="273"/>
-      <c r="J34" s="273"/>
-      <c r="K34" s="273"/>
-      <c r="L34" s="273"/>
-      <c r="M34" s="273"/>
-      <c r="N34" s="273"/>
-      <c r="O34" s="273"/>
-      <c r="P34" s="273"/>
-      <c r="Q34" s="273"/>
-      <c r="R34" s="273"/>
-      <c r="S34" s="273"/>
-      <c r="T34" s="273"/>
-      <c r="U34" s="273"/>
-      <c r="V34" s="273"/>
-      <c r="W34" s="273"/>
-      <c r="X34" s="273"/>
-      <c r="Y34" s="273"/>
-      <c r="Z34" s="273"/>
-      <c r="AA34" s="273"/>
-      <c r="AB34" s="273"/>
-      <c r="AC34" s="273"/>
-      <c r="AD34" s="273"/>
-      <c r="AE34" s="274"/>
+      <c r="B34" s="274"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="274"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="274"/>
+      <c r="G34" s="274"/>
+      <c r="H34" s="274"/>
+      <c r="I34" s="274"/>
+      <c r="J34" s="274"/>
+      <c r="K34" s="274"/>
+      <c r="L34" s="274"/>
+      <c r="M34" s="274"/>
+      <c r="N34" s="274"/>
+      <c r="O34" s="274"/>
+      <c r="P34" s="274"/>
+      <c r="Q34" s="274"/>
+      <c r="R34" s="274"/>
+      <c r="S34" s="274"/>
+      <c r="T34" s="274"/>
+      <c r="U34" s="274"/>
+      <c r="V34" s="274"/>
+      <c r="W34" s="274"/>
+      <c r="X34" s="274"/>
+      <c r="Y34" s="274"/>
+      <c r="Z34" s="274"/>
+      <c r="AA34" s="274"/>
+      <c r="AB34" s="274"/>
+      <c r="AC34" s="274"/>
+      <c r="AD34" s="274"/>
+      <c r="AE34" s="275"/>
       <c r="AF34" s="65">
         <f>SUM(AF9:AF31)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG34" s="65">
         <f>SUM(AG9:AG31)</f>
@@ -6831,44 +6837,44 @@
       <c r="AH34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="272" t="s">
+      <c r="A35" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="273"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
-      <c r="H35" s="273"/>
-      <c r="I35" s="273"/>
-      <c r="J35" s="273"/>
-      <c r="K35" s="273"/>
-      <c r="L35" s="273"/>
-      <c r="M35" s="273"/>
-      <c r="N35" s="273"/>
-      <c r="O35" s="273"/>
-      <c r="P35" s="273"/>
-      <c r="Q35" s="273"/>
-      <c r="R35" s="273"/>
-      <c r="S35" s="273"/>
-      <c r="T35" s="273"/>
-      <c r="U35" s="273"/>
-      <c r="V35" s="273"/>
-      <c r="W35" s="273"/>
-      <c r="X35" s="273"/>
-      <c r="Y35" s="273"/>
-      <c r="Z35" s="273"/>
-      <c r="AA35" s="273"/>
-      <c r="AB35" s="273"/>
-      <c r="AC35" s="273"/>
-      <c r="AD35" s="273"/>
-      <c r="AE35" s="274"/>
-      <c r="AF35" s="265">
+      <c r="B35" s="274"/>
+      <c r="C35" s="274"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="274"/>
+      <c r="F35" s="274"/>
+      <c r="G35" s="274"/>
+      <c r="H35" s="274"/>
+      <c r="I35" s="274"/>
+      <c r="J35" s="274"/>
+      <c r="K35" s="274"/>
+      <c r="L35" s="274"/>
+      <c r="M35" s="274"/>
+      <c r="N35" s="274"/>
+      <c r="O35" s="274"/>
+      <c r="P35" s="274"/>
+      <c r="Q35" s="274"/>
+      <c r="R35" s="274"/>
+      <c r="S35" s="274"/>
+      <c r="T35" s="274"/>
+      <c r="U35" s="274"/>
+      <c r="V35" s="274"/>
+      <c r="W35" s="274"/>
+      <c r="X35" s="274"/>
+      <c r="Y35" s="274"/>
+      <c r="Z35" s="274"/>
+      <c r="AA35" s="274"/>
+      <c r="AB35" s="274"/>
+      <c r="AC35" s="274"/>
+      <c r="AD35" s="274"/>
+      <c r="AE35" s="275"/>
+      <c r="AF35" s="266">
         <f>AG34-AF34</f>
-        <v>315</v>
-      </c>
-      <c r="AG35" s="266"/>
+        <v>314</v>
+      </c>
+      <c r="AG35" s="267"/>
       <c r="AH35" s="66"/>
     </row>
   </sheetData>
@@ -6930,7 +6936,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6944,26 +6950,26 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="112" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="111" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="80" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="112" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="111" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="80" customWidth="1"/>
     <col min="5" max="5" width="5" style="80" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="113" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="113" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="114"/>
+    <col min="6" max="6" width="10.88671875" style="113" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="113" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="114"/>
     <col min="10" max="10" width="13" style="113" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="113" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="113" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="113" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="80" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="80"/>
+    <col min="11" max="11" width="11.88671875" style="113" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="113" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="113" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="80" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
@@ -6979,7 +6985,7 @@
       <c r="M1" s="73"/>
       <c r="N1" s="74"/>
     </row>
-    <row r="2" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
@@ -6995,147 +7001,147 @@
       <c r="M2" s="73"/>
       <c r="N2" s="74"/>
     </row>
-    <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="318" t="s">
+    <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="319" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="318"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="319"/>
+      <c r="M3" s="319"/>
+      <c r="N3" s="319"/>
       <c r="O3" s="124"/>
       <c r="P3" s="124"/>
       <c r="Q3" s="124"/>
     </row>
-    <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="318" t="s">
+    <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="319" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="318"/>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="318"/>
-      <c r="G4" s="318"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="318"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="318"/>
-      <c r="L4" s="318"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="318"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="319"/>
+      <c r="J4" s="319"/>
+      <c r="K4" s="319"/>
+      <c r="L4" s="319"/>
+      <c r="M4" s="319"/>
+      <c r="N4" s="319"/>
       <c r="O4" s="124"/>
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
-    <row r="5" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="318"/>
-      <c r="B5" s="318"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="318"/>
-      <c r="H5" s="318"/>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
+    <row r="5" spans="1:17" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="319"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
       <c r="K5" s="73"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74"/>
     </row>
-    <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="320" t="s">
+    <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="321" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="322" t="s">
+      <c r="B6" s="323" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="322"/>
-      <c r="D6" s="323" t="s">
+      <c r="C6" s="323"/>
+      <c r="D6" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="326" t="s">
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="327" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="326"/>
-      <c r="M6" s="326"/>
-      <c r="N6" s="327" t="s">
+      <c r="L6" s="327"/>
+      <c r="M6" s="327"/>
+      <c r="N6" s="328" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="321"/>
-      <c r="B7" s="324" t="s">
+    <row r="7" spans="1:17" s="77" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="322"/>
+      <c r="B7" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="324" t="s">
+      <c r="C7" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="324" t="s">
+      <c r="D7" s="325" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="324" t="s">
+      <c r="E7" s="325" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="290" t="s">
+      <c r="F7" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="290" t="s">
+      <c r="G7" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="301" t="s">
+      <c r="H7" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="301"/>
-      <c r="J7" s="290" t="s">
+      <c r="I7" s="302"/>
+      <c r="J7" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="290" t="s">
+      <c r="K7" s="291" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="290" t="s">
+      <c r="L7" s="291" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="290" t="s">
+      <c r="M7" s="291" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="328"/>
-    </row>
-    <row r="8" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="321"/>
-      <c r="B8" s="325"/>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="291"/>
+      <c r="N7" s="329"/>
+    </row>
+    <row r="8" spans="1:17" s="77" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="322"/>
+      <c r="B8" s="326"/>
+      <c r="C8" s="326"/>
+      <c r="D8" s="326"/>
+      <c r="E8" s="326"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
       <c r="H8" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="291"/>
-      <c r="K8" s="291"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="291"/>
-      <c r="N8" s="328"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="329"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="132">
@@ -7177,10 +7183,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="298">
+      <c r="A10" s="299">
         <v>43958</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="293" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="115"/>
@@ -7211,8 +7217,8 @@
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="300"/>
-      <c r="B11" s="294"/>
+      <c r="A11" s="301"/>
+      <c r="B11" s="295"/>
       <c r="C11" s="137"/>
       <c r="D11" s="84" t="s">
         <v>21</v>
@@ -7241,10 +7247,10 @@
       <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="298">
+      <c r="A12" s="299">
         <v>43958</v>
       </c>
-      <c r="B12" s="292" t="s">
+      <c r="B12" s="293" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="115"/>
@@ -7275,8 +7281,8 @@
       <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="300"/>
-      <c r="B13" s="294"/>
+      <c r="A13" s="301"/>
+      <c r="B13" s="295"/>
       <c r="C13" s="90"/>
       <c r="D13" s="84" t="s">
         <v>16</v>
@@ -7304,7 +7310,7 @@
       <c r="M13" s="140"/>
       <c r="N13" s="141"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="142">
         <v>43958</v>
       </c>
@@ -7339,10 +7345,10 @@
       <c r="N14" s="145"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="298">
+      <c r="A15" s="299">
         <v>43958</v>
       </c>
-      <c r="B15" s="292" t="s">
+      <c r="B15" s="293" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="115"/>
@@ -7359,7 +7365,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="295">
+      <c r="H15" s="296">
         <v>288000</v>
       </c>
       <c r="I15" s="83">
@@ -7375,13 +7381,13 @@
       </c>
       <c r="L15" s="139"/>
       <c r="M15" s="139"/>
-      <c r="N15" s="305" t="s">
+      <c r="N15" s="306" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="299"/>
-      <c r="B16" s="293"/>
+      <c r="A16" s="300"/>
+      <c r="B16" s="294"/>
       <c r="C16" s="116"/>
       <c r="D16" s="91" t="s">
         <v>20</v>
@@ -7396,7 +7402,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="296"/>
+      <c r="H16" s="297"/>
       <c r="I16" s="93">
         <v>0.1</v>
       </c>
@@ -7410,11 +7416,11 @@
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
-      <c r="N16" s="306"/>
+      <c r="N16" s="307"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="299"/>
-      <c r="B17" s="293"/>
+      <c r="A17" s="300"/>
+      <c r="B17" s="294"/>
       <c r="C17" s="116"/>
       <c r="D17" s="91" t="s">
         <v>10</v>
@@ -7429,7 +7435,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="296"/>
+      <c r="H17" s="297"/>
       <c r="I17" s="93">
         <v>0.1</v>
       </c>
@@ -7443,11 +7449,11 @@
       </c>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
-      <c r="N17" s="306"/>
+      <c r="N17" s="307"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="300"/>
-      <c r="B18" s="294"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="295"/>
       <c r="C18" s="90"/>
       <c r="D18" s="90" t="s">
         <v>21</v>
@@ -7462,7 +7468,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="297"/>
+      <c r="H18" s="298"/>
       <c r="I18" s="149">
         <v>0.1</v>
       </c>
@@ -7476,13 +7482,13 @@
       </c>
       <c r="L18" s="148"/>
       <c r="M18" s="148"/>
-      <c r="N18" s="307"/>
+      <c r="N18" s="308"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="298">
+      <c r="A19" s="299">
         <v>43958</v>
       </c>
-      <c r="B19" s="292" t="s">
+      <c r="B19" s="293" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="138"/>
@@ -7515,13 +7521,13 @@
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="146"/>
-      <c r="N19" s="309" t="s">
+      <c r="N19" s="310" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="299"/>
-      <c r="B20" s="293"/>
+      <c r="A20" s="300"/>
+      <c r="B20" s="294"/>
       <c r="C20" s="87"/>
       <c r="D20" s="87" t="s">
         <v>21</v>
@@ -7552,11 +7558,11 @@
       </c>
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
-      <c r="N20" s="310"/>
+      <c r="N20" s="311"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="300"/>
-      <c r="B21" s="294"/>
+      <c r="A21" s="301"/>
+      <c r="B21" s="295"/>
       <c r="C21" s="150"/>
       <c r="D21" s="150" t="s">
         <v>14</v>
@@ -7587,7 +7593,7 @@
       </c>
       <c r="L21" s="151"/>
       <c r="M21" s="151"/>
-      <c r="N21" s="311"/>
+      <c r="N21" s="312"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="142">
@@ -7669,7 +7675,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="298">
+      <c r="A24" s="299">
         <v>43962</v>
       </c>
       <c r="B24" s="177" t="s">
@@ -7705,12 +7711,12 @@
       </c>
       <c r="L24" s="82"/>
       <c r="M24" s="82"/>
-      <c r="N24" s="312" t="s">
+      <c r="N24" s="313" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="300"/>
+      <c r="A25" s="301"/>
       <c r="B25" s="90" t="s">
         <v>68</v>
       </c>
@@ -7744,7 +7750,7 @@
       </c>
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
-      <c r="N25" s="313"/>
+      <c r="N25" s="314"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="142">
@@ -7785,7 +7791,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="94" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="120"/>
       <c r="B27" s="119"/>
       <c r="C27" s="119"/>
@@ -7807,7 +7813,7 @@
       <c r="M27" s="96"/>
       <c r="N27" s="95"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="117"/>
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
@@ -7981,7 +7987,7 @@
       <c r="K35" s="92"/>
       <c r="L35" s="92"/>
       <c r="M35" s="92"/>
-      <c r="N35" s="316"/>
+      <c r="N35" s="317"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="118"/>
@@ -8003,7 +8009,7 @@
       <c r="K36" s="92"/>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
-      <c r="N36" s="316"/>
+      <c r="N36" s="317"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
@@ -8025,7 +8031,7 @@
       <c r="K37" s="92"/>
       <c r="L37" s="92"/>
       <c r="M37" s="92"/>
-      <c r="N37" s="316"/>
+      <c r="N37" s="317"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
@@ -8047,7 +8053,7 @@
       <c r="K38" s="92"/>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
-      <c r="N38" s="316"/>
+      <c r="N38" s="317"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
@@ -8069,7 +8075,7 @@
       <c r="K39" s="92"/>
       <c r="L39" s="92"/>
       <c r="M39" s="92"/>
-      <c r="N39" s="316"/>
+      <c r="N39" s="317"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
@@ -8091,7 +8097,7 @@
       <c r="K40" s="92"/>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
-      <c r="N40" s="316"/>
+      <c r="N40" s="317"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="117"/>
@@ -8157,7 +8163,7 @@
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
       <c r="M43" s="96"/>
-      <c r="N43" s="317"/>
+      <c r="N43" s="318"/>
     </row>
     <row r="44" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
@@ -8179,7 +8185,7 @@
       <c r="K44" s="96"/>
       <c r="L44" s="96"/>
       <c r="M44" s="96"/>
-      <c r="N44" s="317"/>
+      <c r="N44" s="318"/>
     </row>
     <row r="45" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
@@ -8201,7 +8207,7 @@
       <c r="K45" s="96"/>
       <c r="L45" s="96"/>
       <c r="M45" s="96"/>
-      <c r="N45" s="317"/>
+      <c r="N45" s="318"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
@@ -8775,13 +8781,13 @@
       <c r="M71" s="85"/>
       <c r="N71" s="84"/>
     </row>
-    <row r="72" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="314" t="s">
+    <row r="72" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A72" s="315" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="315"/>
-      <c r="C72" s="315"/>
-      <c r="D72" s="315"/>
+      <c r="B72" s="316"/>
+      <c r="C72" s="316"/>
+      <c r="D72" s="316"/>
       <c r="E72" s="158">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -8807,15 +8813,15 @@
       </c>
       <c r="M72" s="162"/>
       <c r="N72" s="179"/>
-      <c r="O72" s="302"/>
-    </row>
-    <row r="73" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A73" s="303" t="s">
+      <c r="O72" s="303"/>
+    </row>
+    <row r="73" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A73" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="304"/>
-      <c r="C73" s="304"/>
-      <c r="D73" s="304"/>
+      <c r="B73" s="305"/>
+      <c r="C73" s="305"/>
+      <c r="D73" s="305"/>
       <c r="E73" s="156"/>
       <c r="F73" s="156"/>
       <c r="G73" s="99">
@@ -8829,15 +8835,15 @@
       <c r="L73" s="102"/>
       <c r="M73" s="102"/>
       <c r="N73" s="179"/>
-      <c r="O73" s="302"/>
-    </row>
-    <row r="74" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A74" s="303" t="s">
+      <c r="O73" s="303"/>
+    </row>
+    <row r="74" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A74" s="304" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="304"/>
-      <c r="C74" s="304"/>
-      <c r="D74" s="308"/>
+      <c r="B74" s="305"/>
+      <c r="C74" s="305"/>
+      <c r="D74" s="309"/>
       <c r="E74" s="156"/>
       <c r="F74" s="156"/>
       <c r="G74" s="99">
@@ -8853,13 +8859,13 @@
       <c r="N74" s="179"/>
       <c r="O74" s="163"/>
     </row>
-    <row r="75" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A75" s="303" t="s">
+    <row r="75" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A75" s="304" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="304"/>
-      <c r="C75" s="304"/>
-      <c r="D75" s="304"/>
+      <c r="B75" s="305"/>
+      <c r="C75" s="305"/>
+      <c r="D75" s="305"/>
       <c r="E75" s="156"/>
       <c r="F75" s="156"/>
       <c r="G75" s="157">
@@ -8874,13 +8880,13 @@
       <c r="M75" s="102"/>
       <c r="N75" s="179"/>
     </row>
-    <row r="76" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A76" s="303" t="s">
+    <row r="76" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A76" s="304" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="304"/>
-      <c r="C76" s="304"/>
-      <c r="D76" s="304"/>
+      <c r="B76" s="305"/>
+      <c r="C76" s="305"/>
+      <c r="D76" s="305"/>
       <c r="E76" s="156"/>
       <c r="F76" s="156"/>
       <c r="G76" s="98">
@@ -8895,13 +8901,13 @@
       <c r="M76" s="102"/>
       <c r="N76" s="179"/>
     </row>
-    <row r="77" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A77" s="303" t="s">
+    <row r="77" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A77" s="304" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="304"/>
-      <c r="C77" s="304"/>
-      <c r="D77" s="304"/>
+      <c r="B77" s="305"/>
+      <c r="C77" s="305"/>
+      <c r="D77" s="305"/>
       <c r="E77" s="156"/>
       <c r="F77" s="156"/>
       <c r="G77" s="98">
@@ -8998,22 +9004,22 @@
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="199" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="200" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="182" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="182" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="183" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="199" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="200" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="182" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="182" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="183" customWidth="1"/>
     <col min="6" max="6" width="16" style="183" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="183"/>
+    <col min="7" max="16384" width="9.109375" style="183"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="330"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="331"/>
       <c r="G1" s="164"/>
       <c r="H1" s="164"/>
       <c r="I1" s="164"/>
@@ -9025,7 +9031,7 @@
       <c r="O1" s="167"/>
       <c r="P1" s="168"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="174" t="s">
         <v>2</v>
       </c>
@@ -9059,15 +9065,15 @@
       <c r="O3" s="167"/>
       <c r="P3" s="168"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="331" t="s">
+    <row r="4" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="332" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="331"/>
-      <c r="C4" s="331"/>
-      <c r="D4" s="331"/>
-      <c r="E4" s="331"/>
-      <c r="F4" s="331"/>
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
       <c r="G4" s="171"/>
       <c r="H4" s="171"/>
       <c r="I4" s="172"/>
@@ -9079,15 +9085,15 @@
       <c r="O4" s="172"/>
       <c r="P4" s="172"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="332" t="s">
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="333" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
+      <c r="B5" s="333"/>
+      <c r="C5" s="333"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
       <c r="G5" s="171"/>
       <c r="H5" s="171"/>
       <c r="I5" s="172"/>
@@ -9099,37 +9105,37 @@
       <c r="O5" s="172"/>
       <c r="P5" s="172"/>
     </row>
-    <row r="7" spans="1:16" s="173" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="333" t="s">
+    <row r="7" spans="1:16" s="173" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="334" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="334" t="s">
+      <c r="B7" s="335" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="335" t="s">
+      <c r="C7" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="336"/>
-      <c r="E7" s="337" t="s">
+      <c r="D7" s="337"/>
+      <c r="E7" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="334" t="s">
+      <c r="F7" s="335" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="178" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="333"/>
-      <c r="B8" s="334"/>
+    <row r="8" spans="1:16" s="178" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="334"/>
+      <c r="B8" s="335"/>
       <c r="C8" s="180" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="337"/>
-      <c r="F8" s="334"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="338"/>
+      <c r="F8" s="335"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="184">
         <v>43955</v>
       </c>
@@ -9143,7 +9149,7 @@
       <c r="E9" s="187"/>
       <c r="F9" s="187"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="188"/>
       <c r="B10" s="189" t="s">
         <v>87</v>
@@ -9155,7 +9161,7 @@
       <c r="E10" s="191"/>
       <c r="F10" s="191"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="188"/>
       <c r="B11" s="189" t="s">
         <v>88</v>
@@ -9167,7 +9173,7 @@
       <c r="E11" s="191"/>
       <c r="F11" s="191"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="188"/>
       <c r="B12" s="189" t="s">
         <v>89</v>
@@ -9179,7 +9185,7 @@
       <c r="E12" s="191"/>
       <c r="F12" s="191"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="188"/>
       <c r="B13" s="189" t="s">
         <v>90</v>
@@ -9191,7 +9197,7 @@
       <c r="E13" s="191"/>
       <c r="F13" s="191"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="188"/>
       <c r="B14" s="189" t="s">
         <v>91</v>
@@ -9203,7 +9209,7 @@
       <c r="E14" s="191"/>
       <c r="F14" s="191"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="188"/>
       <c r="B15" s="189" t="s">
         <v>92</v>
@@ -9215,7 +9221,7 @@
       <c r="E15" s="191"/>
       <c r="F15" s="191"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="188"/>
       <c r="B16" s="189" t="s">
         <v>93</v>
@@ -9227,7 +9233,7 @@
       <c r="E16" s="191"/>
       <c r="F16" s="191"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="188"/>
       <c r="B17" s="189" t="s">
         <v>94</v>
@@ -9239,7 +9245,7 @@
       <c r="E17" s="191"/>
       <c r="F17" s="191"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="188"/>
       <c r="B18" s="189" t="s">
         <v>95</v>
@@ -9251,7 +9257,7 @@
       <c r="E18" s="191"/>
       <c r="F18" s="191"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="188"/>
       <c r="B19" s="189" t="s">
         <v>96</v>
@@ -9263,7 +9269,7 @@
       <c r="E19" s="191"/>
       <c r="F19" s="191"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="188"/>
       <c r="B20" s="189" t="s">
         <v>97</v>
@@ -9275,7 +9281,7 @@
       <c r="E20" s="191"/>
       <c r="F20" s="191"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="188"/>
       <c r="B21" s="189" t="s">
         <v>98</v>
@@ -9287,7 +9293,7 @@
       <c r="E21" s="191"/>
       <c r="F21" s="191"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="188"/>
       <c r="B22" s="189" t="s">
         <v>99</v>
@@ -9299,7 +9305,7 @@
       <c r="E22" s="191"/>
       <c r="F22" s="191"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="188"/>
       <c r="B23" s="189" t="s">
         <v>100</v>
@@ -9312,7 +9318,7 @@
       <c r="E23" s="191"/>
       <c r="F23" s="191"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="188">
         <v>43957</v>
       </c>
@@ -9326,7 +9332,7 @@
       <c r="E24" s="191"/>
       <c r="F24" s="191"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="188"/>
       <c r="B25" s="189" t="s">
         <v>102</v>
@@ -9338,7 +9344,7 @@
       <c r="E25" s="191"/>
       <c r="F25" s="191"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="188"/>
       <c r="B26" s="189" t="s">
         <v>103</v>
@@ -9350,7 +9356,7 @@
       <c r="E26" s="191"/>
       <c r="F26" s="191"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="188"/>
       <c r="B27" s="189" t="s">
         <v>104</v>
@@ -9362,7 +9368,7 @@
       <c r="E27" s="191"/>
       <c r="F27" s="191"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="188"/>
       <c r="B28" s="189" t="s">
         <v>105</v>
@@ -9374,7 +9380,7 @@
       <c r="E28" s="191"/>
       <c r="F28" s="191"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="188"/>
       <c r="B29" s="189" t="s">
         <v>106</v>
@@ -9387,7 +9393,7 @@
       <c r="E29" s="191"/>
       <c r="F29" s="191"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="188"/>
       <c r="B30" s="189" t="s">
         <v>107</v>
@@ -9400,7 +9406,7 @@
       <c r="E30" s="191"/>
       <c r="F30" s="191"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="188"/>
       <c r="B31" s="189" t="s">
         <v>108</v>
@@ -9412,7 +9418,7 @@
       <c r="E31" s="191"/>
       <c r="F31" s="191"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="188"/>
       <c r="B32" s="189" t="s">
         <v>109</v>
@@ -9424,7 +9430,7 @@
       <c r="E32" s="191"/>
       <c r="F32" s="191"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="188"/>
       <c r="B33" s="189" t="s">
         <v>110</v>
@@ -9436,7 +9442,7 @@
       <c r="E33" s="191"/>
       <c r="F33" s="191"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="188"/>
       <c r="B34" s="189" t="s">
         <v>111</v>
@@ -9449,7 +9455,7 @@
       <c r="E34" s="191"/>
       <c r="F34" s="191"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="188"/>
       <c r="B35" s="189" t="s">
         <v>91</v>
@@ -9461,7 +9467,7 @@
       <c r="E35" s="191"/>
       <c r="F35" s="191"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="188">
         <v>43958</v>
       </c>
@@ -9475,7 +9481,7 @@
       <c r="E36" s="191"/>
       <c r="F36" s="191"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="188">
         <v>43959</v>
       </c>
@@ -9489,7 +9495,7 @@
       <c r="E37" s="191"/>
       <c r="F37" s="191"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="188">
         <v>43959</v>
       </c>
@@ -9503,7 +9509,7 @@
       <c r="E38" s="191"/>
       <c r="F38" s="191"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="188">
         <v>43959</v>
       </c>
@@ -9517,7 +9523,7 @@
       <c r="E39" s="191"/>
       <c r="F39" s="191"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="188">
         <v>43962</v>
       </c>
@@ -9531,7 +9537,7 @@
       <c r="E40" s="191"/>
       <c r="F40" s="191"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="188">
         <v>43964</v>
       </c>
@@ -9545,7 +9551,7 @@
       <c r="E41" s="191"/>
       <c r="F41" s="191"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="188">
         <v>43964</v>
       </c>
@@ -9559,7 +9565,7 @@
       <c r="E42" s="191"/>
       <c r="F42" s="191"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="188"/>
       <c r="B43" s="189"/>
       <c r="C43" s="190"/>
@@ -9567,7 +9573,7 @@
       <c r="E43" s="191"/>
       <c r="F43" s="191"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="188"/>
       <c r="B44" s="189"/>
       <c r="C44" s="190"/>
@@ -9575,7 +9581,7 @@
       <c r="E44" s="191"/>
       <c r="F44" s="191"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="188"/>
       <c r="B45" s="189"/>
       <c r="C45" s="190"/>
@@ -9583,7 +9589,7 @@
       <c r="E45" s="191"/>
       <c r="F45" s="191"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="192"/>
       <c r="B46" s="193"/>
       <c r="C46" s="194"/>
@@ -9591,7 +9597,7 @@
       <c r="E46" s="195"/>
       <c r="F46" s="195"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="188">
         <v>43962</v>
       </c>
@@ -9605,7 +9611,7 @@
       <c r="E47" s="191"/>
       <c r="F47" s="191"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="188"/>
       <c r="B48" s="189" t="s">
         <v>123</v>
@@ -9617,7 +9623,7 @@
       <c r="E48" s="191"/>
       <c r="F48" s="191"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="188"/>
       <c r="B49" s="189" t="s">
         <v>124</v>
@@ -9629,7 +9635,7 @@
       <c r="E49" s="191"/>
       <c r="F49" s="191"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="188"/>
       <c r="B50" s="189" t="s">
         <v>125</v>
@@ -9641,7 +9647,7 @@
       <c r="E50" s="191"/>
       <c r="F50" s="191"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="188"/>
       <c r="B51" s="189" t="s">
         <v>154</v>
@@ -9653,7 +9659,7 @@
       <c r="E51" s="191"/>
       <c r="F51" s="191"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="188"/>
       <c r="B52" s="189" t="s">
         <v>126</v>
@@ -9665,7 +9671,7 @@
       <c r="E52" s="191"/>
       <c r="F52" s="191"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="241">
         <v>43987</v>
       </c>
@@ -9679,7 +9685,7 @@
       <c r="E53" s="244"/>
       <c r="F53" s="244"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="241"/>
       <c r="B54" s="242"/>
       <c r="C54" s="243"/>
@@ -9687,7 +9693,7 @@
       <c r="E54" s="244"/>
       <c r="F54" s="244"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="241"/>
       <c r="B55" s="242"/>
       <c r="C55" s="243"/>
@@ -9695,7 +9701,7 @@
       <c r="E55" s="244"/>
       <c r="F55" s="244"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="241"/>
       <c r="B56" s="242"/>
       <c r="C56" s="243"/>
@@ -9703,7 +9709,7 @@
       <c r="E56" s="244"/>
       <c r="F56" s="244"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="241"/>
       <c r="B57" s="242"/>
       <c r="C57" s="243"/>
@@ -9711,7 +9717,7 @@
       <c r="E57" s="244"/>
       <c r="F57" s="244"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="241"/>
       <c r="B58" s="242"/>
       <c r="C58" s="243"/>
@@ -9719,7 +9725,7 @@
       <c r="E58" s="244"/>
       <c r="F58" s="244"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="241"/>
       <c r="B59" s="242"/>
       <c r="C59" s="243"/>
@@ -9727,7 +9733,7 @@
       <c r="E59" s="244"/>
       <c r="F59" s="244"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="241"/>
       <c r="B60" s="242"/>
       <c r="C60" s="243"/>
@@ -9735,7 +9741,7 @@
       <c r="E60" s="244"/>
       <c r="F60" s="244"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="241"/>
       <c r="B61" s="242"/>
       <c r="C61" s="243"/>
@@ -9743,7 +9749,7 @@
       <c r="E61" s="244"/>
       <c r="F61" s="244"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="241"/>
       <c r="B62" s="242"/>
       <c r="C62" s="243"/>
@@ -9751,7 +9757,7 @@
       <c r="E62" s="244"/>
       <c r="F62" s="244"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="241"/>
       <c r="B63" s="242"/>
       <c r="C63" s="243"/>
@@ -9759,7 +9765,7 @@
       <c r="E63" s="244"/>
       <c r="F63" s="244"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="241"/>
       <c r="B64" s="242"/>
       <c r="C64" s="243"/>
@@ -9767,7 +9773,7 @@
       <c r="E64" s="244"/>
       <c r="F64" s="244"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="241"/>
       <c r="B65" s="242"/>
       <c r="C65" s="243"/>
@@ -9775,7 +9781,7 @@
       <c r="E65" s="244"/>
       <c r="F65" s="244"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="241"/>
       <c r="B66" s="242"/>
       <c r="C66" s="243"/>
@@ -9783,7 +9789,7 @@
       <c r="E66" s="244"/>
       <c r="F66" s="244"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="241"/>
       <c r="B67" s="242"/>
       <c r="C67" s="243"/>
@@ -9791,7 +9797,7 @@
       <c r="E67" s="244"/>
       <c r="F67" s="244"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="241"/>
       <c r="B68" s="242"/>
       <c r="C68" s="243"/>
@@ -9799,11 +9805,11 @@
       <c r="E68" s="244"/>
       <c r="F68" s="244"/>
     </row>
-    <row r="69" spans="1:6" s="198" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="329" t="s">
+    <row r="69" spans="1:6" s="198" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="330" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="329"/>
+      <c r="B69" s="330"/>
       <c r="C69" s="196">
         <f>SUM(C9:C52)</f>
         <v>6864000</v>
@@ -9815,7 +9821,7 @@
       <c r="E69" s="197"/>
       <c r="F69" s="197"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="183" t="s">
         <v>85</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DOANH THU" sheetId="2" r:id="rId4"/>
     <sheet name="CHI PHÍ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1182,12 +1182,24 @@
   </si>
   <si>
     <t>Hoàng</t>
+  </si>
+  <si>
+    <t>XuÂts cho hà thanh</t>
+  </si>
+  <si>
+    <t>Chị Nguyệt</t>
+  </si>
+  <si>
+    <t>Demo anh đạt</t>
+  </si>
+  <si>
+    <t>Nhập</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -2143,6 +2155,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,95 +2251,32 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2248,6 +2284,69 @@
     <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2266,98 +2365,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2452,7 +2464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2487,7 +2499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2703,27 +2715,27 @@
       <selection pane="bottomLeft" activeCell="R44" sqref="R44:S44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
+      <c r="A1" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2756,11 +2768,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2796,235 +2808,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="264" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="283"/>
-      <c r="Q3" s="283"/>
-      <c r="R3" s="283"/>
-      <c r="S3" s="283"/>
-      <c r="T3" s="283"/>
-      <c r="U3" s="283"/>
-      <c r="V3" s="283"/>
-      <c r="W3" s="283"/>
-      <c r="X3" s="283"/>
-      <c r="Y3" s="283"/>
-      <c r="Z3" s="283"/>
-      <c r="AA3" s="283"/>
-      <c r="AB3" s="283"/>
-      <c r="AC3" s="283"/>
-      <c r="AD3" s="283"/>
-      <c r="AE3" s="283"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="283"/>
-      <c r="AH3" s="283"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="264" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="283"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
-      <c r="AD4" s="283"/>
-      <c r="AE4" s="283"/>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="283"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="283"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283"/>
-      <c r="K5" s="283"/>
-      <c r="L5" s="283"/>
-      <c r="M5" s="283"/>
-      <c r="N5" s="283"/>
-      <c r="O5" s="283"/>
-      <c r="P5" s="283"/>
-      <c r="Q5" s="283"/>
-      <c r="R5" s="283"/>
-      <c r="S5" s="283"/>
-      <c r="T5" s="283"/>
-      <c r="U5" s="283"/>
-      <c r="V5" s="283"/>
-      <c r="W5" s="283"/>
-      <c r="X5" s="283"/>
-      <c r="Y5" s="283"/>
-      <c r="Z5" s="283"/>
-      <c r="AA5" s="283"/>
-      <c r="AB5" s="283"/>
-      <c r="AC5" s="283"/>
-      <c r="AD5" s="283"/>
-      <c r="AE5" s="283"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="264"/>
+      <c r="O4" s="264"/>
+      <c r="P4" s="264"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="264"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="264"/>
+      <c r="U4" s="264"/>
+      <c r="V4" s="264"/>
+      <c r="W4" s="264"/>
+      <c r="X4" s="264"/>
+      <c r="Y4" s="264"/>
+      <c r="Z4" s="264"/>
+      <c r="AA4" s="264"/>
+      <c r="AB4" s="264"/>
+      <c r="AC4" s="264"/>
+      <c r="AD4" s="264"/>
+      <c r="AE4" s="264"/>
+      <c r="AF4" s="264"/>
+      <c r="AG4" s="264"/>
+      <c r="AH4" s="264"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="264"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="264"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="264"/>
+      <c r="S5" s="264"/>
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="264"/>
+      <c r="Y5" s="264"/>
+      <c r="Z5" s="264"/>
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="264"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="284" t="s">
+      <c r="B6" s="266" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="286" t="s">
+      <c r="D6" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="287"/>
-      <c r="O6" s="287"/>
-      <c r="P6" s="287"/>
-      <c r="Q6" s="287"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="287"/>
-      <c r="T6" s="287"/>
-      <c r="U6" s="287"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="287"/>
-      <c r="X6" s="287"/>
-      <c r="Y6" s="287"/>
-      <c r="Z6" s="287"/>
-      <c r="AA6" s="287"/>
-      <c r="AB6" s="287"/>
-      <c r="AC6" s="287"/>
-      <c r="AD6" s="287"/>
-      <c r="AE6" s="287"/>
-      <c r="AF6" s="287"/>
-      <c r="AG6" s="288"/>
-      <c r="AH6" s="261" t="s">
+      <c r="E6" s="269"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="269"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="269"/>
+      <c r="S6" s="269"/>
+      <c r="T6" s="269"/>
+      <c r="U6" s="269"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="270"/>
+      <c r="AH6" s="265" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="261"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="289" t="s">
+      <c r="A7" s="265"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="289"/>
-      <c r="F7" s="261" t="s">
+      <c r="E7" s="271"/>
+      <c r="F7" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="290" t="s">
+      <c r="G7" s="265"/>
+      <c r="H7" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="290"/>
-      <c r="J7" s="261" t="s">
+      <c r="I7" s="272"/>
+      <c r="J7" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="261"/>
-      <c r="L7" s="265" t="s">
+      <c r="K7" s="265"/>
+      <c r="L7" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="265"/>
-      <c r="N7" s="261" t="s">
+      <c r="M7" s="286"/>
+      <c r="N7" s="265" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="261"/>
-      <c r="P7" s="260" t="s">
+      <c r="O7" s="265"/>
+      <c r="P7" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="261" t="s">
+      <c r="Q7" s="289"/>
+      <c r="R7" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="261"/>
-      <c r="T7" s="262" t="s">
+      <c r="S7" s="265"/>
+      <c r="T7" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="262"/>
-      <c r="V7" s="261" t="s">
+      <c r="U7" s="290"/>
+      <c r="V7" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="261"/>
-      <c r="X7" s="280" t="s">
+      <c r="W7" s="265"/>
+      <c r="X7" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="280"/>
-      <c r="Z7" s="261" t="s">
+      <c r="Y7" s="260"/>
+      <c r="Z7" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="259" t="s">
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="259"/>
-      <c r="AD7" s="261" t="s">
+      <c r="AC7" s="288"/>
+      <c r="AD7" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="263" t="s">
+      <c r="AE7" s="265"/>
+      <c r="AF7" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="263" t="s">
+      <c r="AG7" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="261"/>
+      <c r="AH7" s="265"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="261"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="285"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="267"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3109,9 +3121,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="264"/>
-      <c r="AG8" s="264"/>
-      <c r="AH8" s="261"/>
+      <c r="AF8" s="259"/>
+      <c r="AG8" s="259"/>
+      <c r="AH8" s="265"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -3395,7 +3407,7 @@
       </c>
       <c r="AH13" s="95"/>
     </row>
-    <row r="14" spans="1:34" s="94" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="176">
         <v>6</v>
       </c>
@@ -3819,7 +3831,7 @@
       </c>
       <c r="AH21" s="95"/>
     </row>
-    <row r="22" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="176">
         <v>14</v>
       </c>
@@ -3973,7 +3985,7 @@
       </c>
       <c r="AH24" s="95"/>
     </row>
-    <row r="25" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="81">
         <v>17</v>
       </c>
@@ -4029,7 +4041,7 @@
       </c>
       <c r="AH25" s="95"/>
     </row>
-    <row r="26" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="176">
         <v>18</v>
       </c>
@@ -4083,7 +4095,7 @@
       </c>
       <c r="AH26" s="95"/>
     </row>
-    <row r="27" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="81">
         <v>19</v>
       </c>
@@ -4137,7 +4149,7 @@
       </c>
       <c r="AH27" s="95"/>
     </row>
-    <row r="28" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="176">
         <v>20</v>
       </c>
@@ -4187,7 +4199,7 @@
       </c>
       <c r="AH28" s="95"/>
     </row>
-    <row r="29" spans="1:34" s="94" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="81">
         <v>21</v>
       </c>
@@ -4237,7 +4249,7 @@
       </c>
       <c r="AH29" s="95"/>
     </row>
-    <row r="30" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="176">
         <v>22</v>
       </c>
@@ -4287,7 +4299,7 @@
       </c>
       <c r="AH30" s="95"/>
     </row>
-    <row r="31" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="81">
         <v>23</v>
       </c>
@@ -4389,7 +4401,7 @@
       </c>
       <c r="AH32" s="95"/>
     </row>
-    <row r="33" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="81">
         <v>25</v>
       </c>
@@ -4439,7 +4451,7 @@
       </c>
       <c r="AH33" s="95"/>
     </row>
-    <row r="34" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="176">
         <v>26</v>
       </c>
@@ -4801,7 +4813,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="81">
         <v>33</v>
       </c>
@@ -4903,7 +4915,7 @@
       </c>
       <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:34" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="59"/>
       <c r="C43" s="129"/>
@@ -4939,80 +4951,80 @@
       <c r="AG43" s="61"/>
       <c r="AH43" s="60"/>
     </row>
-    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="277"/>
-      <c r="C44" s="278"/>
-      <c r="D44" s="279">
+      <c r="B44" s="283"/>
+      <c r="C44" s="284"/>
+      <c r="D44" s="285">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="279"/>
-      <c r="F44" s="268">
+      <c r="E44" s="285"/>
+      <c r="F44" s="262">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="268"/>
-      <c r="H44" s="281">
+      <c r="G44" s="262"/>
+      <c r="H44" s="261">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="281"/>
-      <c r="J44" s="268">
+      <c r="I44" s="261"/>
+      <c r="J44" s="262">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="268"/>
-      <c r="L44" s="276">
+      <c r="K44" s="262"/>
+      <c r="L44" s="282">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="276"/>
-      <c r="N44" s="268">
+      <c r="M44" s="282"/>
+      <c r="N44" s="262">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="268"/>
-      <c r="P44" s="269">
+      <c r="O44" s="262"/>
+      <c r="P44" s="275">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="269"/>
-      <c r="R44" s="268">
+      <c r="Q44" s="275"/>
+      <c r="R44" s="262">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="268"/>
-      <c r="T44" s="270">
+      <c r="S44" s="262"/>
+      <c r="T44" s="276">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="270"/>
-      <c r="V44" s="268">
+      <c r="U44" s="276"/>
+      <c r="V44" s="262">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="268"/>
-      <c r="X44" s="271">
+      <c r="W44" s="262"/>
+      <c r="X44" s="277">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="271"/>
-      <c r="Z44" s="268">
+      <c r="Y44" s="277"/>
+      <c r="Z44" s="262">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="268"/>
-      <c r="AB44" s="272">
+      <c r="AA44" s="262"/>
+      <c r="AB44" s="278">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="272"/>
-      <c r="AD44" s="268">
+      <c r="AC44" s="278"/>
+      <c r="AD44" s="262">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="268"/>
+      <c r="AE44" s="262"/>
       <c r="AF44" s="48"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5021,39 +5033,39 @@
       <c r="AH44" s="64"/>
     </row>
     <row r="45" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="273" t="s">
+      <c r="A45" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="274"/>
-      <c r="C45" s="274"/>
-      <c r="D45" s="274"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="274"/>
-      <c r="G45" s="274"/>
-      <c r="H45" s="274"/>
-      <c r="I45" s="274"/>
-      <c r="J45" s="274"/>
-      <c r="K45" s="274"/>
-      <c r="L45" s="274"/>
-      <c r="M45" s="274"/>
-      <c r="N45" s="274"/>
-      <c r="O45" s="274"/>
-      <c r="P45" s="274"/>
-      <c r="Q45" s="274"/>
-      <c r="R45" s="274"/>
-      <c r="S45" s="274"/>
-      <c r="T45" s="274"/>
-      <c r="U45" s="274"/>
-      <c r="V45" s="274"/>
-      <c r="W45" s="274"/>
-      <c r="X45" s="274"/>
-      <c r="Y45" s="274"/>
-      <c r="Z45" s="274"/>
-      <c r="AA45" s="274"/>
-      <c r="AB45" s="274"/>
-      <c r="AC45" s="274"/>
-      <c r="AD45" s="274"/>
-      <c r="AE45" s="275"/>
+      <c r="B45" s="280"/>
+      <c r="C45" s="280"/>
+      <c r="D45" s="280"/>
+      <c r="E45" s="280"/>
+      <c r="F45" s="280"/>
+      <c r="G45" s="280"/>
+      <c r="H45" s="280"/>
+      <c r="I45" s="280"/>
+      <c r="J45" s="280"/>
+      <c r="K45" s="280"/>
+      <c r="L45" s="280"/>
+      <c r="M45" s="280"/>
+      <c r="N45" s="280"/>
+      <c r="O45" s="280"/>
+      <c r="P45" s="280"/>
+      <c r="Q45" s="280"/>
+      <c r="R45" s="280"/>
+      <c r="S45" s="280"/>
+      <c r="T45" s="280"/>
+      <c r="U45" s="280"/>
+      <c r="V45" s="280"/>
+      <c r="W45" s="280"/>
+      <c r="X45" s="280"/>
+      <c r="Y45" s="280"/>
+      <c r="Z45" s="280"/>
+      <c r="AA45" s="280"/>
+      <c r="AB45" s="280"/>
+      <c r="AC45" s="280"/>
+      <c r="AD45" s="280"/>
+      <c r="AE45" s="281"/>
       <c r="AF45" s="65">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5065,48 +5077,76 @@
       <c r="AH45" s="66"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="273" t="s">
+      <c r="A46" s="279" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="274"/>
-      <c r="C46" s="274"/>
-      <c r="D46" s="274"/>
-      <c r="E46" s="274"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="274"/>
-      <c r="H46" s="274"/>
-      <c r="I46" s="274"/>
-      <c r="J46" s="274"/>
-      <c r="K46" s="274"/>
-      <c r="L46" s="274"/>
-      <c r="M46" s="274"/>
-      <c r="N46" s="274"/>
-      <c r="O46" s="274"/>
-      <c r="P46" s="274"/>
-      <c r="Q46" s="274"/>
-      <c r="R46" s="274"/>
-      <c r="S46" s="274"/>
-      <c r="T46" s="274"/>
-      <c r="U46" s="274"/>
-      <c r="V46" s="274"/>
-      <c r="W46" s="274"/>
-      <c r="X46" s="274"/>
-      <c r="Y46" s="274"/>
-      <c r="Z46" s="274"/>
-      <c r="AA46" s="274"/>
-      <c r="AB46" s="274"/>
-      <c r="AC46" s="274"/>
-      <c r="AD46" s="274"/>
-      <c r="AE46" s="275"/>
-      <c r="AF46" s="266">
+      <c r="B46" s="280"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="280"/>
+      <c r="E46" s="280"/>
+      <c r="F46" s="280"/>
+      <c r="G46" s="280"/>
+      <c r="H46" s="280"/>
+      <c r="I46" s="280"/>
+      <c r="J46" s="280"/>
+      <c r="K46" s="280"/>
+      <c r="L46" s="280"/>
+      <c r="M46" s="280"/>
+      <c r="N46" s="280"/>
+      <c r="O46" s="280"/>
+      <c r="P46" s="280"/>
+      <c r="Q46" s="280"/>
+      <c r="R46" s="280"/>
+      <c r="S46" s="280"/>
+      <c r="T46" s="280"/>
+      <c r="U46" s="280"/>
+      <c r="V46" s="280"/>
+      <c r="W46" s="280"/>
+      <c r="X46" s="280"/>
+      <c r="Y46" s="280"/>
+      <c r="Z46" s="280"/>
+      <c r="AA46" s="280"/>
+      <c r="AB46" s="280"/>
+      <c r="AC46" s="280"/>
+      <c r="AD46" s="280"/>
+      <c r="AE46" s="281"/>
+      <c r="AF46" s="273">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="267"/>
+      <c r="AG46" s="274"/>
       <c r="AH46" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="H44:I44"/>
@@ -5123,34 +5163,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5163,31 +5175,31 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
+      <c r="A1" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
       <c r="I1" s="246"/>
@@ -5220,11 +5232,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
       <c r="D2" s="253"/>
       <c r="E2" s="253"/>
       <c r="F2" s="253"/>
@@ -5260,235 +5272,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="264" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="283"/>
-      <c r="Q3" s="283"/>
-      <c r="R3" s="283"/>
-      <c r="S3" s="283"/>
-      <c r="T3" s="283"/>
-      <c r="U3" s="283"/>
-      <c r="V3" s="283"/>
-      <c r="W3" s="283"/>
-      <c r="X3" s="283"/>
-      <c r="Y3" s="283"/>
-      <c r="Z3" s="283"/>
-      <c r="AA3" s="283"/>
-      <c r="AB3" s="283"/>
-      <c r="AC3" s="283"/>
-      <c r="AD3" s="283"/>
-      <c r="AE3" s="283"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="283"/>
-      <c r="AH3" s="283"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="264" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="283"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
-      <c r="AD4" s="283"/>
-      <c r="AE4" s="283"/>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="283"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="264"/>
+      <c r="O4" s="264"/>
+      <c r="P4" s="264"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="264"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="264"/>
+      <c r="U4" s="264"/>
+      <c r="V4" s="264"/>
+      <c r="W4" s="264"/>
+      <c r="X4" s="264"/>
+      <c r="Y4" s="264"/>
+      <c r="Z4" s="264"/>
+      <c r="AA4" s="264"/>
+      <c r="AB4" s="264"/>
+      <c r="AC4" s="264"/>
+      <c r="AD4" s="264"/>
+      <c r="AE4" s="264"/>
+      <c r="AF4" s="264"/>
+      <c r="AG4" s="264"/>
+      <c r="AH4" s="264"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="283"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283"/>
-      <c r="K5" s="283"/>
-      <c r="L5" s="283"/>
-      <c r="M5" s="283"/>
-      <c r="N5" s="283"/>
-      <c r="O5" s="283"/>
-      <c r="P5" s="283"/>
-      <c r="Q5" s="283"/>
-      <c r="R5" s="283"/>
-      <c r="S5" s="283"/>
-      <c r="T5" s="283"/>
-      <c r="U5" s="283"/>
-      <c r="V5" s="283"/>
-      <c r="W5" s="283"/>
-      <c r="X5" s="283"/>
-      <c r="Y5" s="283"/>
-      <c r="Z5" s="283"/>
-      <c r="AA5" s="283"/>
-      <c r="AB5" s="283"/>
-      <c r="AC5" s="283"/>
-      <c r="AD5" s="283"/>
-      <c r="AE5" s="283"/>
+      <c r="A5" s="264"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="264"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="264"/>
+      <c r="S5" s="264"/>
+      <c r="T5" s="264"/>
+      <c r="U5" s="264"/>
+      <c r="V5" s="264"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="264"/>
+      <c r="Y5" s="264"/>
+      <c r="Z5" s="264"/>
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="264"/>
       <c r="AF5" s="254"/>
       <c r="AG5" s="254"/>
       <c r="AH5" s="254"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="284" t="s">
+      <c r="B6" s="266" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="286" t="s">
+      <c r="D6" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="287"/>
-      <c r="O6" s="287"/>
-      <c r="P6" s="287"/>
-      <c r="Q6" s="287"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="287"/>
-      <c r="T6" s="287"/>
-      <c r="U6" s="287"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="287"/>
-      <c r="X6" s="287"/>
-      <c r="Y6" s="287"/>
-      <c r="Z6" s="287"/>
-      <c r="AA6" s="287"/>
-      <c r="AB6" s="287"/>
-      <c r="AC6" s="287"/>
-      <c r="AD6" s="287"/>
-      <c r="AE6" s="287"/>
-      <c r="AF6" s="287"/>
-      <c r="AG6" s="288"/>
-      <c r="AH6" s="261" t="s">
+      <c r="E6" s="269"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="269"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="269"/>
+      <c r="S6" s="269"/>
+      <c r="T6" s="269"/>
+      <c r="U6" s="269"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="270"/>
+      <c r="AH6" s="265" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="261"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="289" t="s">
+      <c r="A7" s="265"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="289"/>
-      <c r="F7" s="261" t="s">
+      <c r="E7" s="271"/>
+      <c r="F7" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="290" t="s">
+      <c r="G7" s="265"/>
+      <c r="H7" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="290"/>
-      <c r="J7" s="261" t="s">
+      <c r="I7" s="272"/>
+      <c r="J7" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="261"/>
-      <c r="L7" s="265" t="s">
+      <c r="K7" s="265"/>
+      <c r="L7" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="265"/>
-      <c r="N7" s="261" t="s">
+      <c r="M7" s="286"/>
+      <c r="N7" s="265" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="261"/>
-      <c r="P7" s="260" t="s">
+      <c r="O7" s="265"/>
+      <c r="P7" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="261" t="s">
+      <c r="Q7" s="289"/>
+      <c r="R7" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="261"/>
-      <c r="T7" s="262" t="s">
+      <c r="S7" s="265"/>
+      <c r="T7" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="262"/>
-      <c r="V7" s="261" t="s">
+      <c r="U7" s="290"/>
+      <c r="V7" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="261"/>
-      <c r="X7" s="280" t="s">
+      <c r="W7" s="265"/>
+      <c r="X7" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="280"/>
-      <c r="Z7" s="261" t="s">
+      <c r="Y7" s="260"/>
+      <c r="Z7" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="259" t="s">
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="259"/>
-      <c r="AD7" s="261" t="s">
+      <c r="AC7" s="288"/>
+      <c r="AD7" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="263" t="s">
+      <c r="AE7" s="265"/>
+      <c r="AF7" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="263" t="s">
+      <c r="AG7" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="261"/>
+      <c r="AH7" s="265"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="261"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="285"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="267"/>
       <c r="D8" s="255" t="s">
         <v>23</v>
       </c>
@@ -5573,9 +5585,9 @@
       <c r="AE8" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="264"/>
-      <c r="AG8" s="264"/>
-      <c r="AH8" s="261"/>
+      <c r="AF8" s="259"/>
+      <c r="AG8" s="259"/>
+      <c r="AH8" s="265"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -6151,8 +6163,12 @@
       <c r="A20" s="20">
         <v>12</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="127"/>
+      <c r="B20" s="39">
+        <v>43995</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>156</v>
+      </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="40"/>
@@ -6164,7 +6180,9 @@
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
+      <c r="O20" s="40">
+        <v>12</v>
+      </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="40"/>
@@ -6183,7 +6201,7 @@
       <c r="AE20" s="40"/>
       <c r="AF20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG20" s="20">
         <f t="shared" si="2"/>
@@ -6195,8 +6213,12 @@
       <c r="A21" s="81">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="127"/>
+      <c r="B21" s="39">
+        <v>43995</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>157</v>
+      </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="40"/>
@@ -6204,7 +6226,9 @@
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="K21" s="40">
+        <v>2</v>
+      </c>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
       <c r="N21" s="40"/>
@@ -6227,7 +6251,7 @@
       <c r="AE21" s="40"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="2"/>
@@ -6239,8 +6263,12 @@
       <c r="A22" s="20">
         <v>14</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="127"/>
+      <c r="B22" s="39">
+        <v>43995</v>
+      </c>
+      <c r="C22" s="127" t="s">
+        <v>158</v>
+      </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="40"/>
@@ -6262,16 +6290,20 @@
       <c r="V22" s="40"/>
       <c r="W22" s="40"/>
       <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
+      <c r="Y22" s="46">
+        <v>1</v>
+      </c>
       <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
+      <c r="AA22" s="40">
+        <v>1</v>
+      </c>
       <c r="AB22" s="47"/>
       <c r="AC22" s="47"/>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40"/>
       <c r="AF22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22" s="20">
         <f t="shared" si="2"/>
@@ -6283,12 +6315,18 @@
       <c r="A23" s="81">
         <v>15</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="127"/>
+      <c r="B23" s="39">
+        <v>43995</v>
+      </c>
+      <c r="C23" s="127" t="s">
+        <v>137</v>
+      </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="40"/>
@@ -6315,7 +6353,7 @@
       <c r="AE23" s="40"/>
       <c r="AF23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="2"/>
@@ -6327,11 +6365,17 @@
       <c r="A24" s="20">
         <v>16</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="127"/>
+      <c r="B24" s="39">
+        <v>43995</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>159</v>
+      </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="40">
+        <v>1</v>
+      </c>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
@@ -6363,7 +6407,7 @@
       </c>
       <c r="AG24" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="21"/>
     </row>
@@ -6713,172 +6757,200 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="277"/>
-      <c r="C33" s="278"/>
-      <c r="D33" s="279">
+      <c r="B33" s="283"/>
+      <c r="C33" s="284"/>
+      <c r="D33" s="285">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="279"/>
-      <c r="F33" s="268">
+      <c r="E33" s="285"/>
+      <c r="F33" s="262">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="268"/>
-      <c r="H33" s="281">
+      <c r="G33" s="262"/>
+      <c r="H33" s="261">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="281"/>
-      <c r="J33" s="268">
+      <c r="I33" s="261"/>
+      <c r="J33" s="262">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
-        <v>23</v>
-      </c>
-      <c r="K33" s="268"/>
-      <c r="L33" s="276">
+        <v>21</v>
+      </c>
+      <c r="K33" s="262"/>
+      <c r="L33" s="282">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="276"/>
-      <c r="N33" s="268">
+      <c r="M33" s="282"/>
+      <c r="N33" s="262">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
-        <v>40</v>
-      </c>
-      <c r="O33" s="268"/>
-      <c r="P33" s="269">
+        <v>28</v>
+      </c>
+      <c r="O33" s="262"/>
+      <c r="P33" s="275">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="269"/>
-      <c r="R33" s="268">
+      <c r="Q33" s="275"/>
+      <c r="R33" s="262">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
         <v>74</v>
       </c>
-      <c r="S33" s="268"/>
-      <c r="T33" s="270">
+      <c r="S33" s="262"/>
+      <c r="T33" s="276">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="270"/>
-      <c r="V33" s="268">
+      <c r="U33" s="276"/>
+      <c r="V33" s="262">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
         <v>10</v>
       </c>
-      <c r="W33" s="268"/>
-      <c r="X33" s="271">
+      <c r="W33" s="262"/>
+      <c r="X33" s="277">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
-        <v>59</v>
-      </c>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="268">
+        <v>58</v>
+      </c>
+      <c r="Y33" s="277"/>
+      <c r="Z33" s="262">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
-        <v>52</v>
-      </c>
-      <c r="AA33" s="268"/>
-      <c r="AB33" s="272">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="262"/>
+      <c r="AB33" s="278">
         <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
         <v>55</v>
       </c>
-      <c r="AC33" s="272"/>
-      <c r="AD33" s="268">
+      <c r="AC33" s="278"/>
+      <c r="AD33" s="262">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="268"/>
+      <c r="AE33" s="262"/>
       <c r="AF33" s="48"/>
       <c r="AG33" s="257">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="AH33" s="64"/>
     </row>
     <row r="34" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="273" t="s">
+      <c r="A34" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="274"/>
-      <c r="C34" s="274"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="274"/>
-      <c r="H34" s="274"/>
-      <c r="I34" s="274"/>
-      <c r="J34" s="274"/>
-      <c r="K34" s="274"/>
-      <c r="L34" s="274"/>
-      <c r="M34" s="274"/>
-      <c r="N34" s="274"/>
-      <c r="O34" s="274"/>
-      <c r="P34" s="274"/>
-      <c r="Q34" s="274"/>
-      <c r="R34" s="274"/>
-      <c r="S34" s="274"/>
-      <c r="T34" s="274"/>
-      <c r="U34" s="274"/>
-      <c r="V34" s="274"/>
-      <c r="W34" s="274"/>
-      <c r="X34" s="274"/>
-      <c r="Y34" s="274"/>
-      <c r="Z34" s="274"/>
-      <c r="AA34" s="274"/>
-      <c r="AB34" s="274"/>
-      <c r="AC34" s="274"/>
-      <c r="AD34" s="274"/>
-      <c r="AE34" s="275"/>
+      <c r="B34" s="280"/>
+      <c r="C34" s="280"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="280"/>
+      <c r="F34" s="280"/>
+      <c r="G34" s="280"/>
+      <c r="H34" s="280"/>
+      <c r="I34" s="280"/>
+      <c r="J34" s="280"/>
+      <c r="K34" s="280"/>
+      <c r="L34" s="280"/>
+      <c r="M34" s="280"/>
+      <c r="N34" s="280"/>
+      <c r="O34" s="280"/>
+      <c r="P34" s="280"/>
+      <c r="Q34" s="280"/>
+      <c r="R34" s="280"/>
+      <c r="S34" s="280"/>
+      <c r="T34" s="280"/>
+      <c r="U34" s="280"/>
+      <c r="V34" s="280"/>
+      <c r="W34" s="280"/>
+      <c r="X34" s="280"/>
+      <c r="Y34" s="280"/>
+      <c r="Z34" s="280"/>
+      <c r="AA34" s="280"/>
+      <c r="AB34" s="280"/>
+      <c r="AC34" s="280"/>
+      <c r="AD34" s="280"/>
+      <c r="AE34" s="281"/>
       <c r="AF34" s="65">
         <f>SUM(AF9:AF31)</f>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AG34" s="65">
         <f>SUM(AG9:AG31)</f>
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AH34" s="66"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="273" t="s">
+      <c r="A35" s="279" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="274"/>
-      <c r="C35" s="274"/>
-      <c r="D35" s="274"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="274"/>
-      <c r="H35" s="274"/>
-      <c r="I35" s="274"/>
-      <c r="J35" s="274"/>
-      <c r="K35" s="274"/>
-      <c r="L35" s="274"/>
-      <c r="M35" s="274"/>
-      <c r="N35" s="274"/>
-      <c r="O35" s="274"/>
-      <c r="P35" s="274"/>
-      <c r="Q35" s="274"/>
-      <c r="R35" s="274"/>
-      <c r="S35" s="274"/>
-      <c r="T35" s="274"/>
-      <c r="U35" s="274"/>
-      <c r="V35" s="274"/>
-      <c r="W35" s="274"/>
-      <c r="X35" s="274"/>
-      <c r="Y35" s="274"/>
-      <c r="Z35" s="274"/>
-      <c r="AA35" s="274"/>
-      <c r="AB35" s="274"/>
-      <c r="AC35" s="274"/>
-      <c r="AD35" s="274"/>
-      <c r="AE35" s="275"/>
-      <c r="AF35" s="266">
+      <c r="B35" s="280"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="280"/>
+      <c r="E35" s="280"/>
+      <c r="F35" s="280"/>
+      <c r="G35" s="280"/>
+      <c r="H35" s="280"/>
+      <c r="I35" s="280"/>
+      <c r="J35" s="280"/>
+      <c r="K35" s="280"/>
+      <c r="L35" s="280"/>
+      <c r="M35" s="280"/>
+      <c r="N35" s="280"/>
+      <c r="O35" s="280"/>
+      <c r="P35" s="280"/>
+      <c r="Q35" s="280"/>
+      <c r="R35" s="280"/>
+      <c r="S35" s="280"/>
+      <c r="T35" s="280"/>
+      <c r="U35" s="280"/>
+      <c r="V35" s="280"/>
+      <c r="W35" s="280"/>
+      <c r="X35" s="280"/>
+      <c r="Y35" s="280"/>
+      <c r="Z35" s="280"/>
+      <c r="AA35" s="280"/>
+      <c r="AB35" s="280"/>
+      <c r="AC35" s="280"/>
+      <c r="AD35" s="280"/>
+      <c r="AE35" s="281"/>
+      <c r="AF35" s="273">
         <f>AG34-AF34</f>
-        <v>314</v>
-      </c>
-      <c r="AG35" s="267"/>
+        <v>298</v>
+      </c>
+      <c r="AG35" s="274"/>
       <c r="AH35" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -6895,34 +6967,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6936,7 +6980,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6950,26 +6994,26 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="112" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="111" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="80" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="112" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="111" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="80" customWidth="1"/>
     <col min="5" max="5" width="5" style="80" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="113" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="114"/>
+    <col min="6" max="6" width="10.85546875" style="113" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="113" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="114"/>
     <col min="10" max="10" width="13" style="113" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="113" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="113" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="113" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="80" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="80"/>
+    <col min="11" max="11" width="11.85546875" style="113" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="113" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="113" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="80" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
@@ -6985,7 +7029,7 @@
       <c r="M1" s="73"/>
       <c r="N1" s="74"/>
     </row>
-    <row r="2" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
@@ -7001,147 +7045,147 @@
       <c r="M2" s="73"/>
       <c r="N2" s="74"/>
     </row>
-    <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="319" t="s">
+    <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="319"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="291"/>
+      <c r="N3" s="291"/>
       <c r="O3" s="124"/>
       <c r="P3" s="124"/>
       <c r="Q3" s="124"/>
     </row>
-    <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="319" t="s">
+    <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="291" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="319"/>
-      <c r="C4" s="319"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="319"/>
-      <c r="J4" s="319"/>
-      <c r="K4" s="319"/>
-      <c r="L4" s="319"/>
-      <c r="M4" s="319"/>
-      <c r="N4" s="319"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
+      <c r="K4" s="291"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="291"/>
+      <c r="N4" s="291"/>
       <c r="O4" s="124"/>
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
-    <row r="5" spans="1:17" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="319"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="320"/>
+    <row r="5" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="291"/>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
       <c r="K5" s="73"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74"/>
     </row>
-    <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="321" t="s">
+    <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="293" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="295" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="323"/>
-      <c r="D6" s="324" t="s">
+      <c r="C6" s="295"/>
+      <c r="D6" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="327" t="s">
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="327"/>
-      <c r="M6" s="327"/>
-      <c r="N6" s="328" t="s">
+      <c r="L6" s="301"/>
+      <c r="M6" s="301"/>
+      <c r="N6" s="302" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="77" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="322"/>
-      <c r="B7" s="325" t="s">
+    <row r="7" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="294"/>
+      <c r="B7" s="297" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="325" t="s">
+      <c r="C7" s="297" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="325" t="s">
+      <c r="D7" s="297" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="325" t="s">
+      <c r="E7" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="291" t="s">
+      <c r="F7" s="299" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="291" t="s">
+      <c r="G7" s="299" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="302" t="s">
+      <c r="H7" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="302"/>
-      <c r="J7" s="291" t="s">
+      <c r="I7" s="329"/>
+      <c r="J7" s="299" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="291" t="s">
+      <c r="K7" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="291" t="s">
+      <c r="L7" s="299" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="291" t="s">
+      <c r="M7" s="299" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="329"/>
-    </row>
-    <row r="8" spans="1:17" s="77" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="322"/>
-      <c r="B8" s="326"/>
-      <c r="C8" s="326"/>
-      <c r="D8" s="326"/>
-      <c r="E8" s="326"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
+      <c r="N7" s="303"/>
+    </row>
+    <row r="8" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="294"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="300"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
-      <c r="M8" s="292"/>
-      <c r="N8" s="329"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="300"/>
+      <c r="L8" s="300"/>
+      <c r="M8" s="300"/>
+      <c r="N8" s="303"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="132">
@@ -7183,10 +7227,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="299">
+      <c r="A10" s="314">
         <v>43958</v>
       </c>
-      <c r="B10" s="293" t="s">
+      <c r="B10" s="322" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="115"/>
@@ -7217,8 +7261,8 @@
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="301"/>
-      <c r="B11" s="295"/>
+      <c r="A11" s="315"/>
+      <c r="B11" s="324"/>
       <c r="C11" s="137"/>
       <c r="D11" s="84" t="s">
         <v>21</v>
@@ -7247,10 +7291,10 @@
       <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="299">
+      <c r="A12" s="314">
         <v>43958</v>
       </c>
-      <c r="B12" s="293" t="s">
+      <c r="B12" s="322" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="115"/>
@@ -7281,8 +7325,8 @@
       <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="301"/>
-      <c r="B13" s="295"/>
+      <c r="A13" s="315"/>
+      <c r="B13" s="324"/>
       <c r="C13" s="90"/>
       <c r="D13" s="84" t="s">
         <v>16</v>
@@ -7310,7 +7354,7 @@
       <c r="M13" s="140"/>
       <c r="N13" s="141"/>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="142">
         <v>43958</v>
       </c>
@@ -7345,10 +7389,10 @@
       <c r="N14" s="145"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="299">
+      <c r="A15" s="314">
         <v>43958</v>
       </c>
-      <c r="B15" s="293" t="s">
+      <c r="B15" s="322" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="115"/>
@@ -7365,7 +7409,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="296">
+      <c r="H15" s="325">
         <v>288000</v>
       </c>
       <c r="I15" s="83">
@@ -7381,13 +7425,13 @@
       </c>
       <c r="L15" s="139"/>
       <c r="M15" s="139"/>
-      <c r="N15" s="306" t="s">
+      <c r="N15" s="311" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="300"/>
-      <c r="B16" s="294"/>
+      <c r="A16" s="328"/>
+      <c r="B16" s="323"/>
       <c r="C16" s="116"/>
       <c r="D16" s="91" t="s">
         <v>20</v>
@@ -7402,7 +7446,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="297"/>
+      <c r="H16" s="326"/>
       <c r="I16" s="93">
         <v>0.1</v>
       </c>
@@ -7416,11 +7460,11 @@
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
-      <c r="N16" s="307"/>
+      <c r="N16" s="312"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="300"/>
-      <c r="B17" s="294"/>
+      <c r="A17" s="328"/>
+      <c r="B17" s="323"/>
       <c r="C17" s="116"/>
       <c r="D17" s="91" t="s">
         <v>10</v>
@@ -7435,7 +7479,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="297"/>
+      <c r="H17" s="326"/>
       <c r="I17" s="93">
         <v>0.1</v>
       </c>
@@ -7449,11 +7493,11 @@
       </c>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
-      <c r="N17" s="307"/>
+      <c r="N17" s="312"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="301"/>
-      <c r="B18" s="295"/>
+      <c r="A18" s="315"/>
+      <c r="B18" s="324"/>
       <c r="C18" s="90"/>
       <c r="D18" s="90" t="s">
         <v>21</v>
@@ -7468,7 +7512,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="298"/>
+      <c r="H18" s="327"/>
       <c r="I18" s="149">
         <v>0.1</v>
       </c>
@@ -7482,13 +7526,13 @@
       </c>
       <c r="L18" s="148"/>
       <c r="M18" s="148"/>
-      <c r="N18" s="308"/>
+      <c r="N18" s="313"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="299">
+      <c r="A19" s="314">
         <v>43958</v>
       </c>
-      <c r="B19" s="293" t="s">
+      <c r="B19" s="322" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="138"/>
@@ -7521,13 +7565,13 @@
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="146"/>
-      <c r="N19" s="310" t="s">
+      <c r="N19" s="317" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="300"/>
-      <c r="B20" s="294"/>
+      <c r="A20" s="328"/>
+      <c r="B20" s="323"/>
       <c r="C20" s="87"/>
       <c r="D20" s="87" t="s">
         <v>21</v>
@@ -7558,11 +7602,11 @@
       </c>
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
-      <c r="N20" s="311"/>
+      <c r="N20" s="318"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="301"/>
-      <c r="B21" s="295"/>
+      <c r="A21" s="315"/>
+      <c r="B21" s="324"/>
       <c r="C21" s="150"/>
       <c r="D21" s="150" t="s">
         <v>14</v>
@@ -7593,7 +7637,7 @@
       </c>
       <c r="L21" s="151"/>
       <c r="M21" s="151"/>
-      <c r="N21" s="312"/>
+      <c r="N21" s="319"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="142">
@@ -7675,7 +7719,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="299">
+      <c r="A24" s="314">
         <v>43962</v>
       </c>
       <c r="B24" s="177" t="s">
@@ -7711,12 +7755,12 @@
       </c>
       <c r="L24" s="82"/>
       <c r="M24" s="82"/>
-      <c r="N24" s="313" t="s">
+      <c r="N24" s="320" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="301"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="90" t="s">
         <v>68</v>
       </c>
@@ -7750,7 +7794,7 @@
       </c>
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
-      <c r="N25" s="314"/>
+      <c r="N25" s="321"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="142">
@@ -7791,7 +7835,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="94" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120"/>
       <c r="B27" s="119"/>
       <c r="C27" s="119"/>
@@ -7813,7 +7857,7 @@
       <c r="M27" s="96"/>
       <c r="N27" s="95"/>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="117"/>
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
@@ -7987,7 +8031,7 @@
       <c r="K35" s="92"/>
       <c r="L35" s="92"/>
       <c r="M35" s="92"/>
-      <c r="N35" s="317"/>
+      <c r="N35" s="308"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="118"/>
@@ -8009,7 +8053,7 @@
       <c r="K36" s="92"/>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
-      <c r="N36" s="317"/>
+      <c r="N36" s="308"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
@@ -8031,7 +8075,7 @@
       <c r="K37" s="92"/>
       <c r="L37" s="92"/>
       <c r="M37" s="92"/>
-      <c r="N37" s="317"/>
+      <c r="N37" s="308"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
@@ -8053,7 +8097,7 @@
       <c r="K38" s="92"/>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
-      <c r="N38" s="317"/>
+      <c r="N38" s="308"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
@@ -8075,7 +8119,7 @@
       <c r="K39" s="92"/>
       <c r="L39" s="92"/>
       <c r="M39" s="92"/>
-      <c r="N39" s="317"/>
+      <c r="N39" s="308"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
@@ -8097,7 +8141,7 @@
       <c r="K40" s="92"/>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
-      <c r="N40" s="317"/>
+      <c r="N40" s="308"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="117"/>
@@ -8163,7 +8207,7 @@
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
       <c r="M43" s="96"/>
-      <c r="N43" s="318"/>
+      <c r="N43" s="309"/>
     </row>
     <row r="44" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
@@ -8185,7 +8229,7 @@
       <c r="K44" s="96"/>
       <c r="L44" s="96"/>
       <c r="M44" s="96"/>
-      <c r="N44" s="318"/>
+      <c r="N44" s="309"/>
     </row>
     <row r="45" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
@@ -8207,7 +8251,7 @@
       <c r="K45" s="96"/>
       <c r="L45" s="96"/>
       <c r="M45" s="96"/>
-      <c r="N45" s="318"/>
+      <c r="N45" s="309"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
@@ -8781,13 +8825,13 @@
       <c r="M71" s="85"/>
       <c r="N71" s="84"/>
     </row>
-    <row r="72" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A72" s="315" t="s">
+    <row r="72" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A72" s="306" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="316"/>
-      <c r="C72" s="316"/>
-      <c r="D72" s="316"/>
+      <c r="B72" s="307"/>
+      <c r="C72" s="307"/>
+      <c r="D72" s="307"/>
       <c r="E72" s="158">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -8813,9 +8857,9 @@
       </c>
       <c r="M72" s="162"/>
       <c r="N72" s="179"/>
-      <c r="O72" s="303"/>
-    </row>
-    <row r="73" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="O72" s="310"/>
+    </row>
+    <row r="73" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="304" t="s">
         <v>77</v>
       </c>
@@ -8835,15 +8879,15 @@
       <c r="L73" s="102"/>
       <c r="M73" s="102"/>
       <c r="N73" s="179"/>
-      <c r="O73" s="303"/>
-    </row>
-    <row r="74" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="O73" s="310"/>
+    </row>
+    <row r="74" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="304" t="s">
         <v>121</v>
       </c>
       <c r="B74" s="305"/>
       <c r="C74" s="305"/>
-      <c r="D74" s="309"/>
+      <c r="D74" s="316"/>
       <c r="E74" s="156"/>
       <c r="F74" s="156"/>
       <c r="G74" s="99">
@@ -8859,7 +8903,7 @@
       <c r="N74" s="179"/>
       <c r="O74" s="163"/>
     </row>
-    <row r="75" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="304" t="s">
         <v>74</v>
       </c>
@@ -8880,7 +8924,7 @@
       <c r="M75" s="102"/>
       <c r="N75" s="179"/>
     </row>
-    <row r="76" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="304" t="s">
         <v>75</v>
       </c>
@@ -8901,7 +8945,7 @@
       <c r="M76" s="102"/>
       <c r="N76" s="179"/>
     </row>
-    <row r="77" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="304" t="s">
         <v>76</v>
       </c>
@@ -8948,6 +8992,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -8964,32 +9034,6 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9004,18 +9048,18 @@
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="199" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="200" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="182" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="182" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="183" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="199" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="200" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="182" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="182" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="183" customWidth="1"/>
     <col min="6" max="6" width="16" style="183" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="183"/>
+    <col min="7" max="16384" width="9.140625" style="183"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="331" t="s">
         <v>0</v>
       </c>
@@ -9031,7 +9075,7 @@
       <c r="O1" s="167"/>
       <c r="P1" s="168"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
         <v>2</v>
       </c>
@@ -9065,7 +9109,7 @@
       <c r="O3" s="167"/>
       <c r="P3" s="168"/>
     </row>
-    <row r="4" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="332" t="s">
         <v>78</v>
       </c>
@@ -9085,7 +9129,7 @@
       <c r="O4" s="172"/>
       <c r="P4" s="172"/>
     </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="333" t="s">
         <v>127</v>
       </c>
@@ -9105,7 +9149,7 @@
       <c r="O5" s="172"/>
       <c r="P5" s="172"/>
     </row>
-    <row r="7" spans="1:16" s="173" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="173" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="334" t="s">
         <v>79</v>
       </c>
@@ -9123,7 +9167,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="178" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="178" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="334"/>
       <c r="B8" s="335"/>
       <c r="C8" s="180" t="s">
@@ -9135,7 +9179,7 @@
       <c r="E8" s="338"/>
       <c r="F8" s="335"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="184">
         <v>43955</v>
       </c>
@@ -9149,7 +9193,7 @@
       <c r="E9" s="187"/>
       <c r="F9" s="187"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="188"/>
       <c r="B10" s="189" t="s">
         <v>87</v>
@@ -9161,7 +9205,7 @@
       <c r="E10" s="191"/>
       <c r="F10" s="191"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="188"/>
       <c r="B11" s="189" t="s">
         <v>88</v>
@@ -9173,7 +9217,7 @@
       <c r="E11" s="191"/>
       <c r="F11" s="191"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="188"/>
       <c r="B12" s="189" t="s">
         <v>89</v>
@@ -9185,7 +9229,7 @@
       <c r="E12" s="191"/>
       <c r="F12" s="191"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="188"/>
       <c r="B13" s="189" t="s">
         <v>90</v>
@@ -9197,7 +9241,7 @@
       <c r="E13" s="191"/>
       <c r="F13" s="191"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="188"/>
       <c r="B14" s="189" t="s">
         <v>91</v>
@@ -9209,7 +9253,7 @@
       <c r="E14" s="191"/>
       <c r="F14" s="191"/>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="188"/>
       <c r="B15" s="189" t="s">
         <v>92</v>
@@ -9221,7 +9265,7 @@
       <c r="E15" s="191"/>
       <c r="F15" s="191"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="188"/>
       <c r="B16" s="189" t="s">
         <v>93</v>
@@ -9233,7 +9277,7 @@
       <c r="E16" s="191"/>
       <c r="F16" s="191"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="188"/>
       <c r="B17" s="189" t="s">
         <v>94</v>
@@ -9245,7 +9289,7 @@
       <c r="E17" s="191"/>
       <c r="F17" s="191"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="188"/>
       <c r="B18" s="189" t="s">
         <v>95</v>
@@ -9257,7 +9301,7 @@
       <c r="E18" s="191"/>
       <c r="F18" s="191"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="188"/>
       <c r="B19" s="189" t="s">
         <v>96</v>
@@ -9269,7 +9313,7 @@
       <c r="E19" s="191"/>
       <c r="F19" s="191"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="188"/>
       <c r="B20" s="189" t="s">
         <v>97</v>
@@ -9281,7 +9325,7 @@
       <c r="E20" s="191"/>
       <c r="F20" s="191"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="188"/>
       <c r="B21" s="189" t="s">
         <v>98</v>
@@ -9293,7 +9337,7 @@
       <c r="E21" s="191"/>
       <c r="F21" s="191"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="188"/>
       <c r="B22" s="189" t="s">
         <v>99</v>
@@ -9305,7 +9349,7 @@
       <c r="E22" s="191"/>
       <c r="F22" s="191"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="188"/>
       <c r="B23" s="189" t="s">
         <v>100</v>
@@ -9318,7 +9362,7 @@
       <c r="E23" s="191"/>
       <c r="F23" s="191"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="188">
         <v>43957</v>
       </c>
@@ -9332,7 +9376,7 @@
       <c r="E24" s="191"/>
       <c r="F24" s="191"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="188"/>
       <c r="B25" s="189" t="s">
         <v>102</v>
@@ -9344,7 +9388,7 @@
       <c r="E25" s="191"/>
       <c r="F25" s="191"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="188"/>
       <c r="B26" s="189" t="s">
         <v>103</v>
@@ -9356,7 +9400,7 @@
       <c r="E26" s="191"/>
       <c r="F26" s="191"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="188"/>
       <c r="B27" s="189" t="s">
         <v>104</v>
@@ -9368,7 +9412,7 @@
       <c r="E27" s="191"/>
       <c r="F27" s="191"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="188"/>
       <c r="B28" s="189" t="s">
         <v>105</v>
@@ -9380,7 +9424,7 @@
       <c r="E28" s="191"/>
       <c r="F28" s="191"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="188"/>
       <c r="B29" s="189" t="s">
         <v>106</v>
@@ -9393,7 +9437,7 @@
       <c r="E29" s="191"/>
       <c r="F29" s="191"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="188"/>
       <c r="B30" s="189" t="s">
         <v>107</v>
@@ -9406,7 +9450,7 @@
       <c r="E30" s="191"/>
       <c r="F30" s="191"/>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="188"/>
       <c r="B31" s="189" t="s">
         <v>108</v>
@@ -9418,7 +9462,7 @@
       <c r="E31" s="191"/>
       <c r="F31" s="191"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="188"/>
       <c r="B32" s="189" t="s">
         <v>109</v>
@@ -9430,7 +9474,7 @@
       <c r="E32" s="191"/>
       <c r="F32" s="191"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="188"/>
       <c r="B33" s="189" t="s">
         <v>110</v>
@@ -9442,7 +9486,7 @@
       <c r="E33" s="191"/>
       <c r="F33" s="191"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="188"/>
       <c r="B34" s="189" t="s">
         <v>111</v>
@@ -9455,7 +9499,7 @@
       <c r="E34" s="191"/>
       <c r="F34" s="191"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="188"/>
       <c r="B35" s="189" t="s">
         <v>91</v>
@@ -9467,7 +9511,7 @@
       <c r="E35" s="191"/>
       <c r="F35" s="191"/>
     </row>
-    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="188">
         <v>43958</v>
       </c>
@@ -9481,7 +9525,7 @@
       <c r="E36" s="191"/>
       <c r="F36" s="191"/>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="188">
         <v>43959</v>
       </c>
@@ -9495,7 +9539,7 @@
       <c r="E37" s="191"/>
       <c r="F37" s="191"/>
     </row>
-    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="188">
         <v>43959</v>
       </c>
@@ -9509,7 +9553,7 @@
       <c r="E38" s="191"/>
       <c r="F38" s="191"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="188">
         <v>43959</v>
       </c>
@@ -9523,7 +9567,7 @@
       <c r="E39" s="191"/>
       <c r="F39" s="191"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="188">
         <v>43962</v>
       </c>
@@ -9537,7 +9581,7 @@
       <c r="E40" s="191"/>
       <c r="F40" s="191"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="188">
         <v>43964</v>
       </c>
@@ -9551,7 +9595,7 @@
       <c r="E41" s="191"/>
       <c r="F41" s="191"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="188">
         <v>43964</v>
       </c>
@@ -9565,7 +9609,7 @@
       <c r="E42" s="191"/>
       <c r="F42" s="191"/>
     </row>
-    <row r="43" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="188"/>
       <c r="B43" s="189"/>
       <c r="C43" s="190"/>
@@ -9573,7 +9617,7 @@
       <c r="E43" s="191"/>
       <c r="F43" s="191"/>
     </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="188"/>
       <c r="B44" s="189"/>
       <c r="C44" s="190"/>
@@ -9581,7 +9625,7 @@
       <c r="E44" s="191"/>
       <c r="F44" s="191"/>
     </row>
-    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="188"/>
       <c r="B45" s="189"/>
       <c r="C45" s="190"/>
@@ -9589,7 +9633,7 @@
       <c r="E45" s="191"/>
       <c r="F45" s="191"/>
     </row>
-    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="192"/>
       <c r="B46" s="193"/>
       <c r="C46" s="194"/>
@@ -9597,7 +9641,7 @@
       <c r="E46" s="195"/>
       <c r="F46" s="195"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="188">
         <v>43962</v>
       </c>
@@ -9611,7 +9655,7 @@
       <c r="E47" s="191"/>
       <c r="F47" s="191"/>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="188"/>
       <c r="B48" s="189" t="s">
         <v>123</v>
@@ -9623,7 +9667,7 @@
       <c r="E48" s="191"/>
       <c r="F48" s="191"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="188"/>
       <c r="B49" s="189" t="s">
         <v>124</v>
@@ -9635,7 +9679,7 @@
       <c r="E49" s="191"/>
       <c r="F49" s="191"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="188"/>
       <c r="B50" s="189" t="s">
         <v>125</v>
@@ -9647,7 +9691,7 @@
       <c r="E50" s="191"/>
       <c r="F50" s="191"/>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="188"/>
       <c r="B51" s="189" t="s">
         <v>154</v>
@@ -9659,7 +9703,7 @@
       <c r="E51" s="191"/>
       <c r="F51" s="191"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="188"/>
       <c r="B52" s="189" t="s">
         <v>126</v>
@@ -9671,7 +9715,7 @@
       <c r="E52" s="191"/>
       <c r="F52" s="191"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="241">
         <v>43987</v>
       </c>
@@ -9685,7 +9729,7 @@
       <c r="E53" s="244"/>
       <c r="F53" s="244"/>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="241"/>
       <c r="B54" s="242"/>
       <c r="C54" s="243"/>
@@ -9693,7 +9737,7 @@
       <c r="E54" s="244"/>
       <c r="F54" s="244"/>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="241"/>
       <c r="B55" s="242"/>
       <c r="C55" s="243"/>
@@ -9701,7 +9745,7 @@
       <c r="E55" s="244"/>
       <c r="F55" s="244"/>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="241"/>
       <c r="B56" s="242"/>
       <c r="C56" s="243"/>
@@ -9709,7 +9753,7 @@
       <c r="E56" s="244"/>
       <c r="F56" s="244"/>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="241"/>
       <c r="B57" s="242"/>
       <c r="C57" s="243"/>
@@ -9717,7 +9761,7 @@
       <c r="E57" s="244"/>
       <c r="F57" s="244"/>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="241"/>
       <c r="B58" s="242"/>
       <c r="C58" s="243"/>
@@ -9725,7 +9769,7 @@
       <c r="E58" s="244"/>
       <c r="F58" s="244"/>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="241"/>
       <c r="B59" s="242"/>
       <c r="C59" s="243"/>
@@ -9733,7 +9777,7 @@
       <c r="E59" s="244"/>
       <c r="F59" s="244"/>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="241"/>
       <c r="B60" s="242"/>
       <c r="C60" s="243"/>
@@ -9741,7 +9785,7 @@
       <c r="E60" s="244"/>
       <c r="F60" s="244"/>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="241"/>
       <c r="B61" s="242"/>
       <c r="C61" s="243"/>
@@ -9749,7 +9793,7 @@
       <c r="E61" s="244"/>
       <c r="F61" s="244"/>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="241"/>
       <c r="B62" s="242"/>
       <c r="C62" s="243"/>
@@ -9757,7 +9801,7 @@
       <c r="E62" s="244"/>
       <c r="F62" s="244"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="241"/>
       <c r="B63" s="242"/>
       <c r="C63" s="243"/>
@@ -9765,7 +9809,7 @@
       <c r="E63" s="244"/>
       <c r="F63" s="244"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="241"/>
       <c r="B64" s="242"/>
       <c r="C64" s="243"/>
@@ -9773,7 +9817,7 @@
       <c r="E64" s="244"/>
       <c r="F64" s="244"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="241"/>
       <c r="B65" s="242"/>
       <c r="C65" s="243"/>
@@ -9781,7 +9825,7 @@
       <c r="E65" s="244"/>
       <c r="F65" s="244"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="241"/>
       <c r="B66" s="242"/>
       <c r="C66" s="243"/>
@@ -9789,7 +9833,7 @@
       <c r="E66" s="244"/>
       <c r="F66" s="244"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="241"/>
       <c r="B67" s="242"/>
       <c r="C67" s="243"/>
@@ -9797,7 +9841,7 @@
       <c r="E67" s="244"/>
       <c r="F67" s="244"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="241"/>
       <c r="B68" s="242"/>
       <c r="C68" s="243"/>
@@ -9805,7 +9849,7 @@
       <c r="E68" s="244"/>
       <c r="F68" s="244"/>
     </row>
-    <row r="69" spans="1:6" s="198" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="198" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A69" s="330" t="s">
         <v>117</v>
       </c>
@@ -9821,7 +9865,7 @@
       <c r="E69" s="197"/>
       <c r="F69" s="197"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="183" t="s">
         <v>85</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -713,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="166">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1202,6 +1202,15 @@
   </si>
   <si>
     <t>Chị Huệ điện biên</t>
+  </si>
+  <si>
+    <t>Linna</t>
+  </si>
+  <si>
+    <t>E Cường</t>
+  </si>
+  <si>
+    <t>Quỳnh Anh Trần KC</t>
   </si>
 </sst>
 </file>
@@ -2182,30 +2191,84 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2227,63 +2290,93 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2308,12 +2401,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2322,84 +2409,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2758,14 +2767,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
+      <c r="A1" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2798,11 +2807,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2838,235 +2847,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="273"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="292"/>
+      <c r="Y3" s="292"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="292" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
-      <c r="X4" s="273"/>
-      <c r="Y4" s="273"/>
-      <c r="Z4" s="273"/>
-      <c r="AA4" s="273"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="273"/>
-      <c r="AD4" s="273"/>
-      <c r="AE4" s="273"/>
-      <c r="AF4" s="273"/>
-      <c r="AG4" s="273"/>
-      <c r="AH4" s="273"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="292"/>
+      <c r="N5" s="292"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="292"/>
+      <c r="Q5" s="292"/>
+      <c r="R5" s="292"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="292"/>
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="292"/>
+      <c r="AE5" s="292"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="278"/>
-      <c r="AA6" s="278"/>
-      <c r="AB6" s="278"/>
-      <c r="AC6" s="278"/>
-      <c r="AD6" s="278"/>
-      <c r="AE6" s="278"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="279"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="296"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="297"/>
+      <c r="AH6" s="270" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="280" t="s">
+      <c r="A7" s="270"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="281" t="s">
+      <c r="G7" s="270"/>
+      <c r="H7" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="299"/>
+      <c r="J7" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="270"/>
+      <c r="L7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="295"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="274"/>
+      <c r="N7" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="298" t="s">
+      <c r="O7" s="270"/>
+      <c r="P7" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="298"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="269"/>
+      <c r="R7" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="299" t="s">
+      <c r="S7" s="270"/>
+      <c r="T7" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="299"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="271"/>
+      <c r="V7" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="269" t="s">
+      <c r="W7" s="270"/>
+      <c r="X7" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="297" t="s">
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="297"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="267" t="s">
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="267" t="s">
+      <c r="AG7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="270"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="294"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3151,9 +3160,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -4983,78 +4992,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="292"/>
-      <c r="C44" s="293"/>
-      <c r="D44" s="294">
+      <c r="B44" s="286"/>
+      <c r="C44" s="287"/>
+      <c r="D44" s="288">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="294"/>
-      <c r="F44" s="271">
+      <c r="E44" s="288"/>
+      <c r="F44" s="277">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="271"/>
-      <c r="H44" s="270">
+      <c r="G44" s="277"/>
+      <c r="H44" s="290">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="270"/>
-      <c r="J44" s="271">
+      <c r="I44" s="290"/>
+      <c r="J44" s="277">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="271"/>
-      <c r="L44" s="291">
+      <c r="K44" s="277"/>
+      <c r="L44" s="285">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="291"/>
-      <c r="N44" s="271">
+      <c r="M44" s="285"/>
+      <c r="N44" s="277">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="271"/>
-      <c r="P44" s="284">
+      <c r="O44" s="277"/>
+      <c r="P44" s="278">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="284"/>
-      <c r="R44" s="271">
+      <c r="Q44" s="278"/>
+      <c r="R44" s="277">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="271"/>
-      <c r="T44" s="285">
+      <c r="S44" s="277"/>
+      <c r="T44" s="279">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="285"/>
-      <c r="V44" s="271">
+      <c r="U44" s="279"/>
+      <c r="V44" s="277">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="271"/>
-      <c r="X44" s="286">
+      <c r="W44" s="277"/>
+      <c r="X44" s="280">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="286"/>
-      <c r="Z44" s="271">
+      <c r="Y44" s="280"/>
+      <c r="Z44" s="277">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="271"/>
-      <c r="AB44" s="287">
+      <c r="AA44" s="277"/>
+      <c r="AB44" s="281">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="287"/>
-      <c r="AD44" s="271">
+      <c r="AC44" s="281"/>
+      <c r="AD44" s="277">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="271"/>
+      <c r="AE44" s="277"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5063,39 +5072,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="288" t="s">
+      <c r="A45" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="289"/>
-      <c r="C45" s="289"/>
-      <c r="D45" s="289"/>
-      <c r="E45" s="289"/>
-      <c r="F45" s="289"/>
-      <c r="G45" s="289"/>
-      <c r="H45" s="289"/>
-      <c r="I45" s="289"/>
-      <c r="J45" s="289"/>
-      <c r="K45" s="289"/>
-      <c r="L45" s="289"/>
-      <c r="M45" s="289"/>
-      <c r="N45" s="289"/>
-      <c r="O45" s="289"/>
-      <c r="P45" s="289"/>
-      <c r="Q45" s="289"/>
-      <c r="R45" s="289"/>
-      <c r="S45" s="289"/>
-      <c r="T45" s="289"/>
-      <c r="U45" s="289"/>
-      <c r="V45" s="289"/>
-      <c r="W45" s="289"/>
-      <c r="X45" s="289"/>
-      <c r="Y45" s="289"/>
-      <c r="Z45" s="289"/>
-      <c r="AA45" s="289"/>
-      <c r="AB45" s="289"/>
-      <c r="AC45" s="289"/>
-      <c r="AD45" s="289"/>
-      <c r="AE45" s="290"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="283"/>
+      <c r="D45" s="283"/>
+      <c r="E45" s="283"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="283"/>
+      <c r="H45" s="283"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="283"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
+      <c r="O45" s="283"/>
+      <c r="P45" s="283"/>
+      <c r="Q45" s="283"/>
+      <c r="R45" s="283"/>
+      <c r="S45" s="283"/>
+      <c r="T45" s="283"/>
+      <c r="U45" s="283"/>
+      <c r="V45" s="283"/>
+      <c r="W45" s="283"/>
+      <c r="X45" s="283"/>
+      <c r="Y45" s="283"/>
+      <c r="Z45" s="283"/>
+      <c r="AA45" s="283"/>
+      <c r="AB45" s="283"/>
+      <c r="AC45" s="283"/>
+      <c r="AD45" s="283"/>
+      <c r="AE45" s="284"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5107,60 +5116,64 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="288" t="s">
+      <c r="A46" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="289"/>
-      <c r="C46" s="289"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
-      <c r="F46" s="289"/>
-      <c r="G46" s="289"/>
-      <c r="H46" s="289"/>
-      <c r="I46" s="289"/>
-      <c r="J46" s="289"/>
-      <c r="K46" s="289"/>
-      <c r="L46" s="289"/>
-      <c r="M46" s="289"/>
-      <c r="N46" s="289"/>
-      <c r="O46" s="289"/>
-      <c r="P46" s="289"/>
-      <c r="Q46" s="289"/>
-      <c r="R46" s="289"/>
-      <c r="S46" s="289"/>
-      <c r="T46" s="289"/>
-      <c r="U46" s="289"/>
-      <c r="V46" s="289"/>
-      <c r="W46" s="289"/>
-      <c r="X46" s="289"/>
-      <c r="Y46" s="289"/>
-      <c r="Z46" s="289"/>
-      <c r="AA46" s="289"/>
-      <c r="AB46" s="289"/>
-      <c r="AC46" s="289"/>
-      <c r="AD46" s="289"/>
-      <c r="AE46" s="290"/>
-      <c r="AF46" s="282">
+      <c r="B46" s="283"/>
+      <c r="C46" s="283"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="283"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="283"/>
+      <c r="H46" s="283"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="283"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
+      <c r="O46" s="283"/>
+      <c r="P46" s="283"/>
+      <c r="Q46" s="283"/>
+      <c r="R46" s="283"/>
+      <c r="S46" s="283"/>
+      <c r="T46" s="283"/>
+      <c r="U46" s="283"/>
+      <c r="V46" s="283"/>
+      <c r="W46" s="283"/>
+      <c r="X46" s="283"/>
+      <c r="Y46" s="283"/>
+      <c r="Z46" s="283"/>
+      <c r="AA46" s="283"/>
+      <c r="AB46" s="283"/>
+      <c r="AC46" s="283"/>
+      <c r="AD46" s="283"/>
+      <c r="AE46" s="284"/>
+      <c r="AF46" s="275">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="283"/>
+      <c r="AG46" s="276"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="AF46:AG46"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
@@ -5177,22 +5190,18 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5205,8 +5214,8 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5222,14 +5231,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
+      <c r="A1" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
       <c r="G1" s="239"/>
       <c r="H1" s="239"/>
       <c r="I1" s="239"/>
@@ -5262,11 +5271,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
       <c r="D2" s="245"/>
       <c r="E2" s="245"/>
       <c r="F2" s="245"/>
@@ -5302,235 +5311,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="273"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="292"/>
+      <c r="Y3" s="292"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="292" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
-      <c r="X4" s="273"/>
-      <c r="Y4" s="273"/>
-      <c r="Z4" s="273"/>
-      <c r="AA4" s="273"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="273"/>
-      <c r="AD4" s="273"/>
-      <c r="AE4" s="273"/>
-      <c r="AF4" s="273"/>
-      <c r="AG4" s="273"/>
-      <c r="AH4" s="273"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="292"/>
+      <c r="N5" s="292"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="292"/>
+      <c r="Q5" s="292"/>
+      <c r="R5" s="292"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="292"/>
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="292"/>
+      <c r="AE5" s="292"/>
       <c r="AF5" s="246"/>
       <c r="AG5" s="246"/>
       <c r="AH5" s="246"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="278"/>
-      <c r="AA6" s="278"/>
-      <c r="AB6" s="278"/>
-      <c r="AC6" s="278"/>
-      <c r="AD6" s="278"/>
-      <c r="AE6" s="278"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="279"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="296"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="297"/>
+      <c r="AH6" s="270" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="280" t="s">
+      <c r="A7" s="270"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="281" t="s">
+      <c r="G7" s="270"/>
+      <c r="H7" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="299"/>
+      <c r="J7" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="270"/>
+      <c r="L7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="295"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="274"/>
+      <c r="N7" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="298" t="s">
+      <c r="O7" s="270"/>
+      <c r="P7" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="298"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="269"/>
+      <c r="R7" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
+      <c r="S7" s="270"/>
       <c r="T7" s="300" t="s">
         <v>17</v>
       </c>
       <c r="U7" s="300"/>
-      <c r="V7" s="274" t="s">
+      <c r="V7" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="269" t="s">
+      <c r="W7" s="270"/>
+      <c r="X7" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="297" t="s">
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="297"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="267" t="s">
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="267" t="s">
+      <c r="AG7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="270"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="294"/>
       <c r="D8" s="247" t="s">
         <v>23</v>
       </c>
@@ -5615,9 +5624,9 @@
       <c r="AE8" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -6555,8 +6564,12 @@
       <c r="A27" s="75">
         <v>19</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="120"/>
+      <c r="B27" s="35">
+        <v>43998</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>165</v>
+      </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="36"/>
@@ -6564,7 +6577,9 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="K27" s="36">
+        <v>4</v>
+      </c>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
       <c r="N27" s="36"/>
@@ -6587,7 +6602,7 @@
       <c r="AE27" s="36"/>
       <c r="AF27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG27" s="20">
         <f t="shared" si="2"/>
@@ -6599,8 +6614,12 @@
       <c r="A28" s="20">
         <v>20</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="120"/>
+      <c r="B28" s="35">
+        <v>44000</v>
+      </c>
+      <c r="C28" s="120" t="s">
+        <v>164</v>
+      </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="36"/>
@@ -6626,12 +6645,14 @@
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
       <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
+      <c r="AC28" s="42">
+        <v>7</v>
+      </c>
       <c r="AD28" s="36"/>
       <c r="AE28" s="36"/>
       <c r="AF28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="2"/>
@@ -6643,8 +6664,12 @@
       <c r="A29" s="75">
         <v>21</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="120"/>
+      <c r="B29" s="35">
+        <v>44000</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>163</v>
+      </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="36"/>
@@ -6652,30 +6677,40 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="36">
+        <v>7</v>
+      </c>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
       <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
+      <c r="O29" s="36">
+        <v>12</v>
+      </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="S29" s="36">
+        <v>12</v>
+      </c>
       <c r="T29" s="263"/>
       <c r="U29" s="263"/>
       <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="36">
+        <v>10</v>
+      </c>
       <c r="X29" s="41"/>
       <c r="Y29" s="41"/>
       <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
+      <c r="AA29" s="36">
+        <v>12</v>
+      </c>
       <c r="AB29" s="42"/>
       <c r="AC29" s="42"/>
       <c r="AD29" s="36"/>
       <c r="AE29" s="36"/>
       <c r="AF29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AG29" s="20">
         <f t="shared" si="2"/>
@@ -6809,122 +6844,122 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
-      <c r="B33" s="292"/>
-      <c r="C33" s="293"/>
-      <c r="D33" s="294">
+      <c r="B33" s="286"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="288">
         <f>SUM(D9:D31)-SUM(E9:E31)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="294"/>
-      <c r="F33" s="271">
+      <c r="E33" s="288"/>
+      <c r="F33" s="277">
         <f>SUM(F9:F31)-SUM(G9:G31)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="271"/>
-      <c r="H33" s="270">
+      <c r="G33" s="277"/>
+      <c r="H33" s="290">
         <f>SUM(H9:H31)-SUM(I9:I31)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="270"/>
-      <c r="J33" s="271">
+      <c r="I33" s="290"/>
+      <c r="J33" s="277">
         <f>SUM(J9:J31)-SUM(K9:K31)</f>
-        <v>11</v>
-      </c>
-      <c r="K33" s="271"/>
-      <c r="L33" s="291">
+        <v>0</v>
+      </c>
+      <c r="K33" s="277"/>
+      <c r="L33" s="285">
         <f>SUM(L9:L31)-SUM(M9:M31)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="291"/>
-      <c r="N33" s="271">
+      <c r="M33" s="285"/>
+      <c r="N33" s="277">
         <f>SUM(N9:N31)-SUM(O9:O31)</f>
-        <v>15</v>
-      </c>
-      <c r="O33" s="271"/>
-      <c r="P33" s="284">
+        <v>3</v>
+      </c>
+      <c r="O33" s="277"/>
+      <c r="P33" s="278">
         <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="284"/>
-      <c r="R33" s="271">
+      <c r="Q33" s="278"/>
+      <c r="R33" s="277">
         <f>SUM(R9:R31)-SUM(S9:S31)</f>
-        <v>67</v>
-      </c>
-      <c r="S33" s="271"/>
-      <c r="T33" s="285">
+        <v>55</v>
+      </c>
+      <c r="S33" s="277"/>
+      <c r="T33" s="279">
         <f>SUM(T9:T31)-SUM(U9:U31)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="285"/>
-      <c r="V33" s="271">
+      <c r="U33" s="279"/>
+      <c r="V33" s="277">
         <f>SUM(V9:V31)-SUM(W9:W31)</f>
-        <v>10</v>
-      </c>
-      <c r="W33" s="271"/>
-      <c r="X33" s="286">
+        <v>0</v>
+      </c>
+      <c r="W33" s="277"/>
+      <c r="X33" s="280">
         <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
         <v>58</v>
       </c>
-      <c r="Y33" s="286"/>
-      <c r="Z33" s="271">
+      <c r="Y33" s="280"/>
+      <c r="Z33" s="277">
         <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
-        <v>50</v>
-      </c>
-      <c r="AA33" s="271"/>
-      <c r="AB33" s="287">
+        <v>38</v>
+      </c>
+      <c r="AA33" s="277"/>
+      <c r="AB33" s="281">
         <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
-        <v>55</v>
-      </c>
-      <c r="AC33" s="287"/>
-      <c r="AD33" s="271">
+        <v>48</v>
+      </c>
+      <c r="AC33" s="281"/>
+      <c r="AD33" s="277">
         <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="271"/>
+      <c r="AE33" s="277"/>
       <c r="AF33" s="43"/>
       <c r="AG33" s="249">
         <f t="shared" si="1"/>
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="AH33" s="58"/>
     </row>
     <row r="34" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="288" t="s">
+      <c r="A34" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="289"/>
-      <c r="C34" s="289"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="289"/>
-      <c r="F34" s="289"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="289"/>
-      <c r="I34" s="289"/>
-      <c r="J34" s="289"/>
-      <c r="K34" s="289"/>
-      <c r="L34" s="289"/>
-      <c r="M34" s="289"/>
-      <c r="N34" s="289"/>
-      <c r="O34" s="289"/>
-      <c r="P34" s="289"/>
-      <c r="Q34" s="289"/>
-      <c r="R34" s="289"/>
-      <c r="S34" s="289"/>
-      <c r="T34" s="289"/>
-      <c r="U34" s="289"/>
-      <c r="V34" s="289"/>
-      <c r="W34" s="289"/>
-      <c r="X34" s="289"/>
-      <c r="Y34" s="289"/>
-      <c r="Z34" s="289"/>
-      <c r="AA34" s="289"/>
-      <c r="AB34" s="289"/>
-      <c r="AC34" s="289"/>
-      <c r="AD34" s="289"/>
-      <c r="AE34" s="290"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
+      <c r="G34" s="283"/>
+      <c r="H34" s="283"/>
+      <c r="I34" s="283"/>
+      <c r="J34" s="283"/>
+      <c r="K34" s="283"/>
+      <c r="L34" s="283"/>
+      <c r="M34" s="283"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="283"/>
+      <c r="S34" s="283"/>
+      <c r="T34" s="283"/>
+      <c r="U34" s="283"/>
+      <c r="V34" s="283"/>
+      <c r="W34" s="283"/>
+      <c r="X34" s="283"/>
+      <c r="Y34" s="283"/>
+      <c r="Z34" s="283"/>
+      <c r="AA34" s="283"/>
+      <c r="AB34" s="283"/>
+      <c r="AC34" s="283"/>
+      <c r="AD34" s="283"/>
+      <c r="AE34" s="284"/>
       <c r="AF34" s="59">
         <f>SUM(AF9:AF31)</f>
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="AG34" s="59">
         <f>SUM(AG9:AG31)</f>
@@ -6933,60 +6968,64 @@
       <c r="AH34" s="60"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="288" t="s">
+      <c r="A35" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="289"/>
-      <c r="C35" s="289"/>
-      <c r="D35" s="289"/>
-      <c r="E35" s="289"/>
-      <c r="F35" s="289"/>
-      <c r="G35" s="289"/>
-      <c r="H35" s="289"/>
-      <c r="I35" s="289"/>
-      <c r="J35" s="289"/>
-      <c r="K35" s="289"/>
-      <c r="L35" s="289"/>
-      <c r="M35" s="289"/>
-      <c r="N35" s="289"/>
-      <c r="O35" s="289"/>
-      <c r="P35" s="289"/>
-      <c r="Q35" s="289"/>
-      <c r="R35" s="289"/>
-      <c r="S35" s="289"/>
-      <c r="T35" s="289"/>
-      <c r="U35" s="289"/>
-      <c r="V35" s="289"/>
-      <c r="W35" s="289"/>
-      <c r="X35" s="289"/>
-      <c r="Y35" s="289"/>
-      <c r="Z35" s="289"/>
-      <c r="AA35" s="289"/>
-      <c r="AB35" s="289"/>
-      <c r="AC35" s="289"/>
-      <c r="AD35" s="289"/>
-      <c r="AE35" s="290"/>
-      <c r="AF35" s="282">
+      <c r="B35" s="283"/>
+      <c r="C35" s="283"/>
+      <c r="D35" s="283"/>
+      <c r="E35" s="283"/>
+      <c r="F35" s="283"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="283"/>
+      <c r="K35" s="283"/>
+      <c r="L35" s="283"/>
+      <c r="M35" s="283"/>
+      <c r="N35" s="283"/>
+      <c r="O35" s="283"/>
+      <c r="P35" s="283"/>
+      <c r="Q35" s="283"/>
+      <c r="R35" s="283"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="283"/>
+      <c r="U35" s="283"/>
+      <c r="V35" s="283"/>
+      <c r="W35" s="283"/>
+      <c r="X35" s="283"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="283"/>
+      <c r="AA35" s="283"/>
+      <c r="AB35" s="283"/>
+      <c r="AC35" s="283"/>
+      <c r="AD35" s="283"/>
+      <c r="AE35" s="284"/>
+      <c r="AF35" s="275">
         <f>AG34-AF34</f>
-        <v>267</v>
-      </c>
-      <c r="AG35" s="283"/>
+        <v>203</v>
+      </c>
+      <c r="AG35" s="276"/>
       <c r="AH35" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -7003,22 +7042,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="A34:AE34"/>
+    <mergeCell ref="A35:AE35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7086,146 +7121,146 @@
       <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="301" t="s">
+      <c r="A3" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="329" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="329"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="329"/>
+      <c r="N4" s="329"/>
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
       <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="301"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
+      <c r="A5" s="329"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="305" t="s">
+      <c r="B6" s="333" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="305"/>
-      <c r="D6" s="306" t="s">
+      <c r="C6" s="333"/>
+      <c r="D6" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306"/>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="311" t="s">
+      <c r="E6" s="334"/>
+      <c r="F6" s="334"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="334"/>
+      <c r="K6" s="337" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="311"/>
-      <c r="M6" s="311"/>
-      <c r="N6" s="312" t="s">
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="338" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="304"/>
-      <c r="B7" s="307" t="s">
+      <c r="A7" s="332"/>
+      <c r="B7" s="335" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="307" t="s">
+      <c r="C7" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="307" t="s">
+      <c r="D7" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="307" t="s">
+      <c r="E7" s="335" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="309" t="s">
+      <c r="F7" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="309" t="s">
+      <c r="G7" s="301" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="339" t="s">
+      <c r="H7" s="312" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="339"/>
-      <c r="J7" s="309" t="s">
+      <c r="I7" s="312"/>
+      <c r="J7" s="301" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="309" t="s">
+      <c r="K7" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="309" t="s">
+      <c r="L7" s="301" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="309" t="s">
+      <c r="M7" s="301" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="313"/>
+      <c r="N7" s="339"/>
     </row>
     <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="304"/>
-      <c r="B8" s="308"/>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="310"/>
-      <c r="G8" s="310"/>
+      <c r="A8" s="332"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
       <c r="H8" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="310"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="310"/>
-      <c r="M8" s="310"/>
-      <c r="N8" s="313"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="339"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="125">
@@ -7267,10 +7302,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="324">
+      <c r="A10" s="309">
         <v>43958</v>
       </c>
-      <c r="B10" s="332" t="s">
+      <c r="B10" s="303" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="109"/>
@@ -7301,8 +7336,8 @@
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="325"/>
-      <c r="B11" s="334"/>
+      <c r="A11" s="311"/>
+      <c r="B11" s="305"/>
       <c r="C11" s="130"/>
       <c r="D11" s="78" t="s">
         <v>21</v>
@@ -7331,10 +7366,10 @@
       <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="324">
+      <c r="A12" s="309">
         <v>43958</v>
       </c>
-      <c r="B12" s="332" t="s">
+      <c r="B12" s="303" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="109"/>
@@ -7365,8 +7400,8 @@
       <c r="N12" s="75"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="325"/>
-      <c r="B13" s="334"/>
+      <c r="A13" s="311"/>
+      <c r="B13" s="305"/>
       <c r="C13" s="84"/>
       <c r="D13" s="78" t="s">
         <v>16</v>
@@ -7429,10 +7464,10 @@
       <c r="N14" s="138"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="324">
+      <c r="A15" s="309">
         <v>43958</v>
       </c>
-      <c r="B15" s="332" t="s">
+      <c r="B15" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="109"/>
@@ -7449,7 +7484,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="335">
+      <c r="H15" s="306">
         <v>288000</v>
       </c>
       <c r="I15" s="77">
@@ -7465,13 +7500,13 @@
       </c>
       <c r="L15" s="132"/>
       <c r="M15" s="132"/>
-      <c r="N15" s="321" t="s">
+      <c r="N15" s="316" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
-      <c r="B16" s="333"/>
+      <c r="A16" s="310"/>
+      <c r="B16" s="304"/>
       <c r="C16" s="110"/>
       <c r="D16" s="85" t="s">
         <v>20</v>
@@ -7486,7 +7521,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="336"/>
+      <c r="H16" s="307"/>
       <c r="I16" s="87">
         <v>0.1</v>
       </c>
@@ -7500,11 +7535,11 @@
       </c>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
-      <c r="N16" s="322"/>
+      <c r="N16" s="317"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="338"/>
-      <c r="B17" s="333"/>
+      <c r="A17" s="310"/>
+      <c r="B17" s="304"/>
       <c r="C17" s="110"/>
       <c r="D17" s="85" t="s">
         <v>10</v>
@@ -7519,7 +7554,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="336"/>
+      <c r="H17" s="307"/>
       <c r="I17" s="87">
         <v>0.1</v>
       </c>
@@ -7533,11 +7568,11 @@
       </c>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
-      <c r="N17" s="322"/>
+      <c r="N17" s="317"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="325"/>
-      <c r="B18" s="334"/>
+      <c r="A18" s="311"/>
+      <c r="B18" s="305"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84" t="s">
         <v>21</v>
@@ -7552,7 +7587,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="337"/>
+      <c r="H18" s="308"/>
       <c r="I18" s="142">
         <v>0.1</v>
       </c>
@@ -7566,13 +7601,13 @@
       </c>
       <c r="L18" s="141"/>
       <c r="M18" s="141"/>
-      <c r="N18" s="323"/>
+      <c r="N18" s="318"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="324">
+      <c r="A19" s="309">
         <v>43958</v>
       </c>
-      <c r="B19" s="332" t="s">
+      <c r="B19" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="131"/>
@@ -7605,13 +7640,13 @@
       </c>
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
-      <c r="N19" s="327" t="s">
+      <c r="N19" s="320" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="338"/>
-      <c r="B20" s="333"/>
+      <c r="A20" s="310"/>
+      <c r="B20" s="304"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81" t="s">
         <v>21</v>
@@ -7642,11 +7677,11 @@
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82"/>
-      <c r="N20" s="328"/>
+      <c r="N20" s="321"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="325"/>
-      <c r="B21" s="334"/>
+      <c r="A21" s="311"/>
+      <c r="B21" s="305"/>
       <c r="C21" s="143"/>
       <c r="D21" s="143" t="s">
         <v>14</v>
@@ -7677,7 +7712,7 @@
       </c>
       <c r="L21" s="144"/>
       <c r="M21" s="144"/>
-      <c r="N21" s="329"/>
+      <c r="N21" s="322"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="135">
@@ -7759,7 +7794,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="324">
+      <c r="A24" s="309">
         <v>43962</v>
       </c>
       <c r="B24" s="170" t="s">
@@ -7795,12 +7830,12 @@
       </c>
       <c r="L24" s="76"/>
       <c r="M24" s="76"/>
-      <c r="N24" s="330" t="s">
+      <c r="N24" s="323" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="325"/>
+      <c r="A25" s="311"/>
       <c r="B25" s="84" t="s">
         <v>68</v>
       </c>
@@ -7834,7 +7869,7 @@
       </c>
       <c r="L25" s="79"/>
       <c r="M25" s="79"/>
-      <c r="N25" s="331"/>
+      <c r="N25" s="324"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="135">
@@ -8071,7 +8106,7 @@
       <c r="K35" s="86"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
-      <c r="N35" s="318"/>
+      <c r="N35" s="327"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
@@ -8093,7 +8128,7 @@
       <c r="K36" s="86"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
-      <c r="N36" s="318"/>
+      <c r="N36" s="327"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
@@ -8115,7 +8150,7 @@
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
       <c r="M37" s="86"/>
-      <c r="N37" s="318"/>
+      <c r="N37" s="327"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
@@ -8137,7 +8172,7 @@
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
       <c r="M38" s="86"/>
-      <c r="N38" s="318"/>
+      <c r="N38" s="327"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
@@ -8159,7 +8194,7 @@
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
       <c r="M39" s="86"/>
-      <c r="N39" s="318"/>
+      <c r="N39" s="327"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
@@ -8181,7 +8216,7 @@
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
       <c r="M40" s="86"/>
-      <c r="N40" s="318"/>
+      <c r="N40" s="327"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="111"/>
@@ -8247,7 +8282,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="90"/>
       <c r="M43" s="90"/>
-      <c r="N43" s="319"/>
+      <c r="N43" s="328"/>
     </row>
     <row r="44" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="117"/>
@@ -8269,7 +8304,7 @@
       <c r="K44" s="90"/>
       <c r="L44" s="90"/>
       <c r="M44" s="90"/>
-      <c r="N44" s="319"/>
+      <c r="N44" s="328"/>
     </row>
     <row r="45" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="117"/>
@@ -8291,7 +8326,7 @@
       <c r="K45" s="90"/>
       <c r="L45" s="90"/>
       <c r="M45" s="90"/>
-      <c r="N45" s="319"/>
+      <c r="N45" s="328"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
@@ -8866,12 +8901,12 @@
       <c r="N71" s="78"/>
     </row>
     <row r="72" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="316" t="s">
+      <c r="A72" s="325" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="317"/>
-      <c r="C72" s="317"/>
-      <c r="D72" s="317"/>
+      <c r="B72" s="326"/>
+      <c r="C72" s="326"/>
+      <c r="D72" s="326"/>
       <c r="E72" s="151">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -8897,7 +8932,7 @@
       </c>
       <c r="M72" s="155"/>
       <c r="N72" s="172"/>
-      <c r="O72" s="320"/>
+      <c r="O72" s="313"/>
     </row>
     <row r="73" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="314" t="s">
@@ -8919,7 +8954,7 @@
       <c r="L73" s="96"/>
       <c r="M73" s="96"/>
       <c r="N73" s="172"/>
-      <c r="O73" s="320"/>
+      <c r="O73" s="313"/>
     </row>
     <row r="74" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="314" t="s">
@@ -8927,7 +8962,7 @@
       </c>
       <c r="B74" s="315"/>
       <c r="C74" s="315"/>
-      <c r="D74" s="326"/>
+      <c r="D74" s="319"/>
       <c r="E74" s="149"/>
       <c r="F74" s="149"/>
       <c r="G74" s="93">
@@ -9032,32 +9067,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -9074,6 +9083,32 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -713,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="168">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1211,6 +1211,12 @@
   </si>
   <si>
     <t>Quỳnh Anh Trần KC</t>
+  </si>
+  <si>
+    <t>Tháng 6</t>
+  </si>
+  <si>
+    <t>Chị Phương Yên Châu</t>
   </si>
 </sst>
 </file>
@@ -2191,6 +2197,93 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2200,105 +2293,105 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2317,98 +2410,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2767,14 +2773,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
+      <c r="A1" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2807,11 +2813,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2847,235 +2853,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="292"/>
-      <c r="AH3" s="292"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="273"/>
+      <c r="V3" s="273"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="273"/>
+      <c r="Y3" s="273"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
+      <c r="AE3" s="273"/>
+      <c r="AF3" s="273"/>
+      <c r="AG3" s="273"/>
+      <c r="AH3" s="273"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="273" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="292"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="292"/>
-      <c r="M4" s="292"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="292"/>
-      <c r="P4" s="292"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="292"/>
-      <c r="S4" s="292"/>
-      <c r="T4" s="292"/>
-      <c r="U4" s="292"/>
-      <c r="V4" s="292"/>
-      <c r="W4" s="292"/>
-      <c r="X4" s="292"/>
-      <c r="Y4" s="292"/>
-      <c r="Z4" s="292"/>
-      <c r="AA4" s="292"/>
-      <c r="AB4" s="292"/>
-      <c r="AC4" s="292"/>
-      <c r="AD4" s="292"/>
-      <c r="AE4" s="292"/>
-      <c r="AF4" s="292"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="292"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="273"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="273"/>
+      <c r="AE4" s="273"/>
+      <c r="AF4" s="273"/>
+      <c r="AG4" s="273"/>
+      <c r="AH4" s="273"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="292"/>
-      <c r="Q5" s="292"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="292"/>
-      <c r="T5" s="292"/>
-      <c r="U5" s="292"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="292"/>
+      <c r="A5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="295" t="s">
+      <c r="D6" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="296"/>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="296"/>
-      <c r="S6" s="296"/>
-      <c r="T6" s="296"/>
-      <c r="U6" s="296"/>
-      <c r="V6" s="296"/>
-      <c r="W6" s="296"/>
-      <c r="X6" s="296"/>
-      <c r="Y6" s="296"/>
-      <c r="Z6" s="296"/>
-      <c r="AA6" s="296"/>
-      <c r="AB6" s="296"/>
-      <c r="AC6" s="296"/>
-      <c r="AD6" s="296"/>
-      <c r="AE6" s="296"/>
-      <c r="AF6" s="296"/>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="270" t="s">
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278"/>
+      <c r="P6" s="278"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="278"/>
+      <c r="T6" s="278"/>
+      <c r="U6" s="278"/>
+      <c r="V6" s="278"/>
+      <c r="W6" s="278"/>
+      <c r="X6" s="278"/>
+      <c r="Y6" s="278"/>
+      <c r="Z6" s="278"/>
+      <c r="AA6" s="278"/>
+      <c r="AB6" s="278"/>
+      <c r="AC6" s="278"/>
+      <c r="AD6" s="278"/>
+      <c r="AE6" s="278"/>
+      <c r="AF6" s="278"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="270"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="298" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="270" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="270"/>
-      <c r="H7" s="299" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="270" t="s">
+      <c r="I7" s="281"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="274" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="274"/>
-      <c r="N7" s="270" t="s">
+      <c r="M7" s="295"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="270"/>
-      <c r="P7" s="269" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="270" t="s">
+      <c r="Q7" s="298"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="270"/>
-      <c r="T7" s="271" t="s">
+      <c r="S7" s="274"/>
+      <c r="T7" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="271"/>
-      <c r="V7" s="270" t="s">
+      <c r="U7" s="299"/>
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="270"/>
-      <c r="X7" s="289" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="270" t="s">
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="268" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="268"/>
-      <c r="AD7" s="270" t="s">
+      <c r="AC7" s="297"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="272" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="272" t="s">
+      <c r="AG7" s="267" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="270"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="270"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="294"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3160,9 +3166,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="273"/>
-      <c r="AH8" s="270"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -4992,78 +4998,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="286"/>
-      <c r="C44" s="287"/>
-      <c r="D44" s="288">
+      <c r="B44" s="292"/>
+      <c r="C44" s="293"/>
+      <c r="D44" s="294">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="288"/>
-      <c r="F44" s="277">
+      <c r="E44" s="294"/>
+      <c r="F44" s="271">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="277"/>
-      <c r="H44" s="290">
+      <c r="G44" s="271"/>
+      <c r="H44" s="270">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="290"/>
-      <c r="J44" s="277">
+      <c r="I44" s="270"/>
+      <c r="J44" s="271">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="277"/>
-      <c r="L44" s="285">
+      <c r="K44" s="271"/>
+      <c r="L44" s="291">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="285"/>
-      <c r="N44" s="277">
+      <c r="M44" s="291"/>
+      <c r="N44" s="271">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="277"/>
-      <c r="P44" s="278">
+      <c r="O44" s="271"/>
+      <c r="P44" s="284">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="278"/>
-      <c r="R44" s="277">
+      <c r="Q44" s="284"/>
+      <c r="R44" s="271">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="277"/>
-      <c r="T44" s="279">
+      <c r="S44" s="271"/>
+      <c r="T44" s="285">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="279"/>
-      <c r="V44" s="277">
+      <c r="U44" s="285"/>
+      <c r="V44" s="271">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="277"/>
-      <c r="X44" s="280">
+      <c r="W44" s="271"/>
+      <c r="X44" s="286">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="280"/>
-      <c r="Z44" s="277">
+      <c r="Y44" s="286"/>
+      <c r="Z44" s="271">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="277"/>
-      <c r="AB44" s="281">
+      <c r="AA44" s="271"/>
+      <c r="AB44" s="287">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="281"/>
-      <c r="AD44" s="277">
+      <c r="AC44" s="287"/>
+      <c r="AD44" s="271">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="277"/>
+      <c r="AE44" s="271"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5072,39 +5078,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="282" t="s">
+      <c r="A45" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="283"/>
-      <c r="E45" s="283"/>
-      <c r="F45" s="283"/>
-      <c r="G45" s="283"/>
-      <c r="H45" s="283"/>
-      <c r="I45" s="283"/>
-      <c r="J45" s="283"/>
-      <c r="K45" s="283"/>
-      <c r="L45" s="283"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="283"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="283"/>
-      <c r="Q45" s="283"/>
-      <c r="R45" s="283"/>
-      <c r="S45" s="283"/>
-      <c r="T45" s="283"/>
-      <c r="U45" s="283"/>
-      <c r="V45" s="283"/>
-      <c r="W45" s="283"/>
-      <c r="X45" s="283"/>
-      <c r="Y45" s="283"/>
-      <c r="Z45" s="283"/>
-      <c r="AA45" s="283"/>
-      <c r="AB45" s="283"/>
-      <c r="AC45" s="283"/>
-      <c r="AD45" s="283"/>
-      <c r="AE45" s="284"/>
+      <c r="B45" s="289"/>
+      <c r="C45" s="289"/>
+      <c r="D45" s="289"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="289"/>
+      <c r="G45" s="289"/>
+      <c r="H45" s="289"/>
+      <c r="I45" s="289"/>
+      <c r="J45" s="289"/>
+      <c r="K45" s="289"/>
+      <c r="L45" s="289"/>
+      <c r="M45" s="289"/>
+      <c r="N45" s="289"/>
+      <c r="O45" s="289"/>
+      <c r="P45" s="289"/>
+      <c r="Q45" s="289"/>
+      <c r="R45" s="289"/>
+      <c r="S45" s="289"/>
+      <c r="T45" s="289"/>
+      <c r="U45" s="289"/>
+      <c r="V45" s="289"/>
+      <c r="W45" s="289"/>
+      <c r="X45" s="289"/>
+      <c r="Y45" s="289"/>
+      <c r="Z45" s="289"/>
+      <c r="AA45" s="289"/>
+      <c r="AB45" s="289"/>
+      <c r="AC45" s="289"/>
+      <c r="AD45" s="289"/>
+      <c r="AE45" s="290"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5116,48 +5122,76 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="282" t="s">
+      <c r="A46" s="288" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="283"/>
-      <c r="C46" s="283"/>
-      <c r="D46" s="283"/>
-      <c r="E46" s="283"/>
-      <c r="F46" s="283"/>
-      <c r="G46" s="283"/>
-      <c r="H46" s="283"/>
-      <c r="I46" s="283"/>
-      <c r="J46" s="283"/>
-      <c r="K46" s="283"/>
-      <c r="L46" s="283"/>
-      <c r="M46" s="283"/>
-      <c r="N46" s="283"/>
-      <c r="O46" s="283"/>
-      <c r="P46" s="283"/>
-      <c r="Q46" s="283"/>
-      <c r="R46" s="283"/>
-      <c r="S46" s="283"/>
-      <c r="T46" s="283"/>
-      <c r="U46" s="283"/>
-      <c r="V46" s="283"/>
-      <c r="W46" s="283"/>
-      <c r="X46" s="283"/>
-      <c r="Y46" s="283"/>
-      <c r="Z46" s="283"/>
-      <c r="AA46" s="283"/>
-      <c r="AB46" s="283"/>
-      <c r="AC46" s="283"/>
-      <c r="AD46" s="283"/>
-      <c r="AE46" s="284"/>
-      <c r="AF46" s="275">
+      <c r="B46" s="289"/>
+      <c r="C46" s="289"/>
+      <c r="D46" s="289"/>
+      <c r="E46" s="289"/>
+      <c r="F46" s="289"/>
+      <c r="G46" s="289"/>
+      <c r="H46" s="289"/>
+      <c r="I46" s="289"/>
+      <c r="J46" s="289"/>
+      <c r="K46" s="289"/>
+      <c r="L46" s="289"/>
+      <c r="M46" s="289"/>
+      <c r="N46" s="289"/>
+      <c r="O46" s="289"/>
+      <c r="P46" s="289"/>
+      <c r="Q46" s="289"/>
+      <c r="R46" s="289"/>
+      <c r="S46" s="289"/>
+      <c r="T46" s="289"/>
+      <c r="U46" s="289"/>
+      <c r="V46" s="289"/>
+      <c r="W46" s="289"/>
+      <c r="X46" s="289"/>
+      <c r="Y46" s="289"/>
+      <c r="Z46" s="289"/>
+      <c r="AA46" s="289"/>
+      <c r="AB46" s="289"/>
+      <c r="AC46" s="289"/>
+      <c r="AD46" s="289"/>
+      <c r="AE46" s="290"/>
+      <c r="AF46" s="282">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="276"/>
+      <c r="AG46" s="283"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="H44:I44"/>
@@ -5174,34 +5208,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5211,18 +5217,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="123" customWidth="1"/>
     <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
     <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
     <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -5231,14 +5237,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
+      <c r="A1" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
       <c r="G1" s="239"/>
       <c r="H1" s="239"/>
       <c r="I1" s="239"/>
@@ -5271,11 +5277,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
       <c r="D2" s="245"/>
       <c r="E2" s="245"/>
       <c r="F2" s="245"/>
@@ -5311,235 +5317,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="292"/>
-      <c r="AH3" s="292"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="273"/>
+      <c r="V3" s="273"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="273"/>
+      <c r="Y3" s="273"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
+      <c r="AE3" s="273"/>
+      <c r="AF3" s="273"/>
+      <c r="AG3" s="273"/>
+      <c r="AH3" s="273"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="292" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="292"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="292"/>
-      <c r="M4" s="292"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="292"/>
-      <c r="P4" s="292"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="292"/>
-      <c r="S4" s="292"/>
-      <c r="T4" s="292"/>
-      <c r="U4" s="292"/>
-      <c r="V4" s="292"/>
-      <c r="W4" s="292"/>
-      <c r="X4" s="292"/>
-      <c r="Y4" s="292"/>
-      <c r="Z4" s="292"/>
-      <c r="AA4" s="292"/>
-      <c r="AB4" s="292"/>
-      <c r="AC4" s="292"/>
-      <c r="AD4" s="292"/>
-      <c r="AE4" s="292"/>
-      <c r="AF4" s="292"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="292"/>
+      <c r="A4" s="273" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="273"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="273"/>
+      <c r="AE4" s="273"/>
+      <c r="AF4" s="273"/>
+      <c r="AG4" s="273"/>
+      <c r="AH4" s="273"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="292"/>
-      <c r="Q5" s="292"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="292"/>
-      <c r="T5" s="292"/>
-      <c r="U5" s="292"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="292"/>
+      <c r="A5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
       <c r="AF5" s="246"/>
       <c r="AG5" s="246"/>
       <c r="AH5" s="246"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="295" t="s">
+      <c r="D6" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="296"/>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="296"/>
-      <c r="S6" s="296"/>
-      <c r="T6" s="296"/>
-      <c r="U6" s="296"/>
-      <c r="V6" s="296"/>
-      <c r="W6" s="296"/>
-      <c r="X6" s="296"/>
-      <c r="Y6" s="296"/>
-      <c r="Z6" s="296"/>
-      <c r="AA6" s="296"/>
-      <c r="AB6" s="296"/>
-      <c r="AC6" s="296"/>
-      <c r="AD6" s="296"/>
-      <c r="AE6" s="296"/>
-      <c r="AF6" s="296"/>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="270" t="s">
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278"/>
+      <c r="P6" s="278"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="278"/>
+      <c r="T6" s="278"/>
+      <c r="U6" s="278"/>
+      <c r="V6" s="278"/>
+      <c r="W6" s="278"/>
+      <c r="X6" s="278"/>
+      <c r="Y6" s="278"/>
+      <c r="Z6" s="278"/>
+      <c r="AA6" s="278"/>
+      <c r="AB6" s="278"/>
+      <c r="AC6" s="278"/>
+      <c r="AD6" s="278"/>
+      <c r="AE6" s="278"/>
+      <c r="AF6" s="278"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="270"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="298" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="270" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="270"/>
-      <c r="H7" s="299" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="270" t="s">
+      <c r="I7" s="281"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="274" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="274"/>
-      <c r="N7" s="270" t="s">
+      <c r="M7" s="295"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="270"/>
-      <c r="P7" s="269" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="270" t="s">
+      <c r="Q7" s="298"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="270"/>
+      <c r="S7" s="274"/>
       <c r="T7" s="300" t="s">
         <v>17</v>
       </c>
       <c r="U7" s="300"/>
-      <c r="V7" s="270" t="s">
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="270"/>
-      <c r="X7" s="289" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="270" t="s">
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="268" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="268"/>
-      <c r="AD7" s="270" t="s">
+      <c r="AC7" s="297"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="272" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="272" t="s">
+      <c r="AG7" s="267" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="270"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="270"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="294"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="247" t="s">
         <v>23</v>
       </c>
@@ -5624,9 +5630,9 @@
       <c r="AE8" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="273"/>
-      <c r="AH8" s="270"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -5733,11 +5739,11 @@
       <c r="AD10" s="260"/>
       <c r="AE10" s="260"/>
       <c r="AF10" s="250">
-        <f t="shared" ref="AF10:AF31" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>12</v>
       </c>
       <c r="AG10" s="250">
-        <f t="shared" ref="AG10:AG33" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG35" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="260"/>
@@ -6043,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="250">
-        <f t="shared" ref="AG16:AG31" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
+        <f t="shared" ref="AG16:AG33" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
         <v>0</v>
       </c>
       <c r="AH16" s="254"/>
@@ -6719,42 +6725,46 @@
       <c r="AH29" s="21"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>22</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="262"/>
-      <c r="U30" s="262"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="35">
+        <v>44001</v>
+      </c>
+      <c r="C30" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36">
+        <v>3</v>
+      </c>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="263"/>
+      <c r="U30" s="263"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="2"/>
@@ -6763,39 +6773,37 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="75">
-        <v>23</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="266"/>
-      <c r="U31" s="266"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="263"/>
+      <c r="U31" s="263"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
       <c r="AF31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6804,212 +6812,328 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH31" s="45"/>
-    </row>
-    <row r="32" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="54"/>
+      <c r="AH31" s="21"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>22</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="262"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="21"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="286"/>
-      <c r="C33" s="287"/>
-      <c r="D33" s="288">
-        <f>SUM(D9:D31)-SUM(E9:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="288"/>
-      <c r="F33" s="277">
-        <f>SUM(F9:F31)-SUM(G9:G31)</f>
+      <c r="A33" s="75">
+        <v>23</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="266"/>
+      <c r="U33" s="266"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="45"/>
+    </row>
+    <row r="34" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="54"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="293"/>
+      <c r="D35" s="294">
+        <f>SUM(D9:D33)-SUM(E9:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="294"/>
+      <c r="F35" s="271">
+        <f>SUM(F9:F33)-SUM(G9:G33)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="277"/>
-      <c r="H33" s="290">
-        <f>SUM(H9:H31)-SUM(I9:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="290"/>
-      <c r="J33" s="277">
-        <f>SUM(J9:J31)-SUM(K9:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="277"/>
-      <c r="L33" s="285">
-        <f>SUM(L9:L31)-SUM(M9:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="285"/>
-      <c r="N33" s="277">
-        <f>SUM(N9:N31)-SUM(O9:O31)</f>
-        <v>3</v>
-      </c>
-      <c r="O33" s="277"/>
-      <c r="P33" s="278">
-        <f>SUM(P9:P31)-SUM(Q9:Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="278"/>
-      <c r="R33" s="277">
-        <f>SUM(R9:R31)-SUM(S9:S31)</f>
+      <c r="G35" s="271"/>
+      <c r="H35" s="270">
+        <f>SUM(H9:H33)-SUM(I9:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="270"/>
+      <c r="J35" s="271">
+        <f>SUM(J9:J33)-SUM(K9:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="271"/>
+      <c r="L35" s="291">
+        <f>SUM(L9:L33)-SUM(M9:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="291"/>
+      <c r="N35" s="271">
+        <f>SUM(N9:N33)-SUM(O9:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="271"/>
+      <c r="P35" s="284">
+        <f>SUM(P9:P33)-SUM(Q9:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="284"/>
+      <c r="R35" s="271">
+        <f>SUM(R9:R33)-SUM(S9:S33)</f>
         <v>55</v>
       </c>
-      <c r="S33" s="277"/>
-      <c r="T33" s="279">
-        <f>SUM(T9:T31)-SUM(U9:U31)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="279"/>
-      <c r="V33" s="277">
-        <f>SUM(V9:V31)-SUM(W9:W31)</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="277"/>
-      <c r="X33" s="280">
-        <f>SUM(X9:X31)-SUM(Y9:Y31)</f>
+      <c r="S35" s="271"/>
+      <c r="T35" s="285">
+        <f>SUM(T9:T33)-SUM(U9:U33)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="285"/>
+      <c r="V35" s="271">
+        <f>SUM(V9:V33)-SUM(W9:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="271"/>
+      <c r="X35" s="286">
+        <f>SUM(X9:X33)-SUM(Y9:Y33)</f>
         <v>58</v>
       </c>
-      <c r="Y33" s="280"/>
-      <c r="Z33" s="277">
-        <f>SUM(Z9:Z31)-SUM(AA9:AA31)</f>
+      <c r="Y35" s="286"/>
+      <c r="Z35" s="271">
+        <f>SUM(Z9:Z33)-SUM(AA9:AA33)</f>
         <v>38</v>
       </c>
-      <c r="AA33" s="277"/>
-      <c r="AB33" s="281">
-        <f>SUM(AB9:AB31)-SUM(AC9:AC31)</f>
+      <c r="AA35" s="271"/>
+      <c r="AB35" s="287">
+        <f>SUM(AB9:AB33)-SUM(AC9:AC33)</f>
         <v>48</v>
       </c>
-      <c r="AC33" s="281"/>
-      <c r="AD33" s="277">
-        <f>SUM(AD9:AD31)-SUM(AE9:AE31)</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="277"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="249">
+      <c r="AC35" s="287"/>
+      <c r="AD35" s="271">
+        <f>SUM(AD9:AD33)-SUM(AE9:AE33)</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="271"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="249">
         <f t="shared" si="1"/>
-        <v>203</v>
-      </c>
-      <c r="AH33" s="58"/>
-    </row>
-    <row r="34" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="282" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH35" s="58"/>
+    </row>
+    <row r="36" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="283"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="283"/>
-      <c r="E34" s="283"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283"/>
-      <c r="H34" s="283"/>
-      <c r="I34" s="283"/>
-      <c r="J34" s="283"/>
-      <c r="K34" s="283"/>
-      <c r="L34" s="283"/>
-      <c r="M34" s="283"/>
-      <c r="N34" s="283"/>
-      <c r="O34" s="283"/>
-      <c r="P34" s="283"/>
-      <c r="Q34" s="283"/>
-      <c r="R34" s="283"/>
-      <c r="S34" s="283"/>
-      <c r="T34" s="283"/>
-      <c r="U34" s="283"/>
-      <c r="V34" s="283"/>
-      <c r="W34" s="283"/>
-      <c r="X34" s="283"/>
-      <c r="Y34" s="283"/>
-      <c r="Z34" s="283"/>
-      <c r="AA34" s="283"/>
-      <c r="AB34" s="283"/>
-      <c r="AC34" s="283"/>
-      <c r="AD34" s="283"/>
-      <c r="AE34" s="284"/>
-      <c r="AF34" s="59">
-        <f>SUM(AF9:AF31)</f>
-        <v>185</v>
-      </c>
-      <c r="AG34" s="59">
-        <f>SUM(AG9:AG31)</f>
+      <c r="B36" s="289"/>
+      <c r="C36" s="289"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="289"/>
+      <c r="F36" s="289"/>
+      <c r="G36" s="289"/>
+      <c r="H36" s="289"/>
+      <c r="I36" s="289"/>
+      <c r="J36" s="289"/>
+      <c r="K36" s="289"/>
+      <c r="L36" s="289"/>
+      <c r="M36" s="289"/>
+      <c r="N36" s="289"/>
+      <c r="O36" s="289"/>
+      <c r="P36" s="289"/>
+      <c r="Q36" s="289"/>
+      <c r="R36" s="289"/>
+      <c r="S36" s="289"/>
+      <c r="T36" s="289"/>
+      <c r="U36" s="289"/>
+      <c r="V36" s="289"/>
+      <c r="W36" s="289"/>
+      <c r="X36" s="289"/>
+      <c r="Y36" s="289"/>
+      <c r="Z36" s="289"/>
+      <c r="AA36" s="289"/>
+      <c r="AB36" s="289"/>
+      <c r="AC36" s="289"/>
+      <c r="AD36" s="289"/>
+      <c r="AE36" s="290"/>
+      <c r="AF36" s="59">
+        <f>SUM(AF9:AF33)</f>
+        <v>188</v>
+      </c>
+      <c r="AG36" s="59">
+        <f>SUM(AG9:AG33)</f>
         <v>388</v>
       </c>
-      <c r="AH34" s="60"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="282" t="s">
+      <c r="AH36" s="60"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="288" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="283"/>
-      <c r="C35" s="283"/>
-      <c r="D35" s="283"/>
-      <c r="E35" s="283"/>
-      <c r="F35" s="283"/>
-      <c r="G35" s="283"/>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283"/>
-      <c r="J35" s="283"/>
-      <c r="K35" s="283"/>
-      <c r="L35" s="283"/>
-      <c r="M35" s="283"/>
-      <c r="N35" s="283"/>
-      <c r="O35" s="283"/>
-      <c r="P35" s="283"/>
-      <c r="Q35" s="283"/>
-      <c r="R35" s="283"/>
-      <c r="S35" s="283"/>
-      <c r="T35" s="283"/>
-      <c r="U35" s="283"/>
-      <c r="V35" s="283"/>
-      <c r="W35" s="283"/>
-      <c r="X35" s="283"/>
-      <c r="Y35" s="283"/>
-      <c r="Z35" s="283"/>
-      <c r="AA35" s="283"/>
-      <c r="AB35" s="283"/>
-      <c r="AC35" s="283"/>
-      <c r="AD35" s="283"/>
-      <c r="AE35" s="284"/>
-      <c r="AF35" s="275">
-        <f>AG34-AF34</f>
-        <v>203</v>
-      </c>
-      <c r="AG35" s="276"/>
-      <c r="AH35" s="60"/>
+      <c r="B37" s="289"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="289"/>
+      <c r="E37" s="289"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="289"/>
+      <c r="H37" s="289"/>
+      <c r="I37" s="289"/>
+      <c r="J37" s="289"/>
+      <c r="K37" s="289"/>
+      <c r="L37" s="289"/>
+      <c r="M37" s="289"/>
+      <c r="N37" s="289"/>
+      <c r="O37" s="289"/>
+      <c r="P37" s="289"/>
+      <c r="Q37" s="289"/>
+      <c r="R37" s="289"/>
+      <c r="S37" s="289"/>
+      <c r="T37" s="289"/>
+      <c r="U37" s="289"/>
+      <c r="V37" s="289"/>
+      <c r="W37" s="289"/>
+      <c r="X37" s="289"/>
+      <c r="Y37" s="289"/>
+      <c r="Z37" s="289"/>
+      <c r="AA37" s="289"/>
+      <c r="AB37" s="289"/>
+      <c r="AC37" s="289"/>
+      <c r="AD37" s="289"/>
+      <c r="AE37" s="290"/>
+      <c r="AF37" s="282">
+        <f>AG36-AF36</f>
+        <v>200</v>
+      </c>
+      <c r="AG37" s="283"/>
+      <c r="AH37" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="A37:AE37"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7026,34 +7150,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A34:AE34"/>
-    <mergeCell ref="A35:AE35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7121,146 +7217,146 @@
       <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="301" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
-      <c r="N3" s="329"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="301"/>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="301" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="329"/>
-      <c r="M4" s="329"/>
-      <c r="N4" s="329"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="301"/>
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
       <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="329"/>
-      <c r="B5" s="329"/>
-      <c r="C5" s="329"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
+      <c r="A5" s="301"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="331" t="s">
+      <c r="A6" s="303" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="333"/>
-      <c r="D6" s="334" t="s">
+      <c r="C6" s="305"/>
+      <c r="D6" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="334"/>
-      <c r="F6" s="334"/>
-      <c r="G6" s="334"/>
-      <c r="H6" s="334"/>
-      <c r="I6" s="334"/>
-      <c r="J6" s="334"/>
-      <c r="K6" s="337" t="s">
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
+      <c r="H6" s="306"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="306"/>
+      <c r="K6" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="338" t="s">
+      <c r="L6" s="311"/>
+      <c r="M6" s="311"/>
+      <c r="N6" s="312" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="332"/>
-      <c r="B7" s="335" t="s">
+      <c r="A7" s="304"/>
+      <c r="B7" s="307" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="335" t="s">
+      <c r="C7" s="307" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="335" t="s">
+      <c r="D7" s="307" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="335" t="s">
+      <c r="E7" s="307" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="301" t="s">
+      <c r="F7" s="309" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="301" t="s">
+      <c r="G7" s="309" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="312" t="s">
+      <c r="H7" s="339" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="312"/>
-      <c r="J7" s="301" t="s">
+      <c r="I7" s="339"/>
+      <c r="J7" s="309" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="301" t="s">
+      <c r="K7" s="309" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="301" t="s">
+      <c r="L7" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="301" t="s">
+      <c r="M7" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="339"/>
+      <c r="N7" s="313"/>
     </row>
     <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="332"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
+      <c r="A8" s="304"/>
+      <c r="B8" s="308"/>
+      <c r="C8" s="308"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="310"/>
       <c r="H8" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="302"/>
-      <c r="N8" s="339"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="310"/>
+      <c r="L8" s="310"/>
+      <c r="M8" s="310"/>
+      <c r="N8" s="313"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="125">
@@ -7302,10 +7398,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="309">
+      <c r="A10" s="324">
         <v>43958</v>
       </c>
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="332" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="109"/>
@@ -7336,8 +7432,8 @@
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="311"/>
-      <c r="B11" s="305"/>
+      <c r="A11" s="325"/>
+      <c r="B11" s="334"/>
       <c r="C11" s="130"/>
       <c r="D11" s="78" t="s">
         <v>21</v>
@@ -7366,10 +7462,10 @@
       <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="309">
+      <c r="A12" s="324">
         <v>43958</v>
       </c>
-      <c r="B12" s="303" t="s">
+      <c r="B12" s="332" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="109"/>
@@ -7400,8 +7496,8 @@
       <c r="N12" s="75"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="311"/>
-      <c r="B13" s="305"/>
+      <c r="A13" s="325"/>
+      <c r="B13" s="334"/>
       <c r="C13" s="84"/>
       <c r="D13" s="78" t="s">
         <v>16</v>
@@ -7464,10 +7560,10 @@
       <c r="N14" s="138"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="309">
+      <c r="A15" s="324">
         <v>43958</v>
       </c>
-      <c r="B15" s="303" t="s">
+      <c r="B15" s="332" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="109"/>
@@ -7484,7 +7580,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="306">
+      <c r="H15" s="335">
         <v>288000</v>
       </c>
       <c r="I15" s="77">
@@ -7500,13 +7596,13 @@
       </c>
       <c r="L15" s="132"/>
       <c r="M15" s="132"/>
-      <c r="N15" s="316" t="s">
+      <c r="N15" s="321" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="310"/>
-      <c r="B16" s="304"/>
+      <c r="A16" s="338"/>
+      <c r="B16" s="333"/>
       <c r="C16" s="110"/>
       <c r="D16" s="85" t="s">
         <v>20</v>
@@ -7521,7 +7617,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="307"/>
+      <c r="H16" s="336"/>
       <c r="I16" s="87">
         <v>0.1</v>
       </c>
@@ -7535,11 +7631,11 @@
       </c>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
-      <c r="N16" s="317"/>
+      <c r="N16" s="322"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="310"/>
-      <c r="B17" s="304"/>
+      <c r="A17" s="338"/>
+      <c r="B17" s="333"/>
       <c r="C17" s="110"/>
       <c r="D17" s="85" t="s">
         <v>10</v>
@@ -7554,7 +7650,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="307"/>
+      <c r="H17" s="336"/>
       <c r="I17" s="87">
         <v>0.1</v>
       </c>
@@ -7568,11 +7664,11 @@
       </c>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
-      <c r="N17" s="317"/>
+      <c r="N17" s="322"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="311"/>
-      <c r="B18" s="305"/>
+      <c r="A18" s="325"/>
+      <c r="B18" s="334"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84" t="s">
         <v>21</v>
@@ -7587,7 +7683,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="308"/>
+      <c r="H18" s="337"/>
       <c r="I18" s="142">
         <v>0.1</v>
       </c>
@@ -7601,13 +7697,13 @@
       </c>
       <c r="L18" s="141"/>
       <c r="M18" s="141"/>
-      <c r="N18" s="318"/>
+      <c r="N18" s="323"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="309">
+      <c r="A19" s="324">
         <v>43958</v>
       </c>
-      <c r="B19" s="303" t="s">
+      <c r="B19" s="332" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="131"/>
@@ -7640,13 +7736,13 @@
       </c>
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
-      <c r="N19" s="320" t="s">
+      <c r="N19" s="327" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="310"/>
-      <c r="B20" s="304"/>
+      <c r="A20" s="338"/>
+      <c r="B20" s="333"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81" t="s">
         <v>21</v>
@@ -7677,11 +7773,11 @@
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82"/>
-      <c r="N20" s="321"/>
+      <c r="N20" s="328"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="311"/>
-      <c r="B21" s="305"/>
+      <c r="A21" s="325"/>
+      <c r="B21" s="334"/>
       <c r="C21" s="143"/>
       <c r="D21" s="143" t="s">
         <v>14</v>
@@ -7712,7 +7808,7 @@
       </c>
       <c r="L21" s="144"/>
       <c r="M21" s="144"/>
-      <c r="N21" s="322"/>
+      <c r="N21" s="329"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="135">
@@ -7794,7 +7890,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="309">
+      <c r="A24" s="324">
         <v>43962</v>
       </c>
       <c r="B24" s="170" t="s">
@@ -7830,12 +7926,12 @@
       </c>
       <c r="L24" s="76"/>
       <c r="M24" s="76"/>
-      <c r="N24" s="323" t="s">
+      <c r="N24" s="330" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="311"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="84" t="s">
         <v>68</v>
       </c>
@@ -7869,7 +7965,7 @@
       </c>
       <c r="L25" s="79"/>
       <c r="M25" s="79"/>
-      <c r="N25" s="324"/>
+      <c r="N25" s="331"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="135">
@@ -8106,7 +8202,7 @@
       <c r="K35" s="86"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
-      <c r="N35" s="327"/>
+      <c r="N35" s="318"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
@@ -8128,7 +8224,7 @@
       <c r="K36" s="86"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
-      <c r="N36" s="327"/>
+      <c r="N36" s="318"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
@@ -8150,7 +8246,7 @@
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
       <c r="M37" s="86"/>
-      <c r="N37" s="327"/>
+      <c r="N37" s="318"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
@@ -8172,7 +8268,7 @@
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
       <c r="M38" s="86"/>
-      <c r="N38" s="327"/>
+      <c r="N38" s="318"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
@@ -8194,7 +8290,7 @@
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
       <c r="M39" s="86"/>
-      <c r="N39" s="327"/>
+      <c r="N39" s="318"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
@@ -8216,7 +8312,7 @@
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
       <c r="M40" s="86"/>
-      <c r="N40" s="327"/>
+      <c r="N40" s="318"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="111"/>
@@ -8282,7 +8378,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="90"/>
       <c r="M43" s="90"/>
-      <c r="N43" s="328"/>
+      <c r="N43" s="319"/>
     </row>
     <row r="44" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="117"/>
@@ -8304,7 +8400,7 @@
       <c r="K44" s="90"/>
       <c r="L44" s="90"/>
       <c r="M44" s="90"/>
-      <c r="N44" s="328"/>
+      <c r="N44" s="319"/>
     </row>
     <row r="45" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="117"/>
@@ -8326,7 +8422,7 @@
       <c r="K45" s="90"/>
       <c r="L45" s="90"/>
       <c r="M45" s="90"/>
-      <c r="N45" s="328"/>
+      <c r="N45" s="319"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
@@ -8901,12 +8997,12 @@
       <c r="N71" s="78"/>
     </row>
     <row r="72" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="325" t="s">
+      <c r="A72" s="316" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="326"/>
-      <c r="C72" s="326"/>
-      <c r="D72" s="326"/>
+      <c r="B72" s="317"/>
+      <c r="C72" s="317"/>
+      <c r="D72" s="317"/>
       <c r="E72" s="151">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -8932,7 +9028,7 @@
       </c>
       <c r="M72" s="155"/>
       <c r="N72" s="172"/>
-      <c r="O72" s="313"/>
+      <c r="O72" s="320"/>
     </row>
     <row r="73" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="314" t="s">
@@ -8954,7 +9050,7 @@
       <c r="L73" s="96"/>
       <c r="M73" s="96"/>
       <c r="N73" s="172"/>
-      <c r="O73" s="313"/>
+      <c r="O73" s="320"/>
     </row>
     <row r="74" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="314" t="s">
@@ -8962,7 +9058,7 @@
       </c>
       <c r="B74" s="315"/>
       <c r="C74" s="315"/>
-      <c r="D74" s="319"/>
+      <c r="D74" s="326"/>
       <c r="E74" s="149"/>
       <c r="F74" s="149"/>
       <c r="G74" s="93">
@@ -9067,6 +9163,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -9083,32 +9205,6 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -2197,30 +2197,84 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,63 +2296,93 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2323,12 +2407,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2337,84 +2415,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2773,14 +2773,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
+      <c r="A1" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2813,11 +2813,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2853,235 +2853,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="273"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="292"/>
+      <c r="Y3" s="292"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="292" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
-      <c r="X4" s="273"/>
-      <c r="Y4" s="273"/>
-      <c r="Z4" s="273"/>
-      <c r="AA4" s="273"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="273"/>
-      <c r="AD4" s="273"/>
-      <c r="AE4" s="273"/>
-      <c r="AF4" s="273"/>
-      <c r="AG4" s="273"/>
-      <c r="AH4" s="273"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="292"/>
+      <c r="N5" s="292"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="292"/>
+      <c r="Q5" s="292"/>
+      <c r="R5" s="292"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="292"/>
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="292"/>
+      <c r="AE5" s="292"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="278"/>
-      <c r="AA6" s="278"/>
-      <c r="AB6" s="278"/>
-      <c r="AC6" s="278"/>
-      <c r="AD6" s="278"/>
-      <c r="AE6" s="278"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="279"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="296"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="297"/>
+      <c r="AH6" s="270" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="280" t="s">
+      <c r="A7" s="270"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="281" t="s">
+      <c r="G7" s="270"/>
+      <c r="H7" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="299"/>
+      <c r="J7" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="270"/>
+      <c r="L7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="295"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="274"/>
+      <c r="N7" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="298" t="s">
+      <c r="O7" s="270"/>
+      <c r="P7" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="298"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="269"/>
+      <c r="R7" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="299" t="s">
+      <c r="S7" s="270"/>
+      <c r="T7" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="299"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="271"/>
+      <c r="V7" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="269" t="s">
+      <c r="W7" s="270"/>
+      <c r="X7" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="297" t="s">
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="297"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="267" t="s">
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="267" t="s">
+      <c r="AG7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="270"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="294"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3166,9 +3166,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -4998,78 +4998,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="292"/>
-      <c r="C44" s="293"/>
-      <c r="D44" s="294">
+      <c r="B44" s="286"/>
+      <c r="C44" s="287"/>
+      <c r="D44" s="288">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="294"/>
-      <c r="F44" s="271">
+      <c r="E44" s="288"/>
+      <c r="F44" s="277">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="271"/>
-      <c r="H44" s="270">
+      <c r="G44" s="277"/>
+      <c r="H44" s="290">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="270"/>
-      <c r="J44" s="271">
+      <c r="I44" s="290"/>
+      <c r="J44" s="277">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="271"/>
-      <c r="L44" s="291">
+      <c r="K44" s="277"/>
+      <c r="L44" s="285">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="291"/>
-      <c r="N44" s="271">
+      <c r="M44" s="285"/>
+      <c r="N44" s="277">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="271"/>
-      <c r="P44" s="284">
+      <c r="O44" s="277"/>
+      <c r="P44" s="278">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="284"/>
-      <c r="R44" s="271">
+      <c r="Q44" s="278"/>
+      <c r="R44" s="277">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="271"/>
-      <c r="T44" s="285">
+      <c r="S44" s="277"/>
+      <c r="T44" s="279">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="285"/>
-      <c r="V44" s="271">
+      <c r="U44" s="279"/>
+      <c r="V44" s="277">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="271"/>
-      <c r="X44" s="286">
+      <c r="W44" s="277"/>
+      <c r="X44" s="280">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="286"/>
-      <c r="Z44" s="271">
+      <c r="Y44" s="280"/>
+      <c r="Z44" s="277">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="271"/>
-      <c r="AB44" s="287">
+      <c r="AA44" s="277"/>
+      <c r="AB44" s="281">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="287"/>
-      <c r="AD44" s="271">
+      <c r="AC44" s="281"/>
+      <c r="AD44" s="277">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="271"/>
+      <c r="AE44" s="277"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5078,39 +5078,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="288" t="s">
+      <c r="A45" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="289"/>
-      <c r="C45" s="289"/>
-      <c r="D45" s="289"/>
-      <c r="E45" s="289"/>
-      <c r="F45" s="289"/>
-      <c r="G45" s="289"/>
-      <c r="H45" s="289"/>
-      <c r="I45" s="289"/>
-      <c r="J45" s="289"/>
-      <c r="K45" s="289"/>
-      <c r="L45" s="289"/>
-      <c r="M45" s="289"/>
-      <c r="N45" s="289"/>
-      <c r="O45" s="289"/>
-      <c r="P45" s="289"/>
-      <c r="Q45" s="289"/>
-      <c r="R45" s="289"/>
-      <c r="S45" s="289"/>
-      <c r="T45" s="289"/>
-      <c r="U45" s="289"/>
-      <c r="V45" s="289"/>
-      <c r="W45" s="289"/>
-      <c r="X45" s="289"/>
-      <c r="Y45" s="289"/>
-      <c r="Z45" s="289"/>
-      <c r="AA45" s="289"/>
-      <c r="AB45" s="289"/>
-      <c r="AC45" s="289"/>
-      <c r="AD45" s="289"/>
-      <c r="AE45" s="290"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="283"/>
+      <c r="D45" s="283"/>
+      <c r="E45" s="283"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="283"/>
+      <c r="H45" s="283"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="283"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
+      <c r="O45" s="283"/>
+      <c r="P45" s="283"/>
+      <c r="Q45" s="283"/>
+      <c r="R45" s="283"/>
+      <c r="S45" s="283"/>
+      <c r="T45" s="283"/>
+      <c r="U45" s="283"/>
+      <c r="V45" s="283"/>
+      <c r="W45" s="283"/>
+      <c r="X45" s="283"/>
+      <c r="Y45" s="283"/>
+      <c r="Z45" s="283"/>
+      <c r="AA45" s="283"/>
+      <c r="AB45" s="283"/>
+      <c r="AC45" s="283"/>
+      <c r="AD45" s="283"/>
+      <c r="AE45" s="284"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5122,60 +5122,64 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="288" t="s">
+      <c r="A46" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="289"/>
-      <c r="C46" s="289"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
-      <c r="F46" s="289"/>
-      <c r="G46" s="289"/>
-      <c r="H46" s="289"/>
-      <c r="I46" s="289"/>
-      <c r="J46" s="289"/>
-      <c r="K46" s="289"/>
-      <c r="L46" s="289"/>
-      <c r="M46" s="289"/>
-      <c r="N46" s="289"/>
-      <c r="O46" s="289"/>
-      <c r="P46" s="289"/>
-      <c r="Q46" s="289"/>
-      <c r="R46" s="289"/>
-      <c r="S46" s="289"/>
-      <c r="T46" s="289"/>
-      <c r="U46" s="289"/>
-      <c r="V46" s="289"/>
-      <c r="W46" s="289"/>
-      <c r="X46" s="289"/>
-      <c r="Y46" s="289"/>
-      <c r="Z46" s="289"/>
-      <c r="AA46" s="289"/>
-      <c r="AB46" s="289"/>
-      <c r="AC46" s="289"/>
-      <c r="AD46" s="289"/>
-      <c r="AE46" s="290"/>
-      <c r="AF46" s="282">
+      <c r="B46" s="283"/>
+      <c r="C46" s="283"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="283"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="283"/>
+      <c r="H46" s="283"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="283"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
+      <c r="O46" s="283"/>
+      <c r="P46" s="283"/>
+      <c r="Q46" s="283"/>
+      <c r="R46" s="283"/>
+      <c r="S46" s="283"/>
+      <c r="T46" s="283"/>
+      <c r="U46" s="283"/>
+      <c r="V46" s="283"/>
+      <c r="W46" s="283"/>
+      <c r="X46" s="283"/>
+      <c r="Y46" s="283"/>
+      <c r="Z46" s="283"/>
+      <c r="AA46" s="283"/>
+      <c r="AB46" s="283"/>
+      <c r="AC46" s="283"/>
+      <c r="AD46" s="283"/>
+      <c r="AE46" s="284"/>
+      <c r="AF46" s="275">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="283"/>
+      <c r="AG46" s="276"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="AF46:AG46"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
@@ -5192,22 +5196,18 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5220,8 +5220,8 @@
   <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI32" sqref="AI32"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,14 +5237,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
+      <c r="A1" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
       <c r="G1" s="239"/>
       <c r="H1" s="239"/>
       <c r="I1" s="239"/>
@@ -5277,11 +5277,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
       <c r="D2" s="245"/>
       <c r="E2" s="245"/>
       <c r="F2" s="245"/>
@@ -5317,235 +5317,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="273"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="292"/>
+      <c r="Y3" s="292"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="292" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
-      <c r="X4" s="273"/>
-      <c r="Y4" s="273"/>
-      <c r="Z4" s="273"/>
-      <c r="AA4" s="273"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="273"/>
-      <c r="AD4" s="273"/>
-      <c r="AE4" s="273"/>
-      <c r="AF4" s="273"/>
-      <c r="AG4" s="273"/>
-      <c r="AH4" s="273"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="292"/>
+      <c r="N5" s="292"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="292"/>
+      <c r="Q5" s="292"/>
+      <c r="R5" s="292"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="292"/>
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="292"/>
+      <c r="AE5" s="292"/>
       <c r="AF5" s="246"/>
       <c r="AG5" s="246"/>
       <c r="AH5" s="246"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="278"/>
-      <c r="AA6" s="278"/>
-      <c r="AB6" s="278"/>
-      <c r="AC6" s="278"/>
-      <c r="AD6" s="278"/>
-      <c r="AE6" s="278"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="279"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="296"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="297"/>
+      <c r="AH6" s="270" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="280" t="s">
+      <c r="A7" s="270"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="281" t="s">
+      <c r="G7" s="270"/>
+      <c r="H7" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="299"/>
+      <c r="J7" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="270"/>
+      <c r="L7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="295"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="274"/>
+      <c r="N7" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="298" t="s">
+      <c r="O7" s="270"/>
+      <c r="P7" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="298"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="269"/>
+      <c r="R7" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
+      <c r="S7" s="270"/>
       <c r="T7" s="300" t="s">
         <v>17</v>
       </c>
       <c r="U7" s="300"/>
-      <c r="V7" s="274" t="s">
+      <c r="V7" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="269" t="s">
+      <c r="W7" s="270"/>
+      <c r="X7" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="297" t="s">
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="297"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="267" t="s">
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="267" t="s">
+      <c r="AG7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="270"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="294"/>
       <c r="D8" s="247" t="s">
         <v>23</v>
       </c>
@@ -5630,9 +5630,9 @@
       <c r="AE8" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -6749,7 +6749,9 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="S30" s="36">
+        <v>6</v>
+      </c>
       <c r="T30" s="263"/>
       <c r="U30" s="263"/>
       <c r="V30" s="36"/>
@@ -6757,14 +6759,16 @@
       <c r="X30" s="41"/>
       <c r="Y30" s="41"/>
       <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
+      <c r="AA30" s="36">
+        <v>6</v>
+      </c>
       <c r="AB30" s="42"/>
       <c r="AC30" s="42"/>
       <c r="AD30" s="36"/>
       <c r="AE30" s="36"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="2"/>
@@ -6940,122 +6944,122 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
-      <c r="B35" s="292"/>
-      <c r="C35" s="293"/>
-      <c r="D35" s="294">
+      <c r="B35" s="286"/>
+      <c r="C35" s="287"/>
+      <c r="D35" s="288">
         <f>SUM(D9:D33)-SUM(E9:E33)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="294"/>
-      <c r="F35" s="271">
+      <c r="E35" s="288"/>
+      <c r="F35" s="277">
         <f>SUM(F9:F33)-SUM(G9:G33)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="271"/>
-      <c r="H35" s="270">
+      <c r="G35" s="277"/>
+      <c r="H35" s="290">
         <f>SUM(H9:H33)-SUM(I9:I33)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="270"/>
-      <c r="J35" s="271">
+      <c r="I35" s="290"/>
+      <c r="J35" s="277">
         <f>SUM(J9:J33)-SUM(K9:K33)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="271"/>
-      <c r="L35" s="291">
+      <c r="K35" s="277"/>
+      <c r="L35" s="285">
         <f>SUM(L9:L33)-SUM(M9:M33)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="291"/>
-      <c r="N35" s="271">
+      <c r="M35" s="285"/>
+      <c r="N35" s="277">
         <f>SUM(N9:N33)-SUM(O9:O33)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="271"/>
-      <c r="P35" s="284">
+      <c r="O35" s="277"/>
+      <c r="P35" s="278">
         <f>SUM(P9:P33)-SUM(Q9:Q33)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="284"/>
-      <c r="R35" s="271">
+      <c r="Q35" s="278"/>
+      <c r="R35" s="277">
         <f>SUM(R9:R33)-SUM(S9:S33)</f>
-        <v>55</v>
-      </c>
-      <c r="S35" s="271"/>
-      <c r="T35" s="285">
+        <v>49</v>
+      </c>
+      <c r="S35" s="277"/>
+      <c r="T35" s="279">
         <f>SUM(T9:T33)-SUM(U9:U33)</f>
         <v>0</v>
       </c>
-      <c r="U35" s="285"/>
-      <c r="V35" s="271">
+      <c r="U35" s="279"/>
+      <c r="V35" s="277">
         <f>SUM(V9:V33)-SUM(W9:W33)</f>
         <v>0</v>
       </c>
-      <c r="W35" s="271"/>
-      <c r="X35" s="286">
+      <c r="W35" s="277"/>
+      <c r="X35" s="280">
         <f>SUM(X9:X33)-SUM(Y9:Y33)</f>
         <v>58</v>
       </c>
-      <c r="Y35" s="286"/>
-      <c r="Z35" s="271">
+      <c r="Y35" s="280"/>
+      <c r="Z35" s="277">
         <f>SUM(Z9:Z33)-SUM(AA9:AA33)</f>
-        <v>38</v>
-      </c>
-      <c r="AA35" s="271"/>
-      <c r="AB35" s="287">
+        <v>32</v>
+      </c>
+      <c r="AA35" s="277"/>
+      <c r="AB35" s="281">
         <f>SUM(AB9:AB33)-SUM(AC9:AC33)</f>
         <v>48</v>
       </c>
-      <c r="AC35" s="287"/>
-      <c r="AD35" s="271">
+      <c r="AC35" s="281"/>
+      <c r="AD35" s="277">
         <f>SUM(AD9:AD33)-SUM(AE9:AE33)</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="271"/>
+      <c r="AE35" s="277"/>
       <c r="AF35" s="43"/>
       <c r="AG35" s="249">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AH35" s="58"/>
     </row>
     <row r="36" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="288" t="s">
+      <c r="A36" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="289"/>
-      <c r="C36" s="289"/>
-      <c r="D36" s="289"/>
-      <c r="E36" s="289"/>
-      <c r="F36" s="289"/>
-      <c r="G36" s="289"/>
-      <c r="H36" s="289"/>
-      <c r="I36" s="289"/>
-      <c r="J36" s="289"/>
-      <c r="K36" s="289"/>
-      <c r="L36" s="289"/>
-      <c r="M36" s="289"/>
-      <c r="N36" s="289"/>
-      <c r="O36" s="289"/>
-      <c r="P36" s="289"/>
-      <c r="Q36" s="289"/>
-      <c r="R36" s="289"/>
-      <c r="S36" s="289"/>
-      <c r="T36" s="289"/>
-      <c r="U36" s="289"/>
-      <c r="V36" s="289"/>
-      <c r="W36" s="289"/>
-      <c r="X36" s="289"/>
-      <c r="Y36" s="289"/>
-      <c r="Z36" s="289"/>
-      <c r="AA36" s="289"/>
-      <c r="AB36" s="289"/>
-      <c r="AC36" s="289"/>
-      <c r="AD36" s="289"/>
-      <c r="AE36" s="290"/>
+      <c r="B36" s="283"/>
+      <c r="C36" s="283"/>
+      <c r="D36" s="283"/>
+      <c r="E36" s="283"/>
+      <c r="F36" s="283"/>
+      <c r="G36" s="283"/>
+      <c r="H36" s="283"/>
+      <c r="I36" s="283"/>
+      <c r="J36" s="283"/>
+      <c r="K36" s="283"/>
+      <c r="L36" s="283"/>
+      <c r="M36" s="283"/>
+      <c r="N36" s="283"/>
+      <c r="O36" s="283"/>
+      <c r="P36" s="283"/>
+      <c r="Q36" s="283"/>
+      <c r="R36" s="283"/>
+      <c r="S36" s="283"/>
+      <c r="T36" s="283"/>
+      <c r="U36" s="283"/>
+      <c r="V36" s="283"/>
+      <c r="W36" s="283"/>
+      <c r="X36" s="283"/>
+      <c r="Y36" s="283"/>
+      <c r="Z36" s="283"/>
+      <c r="AA36" s="283"/>
+      <c r="AB36" s="283"/>
+      <c r="AC36" s="283"/>
+      <c r="AD36" s="283"/>
+      <c r="AE36" s="284"/>
       <c r="AF36" s="59">
         <f>SUM(AF9:AF33)</f>
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AG36" s="59">
         <f>SUM(AG9:AG33)</f>
@@ -7064,60 +7068,64 @@
       <c r="AH36" s="60"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="288" t="s">
+      <c r="A37" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="289"/>
-      <c r="C37" s="289"/>
-      <c r="D37" s="289"/>
-      <c r="E37" s="289"/>
-      <c r="F37" s="289"/>
-      <c r="G37" s="289"/>
-      <c r="H37" s="289"/>
-      <c r="I37" s="289"/>
-      <c r="J37" s="289"/>
-      <c r="K37" s="289"/>
-      <c r="L37" s="289"/>
-      <c r="M37" s="289"/>
-      <c r="N37" s="289"/>
-      <c r="O37" s="289"/>
-      <c r="P37" s="289"/>
-      <c r="Q37" s="289"/>
-      <c r="R37" s="289"/>
-      <c r="S37" s="289"/>
-      <c r="T37" s="289"/>
-      <c r="U37" s="289"/>
-      <c r="V37" s="289"/>
-      <c r="W37" s="289"/>
-      <c r="X37" s="289"/>
-      <c r="Y37" s="289"/>
-      <c r="Z37" s="289"/>
-      <c r="AA37" s="289"/>
-      <c r="AB37" s="289"/>
-      <c r="AC37" s="289"/>
-      <c r="AD37" s="289"/>
-      <c r="AE37" s="290"/>
-      <c r="AF37" s="282">
+      <c r="B37" s="283"/>
+      <c r="C37" s="283"/>
+      <c r="D37" s="283"/>
+      <c r="E37" s="283"/>
+      <c r="F37" s="283"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="283"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="283"/>
+      <c r="M37" s="283"/>
+      <c r="N37" s="283"/>
+      <c r="O37" s="283"/>
+      <c r="P37" s="283"/>
+      <c r="Q37" s="283"/>
+      <c r="R37" s="283"/>
+      <c r="S37" s="283"/>
+      <c r="T37" s="283"/>
+      <c r="U37" s="283"/>
+      <c r="V37" s="283"/>
+      <c r="W37" s="283"/>
+      <c r="X37" s="283"/>
+      <c r="Y37" s="283"/>
+      <c r="Z37" s="283"/>
+      <c r="AA37" s="283"/>
+      <c r="AB37" s="283"/>
+      <c r="AC37" s="283"/>
+      <c r="AD37" s="283"/>
+      <c r="AE37" s="284"/>
+      <c r="AF37" s="275">
         <f>AG36-AF36</f>
-        <v>200</v>
-      </c>
-      <c r="AG37" s="283"/>
+        <v>188</v>
+      </c>
+      <c r="AG37" s="276"/>
       <c r="AH37" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="A37:AE37"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -7134,22 +7142,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="A36:AE36"/>
+    <mergeCell ref="A37:AE37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7217,146 +7221,146 @@
       <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="301" t="s">
+      <c r="A3" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="329" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="329"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="329"/>
+      <c r="N4" s="329"/>
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
       <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="301"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
+      <c r="A5" s="329"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="305" t="s">
+      <c r="B6" s="333" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="305"/>
-      <c r="D6" s="306" t="s">
+      <c r="C6" s="333"/>
+      <c r="D6" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306"/>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="311" t="s">
+      <c r="E6" s="334"/>
+      <c r="F6" s="334"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="334"/>
+      <c r="K6" s="337" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="311"/>
-      <c r="M6" s="311"/>
-      <c r="N6" s="312" t="s">
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="338" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="304"/>
-      <c r="B7" s="307" t="s">
+      <c r="A7" s="332"/>
+      <c r="B7" s="335" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="307" t="s">
+      <c r="C7" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="307" t="s">
+      <c r="D7" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="307" t="s">
+      <c r="E7" s="335" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="309" t="s">
+      <c r="F7" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="309" t="s">
+      <c r="G7" s="301" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="339" t="s">
+      <c r="H7" s="312" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="339"/>
-      <c r="J7" s="309" t="s">
+      <c r="I7" s="312"/>
+      <c r="J7" s="301" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="309" t="s">
+      <c r="K7" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="309" t="s">
+      <c r="L7" s="301" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="309" t="s">
+      <c r="M7" s="301" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="313"/>
+      <c r="N7" s="339"/>
     </row>
     <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="304"/>
-      <c r="B8" s="308"/>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="310"/>
-      <c r="G8" s="310"/>
+      <c r="A8" s="332"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
       <c r="H8" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="310"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="310"/>
-      <c r="M8" s="310"/>
-      <c r="N8" s="313"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="339"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="125">
@@ -7398,10 +7402,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="324">
+      <c r="A10" s="309">
         <v>43958</v>
       </c>
-      <c r="B10" s="332" t="s">
+      <c r="B10" s="303" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="109"/>
@@ -7432,8 +7436,8 @@
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="325"/>
-      <c r="B11" s="334"/>
+      <c r="A11" s="311"/>
+      <c r="B11" s="305"/>
       <c r="C11" s="130"/>
       <c r="D11" s="78" t="s">
         <v>21</v>
@@ -7462,10 +7466,10 @@
       <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="324">
+      <c r="A12" s="309">
         <v>43958</v>
       </c>
-      <c r="B12" s="332" t="s">
+      <c r="B12" s="303" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="109"/>
@@ -7496,8 +7500,8 @@
       <c r="N12" s="75"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="325"/>
-      <c r="B13" s="334"/>
+      <c r="A13" s="311"/>
+      <c r="B13" s="305"/>
       <c r="C13" s="84"/>
       <c r="D13" s="78" t="s">
         <v>16</v>
@@ -7560,10 +7564,10 @@
       <c r="N14" s="138"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="324">
+      <c r="A15" s="309">
         <v>43958</v>
       </c>
-      <c r="B15" s="332" t="s">
+      <c r="B15" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="109"/>
@@ -7580,7 +7584,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="335">
+      <c r="H15" s="306">
         <v>288000</v>
       </c>
       <c r="I15" s="77">
@@ -7596,13 +7600,13 @@
       </c>
       <c r="L15" s="132"/>
       <c r="M15" s="132"/>
-      <c r="N15" s="321" t="s">
+      <c r="N15" s="316" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
-      <c r="B16" s="333"/>
+      <c r="A16" s="310"/>
+      <c r="B16" s="304"/>
       <c r="C16" s="110"/>
       <c r="D16" s="85" t="s">
         <v>20</v>
@@ -7617,7 +7621,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="336"/>
+      <c r="H16" s="307"/>
       <c r="I16" s="87">
         <v>0.1</v>
       </c>
@@ -7631,11 +7635,11 @@
       </c>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
-      <c r="N16" s="322"/>
+      <c r="N16" s="317"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="338"/>
-      <c r="B17" s="333"/>
+      <c r="A17" s="310"/>
+      <c r="B17" s="304"/>
       <c r="C17" s="110"/>
       <c r="D17" s="85" t="s">
         <v>10</v>
@@ -7650,7 +7654,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="336"/>
+      <c r="H17" s="307"/>
       <c r="I17" s="87">
         <v>0.1</v>
       </c>
@@ -7664,11 +7668,11 @@
       </c>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
-      <c r="N17" s="322"/>
+      <c r="N17" s="317"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="325"/>
-      <c r="B18" s="334"/>
+      <c r="A18" s="311"/>
+      <c r="B18" s="305"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84" t="s">
         <v>21</v>
@@ -7683,7 +7687,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="337"/>
+      <c r="H18" s="308"/>
       <c r="I18" s="142">
         <v>0.1</v>
       </c>
@@ -7697,13 +7701,13 @@
       </c>
       <c r="L18" s="141"/>
       <c r="M18" s="141"/>
-      <c r="N18" s="323"/>
+      <c r="N18" s="318"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="324">
+      <c r="A19" s="309">
         <v>43958</v>
       </c>
-      <c r="B19" s="332" t="s">
+      <c r="B19" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="131"/>
@@ -7736,13 +7740,13 @@
       </c>
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
-      <c r="N19" s="327" t="s">
+      <c r="N19" s="320" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="338"/>
-      <c r="B20" s="333"/>
+      <c r="A20" s="310"/>
+      <c r="B20" s="304"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81" t="s">
         <v>21</v>
@@ -7773,11 +7777,11 @@
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82"/>
-      <c r="N20" s="328"/>
+      <c r="N20" s="321"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="325"/>
-      <c r="B21" s="334"/>
+      <c r="A21" s="311"/>
+      <c r="B21" s="305"/>
       <c r="C21" s="143"/>
       <c r="D21" s="143" t="s">
         <v>14</v>
@@ -7808,7 +7812,7 @@
       </c>
       <c r="L21" s="144"/>
       <c r="M21" s="144"/>
-      <c r="N21" s="329"/>
+      <c r="N21" s="322"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="135">
@@ -7890,7 +7894,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="324">
+      <c r="A24" s="309">
         <v>43962</v>
       </c>
       <c r="B24" s="170" t="s">
@@ -7926,12 +7930,12 @@
       </c>
       <c r="L24" s="76"/>
       <c r="M24" s="76"/>
-      <c r="N24" s="330" t="s">
+      <c r="N24" s="323" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="325"/>
+      <c r="A25" s="311"/>
       <c r="B25" s="84" t="s">
         <v>68</v>
       </c>
@@ -7965,7 +7969,7 @@
       </c>
       <c r="L25" s="79"/>
       <c r="M25" s="79"/>
-      <c r="N25" s="331"/>
+      <c r="N25" s="324"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="135">
@@ -8202,7 +8206,7 @@
       <c r="K35" s="86"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
-      <c r="N35" s="318"/>
+      <c r="N35" s="327"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
@@ -8224,7 +8228,7 @@
       <c r="K36" s="86"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
-      <c r="N36" s="318"/>
+      <c r="N36" s="327"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
@@ -8246,7 +8250,7 @@
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
       <c r="M37" s="86"/>
-      <c r="N37" s="318"/>
+      <c r="N37" s="327"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
@@ -8268,7 +8272,7 @@
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
       <c r="M38" s="86"/>
-      <c r="N38" s="318"/>
+      <c r="N38" s="327"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
@@ -8290,7 +8294,7 @@
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
       <c r="M39" s="86"/>
-      <c r="N39" s="318"/>
+      <c r="N39" s="327"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
@@ -8312,7 +8316,7 @@
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
       <c r="M40" s="86"/>
-      <c r="N40" s="318"/>
+      <c r="N40" s="327"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="111"/>
@@ -8378,7 +8382,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="90"/>
       <c r="M43" s="90"/>
-      <c r="N43" s="319"/>
+      <c r="N43" s="328"/>
     </row>
     <row r="44" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="117"/>
@@ -8400,7 +8404,7 @@
       <c r="K44" s="90"/>
       <c r="L44" s="90"/>
       <c r="M44" s="90"/>
-      <c r="N44" s="319"/>
+      <c r="N44" s="328"/>
     </row>
     <row r="45" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="117"/>
@@ -8422,7 +8426,7 @@
       <c r="K45" s="90"/>
       <c r="L45" s="90"/>
       <c r="M45" s="90"/>
-      <c r="N45" s="319"/>
+      <c r="N45" s="328"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
@@ -8997,12 +9001,12 @@
       <c r="N71" s="78"/>
     </row>
     <row r="72" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="316" t="s">
+      <c r="A72" s="325" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="317"/>
-      <c r="C72" s="317"/>
-      <c r="D72" s="317"/>
+      <c r="B72" s="326"/>
+      <c r="C72" s="326"/>
+      <c r="D72" s="326"/>
       <c r="E72" s="151">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -9028,7 +9032,7 @@
       </c>
       <c r="M72" s="155"/>
       <c r="N72" s="172"/>
-      <c r="O72" s="320"/>
+      <c r="O72" s="313"/>
     </row>
     <row r="73" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="314" t="s">
@@ -9050,7 +9054,7 @@
       <c r="L73" s="96"/>
       <c r="M73" s="96"/>
       <c r="N73" s="172"/>
-      <c r="O73" s="320"/>
+      <c r="O73" s="313"/>
     </row>
     <row r="74" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="314" t="s">
@@ -9058,7 +9062,7 @@
       </c>
       <c r="B74" s="315"/>
       <c r="C74" s="315"/>
-      <c r="D74" s="326"/>
+      <c r="D74" s="319"/>
       <c r="E74" s="149"/>
       <c r="F74" s="149"/>
       <c r="G74" s="93">
@@ -9163,32 +9167,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -9205,6 +9183,32 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="DOANH THU" sheetId="2" r:id="rId3"/>
     <sheet name="CHI PHÍ" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -22,7 +22,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -713,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1217,12 +1217,24 @@
   </si>
   <si>
     <t>Chị Phương Yên Châu</t>
+  </si>
+  <si>
+    <t>kho -&gt; cửa hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị phú </t>
+  </si>
+  <si>
+    <t>Anh Tùng</t>
+  </si>
+  <si>
+    <t>Demo anh Lâm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -2197,6 +2209,93 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,105 +2305,105 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2323,98 +2422,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2509,7 +2521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2544,7 +2556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2760,27 +2772,27 @@
       <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="123" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
+      <c r="A1" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2813,11 +2825,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2853,235 +2865,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="292"/>
-      <c r="AH3" s="292"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="273"/>
+      <c r="V3" s="273"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="273"/>
+      <c r="Y3" s="273"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
+      <c r="AE3" s="273"/>
+      <c r="AF3" s="273"/>
+      <c r="AG3" s="273"/>
+      <c r="AH3" s="273"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="273" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="292"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="292"/>
-      <c r="M4" s="292"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="292"/>
-      <c r="P4" s="292"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="292"/>
-      <c r="S4" s="292"/>
-      <c r="T4" s="292"/>
-      <c r="U4" s="292"/>
-      <c r="V4" s="292"/>
-      <c r="W4" s="292"/>
-      <c r="X4" s="292"/>
-      <c r="Y4" s="292"/>
-      <c r="Z4" s="292"/>
-      <c r="AA4" s="292"/>
-      <c r="AB4" s="292"/>
-      <c r="AC4" s="292"/>
-      <c r="AD4" s="292"/>
-      <c r="AE4" s="292"/>
-      <c r="AF4" s="292"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="292"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="292"/>
-      <c r="Q5" s="292"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="292"/>
-      <c r="T5" s="292"/>
-      <c r="U5" s="292"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="292"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="273"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="273"/>
+      <c r="AE4" s="273"/>
+      <c r="AF4" s="273"/>
+      <c r="AG4" s="273"/>
+      <c r="AH4" s="273"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="295" t="s">
+      <c r="D6" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="296"/>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="296"/>
-      <c r="S6" s="296"/>
-      <c r="T6" s="296"/>
-      <c r="U6" s="296"/>
-      <c r="V6" s="296"/>
-      <c r="W6" s="296"/>
-      <c r="X6" s="296"/>
-      <c r="Y6" s="296"/>
-      <c r="Z6" s="296"/>
-      <c r="AA6" s="296"/>
-      <c r="AB6" s="296"/>
-      <c r="AC6" s="296"/>
-      <c r="AD6" s="296"/>
-      <c r="AE6" s="296"/>
-      <c r="AF6" s="296"/>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="270" t="s">
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278"/>
+      <c r="P6" s="278"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="278"/>
+      <c r="T6" s="278"/>
+      <c r="U6" s="278"/>
+      <c r="V6" s="278"/>
+      <c r="W6" s="278"/>
+      <c r="X6" s="278"/>
+      <c r="Y6" s="278"/>
+      <c r="Z6" s="278"/>
+      <c r="AA6" s="278"/>
+      <c r="AB6" s="278"/>
+      <c r="AC6" s="278"/>
+      <c r="AD6" s="278"/>
+      <c r="AE6" s="278"/>
+      <c r="AF6" s="278"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="270"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="298" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="270" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="270"/>
-      <c r="H7" s="299" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="270" t="s">
+      <c r="I7" s="281"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="274" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="274"/>
-      <c r="N7" s="270" t="s">
+      <c r="M7" s="295"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="270"/>
-      <c r="P7" s="269" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="270" t="s">
+      <c r="Q7" s="298"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="270"/>
-      <c r="T7" s="271" t="s">
+      <c r="S7" s="274"/>
+      <c r="T7" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="271"/>
-      <c r="V7" s="270" t="s">
+      <c r="U7" s="299"/>
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="270"/>
-      <c r="X7" s="289" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="270" t="s">
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="268" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="268"/>
-      <c r="AD7" s="270" t="s">
+      <c r="AC7" s="297"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="272" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="272" t="s">
+      <c r="AG7" s="267" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="270"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="270"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="294"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3166,9 +3178,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="273"/>
-      <c r="AH8" s="270"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -3452,7 +3464,7 @@
       </c>
       <c r="AH13" s="89"/>
     </row>
-    <row r="14" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="169">
         <v>6</v>
       </c>
@@ -3876,7 +3888,7 @@
       </c>
       <c r="AH21" s="89"/>
     </row>
-    <row r="22" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="169">
         <v>14</v>
       </c>
@@ -4030,7 +4042,7 @@
       </c>
       <c r="AH24" s="89"/>
     </row>
-    <row r="25" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="75">
         <v>17</v>
       </c>
@@ -4086,7 +4098,7 @@
       </c>
       <c r="AH25" s="89"/>
     </row>
-    <row r="26" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="169">
         <v>18</v>
       </c>
@@ -4140,7 +4152,7 @@
       </c>
       <c r="AH26" s="89"/>
     </row>
-    <row r="27" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="75">
         <v>19</v>
       </c>
@@ -4194,7 +4206,7 @@
       </c>
       <c r="AH27" s="89"/>
     </row>
-    <row r="28" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="169">
         <v>20</v>
       </c>
@@ -4244,7 +4256,7 @@
       </c>
       <c r="AH28" s="89"/>
     </row>
-    <row r="29" spans="1:34" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="88" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="75">
         <v>21</v>
       </c>
@@ -4294,7 +4306,7 @@
       </c>
       <c r="AH29" s="89"/>
     </row>
-    <row r="30" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="169">
         <v>22</v>
       </c>
@@ -4344,7 +4356,7 @@
       </c>
       <c r="AH30" s="89"/>
     </row>
-    <row r="31" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="75">
         <v>23</v>
       </c>
@@ -4446,7 +4458,7 @@
       </c>
       <c r="AH32" s="89"/>
     </row>
-    <row r="33" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="75">
         <v>25</v>
       </c>
@@ -4496,7 +4508,7 @@
       </c>
       <c r="AH33" s="89"/>
     </row>
-    <row r="34" spans="1:34" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="88" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="169">
         <v>26</v>
       </c>
@@ -4858,7 +4870,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="75">
         <v>33</v>
       </c>
@@ -4960,7 +4972,7 @@
       </c>
       <c r="AH42" s="36"/>
     </row>
-    <row r="43" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="53"/>
       <c r="C43" s="122"/>
@@ -4996,80 +5008,80 @@
       <c r="AG43" s="55"/>
       <c r="AH43" s="54"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="286"/>
-      <c r="C44" s="287"/>
-      <c r="D44" s="288">
+      <c r="B44" s="292"/>
+      <c r="C44" s="293"/>
+      <c r="D44" s="294">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="288"/>
-      <c r="F44" s="277">
+      <c r="E44" s="294"/>
+      <c r="F44" s="271">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="277"/>
-      <c r="H44" s="290">
+      <c r="G44" s="271"/>
+      <c r="H44" s="270">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="290"/>
-      <c r="J44" s="277">
+      <c r="I44" s="270"/>
+      <c r="J44" s="271">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="277"/>
-      <c r="L44" s="285">
+      <c r="K44" s="271"/>
+      <c r="L44" s="291">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="285"/>
-      <c r="N44" s="277">
+      <c r="M44" s="291"/>
+      <c r="N44" s="271">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="277"/>
-      <c r="P44" s="278">
+      <c r="O44" s="271"/>
+      <c r="P44" s="284">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="278"/>
-      <c r="R44" s="277">
+      <c r="Q44" s="284"/>
+      <c r="R44" s="271">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="277"/>
-      <c r="T44" s="279">
+      <c r="S44" s="271"/>
+      <c r="T44" s="285">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="279"/>
-      <c r="V44" s="277">
+      <c r="U44" s="285"/>
+      <c r="V44" s="271">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="277"/>
-      <c r="X44" s="280">
+      <c r="W44" s="271"/>
+      <c r="X44" s="286">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="280"/>
-      <c r="Z44" s="277">
+      <c r="Y44" s="286"/>
+      <c r="Z44" s="271">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="277"/>
-      <c r="AB44" s="281">
+      <c r="AA44" s="271"/>
+      <c r="AB44" s="287">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="281"/>
-      <c r="AD44" s="277">
+      <c r="AC44" s="287"/>
+      <c r="AD44" s="271">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="277"/>
+      <c r="AE44" s="271"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5078,39 +5090,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="282" t="s">
+      <c r="A45" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="283"/>
-      <c r="E45" s="283"/>
-      <c r="F45" s="283"/>
-      <c r="G45" s="283"/>
-      <c r="H45" s="283"/>
-      <c r="I45" s="283"/>
-      <c r="J45" s="283"/>
-      <c r="K45" s="283"/>
-      <c r="L45" s="283"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="283"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="283"/>
-      <c r="Q45" s="283"/>
-      <c r="R45" s="283"/>
-      <c r="S45" s="283"/>
-      <c r="T45" s="283"/>
-      <c r="U45" s="283"/>
-      <c r="V45" s="283"/>
-      <c r="W45" s="283"/>
-      <c r="X45" s="283"/>
-      <c r="Y45" s="283"/>
-      <c r="Z45" s="283"/>
-      <c r="AA45" s="283"/>
-      <c r="AB45" s="283"/>
-      <c r="AC45" s="283"/>
-      <c r="AD45" s="283"/>
-      <c r="AE45" s="284"/>
+      <c r="B45" s="289"/>
+      <c r="C45" s="289"/>
+      <c r="D45" s="289"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="289"/>
+      <c r="G45" s="289"/>
+      <c r="H45" s="289"/>
+      <c r="I45" s="289"/>
+      <c r="J45" s="289"/>
+      <c r="K45" s="289"/>
+      <c r="L45" s="289"/>
+      <c r="M45" s="289"/>
+      <c r="N45" s="289"/>
+      <c r="O45" s="289"/>
+      <c r="P45" s="289"/>
+      <c r="Q45" s="289"/>
+      <c r="R45" s="289"/>
+      <c r="S45" s="289"/>
+      <c r="T45" s="289"/>
+      <c r="U45" s="289"/>
+      <c r="V45" s="289"/>
+      <c r="W45" s="289"/>
+      <c r="X45" s="289"/>
+      <c r="Y45" s="289"/>
+      <c r="Z45" s="289"/>
+      <c r="AA45" s="289"/>
+      <c r="AB45" s="289"/>
+      <c r="AC45" s="289"/>
+      <c r="AD45" s="289"/>
+      <c r="AE45" s="290"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5122,48 +5134,76 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="282" t="s">
+      <c r="A46" s="288" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="283"/>
-      <c r="C46" s="283"/>
-      <c r="D46" s="283"/>
-      <c r="E46" s="283"/>
-      <c r="F46" s="283"/>
-      <c r="G46" s="283"/>
-      <c r="H46" s="283"/>
-      <c r="I46" s="283"/>
-      <c r="J46" s="283"/>
-      <c r="K46" s="283"/>
-      <c r="L46" s="283"/>
-      <c r="M46" s="283"/>
-      <c r="N46" s="283"/>
-      <c r="O46" s="283"/>
-      <c r="P46" s="283"/>
-      <c r="Q46" s="283"/>
-      <c r="R46" s="283"/>
-      <c r="S46" s="283"/>
-      <c r="T46" s="283"/>
-      <c r="U46" s="283"/>
-      <c r="V46" s="283"/>
-      <c r="W46" s="283"/>
-      <c r="X46" s="283"/>
-      <c r="Y46" s="283"/>
-      <c r="Z46" s="283"/>
-      <c r="AA46" s="283"/>
-      <c r="AB46" s="283"/>
-      <c r="AC46" s="283"/>
-      <c r="AD46" s="283"/>
-      <c r="AE46" s="284"/>
-      <c r="AF46" s="275">
+      <c r="B46" s="289"/>
+      <c r="C46" s="289"/>
+      <c r="D46" s="289"/>
+      <c r="E46" s="289"/>
+      <c r="F46" s="289"/>
+      <c r="G46" s="289"/>
+      <c r="H46" s="289"/>
+      <c r="I46" s="289"/>
+      <c r="J46" s="289"/>
+      <c r="K46" s="289"/>
+      <c r="L46" s="289"/>
+      <c r="M46" s="289"/>
+      <c r="N46" s="289"/>
+      <c r="O46" s="289"/>
+      <c r="P46" s="289"/>
+      <c r="Q46" s="289"/>
+      <c r="R46" s="289"/>
+      <c r="S46" s="289"/>
+      <c r="T46" s="289"/>
+      <c r="U46" s="289"/>
+      <c r="V46" s="289"/>
+      <c r="W46" s="289"/>
+      <c r="X46" s="289"/>
+      <c r="Y46" s="289"/>
+      <c r="Z46" s="289"/>
+      <c r="AA46" s="289"/>
+      <c r="AB46" s="289"/>
+      <c r="AC46" s="289"/>
+      <c r="AD46" s="289"/>
+      <c r="AE46" s="290"/>
+      <c r="AF46" s="282">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="276"/>
+      <c r="AG46" s="283"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="H44:I44"/>
@@ -5180,34 +5220,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5217,34 +5229,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:AH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="123" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="123" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
+      <c r="A1" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
       <c r="G1" s="239"/>
       <c r="H1" s="239"/>
       <c r="I1" s="239"/>
@@ -5277,11 +5289,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
       <c r="D2" s="245"/>
       <c r="E2" s="245"/>
       <c r="F2" s="245"/>
@@ -5317,235 +5329,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="292"/>
-      <c r="AH3" s="292"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="273"/>
+      <c r="V3" s="273"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="273"/>
+      <c r="Y3" s="273"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="273"/>
+      <c r="AE3" s="273"/>
+      <c r="AF3" s="273"/>
+      <c r="AG3" s="273"/>
+      <c r="AH3" s="273"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="292"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="292"/>
-      <c r="M4" s="292"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="292"/>
-      <c r="P4" s="292"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="292"/>
-      <c r="S4" s="292"/>
-      <c r="T4" s="292"/>
-      <c r="U4" s="292"/>
-      <c r="V4" s="292"/>
-      <c r="W4" s="292"/>
-      <c r="X4" s="292"/>
-      <c r="Y4" s="292"/>
-      <c r="Z4" s="292"/>
-      <c r="AA4" s="292"/>
-      <c r="AB4" s="292"/>
-      <c r="AC4" s="292"/>
-      <c r="AD4" s="292"/>
-      <c r="AE4" s="292"/>
-      <c r="AF4" s="292"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="292"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="273"/>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="273"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="273"/>
+      <c r="AE4" s="273"/>
+      <c r="AF4" s="273"/>
+      <c r="AG4" s="273"/>
+      <c r="AH4" s="273"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="292"/>
-      <c r="Q5" s="292"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="292"/>
-      <c r="T5" s="292"/>
-      <c r="U5" s="292"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="292"/>
+      <c r="A5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
       <c r="AF5" s="246"/>
       <c r="AG5" s="246"/>
       <c r="AH5" s="246"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="270" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="295" t="s">
+      <c r="D6" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="296"/>
-      <c r="O6" s="296"/>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="296"/>
-      <c r="S6" s="296"/>
-      <c r="T6" s="296"/>
-      <c r="U6" s="296"/>
-      <c r="V6" s="296"/>
-      <c r="W6" s="296"/>
-      <c r="X6" s="296"/>
-      <c r="Y6" s="296"/>
-      <c r="Z6" s="296"/>
-      <c r="AA6" s="296"/>
-      <c r="AB6" s="296"/>
-      <c r="AC6" s="296"/>
-      <c r="AD6" s="296"/>
-      <c r="AE6" s="296"/>
-      <c r="AF6" s="296"/>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="270" t="s">
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278"/>
+      <c r="P6" s="278"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="278"/>
+      <c r="T6" s="278"/>
+      <c r="U6" s="278"/>
+      <c r="V6" s="278"/>
+      <c r="W6" s="278"/>
+      <c r="X6" s="278"/>
+      <c r="Y6" s="278"/>
+      <c r="Z6" s="278"/>
+      <c r="AA6" s="278"/>
+      <c r="AB6" s="278"/>
+      <c r="AC6" s="278"/>
+      <c r="AD6" s="278"/>
+      <c r="AE6" s="278"/>
+      <c r="AF6" s="278"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="270"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="298" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="270" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="270"/>
-      <c r="H7" s="299" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="270" t="s">
+      <c r="I7" s="281"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="274" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="274"/>
-      <c r="N7" s="270" t="s">
+      <c r="M7" s="295"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="270"/>
-      <c r="P7" s="269" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="270" t="s">
+      <c r="Q7" s="298"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="270"/>
+      <c r="S7" s="274"/>
       <c r="T7" s="300" t="s">
         <v>17</v>
       </c>
       <c r="U7" s="300"/>
-      <c r="V7" s="270" t="s">
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="270"/>
-      <c r="X7" s="289" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="270" t="s">
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="268" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="268"/>
-      <c r="AD7" s="270" t="s">
+      <c r="AC7" s="297"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="272" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="272" t="s">
+      <c r="AG7" s="267" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="270"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="270"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="294"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="247" t="s">
         <v>23</v>
       </c>
@@ -5630,9 +5642,9 @@
       <c r="AE8" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="273"/>
-      <c r="AH8" s="270"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -5739,11 +5751,11 @@
       <c r="AD10" s="260"/>
       <c r="AE10" s="260"/>
       <c r="AF10" s="250">
-        <f t="shared" ref="AF10:AF33" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF38" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>12</v>
       </c>
       <c r="AG10" s="250">
-        <f t="shared" ref="AG10:AG35" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG14" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="260"/>
@@ -6049,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="250">
-        <f t="shared" ref="AG16:AG33" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
+        <f t="shared" ref="AG16:AG38" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
         <v>0</v>
       </c>
       <c r="AH16" s="254"/>
@@ -6778,11 +6790,17 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="120"/>
+      <c r="B31" s="35">
+        <v>44002</v>
+      </c>
+      <c r="C31" s="120" t="s">
+        <v>168</v>
+      </c>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36">
+        <v>12</v>
+      </c>
       <c r="G31" s="36"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
@@ -6814,47 +6832,51 @@
       </c>
       <c r="AG31" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH31" s="21"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>22</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="262"/>
-      <c r="U32" s="262"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="35">
+        <v>44002</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36">
+        <v>2</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="263"/>
+      <c r="U32" s="263"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG32" s="20">
         <f t="shared" si="2"/>
@@ -6863,253 +6885,511 @@
       <c r="AH32" s="21"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="75">
-        <v>23</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="266"/>
-      <c r="U33" s="266"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="35">
+        <v>44004</v>
+      </c>
+      <c r="C33" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="263"/>
+      <c r="U33" s="263"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG33" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH33" s="45"/>
-    </row>
-    <row r="34" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="54"/>
+      <c r="AH33" s="21"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="75"/>
+      <c r="B34" s="35">
+        <v>44006</v>
+      </c>
+      <c r="C34" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36">
+        <v>1</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36">
+        <v>1</v>
+      </c>
+      <c r="T34" s="263"/>
+      <c r="U34" s="263"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36">
+        <v>1</v>
+      </c>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="21"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="286"/>
-      <c r="C35" s="287"/>
-      <c r="D35" s="288">
-        <f>SUM(D9:D33)-SUM(E9:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="288"/>
-      <c r="F35" s="277">
-        <f>SUM(F9:F33)-SUM(G9:G33)</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="277"/>
-      <c r="H35" s="290">
-        <f>SUM(H9:H33)-SUM(I9:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="290"/>
-      <c r="J35" s="277">
-        <f>SUM(J9:J33)-SUM(K9:K33)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="277"/>
-      <c r="L35" s="285">
-        <f>SUM(L9:L33)-SUM(M9:M33)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="285"/>
-      <c r="N35" s="277">
-        <f>SUM(N9:N33)-SUM(O9:O33)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="277"/>
-      <c r="P35" s="278">
-        <f>SUM(P9:P33)-SUM(Q9:Q33)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="278"/>
-      <c r="R35" s="277">
-        <f>SUM(R9:R33)-SUM(S9:S33)</f>
-        <v>49</v>
-      </c>
-      <c r="S35" s="277"/>
-      <c r="T35" s="279">
-        <f>SUM(T9:T33)-SUM(U9:U33)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="279"/>
-      <c r="V35" s="277">
-        <f>SUM(V9:V33)-SUM(W9:W33)</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="277"/>
-      <c r="X35" s="280">
-        <f>SUM(X9:X33)-SUM(Y9:Y33)</f>
+      <c r="A35" s="75"/>
+      <c r="B35" s="35">
+        <v>44006</v>
+      </c>
+      <c r="C35" s="120" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="263"/>
+      <c r="U35" s="263"/>
+      <c r="V35" s="36">
+        <v>12</v>
+      </c>
+      <c r="W35" s="36"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="21"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="75"/>
+      <c r="B36" s="35">
+        <v>44006</v>
+      </c>
+      <c r="C36" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="263"/>
+      <c r="U36" s="263"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36">
+        <v>12</v>
+      </c>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="21"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>22</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="262"/>
+      <c r="U37" s="262"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="21"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="75">
+        <v>23</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="266"/>
+      <c r="U38" s="266"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="45"/>
+    </row>
+    <row r="39" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="54"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="292"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="294">
+        <f>SUM(D9:D38)-SUM(E9:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="294"/>
+      <c r="F40" s="271">
+        <f>SUM(F9:F38)-SUM(G9:G38)</f>
+        <v>10</v>
+      </c>
+      <c r="G40" s="271"/>
+      <c r="H40" s="270">
+        <f>SUM(H9:H38)-SUM(I9:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="270"/>
+      <c r="J40" s="271">
+        <f>SUM(J9:J38)-SUM(K9:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="271"/>
+      <c r="L40" s="291">
+        <f>SUM(L9:L38)-SUM(M9:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="291"/>
+      <c r="N40" s="271">
+        <f>SUM(N9:N38)-SUM(O9:O38)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="271"/>
+      <c r="P40" s="284">
+        <f>SUM(P9:P38)-SUM(Q9:Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="284"/>
+      <c r="R40" s="271">
+        <f>SUM(R9:R38)-SUM(S9:S38)</f>
+        <v>48</v>
+      </c>
+      <c r="S40" s="271"/>
+      <c r="T40" s="285">
+        <f>SUM(T9:T38)-SUM(U9:U38)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="285"/>
+      <c r="V40" s="271">
+        <f>SUM(V9:V38)-SUM(W9:W38)</f>
+        <v>11</v>
+      </c>
+      <c r="W40" s="271"/>
+      <c r="X40" s="286">
+        <f>SUM(X9:X38)-SUM(Y9:Y38)</f>
         <v>58</v>
       </c>
-      <c r="Y35" s="280"/>
-      <c r="Z35" s="277">
-        <f>SUM(Z9:Z33)-SUM(AA9:AA33)</f>
-        <v>32</v>
-      </c>
-      <c r="AA35" s="277"/>
-      <c r="AB35" s="281">
-        <f>SUM(AB9:AB33)-SUM(AC9:AC33)</f>
+      <c r="Y40" s="286"/>
+      <c r="Z40" s="271">
+        <f>SUM(Z9:Z38)-SUM(AA9:AA38)</f>
+        <v>9</v>
+      </c>
+      <c r="AA40" s="271"/>
+      <c r="AB40" s="287">
+        <f>SUM(AB9:AB38)-SUM(AC9:AC38)</f>
         <v>48</v>
       </c>
-      <c r="AC35" s="281"/>
-      <c r="AD35" s="277">
-        <f>SUM(AD9:AD33)-SUM(AE9:AE33)</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="277"/>
-      <c r="AF35" s="43"/>
-      <c r="AG35" s="249">
-        <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="AH35" s="58"/>
-    </row>
-    <row r="36" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="282" t="s">
+      <c r="AC40" s="287"/>
+      <c r="AD40" s="271">
+        <f>SUM(AD9:AD38)-SUM(AE9:AE38)</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="271"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="249">
+        <f>D40+F40+H40+J40+L40+N40+P40+R40+T40+V40+X40+Z40+AB40+AD40</f>
+        <v>184</v>
+      </c>
+      <c r="AH40" s="58"/>
+    </row>
+    <row r="41" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="283"/>
-      <c r="C36" s="283"/>
-      <c r="D36" s="283"/>
-      <c r="E36" s="283"/>
-      <c r="F36" s="283"/>
-      <c r="G36" s="283"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="283"/>
-      <c r="J36" s="283"/>
-      <c r="K36" s="283"/>
-      <c r="L36" s="283"/>
-      <c r="M36" s="283"/>
-      <c r="N36" s="283"/>
-      <c r="O36" s="283"/>
-      <c r="P36" s="283"/>
-      <c r="Q36" s="283"/>
-      <c r="R36" s="283"/>
-      <c r="S36" s="283"/>
-      <c r="T36" s="283"/>
-      <c r="U36" s="283"/>
-      <c r="V36" s="283"/>
-      <c r="W36" s="283"/>
-      <c r="X36" s="283"/>
-      <c r="Y36" s="283"/>
-      <c r="Z36" s="283"/>
-      <c r="AA36" s="283"/>
-      <c r="AB36" s="283"/>
-      <c r="AC36" s="283"/>
-      <c r="AD36" s="283"/>
-      <c r="AE36" s="284"/>
-      <c r="AF36" s="59">
-        <f>SUM(AF9:AF33)</f>
-        <v>200</v>
-      </c>
-      <c r="AG36" s="59">
-        <f>SUM(AG9:AG33)</f>
-        <v>388</v>
-      </c>
-      <c r="AH36" s="60"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="282" t="s">
+      <c r="B41" s="289"/>
+      <c r="C41" s="289"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="289"/>
+      <c r="F41" s="289"/>
+      <c r="G41" s="289"/>
+      <c r="H41" s="289"/>
+      <c r="I41" s="289"/>
+      <c r="J41" s="289"/>
+      <c r="K41" s="289"/>
+      <c r="L41" s="289"/>
+      <c r="M41" s="289"/>
+      <c r="N41" s="289"/>
+      <c r="O41" s="289"/>
+      <c r="P41" s="289"/>
+      <c r="Q41" s="289"/>
+      <c r="R41" s="289"/>
+      <c r="S41" s="289"/>
+      <c r="T41" s="289"/>
+      <c r="U41" s="289"/>
+      <c r="V41" s="289"/>
+      <c r="W41" s="289"/>
+      <c r="X41" s="289"/>
+      <c r="Y41" s="289"/>
+      <c r="Z41" s="289"/>
+      <c r="AA41" s="289"/>
+      <c r="AB41" s="289"/>
+      <c r="AC41" s="289"/>
+      <c r="AD41" s="289"/>
+      <c r="AE41" s="290"/>
+      <c r="AF41" s="59">
+        <f>SUM(AF9:AF38)</f>
+        <v>216</v>
+      </c>
+      <c r="AG41" s="59">
+        <f>SUM(AG9:AG38)</f>
+        <v>400</v>
+      </c>
+      <c r="AH41" s="60"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="288" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="283"/>
-      <c r="C37" s="283"/>
-      <c r="D37" s="283"/>
-      <c r="E37" s="283"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="283"/>
-      <c r="H37" s="283"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="283"/>
-      <c r="K37" s="283"/>
-      <c r="L37" s="283"/>
-      <c r="M37" s="283"/>
-      <c r="N37" s="283"/>
-      <c r="O37" s="283"/>
-      <c r="P37" s="283"/>
-      <c r="Q37" s="283"/>
-      <c r="R37" s="283"/>
-      <c r="S37" s="283"/>
-      <c r="T37" s="283"/>
-      <c r="U37" s="283"/>
-      <c r="V37" s="283"/>
-      <c r="W37" s="283"/>
-      <c r="X37" s="283"/>
-      <c r="Y37" s="283"/>
-      <c r="Z37" s="283"/>
-      <c r="AA37" s="283"/>
-      <c r="AB37" s="283"/>
-      <c r="AC37" s="283"/>
-      <c r="AD37" s="283"/>
-      <c r="AE37" s="284"/>
-      <c r="AF37" s="275">
-        <f>AG36-AF36</f>
-        <v>188</v>
-      </c>
-      <c r="AG37" s="276"/>
-      <c r="AH37" s="60"/>
+      <c r="B42" s="289"/>
+      <c r="C42" s="289"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
+      <c r="H42" s="289"/>
+      <c r="I42" s="289"/>
+      <c r="J42" s="289"/>
+      <c r="K42" s="289"/>
+      <c r="L42" s="289"/>
+      <c r="M42" s="289"/>
+      <c r="N42" s="289"/>
+      <c r="O42" s="289"/>
+      <c r="P42" s="289"/>
+      <c r="Q42" s="289"/>
+      <c r="R42" s="289"/>
+      <c r="S42" s="289"/>
+      <c r="T42" s="289"/>
+      <c r="U42" s="289"/>
+      <c r="V42" s="289"/>
+      <c r="W42" s="289"/>
+      <c r="X42" s="289"/>
+      <c r="Y42" s="289"/>
+      <c r="Z42" s="289"/>
+      <c r="AA42" s="289"/>
+      <c r="AB42" s="289"/>
+      <c r="AC42" s="289"/>
+      <c r="AD42" s="289"/>
+      <c r="AE42" s="290"/>
+      <c r="AF42" s="282">
+        <f>AG41-AF41</f>
+        <v>184</v>
+      </c>
+      <c r="AG42" s="283"/>
+      <c r="AH42" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="A41:AE41"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7126,34 +7406,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="A36:AE36"/>
-    <mergeCell ref="A37:AE37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7169,26 +7421,26 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="74" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="106" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="105" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="74" customWidth="1"/>
     <col min="5" max="5" width="5" style="74" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="107" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="107" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="107" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="108"/>
+    <col min="6" max="6" width="10.88671875" style="107" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="107" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="108"/>
     <col min="10" max="10" width="13" style="107" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="107" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="107" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="107" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="74" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="74"/>
+    <col min="11" max="11" width="11.88671875" style="107" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="107" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="107" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="74" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -7204,7 +7456,7 @@
       <c r="M1" s="67"/>
       <c r="N1" s="68"/>
     </row>
-    <row r="2" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
@@ -7220,147 +7472,147 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="329" t="s">
+    <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="301" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
-      <c r="N3" s="329"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="301"/>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
     </row>
-    <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="329" t="s">
+    <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="301" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="329"/>
-      <c r="M4" s="329"/>
-      <c r="N4" s="329"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="301"/>
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
       <c r="Q4" s="118"/>
     </row>
-    <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="329"/>
-      <c r="B5" s="329"/>
-      <c r="C5" s="329"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
+    <row r="5" spans="1:17" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="301"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="331" t="s">
+    <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="303" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="333"/>
-      <c r="D6" s="334" t="s">
+      <c r="C6" s="305"/>
+      <c r="D6" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="334"/>
-      <c r="F6" s="334"/>
-      <c r="G6" s="334"/>
-      <c r="H6" s="334"/>
-      <c r="I6" s="334"/>
-      <c r="J6" s="334"/>
-      <c r="K6" s="337" t="s">
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
+      <c r="H6" s="306"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="306"/>
+      <c r="K6" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="338" t="s">
+      <c r="L6" s="311"/>
+      <c r="M6" s="311"/>
+      <c r="N6" s="312" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="332"/>
-      <c r="B7" s="335" t="s">
+    <row r="7" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="304"/>
+      <c r="B7" s="307" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="335" t="s">
+      <c r="C7" s="307" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="335" t="s">
+      <c r="D7" s="307" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="335" t="s">
+      <c r="E7" s="307" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="301" t="s">
+      <c r="F7" s="309" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="301" t="s">
+      <c r="G7" s="309" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="312" t="s">
+      <c r="H7" s="339" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="312"/>
-      <c r="J7" s="301" t="s">
+      <c r="I7" s="339"/>
+      <c r="J7" s="309" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="301" t="s">
+      <c r="K7" s="309" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="301" t="s">
+      <c r="L7" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="301" t="s">
+      <c r="M7" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="339"/>
-    </row>
-    <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="332"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
+      <c r="N7" s="313"/>
+    </row>
+    <row r="8" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="304"/>
+      <c r="B8" s="308"/>
+      <c r="C8" s="308"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="310"/>
       <c r="H8" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="302"/>
-      <c r="N8" s="339"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="310"/>
+      <c r="L8" s="310"/>
+      <c r="M8" s="310"/>
+      <c r="N8" s="313"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="125">
@@ -7402,10 +7654,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="309">
+      <c r="A10" s="324">
         <v>43958</v>
       </c>
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="332" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="109"/>
@@ -7436,8 +7688,8 @@
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="311"/>
-      <c r="B11" s="305"/>
+      <c r="A11" s="325"/>
+      <c r="B11" s="334"/>
       <c r="C11" s="130"/>
       <c r="D11" s="78" t="s">
         <v>21</v>
@@ -7466,10 +7718,10 @@
       <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="309">
+      <c r="A12" s="324">
         <v>43958</v>
       </c>
-      <c r="B12" s="303" t="s">
+      <c r="B12" s="332" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="109"/>
@@ -7500,8 +7752,8 @@
       <c r="N12" s="75"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="311"/>
-      <c r="B13" s="305"/>
+      <c r="A13" s="325"/>
+      <c r="B13" s="334"/>
       <c r="C13" s="84"/>
       <c r="D13" s="78" t="s">
         <v>16</v>
@@ -7529,7 +7781,7 @@
       <c r="M13" s="133"/>
       <c r="N13" s="134"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="135">
         <v>43958</v>
       </c>
@@ -7564,10 +7816,10 @@
       <c r="N14" s="138"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="309">
+      <c r="A15" s="324">
         <v>43958</v>
       </c>
-      <c r="B15" s="303" t="s">
+      <c r="B15" s="332" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="109"/>
@@ -7584,7 +7836,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="306">
+      <c r="H15" s="335">
         <v>288000</v>
       </c>
       <c r="I15" s="77">
@@ -7600,13 +7852,13 @@
       </c>
       <c r="L15" s="132"/>
       <c r="M15" s="132"/>
-      <c r="N15" s="316" t="s">
+      <c r="N15" s="321" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="310"/>
-      <c r="B16" s="304"/>
+      <c r="A16" s="338"/>
+      <c r="B16" s="333"/>
       <c r="C16" s="110"/>
       <c r="D16" s="85" t="s">
         <v>20</v>
@@ -7621,7 +7873,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="307"/>
+      <c r="H16" s="336"/>
       <c r="I16" s="87">
         <v>0.1</v>
       </c>
@@ -7635,11 +7887,11 @@
       </c>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
-      <c r="N16" s="317"/>
+      <c r="N16" s="322"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="310"/>
-      <c r="B17" s="304"/>
+      <c r="A17" s="338"/>
+      <c r="B17" s="333"/>
       <c r="C17" s="110"/>
       <c r="D17" s="85" t="s">
         <v>10</v>
@@ -7654,7 +7906,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="307"/>
+      <c r="H17" s="336"/>
       <c r="I17" s="87">
         <v>0.1</v>
       </c>
@@ -7668,11 +7920,11 @@
       </c>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
-      <c r="N17" s="317"/>
+      <c r="N17" s="322"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="311"/>
-      <c r="B18" s="305"/>
+      <c r="A18" s="325"/>
+      <c r="B18" s="334"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84" t="s">
         <v>21</v>
@@ -7687,7 +7939,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="308"/>
+      <c r="H18" s="337"/>
       <c r="I18" s="142">
         <v>0.1</v>
       </c>
@@ -7701,13 +7953,13 @@
       </c>
       <c r="L18" s="141"/>
       <c r="M18" s="141"/>
-      <c r="N18" s="318"/>
+      <c r="N18" s="323"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="309">
+      <c r="A19" s="324">
         <v>43958</v>
       </c>
-      <c r="B19" s="303" t="s">
+      <c r="B19" s="332" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="131"/>
@@ -7740,13 +7992,13 @@
       </c>
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
-      <c r="N19" s="320" t="s">
+      <c r="N19" s="327" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="310"/>
-      <c r="B20" s="304"/>
+      <c r="A20" s="338"/>
+      <c r="B20" s="333"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81" t="s">
         <v>21</v>
@@ -7777,11 +8029,11 @@
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82"/>
-      <c r="N20" s="321"/>
+      <c r="N20" s="328"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="311"/>
-      <c r="B21" s="305"/>
+      <c r="A21" s="325"/>
+      <c r="B21" s="334"/>
       <c r="C21" s="143"/>
       <c r="D21" s="143" t="s">
         <v>14</v>
@@ -7812,7 +8064,7 @@
       </c>
       <c r="L21" s="144"/>
       <c r="M21" s="144"/>
-      <c r="N21" s="322"/>
+      <c r="N21" s="329"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="135">
@@ -7894,7 +8146,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="309">
+      <c r="A24" s="324">
         <v>43962</v>
       </c>
       <c r="B24" s="170" t="s">
@@ -7930,12 +8182,12 @@
       </c>
       <c r="L24" s="76"/>
       <c r="M24" s="76"/>
-      <c r="N24" s="323" t="s">
+      <c r="N24" s="330" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="311"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="84" t="s">
         <v>68</v>
       </c>
@@ -7969,7 +8221,7 @@
       </c>
       <c r="L25" s="79"/>
       <c r="M25" s="79"/>
-      <c r="N25" s="324"/>
+      <c r="N25" s="331"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="135">
@@ -8010,7 +8262,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="88" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="114"/>
       <c r="B27" s="113"/>
       <c r="C27" s="113"/>
@@ -8032,7 +8284,7 @@
       <c r="M27" s="90"/>
       <c r="N27" s="89"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="111"/>
       <c r="B28" s="110"/>
       <c r="C28" s="110"/>
@@ -8054,7 +8306,7 @@
       <c r="M28" s="86"/>
       <c r="N28" s="85"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="111"/>
       <c r="B29" s="110"/>
       <c r="C29" s="110"/>
@@ -8076,7 +8328,7 @@
       <c r="M29" s="86"/>
       <c r="N29" s="85"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="111"/>
       <c r="B30" s="110"/>
       <c r="C30" s="110"/>
@@ -8098,7 +8350,7 @@
       <c r="M30" s="86"/>
       <c r="N30" s="85"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="112"/>
       <c r="B31" s="81"/>
       <c r="C31" s="81"/>
@@ -8120,7 +8372,7 @@
       <c r="M31" s="86"/>
       <c r="N31" s="85"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="112"/>
       <c r="B32" s="81"/>
       <c r="C32" s="81"/>
@@ -8142,7 +8394,7 @@
       <c r="M32" s="86"/>
       <c r="N32" s="85"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="112"/>
       <c r="B33" s="81"/>
       <c r="C33" s="81"/>
@@ -8164,7 +8416,7 @@
       <c r="M33" s="86"/>
       <c r="N33" s="85"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="112"/>
       <c r="B34" s="81"/>
       <c r="C34" s="81"/>
@@ -8206,7 +8458,7 @@
       <c r="K35" s="86"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
-      <c r="N35" s="327"/>
+      <c r="N35" s="318"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
@@ -8228,7 +8480,7 @@
       <c r="K36" s="86"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
-      <c r="N36" s="327"/>
+      <c r="N36" s="318"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
@@ -8250,7 +8502,7 @@
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
       <c r="M37" s="86"/>
-      <c r="N37" s="327"/>
+      <c r="N37" s="318"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
@@ -8272,7 +8524,7 @@
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
       <c r="M38" s="86"/>
-      <c r="N38" s="327"/>
+      <c r="N38" s="318"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
@@ -8294,7 +8546,7 @@
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
       <c r="M39" s="86"/>
-      <c r="N39" s="327"/>
+      <c r="N39" s="318"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
@@ -8316,7 +8568,7 @@
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
       <c r="M40" s="86"/>
-      <c r="N40" s="327"/>
+      <c r="N40" s="318"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="111"/>
@@ -8382,7 +8634,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="90"/>
       <c r="M43" s="90"/>
-      <c r="N43" s="328"/>
+      <c r="N43" s="319"/>
     </row>
     <row r="44" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="117"/>
@@ -8404,7 +8656,7 @@
       <c r="K44" s="90"/>
       <c r="L44" s="90"/>
       <c r="M44" s="90"/>
-      <c r="N44" s="328"/>
+      <c r="N44" s="319"/>
     </row>
     <row r="45" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="117"/>
@@ -8426,7 +8678,7 @@
       <c r="K45" s="90"/>
       <c r="L45" s="90"/>
       <c r="M45" s="90"/>
-      <c r="N45" s="328"/>
+      <c r="N45" s="319"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
@@ -9000,13 +9252,13 @@
       <c r="M71" s="79"/>
       <c r="N71" s="78"/>
     </row>
-    <row r="72" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="325" t="s">
+    <row r="72" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A72" s="316" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="326"/>
-      <c r="C72" s="326"/>
-      <c r="D72" s="326"/>
+      <c r="B72" s="317"/>
+      <c r="C72" s="317"/>
+      <c r="D72" s="317"/>
       <c r="E72" s="151">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -9032,9 +9284,9 @@
       </c>
       <c r="M72" s="155"/>
       <c r="N72" s="172"/>
-      <c r="O72" s="313"/>
-    </row>
-    <row r="73" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="O72" s="320"/>
+    </row>
+    <row r="73" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A73" s="314" t="s">
         <v>77</v>
       </c>
@@ -9054,15 +9306,15 @@
       <c r="L73" s="96"/>
       <c r="M73" s="96"/>
       <c r="N73" s="172"/>
-      <c r="O73" s="313"/>
-    </row>
-    <row r="74" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="O73" s="320"/>
+    </row>
+    <row r="74" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A74" s="314" t="s">
         <v>121</v>
       </c>
       <c r="B74" s="315"/>
       <c r="C74" s="315"/>
-      <c r="D74" s="319"/>
+      <c r="D74" s="326"/>
       <c r="E74" s="149"/>
       <c r="F74" s="149"/>
       <c r="G74" s="93">
@@ -9078,7 +9330,7 @@
       <c r="N74" s="172"/>
       <c r="O74" s="156"/>
     </row>
-    <row r="75" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A75" s="314" t="s">
         <v>74</v>
       </c>
@@ -9099,7 +9351,7 @@
       <c r="M75" s="96"/>
       <c r="N75" s="172"/>
     </row>
-    <row r="76" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A76" s="314" t="s">
         <v>75</v>
       </c>
@@ -9120,7 +9372,7 @@
       <c r="M76" s="96"/>
       <c r="N76" s="172"/>
     </row>
-    <row r="77" spans="1:15" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A77" s="314" t="s">
         <v>76</v>
       </c>
@@ -9167,6 +9419,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -9183,32 +9461,6 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9223,18 +9475,18 @@
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="192" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="193" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="175" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="175" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="176" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="192" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="193" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="175" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="175" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="176" customWidth="1"/>
     <col min="6" max="6" width="16" style="176" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="176"/>
+    <col min="7" max="16384" width="9.109375" style="176"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="341" t="s">
         <v>0</v>
       </c>
@@ -9250,7 +9502,7 @@
       <c r="O1" s="160"/>
       <c r="P1" s="161"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="167" t="s">
         <v>2</v>
       </c>
@@ -9284,7 +9536,7 @@
       <c r="O3" s="160"/>
       <c r="P3" s="161"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="342" t="s">
         <v>78</v>
       </c>
@@ -9304,7 +9556,7 @@
       <c r="O4" s="165"/>
       <c r="P4" s="165"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="343" t="s">
         <v>127</v>
       </c>
@@ -9324,7 +9576,7 @@
       <c r="O5" s="165"/>
       <c r="P5" s="165"/>
     </row>
-    <row r="7" spans="1:16" s="166" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="166" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="344" t="s">
         <v>79</v>
       </c>
@@ -9342,7 +9594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="171" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="171" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="344"/>
       <c r="B8" s="345"/>
       <c r="C8" s="173" t="s">
@@ -9354,7 +9606,7 @@
       <c r="E8" s="348"/>
       <c r="F8" s="345"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="177">
         <v>43955</v>
       </c>
@@ -9368,7 +9620,7 @@
       <c r="E9" s="180"/>
       <c r="F9" s="180"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="181"/>
       <c r="B10" s="182" t="s">
         <v>87</v>
@@ -9380,7 +9632,7 @@
       <c r="E10" s="184"/>
       <c r="F10" s="184"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="181"/>
       <c r="B11" s="182" t="s">
         <v>88</v>
@@ -9392,7 +9644,7 @@
       <c r="E11" s="184"/>
       <c r="F11" s="184"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="181"/>
       <c r="B12" s="182" t="s">
         <v>89</v>
@@ -9404,7 +9656,7 @@
       <c r="E12" s="184"/>
       <c r="F12" s="184"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="181"/>
       <c r="B13" s="182" t="s">
         <v>90</v>
@@ -9416,7 +9668,7 @@
       <c r="E13" s="184"/>
       <c r="F13" s="184"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="181"/>
       <c r="B14" s="182" t="s">
         <v>91</v>
@@ -9428,7 +9680,7 @@
       <c r="E14" s="184"/>
       <c r="F14" s="184"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="181"/>
       <c r="B15" s="182" t="s">
         <v>92</v>
@@ -9440,7 +9692,7 @@
       <c r="E15" s="184"/>
       <c r="F15" s="184"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="181"/>
       <c r="B16" s="182" t="s">
         <v>93</v>
@@ -9452,7 +9704,7 @@
       <c r="E16" s="184"/>
       <c r="F16" s="184"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="181"/>
       <c r="B17" s="182" t="s">
         <v>94</v>
@@ -9464,7 +9716,7 @@
       <c r="E17" s="184"/>
       <c r="F17" s="184"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="181"/>
       <c r="B18" s="182" t="s">
         <v>95</v>
@@ -9476,7 +9728,7 @@
       <c r="E18" s="184"/>
       <c r="F18" s="184"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="181"/>
       <c r="B19" s="182" t="s">
         <v>96</v>
@@ -9488,7 +9740,7 @@
       <c r="E19" s="184"/>
       <c r="F19" s="184"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="181"/>
       <c r="B20" s="182" t="s">
         <v>97</v>
@@ -9500,7 +9752,7 @@
       <c r="E20" s="184"/>
       <c r="F20" s="184"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="181"/>
       <c r="B21" s="182" t="s">
         <v>98</v>
@@ -9512,7 +9764,7 @@
       <c r="E21" s="184"/>
       <c r="F21" s="184"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="181"/>
       <c r="B22" s="182" t="s">
         <v>99</v>
@@ -9524,7 +9776,7 @@
       <c r="E22" s="184"/>
       <c r="F22" s="184"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="181"/>
       <c r="B23" s="182" t="s">
         <v>100</v>
@@ -9537,7 +9789,7 @@
       <c r="E23" s="184"/>
       <c r="F23" s="184"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="181">
         <v>43957</v>
       </c>
@@ -9551,7 +9803,7 @@
       <c r="E24" s="184"/>
       <c r="F24" s="184"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="181"/>
       <c r="B25" s="182" t="s">
         <v>102</v>
@@ -9563,7 +9815,7 @@
       <c r="E25" s="184"/>
       <c r="F25" s="184"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="181"/>
       <c r="B26" s="182" t="s">
         <v>103</v>
@@ -9575,7 +9827,7 @@
       <c r="E26" s="184"/>
       <c r="F26" s="184"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="181"/>
       <c r="B27" s="182" t="s">
         <v>104</v>
@@ -9587,7 +9839,7 @@
       <c r="E27" s="184"/>
       <c r="F27" s="184"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="181"/>
       <c r="B28" s="182" t="s">
         <v>105</v>
@@ -9599,7 +9851,7 @@
       <c r="E28" s="184"/>
       <c r="F28" s="184"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="181"/>
       <c r="B29" s="182" t="s">
         <v>106</v>
@@ -9612,7 +9864,7 @@
       <c r="E29" s="184"/>
       <c r="F29" s="184"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="181"/>
       <c r="B30" s="182" t="s">
         <v>107</v>
@@ -9625,7 +9877,7 @@
       <c r="E30" s="184"/>
       <c r="F30" s="184"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="181"/>
       <c r="B31" s="182" t="s">
         <v>108</v>
@@ -9637,7 +9889,7 @@
       <c r="E31" s="184"/>
       <c r="F31" s="184"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="181"/>
       <c r="B32" s="182" t="s">
         <v>109</v>
@@ -9649,7 +9901,7 @@
       <c r="E32" s="184"/>
       <c r="F32" s="184"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="181"/>
       <c r="B33" s="182" t="s">
         <v>110</v>
@@ -9661,7 +9913,7 @@
       <c r="E33" s="184"/>
       <c r="F33" s="184"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="181"/>
       <c r="B34" s="182" t="s">
         <v>111</v>
@@ -9674,7 +9926,7 @@
       <c r="E34" s="184"/>
       <c r="F34" s="184"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="181"/>
       <c r="B35" s="182" t="s">
         <v>91</v>
@@ -9686,7 +9938,7 @@
       <c r="E35" s="184"/>
       <c r="F35" s="184"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="181">
         <v>43958</v>
       </c>
@@ -9700,7 +9952,7 @@
       <c r="E36" s="184"/>
       <c r="F36" s="184"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="181">
         <v>43959</v>
       </c>
@@ -9714,7 +9966,7 @@
       <c r="E37" s="184"/>
       <c r="F37" s="184"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="181">
         <v>43959</v>
       </c>
@@ -9728,7 +9980,7 @@
       <c r="E38" s="184"/>
       <c r="F38" s="184"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="181">
         <v>43959</v>
       </c>
@@ -9742,7 +9994,7 @@
       <c r="E39" s="184"/>
       <c r="F39" s="184"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="181">
         <v>43962</v>
       </c>
@@ -9756,7 +10008,7 @@
       <c r="E40" s="184"/>
       <c r="F40" s="184"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="181">
         <v>43964</v>
       </c>
@@ -9770,7 +10022,7 @@
       <c r="E41" s="184"/>
       <c r="F41" s="184"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="181">
         <v>43964</v>
       </c>
@@ -9784,7 +10036,7 @@
       <c r="E42" s="184"/>
       <c r="F42" s="184"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="181"/>
       <c r="B43" s="182"/>
       <c r="C43" s="183"/>
@@ -9792,7 +10044,7 @@
       <c r="E43" s="184"/>
       <c r="F43" s="184"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="181"/>
       <c r="B44" s="182"/>
       <c r="C44" s="183"/>
@@ -9800,7 +10052,7 @@
       <c r="E44" s="184"/>
       <c r="F44" s="184"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="181"/>
       <c r="B45" s="182"/>
       <c r="C45" s="183"/>
@@ -9808,7 +10060,7 @@
       <c r="E45" s="184"/>
       <c r="F45" s="184"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="185"/>
       <c r="B46" s="186"/>
       <c r="C46" s="187"/>
@@ -9816,7 +10068,7 @@
       <c r="E46" s="188"/>
       <c r="F46" s="188"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="181">
         <v>43962</v>
       </c>
@@ -9830,7 +10082,7 @@
       <c r="E47" s="184"/>
       <c r="F47" s="184"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="181"/>
       <c r="B48" s="182" t="s">
         <v>123</v>
@@ -9842,7 +10094,7 @@
       <c r="E48" s="184"/>
       <c r="F48" s="184"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="181"/>
       <c r="B49" s="182" t="s">
         <v>124</v>
@@ -9854,7 +10106,7 @@
       <c r="E49" s="184"/>
       <c r="F49" s="184"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="181"/>
       <c r="B50" s="182" t="s">
         <v>125</v>
@@ -9866,7 +10118,7 @@
       <c r="E50" s="184"/>
       <c r="F50" s="184"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="181"/>
       <c r="B51" s="182" t="s">
         <v>154</v>
@@ -9878,7 +10130,7 @@
       <c r="E51" s="184"/>
       <c r="F51" s="184"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="181"/>
       <c r="B52" s="182" t="s">
         <v>126</v>
@@ -9890,7 +10142,7 @@
       <c r="E52" s="184"/>
       <c r="F52" s="184"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="234">
         <v>43987</v>
       </c>
@@ -9904,7 +10156,7 @@
       <c r="E53" s="237"/>
       <c r="F53" s="237"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="234"/>
       <c r="B54" s="235"/>
       <c r="C54" s="236"/>
@@ -9912,7 +10164,7 @@
       <c r="E54" s="237"/>
       <c r="F54" s="237"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="234"/>
       <c r="B55" s="235"/>
       <c r="C55" s="236"/>
@@ -9920,7 +10172,7 @@
       <c r="E55" s="237"/>
       <c r="F55" s="237"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="234"/>
       <c r="B56" s="235"/>
       <c r="C56" s="236"/>
@@ -9928,7 +10180,7 @@
       <c r="E56" s="237"/>
       <c r="F56" s="237"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="234"/>
       <c r="B57" s="235"/>
       <c r="C57" s="236"/>
@@ -9936,7 +10188,7 @@
       <c r="E57" s="237"/>
       <c r="F57" s="237"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="234"/>
       <c r="B58" s="235"/>
       <c r="C58" s="236"/>
@@ -9944,7 +10196,7 @@
       <c r="E58" s="237"/>
       <c r="F58" s="237"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="234"/>
       <c r="B59" s="235"/>
       <c r="C59" s="236"/>
@@ -9952,7 +10204,7 @@
       <c r="E59" s="237"/>
       <c r="F59" s="237"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="234"/>
       <c r="B60" s="235"/>
       <c r="C60" s="236"/>
@@ -9960,7 +10212,7 @@
       <c r="E60" s="237"/>
       <c r="F60" s="237"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="234"/>
       <c r="B61" s="235"/>
       <c r="C61" s="236"/>
@@ -9968,7 +10220,7 @@
       <c r="E61" s="237"/>
       <c r="F61" s="237"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="234"/>
       <c r="B62" s="235"/>
       <c r="C62" s="236"/>
@@ -9976,7 +10228,7 @@
       <c r="E62" s="237"/>
       <c r="F62" s="237"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="234"/>
       <c r="B63" s="235"/>
       <c r="C63" s="236"/>
@@ -9984,7 +10236,7 @@
       <c r="E63" s="237"/>
       <c r="F63" s="237"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="234"/>
       <c r="B64" s="235"/>
       <c r="C64" s="236"/>
@@ -9992,7 +10244,7 @@
       <c r="E64" s="237"/>
       <c r="F64" s="237"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="234"/>
       <c r="B65" s="235"/>
       <c r="C65" s="236"/>
@@ -10000,7 +10252,7 @@
       <c r="E65" s="237"/>
       <c r="F65" s="237"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="234"/>
       <c r="B66" s="235"/>
       <c r="C66" s="236"/>
@@ -10008,7 +10260,7 @@
       <c r="E66" s="237"/>
       <c r="F66" s="237"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="234"/>
       <c r="B67" s="235"/>
       <c r="C67" s="236"/>
@@ -10016,7 +10268,7 @@
       <c r="E67" s="237"/>
       <c r="F67" s="237"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="234"/>
       <c r="B68" s="235"/>
       <c r="C68" s="236"/>
@@ -10024,7 +10276,7 @@
       <c r="E68" s="237"/>
       <c r="F68" s="237"/>
     </row>
-    <row r="69" spans="1:6" s="191" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="340" t="s">
         <v>117</v>
       </c>
@@ -10040,7 +10292,7 @@
       <c r="E69" s="190"/>
       <c r="F69" s="190"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="176" t="s">
         <v>85</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -713,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="176">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1229,6 +1229,18 @@
   </si>
   <si>
     <t>Demo anh Lâm</t>
+  </si>
+  <si>
+    <t>2 bọ cốc</t>
+  </si>
+  <si>
+    <t>Chị quân (khách đầm trấu0</t>
+  </si>
+  <si>
+    <t>Hoàng nanomilk</t>
+  </si>
+  <si>
+    <t>Chị Phú DVH</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1691,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,30 +2221,84 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2254,63 +2320,93 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2335,12 +2431,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2350,84 +2440,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2454,6 +2466,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2785,14 +2800,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
+      <c r="A1" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2825,11 +2840,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2865,235 +2880,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="273"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="292"/>
+      <c r="Y3" s="292"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="292" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
-      <c r="X4" s="273"/>
-      <c r="Y4" s="273"/>
-      <c r="Z4" s="273"/>
-      <c r="AA4" s="273"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="273"/>
-      <c r="AD4" s="273"/>
-      <c r="AE4" s="273"/>
-      <c r="AF4" s="273"/>
-      <c r="AG4" s="273"/>
-      <c r="AH4" s="273"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
     </row>
     <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="292"/>
+      <c r="N5" s="292"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="292"/>
+      <c r="Q5" s="292"/>
+      <c r="R5" s="292"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="292"/>
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="292"/>
+      <c r="AE5" s="292"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="278"/>
-      <c r="AA6" s="278"/>
-      <c r="AB6" s="278"/>
-      <c r="AC6" s="278"/>
-      <c r="AD6" s="278"/>
-      <c r="AE6" s="278"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="279"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="296"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="297"/>
+      <c r="AH6" s="270" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="280" t="s">
+      <c r="A7" s="270"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="281" t="s">
+      <c r="G7" s="270"/>
+      <c r="H7" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="299"/>
+      <c r="J7" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="270"/>
+      <c r="L7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="295"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="274"/>
+      <c r="N7" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="298" t="s">
+      <c r="O7" s="270"/>
+      <c r="P7" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="298"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="269"/>
+      <c r="R7" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="299" t="s">
+      <c r="S7" s="270"/>
+      <c r="T7" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="299"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="271"/>
+      <c r="V7" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="269" t="s">
+      <c r="W7" s="270"/>
+      <c r="X7" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="297" t="s">
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="297"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="267" t="s">
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="267" t="s">
+      <c r="AG7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="270"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="294"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3178,9 +3193,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -5010,78 +5025,78 @@
     </row>
     <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="292"/>
-      <c r="C44" s="293"/>
-      <c r="D44" s="294">
+      <c r="B44" s="286"/>
+      <c r="C44" s="287"/>
+      <c r="D44" s="288">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="294"/>
-      <c r="F44" s="271">
+      <c r="E44" s="288"/>
+      <c r="F44" s="277">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="271"/>
-      <c r="H44" s="270">
+      <c r="G44" s="277"/>
+      <c r="H44" s="290">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="270"/>
-      <c r="J44" s="271">
+      <c r="I44" s="290"/>
+      <c r="J44" s="277">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="271"/>
-      <c r="L44" s="291">
+      <c r="K44" s="277"/>
+      <c r="L44" s="285">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="291"/>
-      <c r="N44" s="271">
+      <c r="M44" s="285"/>
+      <c r="N44" s="277">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="271"/>
-      <c r="P44" s="284">
+      <c r="O44" s="277"/>
+      <c r="P44" s="278">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="284"/>
-      <c r="R44" s="271">
+      <c r="Q44" s="278"/>
+      <c r="R44" s="277">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="271"/>
-      <c r="T44" s="285">
+      <c r="S44" s="277"/>
+      <c r="T44" s="279">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="285"/>
-      <c r="V44" s="271">
+      <c r="U44" s="279"/>
+      <c r="V44" s="277">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="271"/>
-      <c r="X44" s="286">
+      <c r="W44" s="277"/>
+      <c r="X44" s="280">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="286"/>
-      <c r="Z44" s="271">
+      <c r="Y44" s="280"/>
+      <c r="Z44" s="277">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="271"/>
-      <c r="AB44" s="287">
+      <c r="AA44" s="277"/>
+      <c r="AB44" s="281">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="287"/>
-      <c r="AD44" s="271">
+      <c r="AC44" s="281"/>
+      <c r="AD44" s="277">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="271"/>
+      <c r="AE44" s="277"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5090,39 +5105,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="288" t="s">
+      <c r="A45" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="289"/>
-      <c r="C45" s="289"/>
-      <c r="D45" s="289"/>
-      <c r="E45" s="289"/>
-      <c r="F45" s="289"/>
-      <c r="G45" s="289"/>
-      <c r="H45" s="289"/>
-      <c r="I45" s="289"/>
-      <c r="J45" s="289"/>
-      <c r="K45" s="289"/>
-      <c r="L45" s="289"/>
-      <c r="M45" s="289"/>
-      <c r="N45" s="289"/>
-      <c r="O45" s="289"/>
-      <c r="P45" s="289"/>
-      <c r="Q45" s="289"/>
-      <c r="R45" s="289"/>
-      <c r="S45" s="289"/>
-      <c r="T45" s="289"/>
-      <c r="U45" s="289"/>
-      <c r="V45" s="289"/>
-      <c r="W45" s="289"/>
-      <c r="X45" s="289"/>
-      <c r="Y45" s="289"/>
-      <c r="Z45" s="289"/>
-      <c r="AA45" s="289"/>
-      <c r="AB45" s="289"/>
-      <c r="AC45" s="289"/>
-      <c r="AD45" s="289"/>
-      <c r="AE45" s="290"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="283"/>
+      <c r="D45" s="283"/>
+      <c r="E45" s="283"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="283"/>
+      <c r="H45" s="283"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="283"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
+      <c r="O45" s="283"/>
+      <c r="P45" s="283"/>
+      <c r="Q45" s="283"/>
+      <c r="R45" s="283"/>
+      <c r="S45" s="283"/>
+      <c r="T45" s="283"/>
+      <c r="U45" s="283"/>
+      <c r="V45" s="283"/>
+      <c r="W45" s="283"/>
+      <c r="X45" s="283"/>
+      <c r="Y45" s="283"/>
+      <c r="Z45" s="283"/>
+      <c r="AA45" s="283"/>
+      <c r="AB45" s="283"/>
+      <c r="AC45" s="283"/>
+      <c r="AD45" s="283"/>
+      <c r="AE45" s="284"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5134,60 +5149,64 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="288" t="s">
+      <c r="A46" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="289"/>
-      <c r="C46" s="289"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
-      <c r="F46" s="289"/>
-      <c r="G46" s="289"/>
-      <c r="H46" s="289"/>
-      <c r="I46" s="289"/>
-      <c r="J46" s="289"/>
-      <c r="K46" s="289"/>
-      <c r="L46" s="289"/>
-      <c r="M46" s="289"/>
-      <c r="N46" s="289"/>
-      <c r="O46" s="289"/>
-      <c r="P46" s="289"/>
-      <c r="Q46" s="289"/>
-      <c r="R46" s="289"/>
-      <c r="S46" s="289"/>
-      <c r="T46" s="289"/>
-      <c r="U46" s="289"/>
-      <c r="V46" s="289"/>
-      <c r="W46" s="289"/>
-      <c r="X46" s="289"/>
-      <c r="Y46" s="289"/>
-      <c r="Z46" s="289"/>
-      <c r="AA46" s="289"/>
-      <c r="AB46" s="289"/>
-      <c r="AC46" s="289"/>
-      <c r="AD46" s="289"/>
-      <c r="AE46" s="290"/>
-      <c r="AF46" s="282">
+      <c r="B46" s="283"/>
+      <c r="C46" s="283"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="283"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="283"/>
+      <c r="H46" s="283"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="283"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
+      <c r="O46" s="283"/>
+      <c r="P46" s="283"/>
+      <c r="Q46" s="283"/>
+      <c r="R46" s="283"/>
+      <c r="S46" s="283"/>
+      <c r="T46" s="283"/>
+      <c r="U46" s="283"/>
+      <c r="V46" s="283"/>
+      <c r="W46" s="283"/>
+      <c r="X46" s="283"/>
+      <c r="Y46" s="283"/>
+      <c r="Z46" s="283"/>
+      <c r="AA46" s="283"/>
+      <c r="AB46" s="283"/>
+      <c r="AC46" s="283"/>
+      <c r="AD46" s="283"/>
+      <c r="AE46" s="284"/>
+      <c r="AF46" s="275">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="283"/>
+      <c r="AG46" s="276"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="AF46:AG46"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
@@ -5204,22 +5223,18 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5229,11 +5244,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:AH3"/>
+      <pane ySplit="8" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5249,14 +5264,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
+      <c r="A1" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
       <c r="G1" s="239"/>
       <c r="H1" s="239"/>
       <c r="I1" s="239"/>
@@ -5289,11 +5304,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
       <c r="D2" s="245"/>
       <c r="E2" s="245"/>
       <c r="F2" s="245"/>
@@ -5329,235 +5344,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="273"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="292"/>
+      <c r="Y3" s="292"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
+      <c r="AC3" s="292"/>
+      <c r="AD3" s="292"/>
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="292" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
-      <c r="P4" s="273"/>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
-      <c r="X4" s="273"/>
-      <c r="Y4" s="273"/>
-      <c r="Z4" s="273"/>
-      <c r="AA4" s="273"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="273"/>
-      <c r="AD4" s="273"/>
-      <c r="AE4" s="273"/>
-      <c r="AF4" s="273"/>
-      <c r="AG4" s="273"/>
-      <c r="AH4" s="273"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="292"/>
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="292"/>
+      <c r="N5" s="292"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="292"/>
+      <c r="Q5" s="292"/>
+      <c r="R5" s="292"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="292"/>
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="292"/>
+      <c r="AE5" s="292"/>
       <c r="AF5" s="246"/>
       <c r="AG5" s="246"/>
       <c r="AH5" s="246"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="277" t="s">
+      <c r="D6" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="278"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="278"/>
-      <c r="AA6" s="278"/>
-      <c r="AB6" s="278"/>
-      <c r="AC6" s="278"/>
-      <c r="AD6" s="278"/>
-      <c r="AE6" s="278"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="279"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="296"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="296"/>
+      <c r="T6" s="296"/>
+      <c r="U6" s="296"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="296"/>
+      <c r="X6" s="296"/>
+      <c r="Y6" s="296"/>
+      <c r="Z6" s="296"/>
+      <c r="AA6" s="296"/>
+      <c r="AB6" s="296"/>
+      <c r="AC6" s="296"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="296"/>
+      <c r="AF6" s="296"/>
+      <c r="AG6" s="297"/>
+      <c r="AH6" s="270" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="280" t="s">
+      <c r="A7" s="270"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="281" t="s">
+      <c r="G7" s="270"/>
+      <c r="H7" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="281"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="299"/>
+      <c r="J7" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="270"/>
+      <c r="L7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="295"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="274"/>
+      <c r="N7" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="298" t="s">
+      <c r="O7" s="270"/>
+      <c r="P7" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="298"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="269"/>
+      <c r="R7" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
+      <c r="S7" s="270"/>
       <c r="T7" s="300" t="s">
         <v>17</v>
       </c>
       <c r="U7" s="300"/>
-      <c r="V7" s="274" t="s">
+      <c r="V7" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="269" t="s">
+      <c r="W7" s="270"/>
+      <c r="X7" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="297" t="s">
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="297"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="267" t="s">
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="267" t="s">
+      <c r="AG7" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="270"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="294"/>
       <c r="D8" s="247" t="s">
         <v>23</v>
       </c>
@@ -5642,9 +5657,9 @@
       <c r="AE8" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -5751,7 +5766,7 @@
       <c r="AD10" s="260"/>
       <c r="AE10" s="260"/>
       <c r="AF10" s="250">
-        <f t="shared" ref="AF10:AF38" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF43" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>12</v>
       </c>
       <c r="AG10" s="250">
@@ -6061,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="250">
-        <f t="shared" ref="AG16:AG38" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
+        <f t="shared" ref="AG16:AG43" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
         <v>0</v>
       </c>
       <c r="AH16" s="254"/>
@@ -6935,17 +6950,15 @@
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="75"/>
       <c r="B34" s="35">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="C34" s="120" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="36">
-        <v>1</v>
-      </c>
+      <c r="G34" s="36"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="36"/>
@@ -6958,32 +6971,22 @@
       <c r="Q34" s="40"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T34" s="263"/>
       <c r="U34" s="263"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="36">
-        <v>1</v>
-      </c>
+      <c r="W34" s="36"/>
       <c r="X34" s="41"/>
       <c r="Y34" s="41"/>
       <c r="Z34" s="36"/>
-      <c r="AA34" s="36">
-        <v>1</v>
-      </c>
+      <c r="AA34" s="36"/>
       <c r="AB34" s="42"/>
       <c r="AC34" s="42"/>
       <c r="AD34" s="36"/>
       <c r="AE34" s="36"/>
-      <c r="AF34" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG34" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
       <c r="AH34" s="21"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -6992,12 +6995,14 @@
         <v>44006</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="G35" s="36">
+        <v>1</v>
+      </c>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="36"/>
@@ -7009,23 +7014,33 @@
       <c r="P35" s="40"/>
       <c r="Q35" s="40"/>
       <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
+      <c r="S35" s="36">
+        <v>1</v>
+      </c>
       <c r="T35" s="263"/>
       <c r="U35" s="263"/>
-      <c r="V35" s="36">
-        <v>12</v>
-      </c>
-      <c r="W35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36">
+        <v>1</v>
+      </c>
       <c r="X35" s="41"/>
       <c r="Y35" s="41"/>
       <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
+      <c r="AA35" s="36">
+        <v>1</v>
+      </c>
       <c r="AB35" s="42"/>
       <c r="AC35" s="42"/>
       <c r="AD35" s="36"/>
       <c r="AE35" s="36"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH35" s="21"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -7034,7 +7049,7 @@
         <v>44006</v>
       </c>
       <c r="C36" s="120" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
@@ -7054,14 +7069,14 @@
       <c r="S36" s="36"/>
       <c r="T36" s="263"/>
       <c r="U36" s="263"/>
-      <c r="V36" s="36"/>
+      <c r="V36" s="36">
+        <v>12</v>
+      </c>
       <c r="W36" s="36"/>
       <c r="X36" s="41"/>
       <c r="Y36" s="41"/>
       <c r="Z36" s="36"/>
-      <c r="AA36" s="36">
-        <v>12</v>
-      </c>
+      <c r="AA36" s="36"/>
       <c r="AB36" s="42"/>
       <c r="AC36" s="42"/>
       <c r="AD36" s="36"/>
@@ -7071,325 +7086,517 @@
       <c r="AH36" s="21"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="75"/>
+      <c r="B37" s="35">
+        <v>44006</v>
+      </c>
+      <c r="C37" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="263"/>
+      <c r="U37" s="263"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36">
+        <v>12</v>
+      </c>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="21"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
+      <c r="B38" s="35">
+        <v>44006</v>
+      </c>
+      <c r="C38" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36">
+        <v>4</v>
+      </c>
+      <c r="T38" s="263"/>
+      <c r="U38" s="263"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="21"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="75"/>
+      <c r="B39" s="35">
+        <v>44007</v>
+      </c>
+      <c r="C39" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="263"/>
+      <c r="U39" s="263"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36">
+        <v>11</v>
+      </c>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
+      <c r="B40" s="35">
+        <v>44007</v>
+      </c>
+      <c r="C40" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36">
+        <v>2</v>
+      </c>
+      <c r="T40" s="263"/>
+      <c r="U40" s="263"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="21"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="75"/>
+      <c r="B41" s="35">
+        <v>44007</v>
+      </c>
+      <c r="C41" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="263"/>
+      <c r="U41" s="263"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="21"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
         <v>22</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="262"/>
-      <c r="U37" s="262"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="20">
+      <c r="B42" s="28">
+        <v>44007</v>
+      </c>
+      <c r="C42" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21">
+        <v>1</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="262"/>
+      <c r="U42" s="262"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG42" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH37" s="21"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="75">
+      <c r="AH42" s="21"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="75">
         <v>23</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="266"/>
-      <c r="U38" s="266"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="20">
+      <c r="B43" s="44"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="266"/>
+      <c r="U43" s="266"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="45"/>
-    </row>
-    <row r="39" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="54"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="292"/>
-      <c r="C40" s="293"/>
-      <c r="D40" s="294">
-        <f>SUM(D9:D38)-SUM(E9:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="294"/>
-      <c r="F40" s="271">
-        <f>SUM(F9:F38)-SUM(G9:G38)</f>
-        <v>10</v>
-      </c>
-      <c r="G40" s="271"/>
-      <c r="H40" s="270">
-        <f>SUM(H9:H38)-SUM(I9:I38)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="270"/>
-      <c r="J40" s="271">
-        <f>SUM(J9:J38)-SUM(K9:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="271"/>
-      <c r="L40" s="291">
-        <f>SUM(L9:L38)-SUM(M9:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="291"/>
-      <c r="N40" s="271">
-        <f>SUM(N9:N38)-SUM(O9:O38)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="271"/>
-      <c r="P40" s="284">
-        <f>SUM(P9:P38)-SUM(Q9:Q38)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="284"/>
-      <c r="R40" s="271">
-        <f>SUM(R9:R38)-SUM(S9:S38)</f>
-        <v>48</v>
-      </c>
-      <c r="S40" s="271"/>
-      <c r="T40" s="285">
-        <f>SUM(T9:T38)-SUM(U9:U38)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="285"/>
-      <c r="V40" s="271">
-        <f>SUM(V9:V38)-SUM(W9:W38)</f>
-        <v>11</v>
-      </c>
-      <c r="W40" s="271"/>
-      <c r="X40" s="286">
-        <f>SUM(X9:X38)-SUM(Y9:Y38)</f>
+      <c r="AH43" s="45"/>
+    </row>
+    <row r="44" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="54"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="55"/>
+      <c r="AH44" s="54"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="286"/>
+      <c r="C45" s="287"/>
+      <c r="D45" s="288">
+        <f>SUM(D9:D43)-SUM(E9:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="288"/>
+      <c r="F45" s="349">
+        <f>SUM(F9:F43)-SUM(G9:G43)</f>
+        <v>9</v>
+      </c>
+      <c r="G45" s="349"/>
+      <c r="H45" s="290">
+        <f>SUM(H9:H43)-SUM(I9:I43)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="290"/>
+      <c r="J45" s="277">
+        <f>SUM(J9:J43)-SUM(K9:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="277"/>
+      <c r="L45" s="285">
+        <f>SUM(L9:L43)-SUM(M9:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="285"/>
+      <c r="N45" s="277">
+        <f>SUM(N9:N43)-SUM(O9:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="277"/>
+      <c r="P45" s="278">
+        <f>SUM(P9:P43)-SUM(Q9:Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="278"/>
+      <c r="R45" s="277">
+        <f>SUM(R9:R43)-SUM(S9:S43)</f>
+        <v>30</v>
+      </c>
+      <c r="S45" s="277"/>
+      <c r="T45" s="279">
+        <f>SUM(T9:T43)-SUM(U9:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="279"/>
+      <c r="V45" s="277">
+        <f>SUM(V9:V43)-SUM(W9:W43)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="277"/>
+      <c r="X45" s="349">
+        <f>SUM(X9:X43)-SUM(Y9:Y43)</f>
         <v>58</v>
       </c>
-      <c r="Y40" s="286"/>
-      <c r="Z40" s="271">
-        <f>SUM(Z9:Z38)-SUM(AA9:AA38)</f>
-        <v>9</v>
-      </c>
-      <c r="AA40" s="271"/>
-      <c r="AB40" s="287">
-        <f>SUM(AB9:AB38)-SUM(AC9:AC38)</f>
-        <v>48</v>
-      </c>
-      <c r="AC40" s="287"/>
-      <c r="AD40" s="271">
-        <f>SUM(AD9:AD38)-SUM(AE9:AE38)</f>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="271"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="249">
-        <f>D40+F40+H40+J40+L40+N40+P40+R40+T40+V40+X40+Z40+AB40+AD40</f>
-        <v>184</v>
-      </c>
-      <c r="AH40" s="58"/>
-    </row>
-    <row r="41" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="288" t="s">
+      <c r="Y45" s="349"/>
+      <c r="Z45" s="349">
+        <f>SUM(Z9:Z43)-SUM(AA9:AA43)</f>
+        <v>6</v>
+      </c>
+      <c r="AA45" s="349"/>
+      <c r="AB45" s="349">
+        <f>SUM(AB9:AB43)-SUM(AC9:AC43)</f>
+        <v>47</v>
+      </c>
+      <c r="AC45" s="349"/>
+      <c r="AD45" s="277">
+        <f>SUM(AD9:AD43)-SUM(AE9:AE43)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="277"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="249">
+        <f>D45+F45+H45+J45+L45+N45+P45+R45+T45+V45+X45+Z45+AB45+AD45</f>
+        <v>150</v>
+      </c>
+      <c r="AH45" s="58"/>
+    </row>
+    <row r="46" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="289"/>
-      <c r="C41" s="289"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="289"/>
-      <c r="F41" s="289"/>
-      <c r="G41" s="289"/>
-      <c r="H41" s="289"/>
-      <c r="I41" s="289"/>
-      <c r="J41" s="289"/>
-      <c r="K41" s="289"/>
-      <c r="L41" s="289"/>
-      <c r="M41" s="289"/>
-      <c r="N41" s="289"/>
-      <c r="O41" s="289"/>
-      <c r="P41" s="289"/>
-      <c r="Q41" s="289"/>
-      <c r="R41" s="289"/>
-      <c r="S41" s="289"/>
-      <c r="T41" s="289"/>
-      <c r="U41" s="289"/>
-      <c r="V41" s="289"/>
-      <c r="W41" s="289"/>
-      <c r="X41" s="289"/>
-      <c r="Y41" s="289"/>
-      <c r="Z41" s="289"/>
-      <c r="AA41" s="289"/>
-      <c r="AB41" s="289"/>
-      <c r="AC41" s="289"/>
-      <c r="AD41" s="289"/>
-      <c r="AE41" s="290"/>
-      <c r="AF41" s="59">
-        <f>SUM(AF9:AF38)</f>
-        <v>216</v>
-      </c>
-      <c r="AG41" s="59">
-        <f>SUM(AG9:AG38)</f>
+      <c r="B46" s="283"/>
+      <c r="C46" s="283"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="283"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="283"/>
+      <c r="H46" s="283"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="283"/>
+      <c r="M46" s="283"/>
+      <c r="N46" s="283"/>
+      <c r="O46" s="283"/>
+      <c r="P46" s="283"/>
+      <c r="Q46" s="283"/>
+      <c r="R46" s="283"/>
+      <c r="S46" s="283"/>
+      <c r="T46" s="283"/>
+      <c r="U46" s="283"/>
+      <c r="V46" s="283"/>
+      <c r="W46" s="283"/>
+      <c r="X46" s="283"/>
+      <c r="Y46" s="283"/>
+      <c r="Z46" s="283"/>
+      <c r="AA46" s="283"/>
+      <c r="AB46" s="283"/>
+      <c r="AC46" s="283"/>
+      <c r="AD46" s="283"/>
+      <c r="AE46" s="284"/>
+      <c r="AF46" s="59">
+        <f>SUM(AF9:AF43)</f>
+        <v>217</v>
+      </c>
+      <c r="AG46" s="59">
+        <f>SUM(AG9:AG43)</f>
         <v>400</v>
       </c>
-      <c r="AH41" s="60"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="288" t="s">
+      <c r="AH46" s="60"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="289"/>
-      <c r="C42" s="289"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="289"/>
-      <c r="F42" s="289"/>
-      <c r="G42" s="289"/>
-      <c r="H42" s="289"/>
-      <c r="I42" s="289"/>
-      <c r="J42" s="289"/>
-      <c r="K42" s="289"/>
-      <c r="L42" s="289"/>
-      <c r="M42" s="289"/>
-      <c r="N42" s="289"/>
-      <c r="O42" s="289"/>
-      <c r="P42" s="289"/>
-      <c r="Q42" s="289"/>
-      <c r="R42" s="289"/>
-      <c r="S42" s="289"/>
-      <c r="T42" s="289"/>
-      <c r="U42" s="289"/>
-      <c r="V42" s="289"/>
-      <c r="W42" s="289"/>
-      <c r="X42" s="289"/>
-      <c r="Y42" s="289"/>
-      <c r="Z42" s="289"/>
-      <c r="AA42" s="289"/>
-      <c r="AB42" s="289"/>
-      <c r="AC42" s="289"/>
-      <c r="AD42" s="289"/>
-      <c r="AE42" s="290"/>
-      <c r="AF42" s="282">
-        <f>AG41-AF41</f>
-        <v>184</v>
-      </c>
-      <c r="AG42" s="283"/>
-      <c r="AH42" s="60"/>
+      <c r="B47" s="283"/>
+      <c r="C47" s="283"/>
+      <c r="D47" s="283"/>
+      <c r="E47" s="283"/>
+      <c r="F47" s="283"/>
+      <c r="G47" s="283"/>
+      <c r="H47" s="283"/>
+      <c r="I47" s="283"/>
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="283"/>
+      <c r="M47" s="283"/>
+      <c r="N47" s="283"/>
+      <c r="O47" s="283"/>
+      <c r="P47" s="283"/>
+      <c r="Q47" s="283"/>
+      <c r="R47" s="283"/>
+      <c r="S47" s="283"/>
+      <c r="T47" s="283"/>
+      <c r="U47" s="283"/>
+      <c r="V47" s="283"/>
+      <c r="W47" s="283"/>
+      <c r="X47" s="283"/>
+      <c r="Y47" s="283"/>
+      <c r="Z47" s="283"/>
+      <c r="AA47" s="283"/>
+      <c r="AB47" s="283"/>
+      <c r="AC47" s="283"/>
+      <c r="AD47" s="283"/>
+      <c r="AE47" s="284"/>
+      <c r="AF47" s="275">
+        <f>AG46-AF46</f>
+        <v>183</v>
+      </c>
+      <c r="AG47" s="276"/>
+      <c r="AH47" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="A41:AE41"/>
-    <mergeCell ref="A42:AE42"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7406,6 +7613,34 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="A47:AE47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7473,146 +7708,146 @@
       <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="301" t="s">
+      <c r="A3" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="329" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="329"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="329"/>
+      <c r="N4" s="329"/>
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
       <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="301"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
+      <c r="A5" s="329"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="305" t="s">
+      <c r="B6" s="333" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="305"/>
-      <c r="D6" s="306" t="s">
+      <c r="C6" s="333"/>
+      <c r="D6" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306"/>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="311" t="s">
+      <c r="E6" s="334"/>
+      <c r="F6" s="334"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="334"/>
+      <c r="K6" s="337" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="311"/>
-      <c r="M6" s="311"/>
-      <c r="N6" s="312" t="s">
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="338" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="304"/>
-      <c r="B7" s="307" t="s">
+      <c r="A7" s="332"/>
+      <c r="B7" s="335" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="307" t="s">
+      <c r="C7" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="307" t="s">
+      <c r="D7" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="307" t="s">
+      <c r="E7" s="335" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="309" t="s">
+      <c r="F7" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="309" t="s">
+      <c r="G7" s="301" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="339" t="s">
+      <c r="H7" s="312" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="339"/>
-      <c r="J7" s="309" t="s">
+      <c r="I7" s="312"/>
+      <c r="J7" s="301" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="309" t="s">
+      <c r="K7" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="309" t="s">
+      <c r="L7" s="301" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="309" t="s">
+      <c r="M7" s="301" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="313"/>
+      <c r="N7" s="339"/>
     </row>
     <row r="8" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="304"/>
-      <c r="B8" s="308"/>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="310"/>
-      <c r="G8" s="310"/>
+      <c r="A8" s="332"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
       <c r="H8" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="310"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="310"/>
-      <c r="M8" s="310"/>
-      <c r="N8" s="313"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="339"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="125">
@@ -7654,10 +7889,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="324">
+      <c r="A10" s="309">
         <v>43958</v>
       </c>
-      <c r="B10" s="332" t="s">
+      <c r="B10" s="303" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="109"/>
@@ -7688,8 +7923,8 @@
       <c r="N10" s="75"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="325"/>
-      <c r="B11" s="334"/>
+      <c r="A11" s="311"/>
+      <c r="B11" s="305"/>
       <c r="C11" s="130"/>
       <c r="D11" s="78" t="s">
         <v>21</v>
@@ -7718,10 +7953,10 @@
       <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="324">
+      <c r="A12" s="309">
         <v>43958</v>
       </c>
-      <c r="B12" s="332" t="s">
+      <c r="B12" s="303" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="109"/>
@@ -7752,8 +7987,8 @@
       <c r="N12" s="75"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="325"/>
-      <c r="B13" s="334"/>
+      <c r="A13" s="311"/>
+      <c r="B13" s="305"/>
       <c r="C13" s="84"/>
       <c r="D13" s="78" t="s">
         <v>16</v>
@@ -7816,10 +8051,10 @@
       <c r="N14" s="138"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="324">
+      <c r="A15" s="309">
         <v>43958</v>
       </c>
-      <c r="B15" s="332" t="s">
+      <c r="B15" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="109"/>
@@ -7836,7 +8071,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="335">
+      <c r="H15" s="306">
         <v>288000</v>
       </c>
       <c r="I15" s="77">
@@ -7852,13 +8087,13 @@
       </c>
       <c r="L15" s="132"/>
       <c r="M15" s="132"/>
-      <c r="N15" s="321" t="s">
+      <c r="N15" s="316" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
-      <c r="B16" s="333"/>
+      <c r="A16" s="310"/>
+      <c r="B16" s="304"/>
       <c r="C16" s="110"/>
       <c r="D16" s="85" t="s">
         <v>20</v>
@@ -7873,7 +8108,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="336"/>
+      <c r="H16" s="307"/>
       <c r="I16" s="87">
         <v>0.1</v>
       </c>
@@ -7887,11 +8122,11 @@
       </c>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
-      <c r="N16" s="322"/>
+      <c r="N16" s="317"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="338"/>
-      <c r="B17" s="333"/>
+      <c r="A17" s="310"/>
+      <c r="B17" s="304"/>
       <c r="C17" s="110"/>
       <c r="D17" s="85" t="s">
         <v>10</v>
@@ -7906,7 +8141,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="336"/>
+      <c r="H17" s="307"/>
       <c r="I17" s="87">
         <v>0.1</v>
       </c>
@@ -7920,11 +8155,11 @@
       </c>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
-      <c r="N17" s="322"/>
+      <c r="N17" s="317"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="325"/>
-      <c r="B18" s="334"/>
+      <c r="A18" s="311"/>
+      <c r="B18" s="305"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84" t="s">
         <v>21</v>
@@ -7939,7 +8174,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="337"/>
+      <c r="H18" s="308"/>
       <c r="I18" s="142">
         <v>0.1</v>
       </c>
@@ -7953,13 +8188,13 @@
       </c>
       <c r="L18" s="141"/>
       <c r="M18" s="141"/>
-      <c r="N18" s="323"/>
+      <c r="N18" s="318"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="324">
+      <c r="A19" s="309">
         <v>43958</v>
       </c>
-      <c r="B19" s="332" t="s">
+      <c r="B19" s="303" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="131"/>
@@ -7992,13 +8227,13 @@
       </c>
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
-      <c r="N19" s="327" t="s">
+      <c r="N19" s="320" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="338"/>
-      <c r="B20" s="333"/>
+      <c r="A20" s="310"/>
+      <c r="B20" s="304"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81" t="s">
         <v>21</v>
@@ -8029,11 +8264,11 @@
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82"/>
-      <c r="N20" s="328"/>
+      <c r="N20" s="321"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="325"/>
-      <c r="B21" s="334"/>
+      <c r="A21" s="311"/>
+      <c r="B21" s="305"/>
       <c r="C21" s="143"/>
       <c r="D21" s="143" t="s">
         <v>14</v>
@@ -8064,7 +8299,7 @@
       </c>
       <c r="L21" s="144"/>
       <c r="M21" s="144"/>
-      <c r="N21" s="329"/>
+      <c r="N21" s="322"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="135">
@@ -8146,7 +8381,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="324">
+      <c r="A24" s="309">
         <v>43962</v>
       </c>
       <c r="B24" s="170" t="s">
@@ -8182,12 +8417,12 @@
       </c>
       <c r="L24" s="76"/>
       <c r="M24" s="76"/>
-      <c r="N24" s="330" t="s">
+      <c r="N24" s="323" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="325"/>
+      <c r="A25" s="311"/>
       <c r="B25" s="84" t="s">
         <v>68</v>
       </c>
@@ -8221,7 +8456,7 @@
       </c>
       <c r="L25" s="79"/>
       <c r="M25" s="79"/>
-      <c r="N25" s="331"/>
+      <c r="N25" s="324"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="135">
@@ -8458,7 +8693,7 @@
       <c r="K35" s="86"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
-      <c r="N35" s="318"/>
+      <c r="N35" s="327"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
@@ -8480,7 +8715,7 @@
       <c r="K36" s="86"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
-      <c r="N36" s="318"/>
+      <c r="N36" s="327"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
@@ -8502,7 +8737,7 @@
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
       <c r="M37" s="86"/>
-      <c r="N37" s="318"/>
+      <c r="N37" s="327"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
@@ -8524,7 +8759,7 @@
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
       <c r="M38" s="86"/>
-      <c r="N38" s="318"/>
+      <c r="N38" s="327"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
@@ -8546,7 +8781,7 @@
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
       <c r="M39" s="86"/>
-      <c r="N39" s="318"/>
+      <c r="N39" s="327"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
@@ -8568,7 +8803,7 @@
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
       <c r="M40" s="86"/>
-      <c r="N40" s="318"/>
+      <c r="N40" s="327"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="111"/>
@@ -8634,7 +8869,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="90"/>
       <c r="M43" s="90"/>
-      <c r="N43" s="319"/>
+      <c r="N43" s="328"/>
     </row>
     <row r="44" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="117"/>
@@ -8656,7 +8891,7 @@
       <c r="K44" s="90"/>
       <c r="L44" s="90"/>
       <c r="M44" s="90"/>
-      <c r="N44" s="319"/>
+      <c r="N44" s="328"/>
     </row>
     <row r="45" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="117"/>
@@ -8678,7 +8913,7 @@
       <c r="K45" s="90"/>
       <c r="L45" s="90"/>
       <c r="M45" s="90"/>
-      <c r="N45" s="319"/>
+      <c r="N45" s="328"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="111"/>
@@ -9253,12 +9488,12 @@
       <c r="N71" s="78"/>
     </row>
     <row r="72" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A72" s="316" t="s">
+      <c r="A72" s="325" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="317"/>
-      <c r="C72" s="317"/>
-      <c r="D72" s="317"/>
+      <c r="B72" s="326"/>
+      <c r="C72" s="326"/>
+      <c r="D72" s="326"/>
       <c r="E72" s="151">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -9284,7 +9519,7 @@
       </c>
       <c r="M72" s="155"/>
       <c r="N72" s="172"/>
-      <c r="O72" s="320"/>
+      <c r="O72" s="313"/>
     </row>
     <row r="73" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A73" s="314" t="s">
@@ -9306,7 +9541,7 @@
       <c r="L73" s="96"/>
       <c r="M73" s="96"/>
       <c r="N73" s="172"/>
-      <c r="O73" s="320"/>
+      <c r="O73" s="313"/>
     </row>
     <row r="74" spans="1:15" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A74" s="314" t="s">
@@ -9314,7 +9549,7 @@
       </c>
       <c r="B74" s="315"/>
       <c r="C74" s="315"/>
-      <c r="D74" s="326"/>
+      <c r="D74" s="319"/>
       <c r="E74" s="149"/>
       <c r="F74" s="149"/>
       <c r="G74" s="93">
@@ -9419,32 +9654,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -9461,6 +9670,32 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
     <sheet name="KHO T6" sheetId="4" r:id="rId2"/>
-    <sheet name="DOANH THU" sheetId="2" r:id="rId3"/>
-    <sheet name="CHI PHÍ" sheetId="3" r:id="rId4"/>
+    <sheet name="KHO T7" sheetId="5" r:id="rId3"/>
+    <sheet name="DOANH THU" sheetId="2" r:id="rId4"/>
+    <sheet name="CHI PHÍ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +371,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -684,7 +685,355 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -713,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="186">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1250,18 +1599,39 @@
   </si>
   <si>
     <t>ĐL ở Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Kín -&gt; QT</t>
+  </si>
+  <si>
+    <t>Chị Huệ điện biên trả hàng</t>
+  </si>
+  <si>
+    <t>Khách lẻ</t>
+  </si>
+  <si>
+    <t>Hàng tồn</t>
+  </si>
+  <si>
+    <t>Tâm Nanomilk</t>
+  </si>
+  <si>
+    <t>Tam thu tiền</t>
+  </si>
+  <si>
+    <t>Khách 2 hộp già (tâm thu)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1672,14 +2042,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1780,16 +2150,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1798,7 +2168,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1809,15 +2179,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1827,19 +2197,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1847,13 +2217,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1874,15 +2244,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1890,28 +2260,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1920,35 +2290,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1966,7 +2336,7 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1976,13 +2346,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1994,7 +2364,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2006,7 +2376,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2018,13 +2388,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2093,7 +2463,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2156,24 +2526,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,66 +2541,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2255,183 +2559,36 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="19" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2440,6 +2597,252 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2506,7 +2909,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2541,7 +2944,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2770,14 +3173,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="270" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2810,11 +3213,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2850,235 +3253,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="247"/>
-      <c r="AE3" s="247"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="247"/>
-      <c r="AH3" s="247"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="296"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="296"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="296" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="247"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="247"/>
-      <c r="AH4" s="247"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="296"/>
+      <c r="AH4" s="296"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="247"/>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="247"/>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="247"/>
-      <c r="X5" s="247"/>
-      <c r="Y5" s="247"/>
-      <c r="Z5" s="247"/>
-      <c r="AA5" s="247"/>
-      <c r="AB5" s="247"/>
-      <c r="AC5" s="247"/>
-      <c r="AD5" s="247"/>
-      <c r="AE5" s="247"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
+      <c r="O5" s="296"/>
+      <c r="P5" s="296"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="296"/>
+      <c r="S5" s="296"/>
+      <c r="T5" s="296"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="296"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="296"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="298" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="251" t="s">
+      <c r="D6" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="253"/>
-      <c r="AH6" s="248" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="300"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="300"/>
+      <c r="AF6" s="300"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="248"/>
-      <c r="B7" s="249"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="254" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="254"/>
-      <c r="F7" s="248" t="s">
+      <c r="E7" s="302"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="248"/>
-      <c r="H7" s="255" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="255"/>
-      <c r="J7" s="248" t="s">
+      <c r="I7" s="303"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="248"/>
-      <c r="L7" s="269" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="269"/>
-      <c r="N7" s="248" t="s">
+      <c r="M7" s="278"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="248"/>
-      <c r="P7" s="272" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="272"/>
-      <c r="R7" s="248" t="s">
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="248"/>
-      <c r="T7" s="273" t="s">
+      <c r="S7" s="274"/>
+      <c r="T7" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="273"/>
-      <c r="V7" s="248" t="s">
+      <c r="U7" s="275"/>
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="248"/>
-      <c r="X7" s="243" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="248" t="s">
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="248"/>
-      <c r="AB7" s="271" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="271"/>
-      <c r="AD7" s="248" t="s">
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="248"/>
-      <c r="AF7" s="241" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="241" t="s">
+      <c r="AG7" s="276" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="248"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="248"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="250"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3163,9 +3566,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="242"/>
-      <c r="AG8" s="242"/>
-      <c r="AH8" s="248"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -4995,78 +5398,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="266"/>
-      <c r="C44" s="267"/>
-      <c r="D44" s="268">
+      <c r="B44" s="290"/>
+      <c r="C44" s="291"/>
+      <c r="D44" s="292">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="268"/>
-      <c r="F44" s="245">
+      <c r="E44" s="292"/>
+      <c r="F44" s="281">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="245"/>
-      <c r="H44" s="244">
+      <c r="G44" s="281"/>
+      <c r="H44" s="294">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="244"/>
-      <c r="J44" s="245">
+      <c r="I44" s="294"/>
+      <c r="J44" s="281">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="245"/>
-      <c r="L44" s="265">
+      <c r="K44" s="281"/>
+      <c r="L44" s="289">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="265"/>
-      <c r="N44" s="245">
+      <c r="M44" s="289"/>
+      <c r="N44" s="281">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="245"/>
-      <c r="P44" s="258">
+      <c r="O44" s="281"/>
+      <c r="P44" s="282">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="258"/>
-      <c r="R44" s="245">
+      <c r="Q44" s="282"/>
+      <c r="R44" s="281">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="245"/>
-      <c r="T44" s="259">
+      <c r="S44" s="281"/>
+      <c r="T44" s="283">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="259"/>
-      <c r="V44" s="245">
+      <c r="U44" s="283"/>
+      <c r="V44" s="281">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="245"/>
-      <c r="X44" s="260">
+      <c r="W44" s="281"/>
+      <c r="X44" s="284">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="260"/>
-      <c r="Z44" s="245">
+      <c r="Y44" s="284"/>
+      <c r="Z44" s="281">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="245"/>
-      <c r="AB44" s="261">
+      <c r="AA44" s="281"/>
+      <c r="AB44" s="285">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="261"/>
-      <c r="AD44" s="245">
+      <c r="AC44" s="285"/>
+      <c r="AD44" s="281">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="245"/>
+      <c r="AE44" s="281"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5075,39 +5478,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="262" t="s">
+      <c r="A45" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="263"/>
-      <c r="C45" s="263"/>
-      <c r="D45" s="263"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="263"/>
-      <c r="G45" s="263"/>
-      <c r="H45" s="263"/>
-      <c r="I45" s="263"/>
-      <c r="J45" s="263"/>
-      <c r="K45" s="263"/>
-      <c r="L45" s="263"/>
-      <c r="M45" s="263"/>
-      <c r="N45" s="263"/>
-      <c r="O45" s="263"/>
-      <c r="P45" s="263"/>
-      <c r="Q45" s="263"/>
-      <c r="R45" s="263"/>
-      <c r="S45" s="263"/>
-      <c r="T45" s="263"/>
-      <c r="U45" s="263"/>
-      <c r="V45" s="263"/>
-      <c r="W45" s="263"/>
-      <c r="X45" s="263"/>
-      <c r="Y45" s="263"/>
-      <c r="Z45" s="263"/>
-      <c r="AA45" s="263"/>
-      <c r="AB45" s="263"/>
-      <c r="AC45" s="263"/>
-      <c r="AD45" s="263"/>
-      <c r="AE45" s="264"/>
+      <c r="B45" s="287"/>
+      <c r="C45" s="287"/>
+      <c r="D45" s="287"/>
+      <c r="E45" s="287"/>
+      <c r="F45" s="287"/>
+      <c r="G45" s="287"/>
+      <c r="H45" s="287"/>
+      <c r="I45" s="287"/>
+      <c r="J45" s="287"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="287"/>
+      <c r="N45" s="287"/>
+      <c r="O45" s="287"/>
+      <c r="P45" s="287"/>
+      <c r="Q45" s="287"/>
+      <c r="R45" s="287"/>
+      <c r="S45" s="287"/>
+      <c r="T45" s="287"/>
+      <c r="U45" s="287"/>
+      <c r="V45" s="287"/>
+      <c r="W45" s="287"/>
+      <c r="X45" s="287"/>
+      <c r="Y45" s="287"/>
+      <c r="Z45" s="287"/>
+      <c r="AA45" s="287"/>
+      <c r="AB45" s="287"/>
+      <c r="AC45" s="287"/>
+      <c r="AD45" s="287"/>
+      <c r="AE45" s="288"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5119,60 +5522,64 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="262" t="s">
+      <c r="A46" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="263"/>
-      <c r="C46" s="263"/>
-      <c r="D46" s="263"/>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="263"/>
-      <c r="I46" s="263"/>
-      <c r="J46" s="263"/>
-      <c r="K46" s="263"/>
-      <c r="L46" s="263"/>
-      <c r="M46" s="263"/>
-      <c r="N46" s="263"/>
-      <c r="O46" s="263"/>
-      <c r="P46" s="263"/>
-      <c r="Q46" s="263"/>
-      <c r="R46" s="263"/>
-      <c r="S46" s="263"/>
-      <c r="T46" s="263"/>
-      <c r="U46" s="263"/>
-      <c r="V46" s="263"/>
-      <c r="W46" s="263"/>
-      <c r="X46" s="263"/>
-      <c r="Y46" s="263"/>
-      <c r="Z46" s="263"/>
-      <c r="AA46" s="263"/>
-      <c r="AB46" s="263"/>
-      <c r="AC46" s="263"/>
-      <c r="AD46" s="263"/>
-      <c r="AE46" s="264"/>
-      <c r="AF46" s="256">
+      <c r="B46" s="287"/>
+      <c r="C46" s="287"/>
+      <c r="D46" s="287"/>
+      <c r="E46" s="287"/>
+      <c r="F46" s="287"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="287"/>
+      <c r="I46" s="287"/>
+      <c r="J46" s="287"/>
+      <c r="K46" s="287"/>
+      <c r="L46" s="287"/>
+      <c r="M46" s="287"/>
+      <c r="N46" s="287"/>
+      <c r="O46" s="287"/>
+      <c r="P46" s="287"/>
+      <c r="Q46" s="287"/>
+      <c r="R46" s="287"/>
+      <c r="S46" s="287"/>
+      <c r="T46" s="287"/>
+      <c r="U46" s="287"/>
+      <c r="V46" s="287"/>
+      <c r="W46" s="287"/>
+      <c r="X46" s="287"/>
+      <c r="Y46" s="287"/>
+      <c r="Z46" s="287"/>
+      <c r="AA46" s="287"/>
+      <c r="AB46" s="287"/>
+      <c r="AC46" s="287"/>
+      <c r="AD46" s="287"/>
+      <c r="AE46" s="288"/>
+      <c r="AF46" s="279">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="257"/>
+      <c r="AG46" s="280"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="AF46:AG46"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
@@ -5189,22 +5596,18 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5216,9 +5619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S46" sqref="S46"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,14 +5637,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="270" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
       <c r="G1" s="212"/>
       <c r="H1" s="212"/>
       <c r="I1" s="212"/>
@@ -5274,11 +5677,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
       <c r="F2" s="218"/>
@@ -5314,235 +5717,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="247"/>
-      <c r="AE3" s="247"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="247"/>
-      <c r="AH3" s="247"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="296"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="296"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="296" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="247"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="247"/>
-      <c r="AH4" s="247"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="296"/>
+      <c r="AH4" s="296"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="247"/>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="247"/>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="247"/>
-      <c r="X5" s="247"/>
-      <c r="Y5" s="247"/>
-      <c r="Z5" s="247"/>
-      <c r="AA5" s="247"/>
-      <c r="AB5" s="247"/>
-      <c r="AC5" s="247"/>
-      <c r="AD5" s="247"/>
-      <c r="AE5" s="247"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
+      <c r="O5" s="296"/>
+      <c r="P5" s="296"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="296"/>
+      <c r="S5" s="296"/>
+      <c r="T5" s="296"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="296"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="296"/>
       <c r="AF5" s="219"/>
       <c r="AG5" s="219"/>
       <c r="AH5" s="219"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="298" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="251" t="s">
+      <c r="D6" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
-      <c r="Y6" s="252"/>
-      <c r="Z6" s="252"/>
-      <c r="AA6" s="252"/>
-      <c r="AB6" s="252"/>
-      <c r="AC6" s="252"/>
-      <c r="AD6" s="252"/>
-      <c r="AE6" s="252"/>
-      <c r="AF6" s="252"/>
-      <c r="AG6" s="253"/>
-      <c r="AH6" s="248" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="300"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="300"/>
+      <c r="AF6" s="300"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="248"/>
-      <c r="B7" s="249"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="254" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="254"/>
-      <c r="F7" s="248" t="s">
+      <c r="E7" s="302"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="248"/>
-      <c r="H7" s="255" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="255"/>
-      <c r="J7" s="248" t="s">
+      <c r="I7" s="303"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="248"/>
-      <c r="L7" s="269" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="269"/>
-      <c r="N7" s="248" t="s">
+      <c r="M7" s="278"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="248"/>
-      <c r="P7" s="272" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="272"/>
-      <c r="R7" s="248" t="s">
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="248"/>
-      <c r="T7" s="275" t="s">
+      <c r="S7" s="274"/>
+      <c r="T7" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="275"/>
-      <c r="V7" s="248" t="s">
+      <c r="U7" s="305"/>
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="248"/>
-      <c r="X7" s="243" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="248" t="s">
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="248"/>
-      <c r="AB7" s="271" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="271"/>
-      <c r="AD7" s="248" t="s">
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="248"/>
-      <c r="AF7" s="241" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="241" t="s">
+      <c r="AG7" s="276" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="248"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="248"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="250"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="220" t="s">
         <v>23</v>
       </c>
@@ -5627,9 +6030,9 @@
       <c r="AE8" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="242"/>
-      <c r="AG8" s="242"/>
-      <c r="AH8" s="248"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -7439,8 +7842,12 @@
       <c r="A44" s="20">
         <v>36</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="102"/>
+      <c r="B44" s="35">
+        <v>44009</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>181</v>
+      </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="36"/>
@@ -7456,7 +7863,9 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
       <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
+      <c r="S44" s="36">
+        <v>2</v>
+      </c>
       <c r="T44" s="236"/>
       <c r="U44" s="236"/>
       <c r="V44" s="36"/>
@@ -7469,29 +7878,31 @@
       <c r="AC44" s="42"/>
       <c r="AD44" s="36"/>
       <c r="AE44" s="36"/>
-      <c r="AF44" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
       <c r="AH44" s="36"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
         <v>37</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="102"/>
+      <c r="B45" s="35">
+        <v>44011</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>179</v>
+      </c>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="36"/>
+      <c r="F45" s="36">
+        <v>24</v>
+      </c>
       <c r="G45" s="36"/>
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
-      <c r="J45" s="36"/>
+      <c r="J45" s="36">
+        <v>12</v>
+      </c>
       <c r="K45" s="36"/>
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
@@ -7499,73 +7910,79 @@
       <c r="O45" s="36"/>
       <c r="P45" s="40"/>
       <c r="Q45" s="40"/>
-      <c r="R45" s="36"/>
+      <c r="R45" s="36">
+        <v>24</v>
+      </c>
       <c r="S45" s="36"/>
       <c r="T45" s="236"/>
       <c r="U45" s="236"/>
-      <c r="V45" s="36"/>
+      <c r="V45" s="36">
+        <v>12</v>
+      </c>
       <c r="W45" s="36"/>
       <c r="X45" s="41"/>
       <c r="Y45" s="41"/>
-      <c r="Z45" s="36"/>
+      <c r="Z45" s="36">
+        <v>12</v>
+      </c>
       <c r="AA45" s="36"/>
       <c r="AB45" s="42"/>
       <c r="AC45" s="42"/>
       <c r="AD45" s="36"/>
       <c r="AE45" s="36"/>
-      <c r="AF45" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
       <c r="AH45" s="36"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>38</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="239"/>
-      <c r="U46" s="239"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
+      <c r="B46" s="35">
+        <v>44011</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="236"/>
+      <c r="U46" s="236"/>
+      <c r="V46" s="36">
+        <v>12</v>
+      </c>
+      <c r="W46" s="36"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
       <c r="AF46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG46" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="45"/>
+        <v>12</v>
+      </c>
+      <c r="AH46" s="36"/>
     </row>
     <row r="47" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
@@ -7605,184 +8022,188 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
-      <c r="B48" s="266"/>
-      <c r="C48" s="267"/>
-      <c r="D48" s="268">
+      <c r="B48" s="290"/>
+      <c r="C48" s="291"/>
+      <c r="D48" s="292">
         <f>SUM(D9:D46)-SUM(E9:E46)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="268"/>
-      <c r="F48" s="274">
+      <c r="E48" s="292"/>
+      <c r="F48" s="304">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
-        <v>9</v>
-      </c>
-      <c r="G48" s="274"/>
-      <c r="H48" s="244">
+        <v>33</v>
+      </c>
+      <c r="G48" s="304"/>
+      <c r="H48" s="294">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="244"/>
-      <c r="J48" s="245">
+      <c r="I48" s="294"/>
+      <c r="J48" s="281">
         <f>SUM(J9:J46)-SUM(K9:K46)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="245"/>
-      <c r="L48" s="265">
+        <v>12</v>
+      </c>
+      <c r="K48" s="281"/>
+      <c r="L48" s="289">
         <f>SUM(L9:L46)-SUM(M9:M46)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="265"/>
-      <c r="N48" s="245">
+      <c r="M48" s="289"/>
+      <c r="N48" s="281">
         <f>SUM(N9:N46)-SUM(O9:O46)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="245"/>
-      <c r="P48" s="258">
+      <c r="O48" s="281"/>
+      <c r="P48" s="282">
         <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="258"/>
-      <c r="R48" s="245">
+      <c r="Q48" s="282"/>
+      <c r="R48" s="281">
         <f>SUM(R9:R46)-SUM(S9:S46)</f>
-        <v>6</v>
-      </c>
-      <c r="S48" s="245"/>
-      <c r="T48" s="259">
+        <v>28</v>
+      </c>
+      <c r="S48" s="281"/>
+      <c r="T48" s="283">
         <f>SUM(T9:T46)-SUM(U9:U46)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="259"/>
-      <c r="V48" s="245">
+      <c r="U48" s="283"/>
+      <c r="V48" s="281">
         <f>SUM(V9:V46)-SUM(W9:W46)</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="245"/>
-      <c r="X48" s="274">
+        <v>24</v>
+      </c>
+      <c r="W48" s="281"/>
+      <c r="X48" s="304">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
         <v>58</v>
       </c>
-      <c r="Y48" s="274"/>
-      <c r="Z48" s="274">
+      <c r="Y48" s="304"/>
+      <c r="Z48" s="304">
         <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
-        <v>6</v>
-      </c>
-      <c r="AA48" s="274"/>
-      <c r="AB48" s="274">
+        <v>18</v>
+      </c>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="304">
         <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
         <v>28</v>
       </c>
-      <c r="AC48" s="274"/>
-      <c r="AD48" s="245">
+      <c r="AC48" s="304"/>
+      <c r="AD48" s="281">
         <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="245"/>
+      <c r="AE48" s="281"/>
       <c r="AF48" s="43"/>
       <c r="AG48" s="222">
         <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="AH48" s="58"/>
     </row>
     <row r="49" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="262" t="s">
+      <c r="A49" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="263"/>
-      <c r="C49" s="263"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="263"/>
-      <c r="G49" s="263"/>
-      <c r="H49" s="263"/>
-      <c r="I49" s="263"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="263"/>
-      <c r="L49" s="263"/>
-      <c r="M49" s="263"/>
-      <c r="N49" s="263"/>
-      <c r="O49" s="263"/>
-      <c r="P49" s="263"/>
-      <c r="Q49" s="263"/>
-      <c r="R49" s="263"/>
-      <c r="S49" s="263"/>
-      <c r="T49" s="263"/>
-      <c r="U49" s="263"/>
-      <c r="V49" s="263"/>
-      <c r="W49" s="263"/>
-      <c r="X49" s="263"/>
-      <c r="Y49" s="263"/>
-      <c r="Z49" s="263"/>
-      <c r="AA49" s="263"/>
-      <c r="AB49" s="263"/>
-      <c r="AC49" s="263"/>
-      <c r="AD49" s="263"/>
-      <c r="AE49" s="264"/>
+      <c r="B49" s="287"/>
+      <c r="C49" s="287"/>
+      <c r="D49" s="287"/>
+      <c r="E49" s="287"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="287"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="287"/>
+      <c r="K49" s="287"/>
+      <c r="L49" s="287"/>
+      <c r="M49" s="287"/>
+      <c r="N49" s="287"/>
+      <c r="O49" s="287"/>
+      <c r="P49" s="287"/>
+      <c r="Q49" s="287"/>
+      <c r="R49" s="287"/>
+      <c r="S49" s="287"/>
+      <c r="T49" s="287"/>
+      <c r="U49" s="287"/>
+      <c r="V49" s="287"/>
+      <c r="W49" s="287"/>
+      <c r="X49" s="287"/>
+      <c r="Y49" s="287"/>
+      <c r="Z49" s="287"/>
+      <c r="AA49" s="287"/>
+      <c r="AB49" s="287"/>
+      <c r="AC49" s="287"/>
+      <c r="AD49" s="287"/>
+      <c r="AE49" s="288"/>
       <c r="AF49" s="59">
         <f>SUM(AF9:AF46)</f>
         <v>305</v>
       </c>
       <c r="AG49" s="59">
         <f>SUM(AG9:AG46)</f>
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="AH49" s="60"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="262" t="s">
+      <c r="A50" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="263"/>
-      <c r="C50" s="263"/>
-      <c r="D50" s="263"/>
-      <c r="E50" s="263"/>
-      <c r="F50" s="263"/>
-      <c r="G50" s="263"/>
-      <c r="H50" s="263"/>
-      <c r="I50" s="263"/>
-      <c r="J50" s="263"/>
-      <c r="K50" s="263"/>
-      <c r="L50" s="263"/>
-      <c r="M50" s="263"/>
-      <c r="N50" s="263"/>
-      <c r="O50" s="263"/>
-      <c r="P50" s="263"/>
-      <c r="Q50" s="263"/>
-      <c r="R50" s="263"/>
-      <c r="S50" s="263"/>
-      <c r="T50" s="263"/>
-      <c r="U50" s="263"/>
-      <c r="V50" s="263"/>
-      <c r="W50" s="263"/>
-      <c r="X50" s="263"/>
-      <c r="Y50" s="263"/>
-      <c r="Z50" s="263"/>
-      <c r="AA50" s="263"/>
-      <c r="AB50" s="263"/>
-      <c r="AC50" s="263"/>
-      <c r="AD50" s="263"/>
-      <c r="AE50" s="264"/>
-      <c r="AF50" s="256">
+      <c r="B50" s="287"/>
+      <c r="C50" s="287"/>
+      <c r="D50" s="287"/>
+      <c r="E50" s="287"/>
+      <c r="F50" s="287"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="287"/>
+      <c r="I50" s="287"/>
+      <c r="J50" s="287"/>
+      <c r="K50" s="287"/>
+      <c r="L50" s="287"/>
+      <c r="M50" s="287"/>
+      <c r="N50" s="287"/>
+      <c r="O50" s="287"/>
+      <c r="P50" s="287"/>
+      <c r="Q50" s="287"/>
+      <c r="R50" s="287"/>
+      <c r="S50" s="287"/>
+      <c r="T50" s="287"/>
+      <c r="U50" s="287"/>
+      <c r="V50" s="287"/>
+      <c r="W50" s="287"/>
+      <c r="X50" s="287"/>
+      <c r="Y50" s="287"/>
+      <c r="Z50" s="287"/>
+      <c r="AA50" s="287"/>
+      <c r="AB50" s="287"/>
+      <c r="AC50" s="287"/>
+      <c r="AD50" s="287"/>
+      <c r="AE50" s="288"/>
+      <c r="AF50" s="279">
         <f>AG49-AF49</f>
-        <v>107</v>
-      </c>
-      <c r="AG50" s="257"/>
+        <v>119</v>
+      </c>
+      <c r="AG50" s="280"/>
       <c r="AH50" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -7799,6 +8220,2376 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="105" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="295" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="296" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="296"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="296"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="296" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="296"/>
+      <c r="AH4" s="296"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="296"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
+      <c r="O5" s="296"/>
+      <c r="P5" s="296"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="296"/>
+      <c r="S5" s="296"/>
+      <c r="T5" s="296"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="296"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="296"/>
+      <c r="AF5" s="243"/>
+      <c r="AG5" s="243"/>
+      <c r="AH5" s="243"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="300"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="300"/>
+      <c r="AF6" s="300"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="274"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="302" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="302"/>
+      <c r="F7" s="274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="274"/>
+      <c r="H7" s="303" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="303"/>
+      <c r="J7" s="274" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="274"/>
+      <c r="L7" s="278" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="278"/>
+      <c r="N7" s="274" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="274"/>
+      <c r="P7" s="273" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="274"/>
+      <c r="T7" s="305" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="305"/>
+      <c r="V7" s="274" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="274"/>
+      <c r="X7" s="293" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="274" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="272" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="274" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="276" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="276" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="274"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="274"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="245" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="246" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="246" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="247" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="247" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="251" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="251" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="241" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="241" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="274"/>
+    </row>
+    <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>1</v>
+      </c>
+      <c r="B9" s="178">
+        <v>44012</v>
+      </c>
+      <c r="C9" s="179" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="74">
+        <v>33</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="74">
+        <v>12</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="74">
+        <v>28</v>
+      </c>
+      <c r="S9" s="74"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="74">
+        <v>24</v>
+      </c>
+      <c r="W9" s="74"/>
+      <c r="X9" s="185">
+        <v>58</v>
+      </c>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="74">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="186">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="84">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="84">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>201</v>
+      </c>
+      <c r="AH9" s="167"/>
+    </row>
+    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="223">
+        <v>2</v>
+      </c>
+      <c r="B10" s="231">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="232" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="233">
+        <v>1</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="233"/>
+      <c r="S10" s="233"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="233"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="233"/>
+      <c r="AA10" s="233"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="233"/>
+      <c r="AE10" s="233"/>
+      <c r="AF10" s="223">
+        <f t="shared" ref="AF10:AF46" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="223">
+        <f t="shared" ref="AG10:AG14" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="233"/>
+    </row>
+    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="230">
+        <v>3</v>
+      </c>
+      <c r="B11" s="228">
+        <v>44013</v>
+      </c>
+      <c r="C11" s="229" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="227"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="227"/>
+      <c r="S11" s="227">
+        <v>2</v>
+      </c>
+      <c r="T11" s="235"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="227"/>
+      <c r="W11" s="227"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="227"/>
+      <c r="AA11" s="227"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="227"/>
+      <c r="AE11" s="227"/>
+      <c r="AF11" s="223">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG11" s="223">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="227"/>
+    </row>
+    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="223">
+        <v>4</v>
+      </c>
+      <c r="B12" s="228"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="227"/>
+      <c r="S12" s="227"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="235"/>
+      <c r="V12" s="227"/>
+      <c r="W12" s="227"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="227"/>
+      <c r="AE12" s="227"/>
+      <c r="AF12" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="223">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="227"/>
+    </row>
+    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="230">
+        <v>5</v>
+      </c>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="227"/>
+      <c r="S13" s="227"/>
+      <c r="T13" s="235"/>
+      <c r="U13" s="235"/>
+      <c r="V13" s="227"/>
+      <c r="W13" s="227"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="227"/>
+      <c r="AA13" s="227"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="227"/>
+      <c r="AF13" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="223">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="227"/>
+    </row>
+    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="223">
+        <v>6</v>
+      </c>
+      <c r="B14" s="224"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="226"/>
+      <c r="O14" s="226"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="226"/>
+      <c r="S14" s="226"/>
+      <c r="T14" s="236"/>
+      <c r="U14" s="236"/>
+      <c r="V14" s="226"/>
+      <c r="W14" s="226"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="226"/>
+      <c r="AA14" s="226"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="226"/>
+      <c r="AE14" s="226"/>
+      <c r="AF14" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="223">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="227"/>
+    </row>
+    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="230">
+        <v>7</v>
+      </c>
+      <c r="B15" s="224"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="226"/>
+      <c r="S15" s="226"/>
+      <c r="T15" s="236"/>
+      <c r="U15" s="236"/>
+      <c r="V15" s="226"/>
+      <c r="W15" s="226"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="226"/>
+      <c r="AA15" s="226"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="226"/>
+      <c r="AE15" s="226"/>
+      <c r="AF15" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="223">
+        <f>D15+F15+H15+J15+L15+N15+P15+R15+T15+V15+X15+Z15+AB15+AD15</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="227"/>
+    </row>
+    <row r="16" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="223">
+        <v>8</v>
+      </c>
+      <c r="B16" s="224"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="226"/>
+      <c r="S16" s="226"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="226"/>
+      <c r="AE16" s="226"/>
+      <c r="AF16" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="223">
+        <f t="shared" ref="AG16:AG46" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="227"/>
+    </row>
+    <row r="17" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="230">
+        <v>9</v>
+      </c>
+      <c r="B17" s="224"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="226"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="226"/>
+      <c r="AE17" s="226"/>
+      <c r="AF17" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="227"/>
+    </row>
+    <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="223">
+        <v>10</v>
+      </c>
+      <c r="B18" s="224"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="226"/>
+      <c r="AA18" s="226"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="226"/>
+      <c r="AE18" s="226"/>
+      <c r="AF18" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="227"/>
+    </row>
+    <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="230">
+        <v>11</v>
+      </c>
+      <c r="B19" s="224"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="226"/>
+      <c r="O19" s="226"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="226"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="226"/>
+      <c r="W19" s="226"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="226"/>
+      <c r="AA19" s="226"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="226"/>
+      <c r="AE19" s="226"/>
+      <c r="AF19" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="227"/>
+    </row>
+    <row r="20" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="223">
+        <v>12</v>
+      </c>
+      <c r="B20" s="224"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="226"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="236"/>
+      <c r="U20" s="236"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="226"/>
+      <c r="AA20" s="226"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="226"/>
+      <c r="AE20" s="226"/>
+      <c r="AF20" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="227"/>
+    </row>
+    <row r="21" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="230">
+        <v>13</v>
+      </c>
+      <c r="B21" s="224"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="226"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="226"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="226"/>
+      <c r="S21" s="226"/>
+      <c r="T21" s="236"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="226"/>
+      <c r="W21" s="226"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="226"/>
+      <c r="AA21" s="226"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="226"/>
+      <c r="AE21" s="226"/>
+      <c r="AF21" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="227"/>
+    </row>
+    <row r="22" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="223">
+        <v>14</v>
+      </c>
+      <c r="B22" s="224"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="226"/>
+      <c r="O22" s="226"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="226"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="236"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="226"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="226"/>
+      <c r="AA22" s="226"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="226"/>
+      <c r="AE22" s="226"/>
+      <c r="AF22" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="227"/>
+    </row>
+    <row r="23" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="230">
+        <v>15</v>
+      </c>
+      <c r="B23" s="224"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="226"/>
+      <c r="O23" s="226"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="226"/>
+      <c r="S23" s="226"/>
+      <c r="T23" s="236"/>
+      <c r="U23" s="236"/>
+      <c r="V23" s="226"/>
+      <c r="W23" s="226"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="226"/>
+      <c r="AA23" s="226"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="226"/>
+      <c r="AE23" s="226"/>
+      <c r="AF23" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="227"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>16</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="236"/>
+      <c r="U24" s="236"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="21"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>17</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="21"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>18</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="236"/>
+      <c r="U26" s="236"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="21"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>19</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="236"/>
+      <c r="U27" s="236"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="21"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>20</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="236"/>
+      <c r="U28" s="236"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="21"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>21</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="236"/>
+      <c r="U29" s="236"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="21"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>22</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="236"/>
+      <c r="U30" s="236"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="21"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>23</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="236"/>
+      <c r="U31" s="236"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="21"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>24</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="236"/>
+      <c r="U32" s="236"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="21"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
+        <v>25</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="21"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>26</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="236"/>
+      <c r="U34" s="236"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="21"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="74">
+        <v>27</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="236"/>
+      <c r="U35" s="236"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="21"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>28</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="236"/>
+      <c r="U36" s="236"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="21"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="74">
+        <v>29</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="236"/>
+      <c r="U37" s="236"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="21"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>30</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="236"/>
+      <c r="U38" s="236"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="21"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="74">
+        <v>31</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="236"/>
+      <c r="U39" s="236"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="21"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>32</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="236"/>
+      <c r="U40" s="236"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="21"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="74">
+        <v>33</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="236"/>
+      <c r="U41" s="236"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="21"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>34</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="235"/>
+      <c r="U42" s="235"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="21"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="74">
+        <v>35</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="236"/>
+      <c r="U43" s="236"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="36"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="236"/>
+      <c r="U44" s="236"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="36"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="74">
+        <v>37</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="236"/>
+      <c r="U45" s="236"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="36"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>38</v>
+      </c>
+      <c r="B46" s="44"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="239"/>
+      <c r="U46" s="239"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="45"/>
+    </row>
+    <row r="47" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="55"/>
+      <c r="AH47" s="54"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="57"/>
+      <c r="B48" s="290"/>
+      <c r="C48" s="291"/>
+      <c r="D48" s="292">
+        <f>SUM(D9:D46)-SUM(E9:E46)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="292"/>
+      <c r="F48" s="304">
+        <f>SUM(F9:F46)-SUM(G9:G46)</f>
+        <v>33</v>
+      </c>
+      <c r="G48" s="304"/>
+      <c r="H48" s="294">
+        <f>SUM(H9:H46)-SUM(I9:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="294"/>
+      <c r="J48" s="281">
+        <f>SUM(J9:J46)-SUM(K9:K46)</f>
+        <v>11</v>
+      </c>
+      <c r="K48" s="281"/>
+      <c r="L48" s="289">
+        <f>SUM(L9:L46)-SUM(M9:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="289"/>
+      <c r="N48" s="281">
+        <f>SUM(N9:N46)-SUM(O9:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="281"/>
+      <c r="P48" s="282">
+        <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="282"/>
+      <c r="R48" s="281">
+        <f>SUM(R9:R46)-SUM(S9:S46)</f>
+        <v>26</v>
+      </c>
+      <c r="S48" s="281"/>
+      <c r="T48" s="283">
+        <f>SUM(T9:T46)-SUM(U9:U46)</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="283"/>
+      <c r="V48" s="281">
+        <f>SUM(V9:V46)-SUM(W9:W46)</f>
+        <v>24</v>
+      </c>
+      <c r="W48" s="281"/>
+      <c r="X48" s="304">
+        <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
+        <v>58</v>
+      </c>
+      <c r="Y48" s="304"/>
+      <c r="Z48" s="304">
+        <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
+        <v>18</v>
+      </c>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="304">
+        <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
+        <v>28</v>
+      </c>
+      <c r="AC48" s="304"/>
+      <c r="AD48" s="281">
+        <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="281"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="222">
+        <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
+        <v>198</v>
+      </c>
+      <c r="AH48" s="58"/>
+    </row>
+    <row r="49" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="286" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="287"/>
+      <c r="C49" s="287"/>
+      <c r="D49" s="287"/>
+      <c r="E49" s="287"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="287"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="287"/>
+      <c r="K49" s="287"/>
+      <c r="L49" s="287"/>
+      <c r="M49" s="287"/>
+      <c r="N49" s="287"/>
+      <c r="O49" s="287"/>
+      <c r="P49" s="287"/>
+      <c r="Q49" s="287"/>
+      <c r="R49" s="287"/>
+      <c r="S49" s="287"/>
+      <c r="T49" s="287"/>
+      <c r="U49" s="287"/>
+      <c r="V49" s="287"/>
+      <c r="W49" s="287"/>
+      <c r="X49" s="287"/>
+      <c r="Y49" s="287"/>
+      <c r="Z49" s="287"/>
+      <c r="AA49" s="287"/>
+      <c r="AB49" s="287"/>
+      <c r="AC49" s="287"/>
+      <c r="AD49" s="287"/>
+      <c r="AE49" s="288"/>
+      <c r="AF49" s="59">
+        <f>SUM(AF9:AF46)</f>
+        <v>3</v>
+      </c>
+      <c r="AG49" s="59">
+        <f>SUM(AG9:AG46)</f>
+        <v>201</v>
+      </c>
+      <c r="AH49" s="60"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A50" s="286" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="287"/>
+      <c r="C50" s="287"/>
+      <c r="D50" s="287"/>
+      <c r="E50" s="287"/>
+      <c r="F50" s="287"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="287"/>
+      <c r="I50" s="287"/>
+      <c r="J50" s="287"/>
+      <c r="K50" s="287"/>
+      <c r="L50" s="287"/>
+      <c r="M50" s="287"/>
+      <c r="N50" s="287"/>
+      <c r="O50" s="287"/>
+      <c r="P50" s="287"/>
+      <c r="Q50" s="287"/>
+      <c r="R50" s="287"/>
+      <c r="S50" s="287"/>
+      <c r="T50" s="287"/>
+      <c r="U50" s="287"/>
+      <c r="V50" s="287"/>
+      <c r="W50" s="287"/>
+      <c r="X50" s="287"/>
+      <c r="Y50" s="287"/>
+      <c r="Z50" s="287"/>
+      <c r="AA50" s="287"/>
+      <c r="AB50" s="287"/>
+      <c r="AC50" s="287"/>
+      <c r="AD50" s="287"/>
+      <c r="AE50" s="288"/>
+      <c r="AF50" s="279">
+        <f>AG49-AF49</f>
+        <v>198</v>
+      </c>
+      <c r="AG50" s="280"/>
+      <c r="AH50" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7810,24 +10601,18 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:AG6"/>
     <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7882,146 +10667,146 @@
       <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="333" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
+      <c r="B3" s="333"/>
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
+      <c r="L3" s="333"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="276" t="s">
+      <c r="A4" s="333" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="276"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276"/>
-      <c r="N4" s="276"/>
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="333"/>
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
+      <c r="K4" s="333"/>
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
       <c r="O4" s="100"/>
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="276"/>
-      <c r="B5" s="276"/>
-      <c r="C5" s="276"/>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="276"/>
-      <c r="G5" s="276"/>
-      <c r="H5" s="276"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
+      <c r="A5" s="333"/>
+      <c r="B5" s="333"/>
+      <c r="C5" s="333"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="335" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="280" t="s">
+      <c r="B6" s="337" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="280"/>
-      <c r="D6" s="281" t="s">
+      <c r="C6" s="337"/>
+      <c r="D6" s="338" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="286" t="s">
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="338"/>
+      <c r="K6" s="341" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="286"/>
-      <c r="M6" s="286"/>
-      <c r="N6" s="287" t="s">
+      <c r="L6" s="341"/>
+      <c r="M6" s="341"/>
+      <c r="N6" s="342" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="279"/>
-      <c r="B7" s="282" t="s">
+      <c r="A7" s="336"/>
+      <c r="B7" s="339" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="339" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="282" t="s">
+      <c r="D7" s="339" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="282" t="s">
+      <c r="E7" s="339" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="284" t="s">
+      <c r="F7" s="306" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="284" t="s">
+      <c r="G7" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="307" t="s">
+      <c r="H7" s="317" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="307"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="317"/>
+      <c r="J7" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="284" t="s">
+      <c r="K7" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="284" t="s">
+      <c r="L7" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="284" t="s">
+      <c r="M7" s="306" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="288"/>
+      <c r="N7" s="343"/>
     </row>
     <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="279"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
+      <c r="A8" s="336"/>
+      <c r="B8" s="340"/>
+      <c r="C8" s="340"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
       <c r="H8" s="240" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
-      <c r="M8" s="285"/>
-      <c r="N8" s="288"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="307"/>
+      <c r="M8" s="307"/>
+      <c r="N8" s="343"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
@@ -8063,10 +10848,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="293">
+      <c r="A10" s="314">
         <v>43958</v>
       </c>
-      <c r="B10" s="300" t="s">
+      <c r="B10" s="308" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="95"/>
@@ -8097,8 +10882,8 @@
       <c r="N10" s="74"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="294"/>
-      <c r="B11" s="302"/>
+      <c r="A11" s="316"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="112"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
@@ -8127,10 +10912,10 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="293">
+      <c r="A12" s="314">
         <v>43958</v>
       </c>
-      <c r="B12" s="300" t="s">
+      <c r="B12" s="308" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="95"/>
@@ -8161,8 +10946,8 @@
       <c r="N12" s="74"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="294"/>
-      <c r="B13" s="302"/>
+      <c r="A13" s="316"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="83"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
@@ -8225,10 +11010,10 @@
       <c r="N14" s="120"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="293">
+      <c r="A15" s="314">
         <v>43958</v>
       </c>
-      <c r="B15" s="300" t="s">
+      <c r="B15" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="95"/>
@@ -8245,7 +11030,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="303">
+      <c r="H15" s="311">
         <v>288000</v>
       </c>
       <c r="I15" s="76">
@@ -8261,13 +11046,13 @@
       </c>
       <c r="L15" s="114"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="290" t="s">
+      <c r="N15" s="321" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="306"/>
-      <c r="B16" s="301"/>
+      <c r="A16" s="315"/>
+      <c r="B16" s="309"/>
       <c r="C16" s="96"/>
       <c r="D16" s="84" t="s">
         <v>20</v>
@@ -8282,7 +11067,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="304"/>
+      <c r="H16" s="312"/>
       <c r="I16" s="86">
         <v>0.1</v>
       </c>
@@ -8296,11 +11081,11 @@
       </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="291"/>
+      <c r="N16" s="322"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="306"/>
-      <c r="B17" s="301"/>
+      <c r="A17" s="315"/>
+      <c r="B17" s="309"/>
       <c r="C17" s="96"/>
       <c r="D17" s="84" t="s">
         <v>10</v>
@@ -8315,7 +11100,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="304"/>
+      <c r="H17" s="312"/>
       <c r="I17" s="86">
         <v>0.1</v>
       </c>
@@ -8329,11 +11114,11 @@
       </c>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="291"/>
+      <c r="N17" s="322"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="294"/>
-      <c r="B18" s="302"/>
+      <c r="A18" s="316"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="83"/>
       <c r="D18" s="83" t="s">
         <v>21</v>
@@ -8348,7 +11133,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="305"/>
+      <c r="H18" s="313"/>
       <c r="I18" s="124">
         <v>0.1</v>
       </c>
@@ -8362,13 +11147,13 @@
       </c>
       <c r="L18" s="123"/>
       <c r="M18" s="123"/>
-      <c r="N18" s="292"/>
+      <c r="N18" s="323"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="293">
+      <c r="A19" s="314">
         <v>43958</v>
       </c>
-      <c r="B19" s="300" t="s">
+      <c r="B19" s="308" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="113"/>
@@ -8401,13 +11186,13 @@
       </c>
       <c r="L19" s="121"/>
       <c r="M19" s="121"/>
-      <c r="N19" s="295" t="s">
+      <c r="N19" s="325" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="306"/>
-      <c r="B20" s="301"/>
+      <c r="A20" s="315"/>
+      <c r="B20" s="309"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
         <v>21</v>
@@ -8438,11 +11223,11 @@
       </c>
       <c r="L20" s="81"/>
       <c r="M20" s="81"/>
-      <c r="N20" s="296"/>
+      <c r="N20" s="326"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="294"/>
-      <c r="B21" s="302"/>
+      <c r="A21" s="316"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125" t="s">
         <v>14</v>
@@ -8473,7 +11258,7 @@
       </c>
       <c r="L21" s="126"/>
       <c r="M21" s="126"/>
-      <c r="N21" s="297"/>
+      <c r="N21" s="327"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="117">
@@ -8555,7 +11340,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="293">
+      <c r="A24" s="314">
         <v>43962</v>
       </c>
       <c r="B24" s="144" t="s">
@@ -8591,12 +11376,12 @@
       </c>
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
-      <c r="N24" s="298" t="s">
+      <c r="N24" s="328" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="294"/>
+      <c r="A25" s="316"/>
       <c r="B25" s="83" t="s">
         <v>68</v>
       </c>
@@ -8630,7 +11415,7 @@
       </c>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="299"/>
+      <c r="N25" s="329"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="117">
@@ -8711,26 +11496,43 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="96"/>
+      <c r="A28" s="97">
+        <v>44009</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>68</v>
+      </c>
       <c r="C28" s="96"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
+      <c r="D28" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="84">
+        <v>2</v>
+      </c>
+      <c r="F28" s="85">
+        <v>485000</v>
+      </c>
       <c r="G28" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>970000</v>
       </c>
       <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
+      <c r="I28" s="86">
+        <v>0</v>
+      </c>
       <c r="J28" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="85"/>
+        <v>970000</v>
+      </c>
+      <c r="K28" s="85">
+        <f>J28</f>
+        <v>970000</v>
+      </c>
       <c r="L28" s="85"/>
       <c r="M28" s="85"/>
-      <c r="N28" s="84"/>
+      <c r="N28" s="84" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
@@ -8884,7 +11686,7 @@
       <c r="K35" s="85"/>
       <c r="L35" s="85"/>
       <c r="M35" s="85"/>
-      <c r="N35" s="289"/>
+      <c r="N35" s="332"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="98"/>
@@ -8906,7 +11708,7 @@
       <c r="K36" s="85"/>
       <c r="L36" s="85"/>
       <c r="M36" s="85"/>
-      <c r="N36" s="289"/>
+      <c r="N36" s="332"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="98"/>
@@ -8928,7 +11730,7 @@
       <c r="K37" s="85"/>
       <c r="L37" s="85"/>
       <c r="M37" s="85"/>
-      <c r="N37" s="289"/>
+      <c r="N37" s="332"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="98"/>
@@ -8950,7 +11752,7 @@
       <c r="K38" s="85"/>
       <c r="L38" s="85"/>
       <c r="M38" s="85"/>
-      <c r="N38" s="289"/>
+      <c r="N38" s="332"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="98"/>
@@ -8972,7 +11774,7 @@
       <c r="K39" s="85"/>
       <c r="L39" s="85"/>
       <c r="M39" s="85"/>
-      <c r="N39" s="289"/>
+      <c r="N39" s="332"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="98"/>
@@ -8994,7 +11796,7 @@
       <c r="K40" s="85"/>
       <c r="L40" s="85"/>
       <c r="M40" s="85"/>
-      <c r="N40" s="289"/>
+      <c r="N40" s="332"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="97"/>
@@ -9060,7 +11862,7 @@
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
       <c r="M43" s="85"/>
-      <c r="N43" s="289"/>
+      <c r="N43" s="332"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="98"/>
@@ -9082,7 +11884,7 @@
       <c r="K44" s="85"/>
       <c r="L44" s="85"/>
       <c r="M44" s="85"/>
-      <c r="N44" s="289"/>
+      <c r="N44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="98"/>
@@ -9104,7 +11906,7 @@
       <c r="K45" s="85"/>
       <c r="L45" s="85"/>
       <c r="M45" s="85"/>
-      <c r="N45" s="289"/>
+      <c r="N45" s="332"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="97"/>
@@ -9678,156 +12480,156 @@
       <c r="M71" s="78"/>
       <c r="N71" s="77"/>
     </row>
-    <row r="72" spans="1:15" s="326" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="317" t="s">
+    <row r="72" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A72" s="330" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="318"/>
-      <c r="C72" s="318"/>
-      <c r="D72" s="318"/>
-      <c r="E72" s="319">
+      <c r="B72" s="331"/>
+      <c r="C72" s="331"/>
+      <c r="D72" s="331"/>
+      <c r="E72" s="252">
         <f>SUM(E9:E71)</f>
-        <v>34</v>
-      </c>
-      <c r="F72" s="319"/>
-      <c r="G72" s="320">
+        <v>36</v>
+      </c>
+      <c r="F72" s="252"/>
+      <c r="G72" s="253">
         <f>SUM(G9:G71)</f>
-        <v>16105000</v>
-      </c>
-      <c r="H72" s="321"/>
-      <c r="I72" s="320"/>
-      <c r="J72" s="322">
+        <v>17075000</v>
+      </c>
+      <c r="H72" s="254"/>
+      <c r="I72" s="253"/>
+      <c r="J72" s="255">
         <f>SUM(J9:J71)</f>
-        <v>6929000</v>
-      </c>
-      <c r="K72" s="323">
+        <v>7899000</v>
+      </c>
+      <c r="K72" s="256">
         <f>SUM(K9:K71)</f>
-        <v>5649000</v>
-      </c>
-      <c r="L72" s="323">
+        <v>6619000</v>
+      </c>
+      <c r="L72" s="256">
         <f>SUM(L10:L23)</f>
         <v>990000</v>
       </c>
-      <c r="M72" s="323"/>
-      <c r="N72" s="324"/>
-      <c r="O72" s="325"/>
-    </row>
-    <row r="73" spans="1:15" s="326" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A73" s="327" t="s">
+      <c r="M72" s="256"/>
+      <c r="N72" s="257"/>
+      <c r="O72" s="318"/>
+    </row>
+    <row r="73" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A73" s="319" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="328"/>
-      <c r="C73" s="328"/>
-      <c r="D73" s="328"/>
-      <c r="E73" s="329"/>
-      <c r="F73" s="329"/>
-      <c r="G73" s="330">
+      <c r="B73" s="320"/>
+      <c r="C73" s="320"/>
+      <c r="D73" s="320"/>
+      <c r="E73" s="259"/>
+      <c r="F73" s="259"/>
+      <c r="G73" s="260">
         <f>G72</f>
-        <v>16105000</v>
-      </c>
-      <c r="H73" s="331"/>
-      <c r="I73" s="330"/>
-      <c r="J73" s="332"/>
-      <c r="K73" s="331"/>
-      <c r="L73" s="331"/>
-      <c r="M73" s="331"/>
-      <c r="N73" s="324"/>
-      <c r="O73" s="325"/>
-    </row>
-    <row r="74" spans="1:15" s="326" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A74" s="327" t="s">
+        <v>17075000</v>
+      </c>
+      <c r="H73" s="261"/>
+      <c r="I73" s="260"/>
+      <c r="J73" s="262"/>
+      <c r="K73" s="261"/>
+      <c r="L73" s="261"/>
+      <c r="M73" s="261"/>
+      <c r="N73" s="257"/>
+      <c r="O73" s="318"/>
+    </row>
+    <row r="74" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A74" s="319" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="328"/>
-      <c r="C74" s="328"/>
-      <c r="D74" s="333"/>
-      <c r="E74" s="329"/>
-      <c r="F74" s="329"/>
-      <c r="G74" s="330">
+      <c r="B74" s="320"/>
+      <c r="C74" s="320"/>
+      <c r="D74" s="324"/>
+      <c r="E74" s="259"/>
+      <c r="F74" s="259"/>
+      <c r="G74" s="260">
         <f>J72</f>
-        <v>6929000</v>
-      </c>
-      <c r="H74" s="331"/>
-      <c r="I74" s="330"/>
-      <c r="J74" s="332"/>
-      <c r="K74" s="331"/>
-      <c r="L74" s="331"/>
-      <c r="M74" s="331"/>
-      <c r="N74" s="324"/>
-      <c r="O74" s="334"/>
-    </row>
-    <row r="75" spans="1:15" s="326" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A75" s="327" t="s">
+        <v>7899000</v>
+      </c>
+      <c r="H74" s="261"/>
+      <c r="I74" s="260"/>
+      <c r="J74" s="262"/>
+      <c r="K74" s="261"/>
+      <c r="L74" s="261"/>
+      <c r="M74" s="261"/>
+      <c r="N74" s="257"/>
+      <c r="O74" s="263"/>
+    </row>
+    <row r="75" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A75" s="319" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="328"/>
-      <c r="C75" s="328"/>
-      <c r="D75" s="328"/>
-      <c r="E75" s="329"/>
-      <c r="F75" s="329"/>
-      <c r="G75" s="335">
+      <c r="B75" s="320"/>
+      <c r="C75" s="320"/>
+      <c r="D75" s="320"/>
+      <c r="E75" s="259"/>
+      <c r="F75" s="259"/>
+      <c r="G75" s="264">
         <f>K72</f>
-        <v>5649000</v>
-      </c>
-      <c r="H75" s="336"/>
-      <c r="I75" s="336"/>
-      <c r="J75" s="332"/>
-      <c r="K75" s="331"/>
-      <c r="L75" s="331"/>
-      <c r="M75" s="331"/>
-      <c r="N75" s="324"/>
-    </row>
-    <row r="76" spans="1:15" s="326" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A76" s="327" t="s">
+        <v>6619000</v>
+      </c>
+      <c r="H75" s="265"/>
+      <c r="I75" s="265"/>
+      <c r="J75" s="262"/>
+      <c r="K75" s="261"/>
+      <c r="L75" s="261"/>
+      <c r="M75" s="261"/>
+      <c r="N75" s="257"/>
+    </row>
+    <row r="76" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A76" s="319" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="328"/>
-      <c r="C76" s="328"/>
-      <c r="D76" s="328"/>
-      <c r="E76" s="329"/>
-      <c r="F76" s="329"/>
-      <c r="G76" s="337">
+      <c r="B76" s="320"/>
+      <c r="C76" s="320"/>
+      <c r="D76" s="320"/>
+      <c r="E76" s="259"/>
+      <c r="F76" s="259"/>
+      <c r="G76" s="266">
         <f>L72</f>
         <v>990000</v>
       </c>
-      <c r="H76" s="331"/>
-      <c r="I76" s="330"/>
-      <c r="J76" s="332"/>
-      <c r="K76" s="331"/>
-      <c r="L76" s="331"/>
-      <c r="M76" s="331"/>
-      <c r="N76" s="324"/>
-    </row>
-    <row r="77" spans="1:15" s="326" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A77" s="327" t="s">
+      <c r="H76" s="261"/>
+      <c r="I76" s="260"/>
+      <c r="J76" s="262"/>
+      <c r="K76" s="261"/>
+      <c r="L76" s="261"/>
+      <c r="M76" s="261"/>
+      <c r="N76" s="257"/>
+    </row>
+    <row r="77" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A77" s="319" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="328"/>
-      <c r="C77" s="328"/>
-      <c r="D77" s="328"/>
-      <c r="E77" s="329"/>
-      <c r="F77" s="329"/>
-      <c r="G77" s="337">
-        <v>0</v>
-      </c>
-      <c r="H77" s="331"/>
-      <c r="I77" s="330"/>
-      <c r="J77" s="332"/>
-      <c r="K77" s="331"/>
-      <c r="L77" s="331"/>
-      <c r="M77" s="331"/>
-      <c r="N77" s="324"/>
+      <c r="B77" s="320"/>
+      <c r="C77" s="320"/>
+      <c r="D77" s="320"/>
+      <c r="E77" s="259"/>
+      <c r="F77" s="259"/>
+      <c r="G77" s="266">
+        <v>0</v>
+      </c>
+      <c r="H77" s="261"/>
+      <c r="I77" s="260"/>
+      <c r="J77" s="262"/>
+      <c r="K77" s="261"/>
+      <c r="L77" s="261"/>
+      <c r="M77" s="261"/>
+      <c r="N77" s="257"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="73"/>
       <c r="B79" s="73"/>
-      <c r="C79" s="338" t="s">
+      <c r="C79" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="339"/>
-      <c r="E79" s="339"/>
-      <c r="F79" s="339"/>
-      <c r="G79" s="339"/>
+      <c r="D79" s="268"/>
+      <c r="E79" s="268"/>
+      <c r="F79" s="268"/>
+      <c r="G79" s="268"/>
       <c r="H79" s="73"/>
       <c r="I79" s="73"/>
       <c r="J79" s="73"/>
@@ -9838,13 +12640,13 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="73"/>
       <c r="B80" s="73"/>
-      <c r="C80" s="340" t="s">
+      <c r="C80" s="269" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="341"/>
-      <c r="E80" s="341"/>
-      <c r="F80" s="341"/>
-      <c r="G80" s="341"/>
+      <c r="D80" s="270"/>
+      <c r="E80" s="270"/>
+      <c r="F80" s="270"/>
+      <c r="G80" s="270"/>
       <c r="H80" s="73"/>
       <c r="I80" s="73"/>
       <c r="J80" s="73"/>
@@ -9853,7 +12655,7 @@
       <c r="M80" s="73"/>
     </row>
     <row r="83" spans="3:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="338" t="s">
+      <c r="C83" s="267" t="s">
         <v>54</v>
       </c>
       <c r="D83" s="90"/>
@@ -9861,32 +12663,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -9903,18 +12679,44 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9929,10 +12731,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="309"/>
+      <c r="A1" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="345"/>
       <c r="G1" s="131"/>
       <c r="H1" s="131"/>
       <c r="I1" s="131"/>
@@ -9979,14 +12781,14 @@
       <c r="P3" s="135"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="310" t="s">
+      <c r="A4" s="346" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
+      <c r="F4" s="346"/>
       <c r="G4" s="138"/>
       <c r="H4" s="138"/>
       <c r="I4" s="139"/>
@@ -9999,14 +12801,14 @@
       <c r="P4" s="139"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="311" t="s">
+      <c r="A5" s="347" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="311"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
       <c r="I5" s="139"/>
@@ -10019,34 +12821,34 @@
       <c r="P5" s="139"/>
     </row>
     <row r="7" spans="1:16" s="140" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="312" t="s">
+      <c r="A7" s="348" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="313" t="s">
+      <c r="B7" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="314" t="s">
+      <c r="C7" s="350" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="316" t="s">
+      <c r="D7" s="351"/>
+      <c r="E7" s="352" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="313" t="s">
+      <c r="F7" s="349" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="145" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
-      <c r="B8" s="313"/>
+      <c r="A8" s="348"/>
+      <c r="B8" s="349"/>
       <c r="C8" s="146" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="316"/>
-      <c r="F8" s="313"/>
+      <c r="E8" s="352"/>
+      <c r="F8" s="349"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="150">
@@ -10603,26 +13405,37 @@
       <c r="F53" s="210"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="207"/>
+      <c r="A54" s="207">
+        <v>43988</v>
+      </c>
       <c r="B54" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="209"/>
-      <c r="D54" s="209">
+      <c r="C54" s="209">
+        <f>250000</f>
         <v>250000</v>
       </c>
+      <c r="D54" s="209"/>
       <c r="E54" s="210"/>
       <c r="F54" s="210" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="207"/>
-      <c r="B55" s="208"/>
-      <c r="C55" s="209"/>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="207">
+        <v>44009</v>
+      </c>
+      <c r="B55" s="208" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="209">
+        <v>970000</v>
+      </c>
       <c r="D55" s="209"/>
       <c r="E55" s="210"/>
-      <c r="F55" s="210"/>
+      <c r="F55" s="210" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="207"/>
@@ -10729,17 +13542,17 @@
       <c r="F68" s="210"/>
     </row>
     <row r="69" spans="1:6" s="164" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="308" t="s">
+      <c r="A69" s="344" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="308"/>
+      <c r="B69" s="344"/>
       <c r="C69" s="162">
         <f>SUM(C9:C52)</f>
         <v>6864000</v>
       </c>
       <c r="D69" s="162">
         <f>SUM(D9:D68)</f>
-        <v>42132500</v>
+        <v>41882500</v>
       </c>
       <c r="E69" s="163"/>
       <c r="F69" s="163"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="188">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1620,6 +1620,12 @@
   </si>
   <si>
     <t>Khách 2 hộp già (tâm thu)</t>
+  </si>
+  <si>
+    <t>Kho=&gt; An Khánh</t>
+  </si>
+  <si>
+    <t>Tháng 7</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2055,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2842,6 +2848,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5617,11 +5626,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:AE50"/>
+      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8029,11 +8038,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="292"/>
-      <c r="F48" s="304">
+      <c r="F48" s="353">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
         <v>33</v>
       </c>
-      <c r="G48" s="304"/>
+      <c r="G48" s="353"/>
       <c r="H48" s="294">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>0</v>
@@ -8185,6 +8194,11 @@
       </c>
       <c r="AG50" s="280"/>
       <c r="AH50" s="60"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Z51" s="6">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -8241,12 +8255,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8381,7 +8395,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="296" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B4" s="296"/>
       <c r="C4" s="296"/>
@@ -8825,15 +8839,23 @@
       <c r="A12" s="223">
         <v>4</v>
       </c>
-      <c r="B12" s="228"/>
-      <c r="C12" s="229"/>
+      <c r="B12" s="228">
+        <v>44013</v>
+      </c>
+      <c r="C12" s="229" t="s">
+        <v>186</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="227"/>
+      <c r="F12" s="227">
+        <v>12</v>
+      </c>
       <c r="G12" s="227"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="227"/>
+      <c r="J12" s="227">
+        <v>24</v>
+      </c>
       <c r="K12" s="227"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
@@ -8861,7 +8883,7 @@
       </c>
       <c r="AG12" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH12" s="227"/>
     </row>
@@ -8869,17 +8891,27 @@
       <c r="A13" s="230">
         <v>5</v>
       </c>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="228">
+        <v>44014</v>
+      </c>
+      <c r="C13" s="229" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="29">
+        <v>15</v>
+      </c>
       <c r="E13" s="29"/>
       <c r="F13" s="227"/>
       <c r="G13" s="227"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="30">
+        <v>5</v>
+      </c>
       <c r="I13" s="30"/>
       <c r="J13" s="227"/>
       <c r="K13" s="227"/>
-      <c r="L13" s="31"/>
+      <c r="L13" s="31">
+        <v>13</v>
+      </c>
       <c r="M13" s="31"/>
       <c r="N13" s="227"/>
       <c r="O13" s="227"/>
@@ -8887,11 +8919,15 @@
       <c r="Q13" s="32"/>
       <c r="R13" s="227"/>
       <c r="S13" s="227"/>
-      <c r="T13" s="235"/>
+      <c r="T13" s="235">
+        <v>7</v>
+      </c>
       <c r="U13" s="235"/>
       <c r="V13" s="227"/>
       <c r="W13" s="227"/>
-      <c r="X13" s="33"/>
+      <c r="X13" s="33">
+        <v>3</v>
+      </c>
       <c r="Y13" s="33"/>
       <c r="Z13" s="227"/>
       <c r="AA13" s="227"/>
@@ -8905,7 +8941,7 @@
       </c>
       <c r="AG13" s="223">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AH13" s="227"/>
     </row>
@@ -8913,10 +8949,16 @@
       <c r="A14" s="223">
         <v>6</v>
       </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="225"/>
+      <c r="B14" s="224">
+        <v>44013</v>
+      </c>
+      <c r="C14" s="225" t="s">
+        <v>181</v>
+      </c>
       <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="E14" s="37">
+        <v>1</v>
+      </c>
       <c r="F14" s="226"/>
       <c r="G14" s="226"/>
       <c r="H14" s="38"/>
@@ -8945,7 +8987,7 @@
       <c r="AE14" s="226"/>
       <c r="AF14" s="223">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="223">
         <f t="shared" si="1"/>
@@ -8957,8 +8999,12 @@
       <c r="A15" s="230">
         <v>7</v>
       </c>
-      <c r="B15" s="224"/>
-      <c r="C15" s="225"/>
+      <c r="B15" s="224">
+        <v>44014</v>
+      </c>
+      <c r="C15" s="225" t="s">
+        <v>183</v>
+      </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="226"/>
@@ -8974,7 +9020,9 @@
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="226"/>
-      <c r="S15" s="226"/>
+      <c r="S15" s="226">
+        <v>1</v>
+      </c>
       <c r="T15" s="236"/>
       <c r="U15" s="236"/>
       <c r="V15" s="226"/>
@@ -8989,7 +9037,7 @@
       <c r="AE15" s="226"/>
       <c r="AF15" s="223">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="223">
         <f>D15+F15+H15+J15+L15+N15+P15+R15+T15+V15+X15+Z15+AB15+AD15</f>
@@ -10395,27 +10443,27 @@
       <c r="C48" s="291"/>
       <c r="D48" s="292">
         <f>SUM(D9:D46)-SUM(E9:E46)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E48" s="292"/>
-      <c r="F48" s="304">
+      <c r="F48" s="353">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
-        <v>33</v>
-      </c>
-      <c r="G48" s="304"/>
+        <v>45</v>
+      </c>
+      <c r="G48" s="353"/>
       <c r="H48" s="294">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I48" s="294"/>
       <c r="J48" s="281">
         <f>SUM(J9:J46)-SUM(K9:K46)</f>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K48" s="281"/>
       <c r="L48" s="289">
         <f>SUM(L9:L46)-SUM(M9:M46)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M48" s="289"/>
       <c r="N48" s="281">
@@ -10430,12 +10478,12 @@
       <c r="Q48" s="282"/>
       <c r="R48" s="281">
         <f>SUM(R9:R46)-SUM(S9:S46)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S48" s="281"/>
       <c r="T48" s="283">
         <f>SUM(T9:T46)-SUM(U9:U46)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U48" s="283"/>
       <c r="V48" s="281">
@@ -10445,7 +10493,7 @@
       <c r="W48" s="281"/>
       <c r="X48" s="304">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y48" s="304"/>
       <c r="Z48" s="304">
@@ -10466,7 +10514,7 @@
       <c r="AF48" s="43"/>
       <c r="AG48" s="222">
         <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="AH48" s="58"/>
     </row>
@@ -10506,11 +10554,11 @@
       <c r="AE49" s="288"/>
       <c r="AF49" s="59">
         <f>SUM(AF9:AF46)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG49" s="59">
         <f>SUM(AG9:AG46)</f>
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="AH49" s="60"/>
     </row>
@@ -10550,18 +10598,18 @@
       <c r="AE50" s="288"/>
       <c r="AF50" s="279">
         <f>AG49-AF49</f>
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="AG50" s="280"/>
       <c r="AH50" s="60"/>
     </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA51" s="6">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
     <mergeCell ref="AF50:AG50"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="P48:Q48"/>
@@ -10569,6 +10617,11 @@
     <mergeCell ref="T48:U48"/>
     <mergeCell ref="V48:W48"/>
     <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -10585,11 +10638,6 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -10601,6 +10649,11 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:AG6"/>
     <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10611,8 +10664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DOANH THU" sheetId="2" r:id="rId4"/>
     <sheet name="CHI PHÍ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +719,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -888,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="189">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1626,12 +1626,15 @@
   </si>
   <si>
     <t>Tháng 7</t>
+  </si>
+  <si>
+    <t>kHÁCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -1848,7 +1851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2045,6 +2048,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2055,7 +2084,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2705,9 +2734,30 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2848,9 +2898,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2918,7 +2965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2953,7 +3000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3169,16 +3216,16 @@
       <selection pane="bottomLeft" activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -3337,7 +3384,7 @@
       <c r="AG4" s="296"/>
       <c r="AH4" s="296"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="296"/>
       <c r="B5" s="296"/>
       <c r="C5" s="296"/>
@@ -3861,7 +3908,7 @@
       </c>
       <c r="AH13" s="88"/>
     </row>
-    <row r="14" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="143">
         <v>6</v>
       </c>
@@ -4285,7 +4332,7 @@
       </c>
       <c r="AH21" s="88"/>
     </row>
-    <row r="22" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="143">
         <v>14</v>
       </c>
@@ -4439,7 +4486,7 @@
       </c>
       <c r="AH24" s="88"/>
     </row>
-    <row r="25" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>17</v>
       </c>
@@ -4495,7 +4542,7 @@
       </c>
       <c r="AH25" s="88"/>
     </row>
-    <row r="26" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="143">
         <v>18</v>
       </c>
@@ -4549,7 +4596,7 @@
       </c>
       <c r="AH26" s="88"/>
     </row>
-    <row r="27" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>19</v>
       </c>
@@ -4603,7 +4650,7 @@
       </c>
       <c r="AH27" s="88"/>
     </row>
-    <row r="28" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="143">
         <v>20</v>
       </c>
@@ -4653,7 +4700,7 @@
       </c>
       <c r="AH28" s="88"/>
     </row>
-    <row r="29" spans="1:34" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="87" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>21</v>
       </c>
@@ -4703,7 +4750,7 @@
       </c>
       <c r="AH29" s="88"/>
     </row>
-    <row r="30" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="143">
         <v>22</v>
       </c>
@@ -4753,7 +4800,7 @@
       </c>
       <c r="AH30" s="88"/>
     </row>
-    <row r="31" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>23</v>
       </c>
@@ -4855,7 +4902,7 @@
       </c>
       <c r="AH32" s="88"/>
     </row>
-    <row r="33" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>25</v>
       </c>
@@ -4905,7 +4952,7 @@
       </c>
       <c r="AH33" s="88"/>
     </row>
-    <row r="34" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="143">
         <v>26</v>
       </c>
@@ -5267,7 +5314,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>33</v>
       </c>
@@ -5629,20 +5676,20 @@
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48:G48"/>
+      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="105" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="105" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5801,7 +5848,7 @@
       <c r="AG4" s="296"/>
       <c r="AH4" s="296"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="296"/>
       <c r="B5" s="296"/>
       <c r="C5" s="296"/>
@@ -5919,10 +5966,10 @@
         <v>16</v>
       </c>
       <c r="S7" s="274"/>
-      <c r="T7" s="305" t="s">
+      <c r="T7" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="305"/>
+      <c r="U7" s="306"/>
       <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
@@ -7073,7 +7120,7 @@
       </c>
       <c r="AH28" s="21"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>21</v>
       </c>
@@ -7943,7 +7990,7 @@
       <c r="AG45" s="20"/>
       <c r="AH45" s="36"/>
     </row>
-    <row r="46" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>38</v>
       </c>
@@ -7993,7 +8040,7 @@
       </c>
       <c r="AH46" s="36"/>
     </row>
-    <row r="47" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
       <c r="B47" s="53"/>
       <c r="C47" s="104"/>
@@ -8029,7 +8076,7 @@
       <c r="AG47" s="55"/>
       <c r="AH47" s="54"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="290"/>
       <c r="C48" s="291"/>
@@ -8038,11 +8085,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="292"/>
-      <c r="F48" s="353">
+      <c r="F48" s="305">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
         <v>33</v>
       </c>
-      <c r="G48" s="353"/>
+      <c r="G48" s="305"/>
       <c r="H48" s="294">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>0</v>
@@ -8195,7 +8242,7 @@
       <c r="AG50" s="280"/>
       <c r="AH50" s="60"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Z51" s="6">
         <v>16</v>
       </c>
@@ -8257,22 +8304,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="105" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="105" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -8431,7 +8478,7 @@
       <c r="AG4" s="296"/>
       <c r="AH4" s="296"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="296"/>
       <c r="B5" s="296"/>
       <c r="C5" s="296"/>
@@ -8549,10 +8596,10 @@
         <v>16</v>
       </c>
       <c r="S7" s="274"/>
-      <c r="T7" s="305" t="s">
+      <c r="T7" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="305"/>
+      <c r="U7" s="306"/>
       <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
@@ -8820,14 +8867,16 @@
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
+      <c r="AA11" s="227">
+        <v>2</v>
+      </c>
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="227"/>
       <c r="AE11" s="227"/>
       <c r="AF11" s="223">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="223">
         <f t="shared" si="1"/>
@@ -9045,7 +9094,7 @@
       </c>
       <c r="AH15" s="227"/>
     </row>
-    <row r="16" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="223">
         <v>8</v>
       </c>
@@ -9089,7 +9138,7 @@
       </c>
       <c r="AH16" s="227"/>
     </row>
-    <row r="17" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="230">
         <v>9</v>
       </c>
@@ -9133,7 +9182,7 @@
       </c>
       <c r="AH17" s="227"/>
     </row>
-    <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="223">
         <v>10</v>
       </c>
@@ -9177,7 +9226,7 @@
       </c>
       <c r="AH18" s="227"/>
     </row>
-    <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="230">
         <v>11</v>
       </c>
@@ -9221,7 +9270,7 @@
       </c>
       <c r="AH19" s="227"/>
     </row>
-    <row r="20" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="223">
         <v>12</v>
       </c>
@@ -9265,7 +9314,7 @@
       </c>
       <c r="AH20" s="227"/>
     </row>
-    <row r="21" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="230">
         <v>13</v>
       </c>
@@ -9309,7 +9358,7 @@
       </c>
       <c r="AH21" s="227"/>
     </row>
-    <row r="22" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="223">
         <v>14</v>
       </c>
@@ -9353,7 +9402,7 @@
       </c>
       <c r="AH22" s="227"/>
     </row>
-    <row r="23" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="230">
         <v>15</v>
       </c>
@@ -9397,7 +9446,7 @@
       </c>
       <c r="AH23" s="227"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>16</v>
       </c>
@@ -9441,7 +9490,7 @@
       </c>
       <c r="AH24" s="21"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>17</v>
       </c>
@@ -9485,7 +9534,7 @@
       </c>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>18</v>
       </c>
@@ -9529,7 +9578,7 @@
       </c>
       <c r="AH26" s="21"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>19</v>
       </c>
@@ -9573,7 +9622,7 @@
       </c>
       <c r="AH27" s="21"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -9617,7 +9666,7 @@
       </c>
       <c r="AH28" s="21"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>21</v>
       </c>
@@ -9661,7 +9710,7 @@
       </c>
       <c r="AH29" s="21"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>22</v>
       </c>
@@ -9705,7 +9754,7 @@
       </c>
       <c r="AH30" s="21"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>23</v>
       </c>
@@ -9749,7 +9798,7 @@
       </c>
       <c r="AH31" s="21"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>24</v>
       </c>
@@ -10278,7 +10327,9 @@
       <c r="AH43" s="36"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+      <c r="A44" s="20">
+        <v>36</v>
+      </c>
       <c r="B44" s="35"/>
       <c r="C44" s="102"/>
       <c r="D44" s="37"/>
@@ -10348,11 +10399,11 @@
       <c r="AD45" s="36"/>
       <c r="AE45" s="36"/>
       <c r="AF45" s="20">
-        <f t="shared" si="0"/>
+        <f>E45+G45+I45+K45+M45+O45+Q45+S45+U45+W45+Y45+AA45+AC45+AE45</f>
         <v>0</v>
       </c>
       <c r="AG45" s="20">
-        <f t="shared" si="2"/>
+        <f>D45+F45+H45+J45+L45+N45+P45+R45+T45+V45+X45+Z45+AB45+AD45</f>
         <v>0</v>
       </c>
       <c r="AH45" s="36"/>
@@ -10437,7 +10488,7 @@
       <c r="AG47" s="55"/>
       <c r="AH47" s="54"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="290"/>
       <c r="C48" s="291"/>
@@ -10446,11 +10497,11 @@
         <v>14</v>
       </c>
       <c r="E48" s="292"/>
-      <c r="F48" s="353">
+      <c r="F48" s="305">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
         <v>45</v>
       </c>
-      <c r="G48" s="353"/>
+      <c r="G48" s="305"/>
       <c r="H48" s="294">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>5</v>
@@ -10491,21 +10542,21 @@
         <v>24</v>
       </c>
       <c r="W48" s="281"/>
-      <c r="X48" s="304">
+      <c r="X48" s="307">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
         <v>61</v>
       </c>
-      <c r="Y48" s="304"/>
-      <c r="Z48" s="304">
+      <c r="Y48" s="308"/>
+      <c r="Z48" s="309">
         <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
-        <v>18</v>
-      </c>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="304">
+        <v>16</v>
+      </c>
+      <c r="AA48" s="310"/>
+      <c r="AB48" s="311">
         <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
         <v>28</v>
       </c>
-      <c r="AC48" s="304"/>
+      <c r="AC48" s="312"/>
       <c r="AD48" s="281">
         <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
         <v>0</v>
@@ -10514,7 +10565,7 @@
       <c r="AF48" s="43"/>
       <c r="AG48" s="222">
         <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH48" s="58"/>
     </row>
@@ -10554,7 +10605,7 @@
       <c r="AE49" s="288"/>
       <c r="AF49" s="59">
         <f>SUM(AF9:AF46)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG49" s="59">
         <f>SUM(AG9:AG46)</f>
@@ -10598,7 +10649,7 @@
       <c r="AE50" s="288"/>
       <c r="AF50" s="279">
         <f>AG49-AF49</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG50" s="280"/>
       <c r="AH50" s="60"/>
@@ -10656,7 +10707,8 @@
     <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10664,30 +10716,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="92" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="91" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="73" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="92" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="91" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="73" customWidth="1"/>
     <col min="5" max="5" width="5" style="73" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="93" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="93" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="94"/>
+    <col min="6" max="6" width="10.88671875" style="93" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="93" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="94"/>
     <col min="10" max="10" width="13" style="93" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="93" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="93" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="73" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="73"/>
+    <col min="11" max="11" width="11.88671875" style="93" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="93" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="73" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
@@ -10703,7 +10755,7 @@
       <c r="M1" s="67"/>
       <c r="N1" s="68"/>
     </row>
-    <row r="2" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
@@ -10719,147 +10771,147 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="333" t="s">
+    <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="340" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="340"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
     </row>
-    <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="333" t="s">
+    <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="340" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="333"/>
-      <c r="I4" s="333"/>
-      <c r="J4" s="333"/>
-      <c r="K4" s="333"/>
-      <c r="L4" s="333"/>
-      <c r="M4" s="333"/>
-      <c r="N4" s="333"/>
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="340"/>
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="340"/>
+      <c r="N4" s="340"/>
       <c r="O4" s="100"/>
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="333"/>
-      <c r="B5" s="333"/>
-      <c r="C5" s="333"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="333"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="333"/>
-      <c r="H5" s="333"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
+    <row r="5" spans="1:17" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="340"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="340"/>
+      <c r="D5" s="340"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="340"/>
+      <c r="G5" s="340"/>
+      <c r="H5" s="340"/>
+      <c r="I5" s="341"/>
+      <c r="J5" s="341"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="335" t="s">
+    <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="342" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="337" t="s">
+      <c r="B6" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="337"/>
-      <c r="D6" s="338" t="s">
+      <c r="C6" s="344"/>
+      <c r="D6" s="345" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="338"/>
-      <c r="K6" s="341" t="s">
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="345"/>
+      <c r="K6" s="348" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="341"/>
-      <c r="M6" s="341"/>
-      <c r="N6" s="342" t="s">
+      <c r="L6" s="348"/>
+      <c r="M6" s="348"/>
+      <c r="N6" s="349" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="336"/>
-      <c r="B7" s="339" t="s">
+    <row r="7" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="343"/>
+      <c r="B7" s="346" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="339" t="s">
+      <c r="D7" s="346" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="339" t="s">
+      <c r="E7" s="346" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="306" t="s">
+      <c r="F7" s="313" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="306" t="s">
+      <c r="G7" s="313" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="317" t="s">
+      <c r="H7" s="324" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="317"/>
-      <c r="J7" s="306" t="s">
+      <c r="I7" s="324"/>
+      <c r="J7" s="313" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="306" t="s">
+      <c r="K7" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="306" t="s">
+      <c r="L7" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="306" t="s">
+      <c r="M7" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="343"/>
-    </row>
-    <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="336"/>
-      <c r="B8" s="340"/>
-      <c r="C8" s="340"/>
-      <c r="D8" s="340"/>
-      <c r="E8" s="340"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
+      <c r="N7" s="350"/>
+    </row>
+    <row r="8" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="343"/>
+      <c r="B8" s="347"/>
+      <c r="C8" s="347"/>
+      <c r="D8" s="347"/>
+      <c r="E8" s="347"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="314"/>
       <c r="H8" s="240" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="307"/>
-      <c r="K8" s="307"/>
-      <c r="L8" s="307"/>
-      <c r="M8" s="307"/>
-      <c r="N8" s="343"/>
+      <c r="J8" s="314"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="314"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="350"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
@@ -10901,10 +10953,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="314">
+      <c r="A10" s="321">
         <v>43958</v>
       </c>
-      <c r="B10" s="308" t="s">
+      <c r="B10" s="315" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="95"/>
@@ -10935,8 +10987,8 @@
       <c r="N10" s="74"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="316"/>
-      <c r="B11" s="310"/>
+      <c r="A11" s="323"/>
+      <c r="B11" s="317"/>
       <c r="C11" s="112"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
@@ -10965,10 +11017,10 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="314">
+      <c r="A12" s="321">
         <v>43958</v>
       </c>
-      <c r="B12" s="308" t="s">
+      <c r="B12" s="315" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="95"/>
@@ -10999,8 +11051,8 @@
       <c r="N12" s="74"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="316"/>
-      <c r="B13" s="310"/>
+      <c r="A13" s="323"/>
+      <c r="B13" s="317"/>
       <c r="C13" s="83"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
@@ -11028,7 +11080,7 @@
       <c r="M13" s="115"/>
       <c r="N13" s="116"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="117">
         <v>43958</v>
       </c>
@@ -11063,10 +11115,10 @@
       <c r="N14" s="120"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="314">
+      <c r="A15" s="321">
         <v>43958</v>
       </c>
-      <c r="B15" s="308" t="s">
+      <c r="B15" s="315" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="95"/>
@@ -11083,7 +11135,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="311">
+      <c r="H15" s="318">
         <v>288000</v>
       </c>
       <c r="I15" s="76">
@@ -11099,13 +11151,13 @@
       </c>
       <c r="L15" s="114"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="321" t="s">
+      <c r="N15" s="328" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="315"/>
-      <c r="B16" s="309"/>
+      <c r="A16" s="322"/>
+      <c r="B16" s="316"/>
       <c r="C16" s="96"/>
       <c r="D16" s="84" t="s">
         <v>20</v>
@@ -11120,7 +11172,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="312"/>
+      <c r="H16" s="319"/>
       <c r="I16" s="86">
         <v>0.1</v>
       </c>
@@ -11134,11 +11186,11 @@
       </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="322"/>
+      <c r="N16" s="329"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="315"/>
-      <c r="B17" s="309"/>
+      <c r="A17" s="322"/>
+      <c r="B17" s="316"/>
       <c r="C17" s="96"/>
       <c r="D17" s="84" t="s">
         <v>10</v>
@@ -11153,7 +11205,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="312"/>
+      <c r="H17" s="319"/>
       <c r="I17" s="86">
         <v>0.1</v>
       </c>
@@ -11167,11 +11219,11 @@
       </c>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="322"/>
+      <c r="N17" s="329"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="316"/>
-      <c r="B18" s="310"/>
+      <c r="A18" s="323"/>
+      <c r="B18" s="317"/>
       <c r="C18" s="83"/>
       <c r="D18" s="83" t="s">
         <v>21</v>
@@ -11186,7 +11238,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="313"/>
+      <c r="H18" s="320"/>
       <c r="I18" s="124">
         <v>0.1</v>
       </c>
@@ -11200,13 +11252,13 @@
       </c>
       <c r="L18" s="123"/>
       <c r="M18" s="123"/>
-      <c r="N18" s="323"/>
+      <c r="N18" s="330"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="314">
+      <c r="A19" s="321">
         <v>43958</v>
       </c>
-      <c r="B19" s="308" t="s">
+      <c r="B19" s="315" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="113"/>
@@ -11239,13 +11291,13 @@
       </c>
       <c r="L19" s="121"/>
       <c r="M19" s="121"/>
-      <c r="N19" s="325" t="s">
+      <c r="N19" s="332" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="315"/>
-      <c r="B20" s="309"/>
+      <c r="A20" s="322"/>
+      <c r="B20" s="316"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
         <v>21</v>
@@ -11276,11 +11328,11 @@
       </c>
       <c r="L20" s="81"/>
       <c r="M20" s="81"/>
-      <c r="N20" s="326"/>
+      <c r="N20" s="333"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="316"/>
-      <c r="B21" s="310"/>
+      <c r="A21" s="323"/>
+      <c r="B21" s="317"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125" t="s">
         <v>14</v>
@@ -11311,7 +11363,7 @@
       </c>
       <c r="L21" s="126"/>
       <c r="M21" s="126"/>
-      <c r="N21" s="327"/>
+      <c r="N21" s="334"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="117">
@@ -11393,7 +11445,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="314">
+      <c r="A24" s="321">
         <v>43962</v>
       </c>
       <c r="B24" s="144" t="s">
@@ -11429,12 +11481,12 @@
       </c>
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
-      <c r="N24" s="328" t="s">
+      <c r="N24" s="335" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="316"/>
+      <c r="A25" s="323"/>
       <c r="B25" s="83" t="s">
         <v>68</v>
       </c>
@@ -11468,7 +11520,7 @@
       </c>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="329"/>
+      <c r="N25" s="336"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="117">
@@ -11587,29 +11639,46 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="96"/>
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="97">
+        <v>44013</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>188</v>
+      </c>
       <c r="C29" s="96"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
+      <c r="D29" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="84">
+        <v>1</v>
+      </c>
+      <c r="F29" s="85">
+        <v>225000</v>
+      </c>
       <c r="G29" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="85"/>
+        <v>225000</v>
+      </c>
+      <c r="H29" s="85">
+        <v>5000</v>
+      </c>
       <c r="I29" s="86"/>
       <c r="J29" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="85"/>
+        <v>220000</v>
+      </c>
+      <c r="K29" s="85">
+        <f>J29</f>
+        <v>220000</v>
+      </c>
       <c r="L29" s="85"/>
       <c r="M29" s="85"/>
-      <c r="N29" s="84"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="97"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -11631,7 +11700,7 @@
       <c r="M30" s="85"/>
       <c r="N30" s="84"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="98"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -11653,7 +11722,7 @@
       <c r="M31" s="85"/>
       <c r="N31" s="84"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="98"/>
       <c r="B32" s="80"/>
       <c r="C32" s="80"/>
@@ -11675,7 +11744,7 @@
       <c r="M32" s="85"/>
       <c r="N32" s="84"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="98"/>
       <c r="B33" s="80"/>
       <c r="C33" s="80"/>
@@ -11697,7 +11766,7 @@
       <c r="M33" s="85"/>
       <c r="N33" s="84"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="98"/>
       <c r="B34" s="80"/>
       <c r="C34" s="80"/>
@@ -11739,7 +11808,7 @@
       <c r="K35" s="85"/>
       <c r="L35" s="85"/>
       <c r="M35" s="85"/>
-      <c r="N35" s="332"/>
+      <c r="N35" s="339"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="98"/>
@@ -11761,7 +11830,7 @@
       <c r="K36" s="85"/>
       <c r="L36" s="85"/>
       <c r="M36" s="85"/>
-      <c r="N36" s="332"/>
+      <c r="N36" s="339"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="98"/>
@@ -11783,7 +11852,7 @@
       <c r="K37" s="85"/>
       <c r="L37" s="85"/>
       <c r="M37" s="85"/>
-      <c r="N37" s="332"/>
+      <c r="N37" s="339"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="98"/>
@@ -11805,7 +11874,7 @@
       <c r="K38" s="85"/>
       <c r="L38" s="85"/>
       <c r="M38" s="85"/>
-      <c r="N38" s="332"/>
+      <c r="N38" s="339"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="98"/>
@@ -11827,7 +11896,7 @@
       <c r="K39" s="85"/>
       <c r="L39" s="85"/>
       <c r="M39" s="85"/>
-      <c r="N39" s="332"/>
+      <c r="N39" s="339"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="98"/>
@@ -11849,7 +11918,7 @@
       <c r="K40" s="85"/>
       <c r="L40" s="85"/>
       <c r="M40" s="85"/>
-      <c r="N40" s="332"/>
+      <c r="N40" s="339"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="97"/>
@@ -11915,7 +11984,7 @@
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
       <c r="M43" s="85"/>
-      <c r="N43" s="332"/>
+      <c r="N43" s="339"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="98"/>
@@ -11937,7 +12006,7 @@
       <c r="K44" s="85"/>
       <c r="L44" s="85"/>
       <c r="M44" s="85"/>
-      <c r="N44" s="332"/>
+      <c r="N44" s="339"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="98"/>
@@ -11959,7 +12028,7 @@
       <c r="K45" s="85"/>
       <c r="L45" s="85"/>
       <c r="M45" s="85"/>
-      <c r="N45" s="332"/>
+      <c r="N45" s="339"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="97"/>
@@ -12533,31 +12602,31 @@
       <c r="M71" s="78"/>
       <c r="N71" s="77"/>
     </row>
-    <row r="72" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="330" t="s">
+    <row r="72" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A72" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="331"/>
-      <c r="C72" s="331"/>
-      <c r="D72" s="331"/>
+      <c r="B72" s="338"/>
+      <c r="C72" s="338"/>
+      <c r="D72" s="338"/>
       <c r="E72" s="252">
         <f>SUM(E9:E71)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F72" s="252"/>
       <c r="G72" s="253">
         <f>SUM(G9:G71)</f>
-        <v>17075000</v>
+        <v>17300000</v>
       </c>
       <c r="H72" s="254"/>
       <c r="I72" s="253"/>
       <c r="J72" s="255">
         <f>SUM(J9:J71)</f>
-        <v>7899000</v>
+        <v>8119000</v>
       </c>
       <c r="K72" s="256">
         <f>SUM(K9:K71)</f>
-        <v>6619000</v>
+        <v>6839000</v>
       </c>
       <c r="L72" s="256">
         <f>SUM(L10:L23)</f>
@@ -12565,20 +12634,20 @@
       </c>
       <c r="M72" s="256"/>
       <c r="N72" s="257"/>
-      <c r="O72" s="318"/>
-    </row>
-    <row r="73" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A73" s="319" t="s">
+      <c r="O72" s="325"/>
+    </row>
+    <row r="73" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A73" s="326" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="320"/>
-      <c r="C73" s="320"/>
-      <c r="D73" s="320"/>
+      <c r="B73" s="327"/>
+      <c r="C73" s="327"/>
+      <c r="D73" s="327"/>
       <c r="E73" s="259"/>
       <c r="F73" s="259"/>
       <c r="G73" s="260">
         <f>G72</f>
-        <v>17075000</v>
+        <v>17300000</v>
       </c>
       <c r="H73" s="261"/>
       <c r="I73" s="260"/>
@@ -12587,20 +12656,20 @@
       <c r="L73" s="261"/>
       <c r="M73" s="261"/>
       <c r="N73" s="257"/>
-      <c r="O73" s="318"/>
-    </row>
-    <row r="74" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A74" s="319" t="s">
+      <c r="O73" s="325"/>
+    </row>
+    <row r="74" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A74" s="326" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="320"/>
-      <c r="C74" s="320"/>
-      <c r="D74" s="324"/>
+      <c r="B74" s="327"/>
+      <c r="C74" s="327"/>
+      <c r="D74" s="331"/>
       <c r="E74" s="259"/>
       <c r="F74" s="259"/>
       <c r="G74" s="260">
         <f>J72</f>
-        <v>7899000</v>
+        <v>8119000</v>
       </c>
       <c r="H74" s="261"/>
       <c r="I74" s="260"/>
@@ -12611,18 +12680,18 @@
       <c r="N74" s="257"/>
       <c r="O74" s="263"/>
     </row>
-    <row r="75" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A75" s="319" t="s">
+    <row r="75" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A75" s="326" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="320"/>
-      <c r="C75" s="320"/>
-      <c r="D75" s="320"/>
+      <c r="B75" s="327"/>
+      <c r="C75" s="327"/>
+      <c r="D75" s="327"/>
       <c r="E75" s="259"/>
       <c r="F75" s="259"/>
       <c r="G75" s="264">
         <f>K72</f>
-        <v>6619000</v>
+        <v>6839000</v>
       </c>
       <c r="H75" s="265"/>
       <c r="I75" s="265"/>
@@ -12632,13 +12701,13 @@
       <c r="M75" s="261"/>
       <c r="N75" s="257"/>
     </row>
-    <row r="76" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A76" s="319" t="s">
+    <row r="76" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A76" s="326" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="320"/>
-      <c r="C76" s="320"/>
-      <c r="D76" s="320"/>
+      <c r="B76" s="327"/>
+      <c r="C76" s="327"/>
+      <c r="D76" s="327"/>
       <c r="E76" s="259"/>
       <c r="F76" s="259"/>
       <c r="G76" s="266">
@@ -12653,13 +12722,13 @@
       <c r="M76" s="261"/>
       <c r="N76" s="257"/>
     </row>
-    <row r="77" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A77" s="319" t="s">
+    <row r="77" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A77" s="326" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="320"/>
-      <c r="C77" s="320"/>
-      <c r="D77" s="320"/>
+      <c r="B77" s="327"/>
+      <c r="C77" s="327"/>
+      <c r="D77" s="327"/>
       <c r="E77" s="259"/>
       <c r="F77" s="259"/>
       <c r="G77" s="266">
@@ -12772,22 +12841,22 @@
       <selection activeCell="A56" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="165" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="166" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="148" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="148" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="149" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="149" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="149"/>
+    <col min="1" max="1" width="10.109375" style="165" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="166" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="148" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="148" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="149" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="149" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="345"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="352"/>
       <c r="G1" s="131"/>
       <c r="H1" s="131"/>
       <c r="I1" s="131"/>
@@ -12799,7 +12868,7 @@
       <c r="O1" s="134"/>
       <c r="P1" s="135"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="141" t="s">
         <v>2</v>
       </c>
@@ -12833,15 +12902,15 @@
       <c r="O3" s="134"/>
       <c r="P3" s="135"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="346" t="s">
+    <row r="4" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="353" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
+      <c r="B4" s="353"/>
+      <c r="C4" s="353"/>
+      <c r="D4" s="353"/>
+      <c r="E4" s="353"/>
+      <c r="F4" s="353"/>
       <c r="G4" s="138"/>
       <c r="H4" s="138"/>
       <c r="I4" s="139"/>
@@ -12853,15 +12922,15 @@
       <c r="O4" s="139"/>
       <c r="P4" s="139"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="347" t="s">
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="354" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="347"/>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
+      <c r="B5" s="354"/>
+      <c r="C5" s="354"/>
+      <c r="D5" s="354"/>
+      <c r="E5" s="354"/>
+      <c r="F5" s="354"/>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
       <c r="I5" s="139"/>
@@ -12873,37 +12942,37 @@
       <c r="O5" s="139"/>
       <c r="P5" s="139"/>
     </row>
-    <row r="7" spans="1:16" s="140" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="348" t="s">
+    <row r="7" spans="1:16" s="140" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="355" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="349" t="s">
+      <c r="B7" s="356" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="350" t="s">
+      <c r="C7" s="357" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="351"/>
-      <c r="E7" s="352" t="s">
+      <c r="D7" s="358"/>
+      <c r="E7" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="349" t="s">
+      <c r="F7" s="356" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="145" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="348"/>
-      <c r="B8" s="349"/>
+    <row r="8" spans="1:16" s="145" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="355"/>
+      <c r="B8" s="356"/>
       <c r="C8" s="146" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="352"/>
-      <c r="F8" s="349"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="359"/>
+      <c r="F8" s="356"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="150">
         <v>43955</v>
       </c>
@@ -12917,7 +12986,7 @@
       <c r="E9" s="153"/>
       <c r="F9" s="153"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
       <c r="B10" s="155" t="s">
         <v>87</v>
@@ -12929,7 +12998,7 @@
       <c r="E10" s="157"/>
       <c r="F10" s="157"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="154"/>
       <c r="B11" s="155" t="s">
         <v>88</v>
@@ -12941,7 +13010,7 @@
       <c r="E11" s="157"/>
       <c r="F11" s="157"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="154"/>
       <c r="B12" s="155" t="s">
         <v>89</v>
@@ -12953,7 +13022,7 @@
       <c r="E12" s="157"/>
       <c r="F12" s="157"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="155" t="s">
         <v>90</v>
@@ -12965,7 +13034,7 @@
       <c r="E13" s="157"/>
       <c r="F13" s="157"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="154"/>
       <c r="B14" s="155" t="s">
         <v>91</v>
@@ -12977,7 +13046,7 @@
       <c r="E14" s="157"/>
       <c r="F14" s="157"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="154"/>
       <c r="B15" s="155" t="s">
         <v>92</v>
@@ -12989,7 +13058,7 @@
       <c r="E15" s="157"/>
       <c r="F15" s="157"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="154"/>
       <c r="B16" s="155" t="s">
         <v>93</v>
@@ -13001,7 +13070,7 @@
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="154"/>
       <c r="B17" s="155" t="s">
         <v>94</v>
@@ -13013,7 +13082,7 @@
       <c r="E17" s="157"/>
       <c r="F17" s="157"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="154"/>
       <c r="B18" s="155" t="s">
         <v>95</v>
@@ -13025,7 +13094,7 @@
       <c r="E18" s="157"/>
       <c r="F18" s="157"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="154"/>
       <c r="B19" s="155" t="s">
         <v>96</v>
@@ -13037,7 +13106,7 @@
       <c r="E19" s="157"/>
       <c r="F19" s="157"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="154"/>
       <c r="B20" s="155" t="s">
         <v>97</v>
@@ -13049,7 +13118,7 @@
       <c r="E20" s="157"/>
       <c r="F20" s="157"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="154"/>
       <c r="B21" s="155" t="s">
         <v>98</v>
@@ -13061,7 +13130,7 @@
       <c r="E21" s="157"/>
       <c r="F21" s="157"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="154"/>
       <c r="B22" s="155" t="s">
         <v>99</v>
@@ -13073,7 +13142,7 @@
       <c r="E22" s="157"/>
       <c r="F22" s="157"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="154"/>
       <c r="B23" s="155" t="s">
         <v>100</v>
@@ -13086,7 +13155,7 @@
       <c r="E23" s="157"/>
       <c r="F23" s="157"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="154">
         <v>43957</v>
       </c>
@@ -13100,7 +13169,7 @@
       <c r="E24" s="157"/>
       <c r="F24" s="157"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="154"/>
       <c r="B25" s="155" t="s">
         <v>102</v>
@@ -13112,7 +13181,7 @@
       <c r="E25" s="157"/>
       <c r="F25" s="157"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="154"/>
       <c r="B26" s="155" t="s">
         <v>103</v>
@@ -13124,7 +13193,7 @@
       <c r="E26" s="157"/>
       <c r="F26" s="157"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="154"/>
       <c r="B27" s="155" t="s">
         <v>104</v>
@@ -13136,7 +13205,7 @@
       <c r="E27" s="157"/>
       <c r="F27" s="157"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="154"/>
       <c r="B28" s="155" t="s">
         <v>105</v>
@@ -13148,7 +13217,7 @@
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="154"/>
       <c r="B29" s="155" t="s">
         <v>106</v>
@@ -13161,7 +13230,7 @@
       <c r="E29" s="157"/>
       <c r="F29" s="157"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="154"/>
       <c r="B30" s="155" t="s">
         <v>107</v>
@@ -13174,7 +13243,7 @@
       <c r="E30" s="157"/>
       <c r="F30" s="157"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="154"/>
       <c r="B31" s="155" t="s">
         <v>108</v>
@@ -13186,7 +13255,7 @@
       <c r="E31" s="157"/>
       <c r="F31" s="157"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="154"/>
       <c r="B32" s="155" t="s">
         <v>109</v>
@@ -13198,7 +13267,7 @@
       <c r="E32" s="157"/>
       <c r="F32" s="157"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="154"/>
       <c r="B33" s="155" t="s">
         <v>110</v>
@@ -13210,7 +13279,7 @@
       <c r="E33" s="157"/>
       <c r="F33" s="157"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="154"/>
       <c r="B34" s="155" t="s">
         <v>111</v>
@@ -13223,7 +13292,7 @@
       <c r="E34" s="157"/>
       <c r="F34" s="157"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="154"/>
       <c r="B35" s="155" t="s">
         <v>91</v>
@@ -13235,7 +13304,7 @@
       <c r="E35" s="157"/>
       <c r="F35" s="157"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="154">
         <v>43958</v>
       </c>
@@ -13249,7 +13318,7 @@
       <c r="E36" s="157"/>
       <c r="F36" s="157"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="154">
         <v>43959</v>
       </c>
@@ -13263,7 +13332,7 @@
       <c r="E37" s="157"/>
       <c r="F37" s="157"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="154">
         <v>43959</v>
       </c>
@@ -13277,7 +13346,7 @@
       <c r="E38" s="157"/>
       <c r="F38" s="157"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="154">
         <v>43959</v>
       </c>
@@ -13291,7 +13360,7 @@
       <c r="E39" s="157"/>
       <c r="F39" s="157"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="154">
         <v>43962</v>
       </c>
@@ -13307,7 +13376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="154">
         <v>43964</v>
       </c>
@@ -13323,7 +13392,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="154">
         <v>43964</v>
       </c>
@@ -13337,7 +13406,7 @@
       <c r="E42" s="157"/>
       <c r="F42" s="157"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="154"/>
       <c r="B43" s="155"/>
       <c r="C43" s="156"/>
@@ -13345,7 +13414,7 @@
       <c r="E43" s="157"/>
       <c r="F43" s="157"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="154"/>
       <c r="B44" s="155"/>
       <c r="C44" s="156"/>
@@ -13353,7 +13422,7 @@
       <c r="E44" s="157"/>
       <c r="F44" s="157"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="154"/>
       <c r="B45" s="155"/>
       <c r="C45" s="156"/>
@@ -13361,7 +13430,7 @@
       <c r="E45" s="157"/>
       <c r="F45" s="157"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="158"/>
       <c r="B46" s="159"/>
       <c r="C46" s="160"/>
@@ -13369,7 +13438,7 @@
       <c r="E46" s="161"/>
       <c r="F46" s="161"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="154">
         <v>43962</v>
       </c>
@@ -13383,7 +13452,7 @@
       <c r="E47" s="157"/>
       <c r="F47" s="157"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="154"/>
       <c r="B48" s="155" t="s">
         <v>122</v>
@@ -13395,7 +13464,7 @@
       <c r="E48" s="157"/>
       <c r="F48" s="157"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="154"/>
       <c r="B49" s="155" t="s">
         <v>123</v>
@@ -13407,7 +13476,7 @@
       <c r="E49" s="157"/>
       <c r="F49" s="157"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="154"/>
       <c r="B50" s="155" t="s">
         <v>124</v>
@@ -13419,7 +13488,7 @@
       <c r="E50" s="157"/>
       <c r="F50" s="157"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="154"/>
       <c r="B51" s="155" t="s">
         <v>153</v>
@@ -13431,7 +13500,7 @@
       <c r="E51" s="157"/>
       <c r="F51" s="157"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="154"/>
       <c r="B52" s="155" t="s">
         <v>125</v>
@@ -13443,7 +13512,7 @@
       <c r="E52" s="157"/>
       <c r="F52" s="157"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="207">
         <v>43987</v>
       </c>
@@ -13457,7 +13526,7 @@
       <c r="E53" s="210"/>
       <c r="F53" s="210"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="207">
         <v>43988</v>
       </c>
@@ -13474,7 +13543,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="207">
         <v>44009</v>
       </c>
@@ -13490,7 +13559,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="207"/>
       <c r="B56" s="208"/>
       <c r="C56" s="209"/>
@@ -13498,7 +13567,7 @@
       <c r="E56" s="210"/>
       <c r="F56" s="210"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="207"/>
       <c r="B57" s="208"/>
       <c r="C57" s="209"/>
@@ -13506,7 +13575,7 @@
       <c r="E57" s="210"/>
       <c r="F57" s="210"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="207"/>
       <c r="B58" s="208"/>
       <c r="C58" s="209"/>
@@ -13514,7 +13583,7 @@
       <c r="E58" s="210"/>
       <c r="F58" s="210"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="207"/>
       <c r="B59" s="208"/>
       <c r="C59" s="209"/>
@@ -13522,7 +13591,7 @@
       <c r="E59" s="210"/>
       <c r="F59" s="210"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="207"/>
       <c r="B60" s="208"/>
       <c r="C60" s="209"/>
@@ -13530,7 +13599,7 @@
       <c r="E60" s="210"/>
       <c r="F60" s="210"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="207"/>
       <c r="B61" s="208"/>
       <c r="C61" s="209"/>
@@ -13538,7 +13607,7 @@
       <c r="E61" s="210"/>
       <c r="F61" s="210"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="207"/>
       <c r="B62" s="208"/>
       <c r="C62" s="209"/>
@@ -13546,7 +13615,7 @@
       <c r="E62" s="210"/>
       <c r="F62" s="210"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="207"/>
       <c r="B63" s="208"/>
       <c r="C63" s="209"/>
@@ -13554,7 +13623,7 @@
       <c r="E63" s="210"/>
       <c r="F63" s="210"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="207"/>
       <c r="B64" s="208"/>
       <c r="C64" s="209"/>
@@ -13562,7 +13631,7 @@
       <c r="E64" s="210"/>
       <c r="F64" s="210"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="207"/>
       <c r="B65" s="208"/>
       <c r="C65" s="209"/>
@@ -13570,7 +13639,7 @@
       <c r="E65" s="210"/>
       <c r="F65" s="210"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="207"/>
       <c r="B66" s="208"/>
       <c r="C66" s="209"/>
@@ -13578,7 +13647,7 @@
       <c r="E66" s="210"/>
       <c r="F66" s="210"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="207"/>
       <c r="B67" s="208"/>
       <c r="C67" s="209"/>
@@ -13586,7 +13655,7 @@
       <c r="E67" s="210"/>
       <c r="F67" s="210"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="207"/>
       <c r="B68" s="208"/>
       <c r="C68" s="209"/>
@@ -13594,11 +13663,11 @@
       <c r="E68" s="210"/>
       <c r="F68" s="210"/>
     </row>
-    <row r="69" spans="1:6" s="164" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="344" t="s">
+    <row r="69" spans="1:6" s="164" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="351" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="344"/>
+      <c r="B69" s="351"/>
       <c r="C69" s="162">
         <f>SUM(C9:C52)</f>
         <v>6864000</v>
@@ -13610,7 +13679,7 @@
       <c r="E69" s="163"/>
       <c r="F69" s="163"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="149" t="s">
         <v>85</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DOANH THU" sheetId="2" r:id="rId4"/>
     <sheet name="CHI PHÍ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +719,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -888,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="196">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1409,9 +1409,6 @@
     <t>Bán hàng, khách gửi CK (31 Nguyễn Quốc Trị)</t>
   </si>
   <si>
-    <t>Bán hàng (Tâm bán)</t>
-  </si>
-  <si>
     <t>Lắp wf</t>
   </si>
   <si>
@@ -1442,9 +1439,6 @@
     <t xml:space="preserve">Sửa nhà </t>
   </si>
   <si>
-    <t>(Từ lúc mở đại lý tới hết ngày 20/05/2020)</t>
-  </si>
-  <si>
     <t>Chị hảo Linh Đàm (DT công ty)</t>
   </si>
   <si>
@@ -1583,9 +1577,6 @@
     <t>Chị Phú DVH</t>
   </si>
   <si>
-    <t>A Lâm chưa thu tiền</t>
-  </si>
-  <si>
     <t>Bỉm (hoàng thu đã trả tâm)</t>
   </si>
   <si>
@@ -1629,12 +1620,42 @@
   </si>
   <si>
     <t>kHÁCH</t>
+  </si>
+  <si>
+    <t>Tã già</t>
+  </si>
+  <si>
+    <t>Hằng thu tiền</t>
+  </si>
+  <si>
+    <t>Khách 1CX45 (tâm thu)</t>
+  </si>
+  <si>
+    <t>Khách tã già (hoàng bán hằng thu)</t>
+  </si>
+  <si>
+    <t>Bán hàng (Tâm bán tâm thu)</t>
+  </si>
+  <si>
+    <t>Kachsh lẻ</t>
+  </si>
+  <si>
+    <t>1h kho kín</t>
+  </si>
+  <si>
+    <t>Chị Hồng Sơn La</t>
+  </si>
+  <si>
+    <t>Văn Sơn</t>
+  </si>
+  <si>
+    <t>Hương khách A Lâm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -2632,6 +2653,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,105 +2749,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2758,12 +2779,96 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2782,95 +2887,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2965,7 +2986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3000,7 +3021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3216,27 +3237,27 @@
       <selection pane="bottomLeft" activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
+      <c r="A1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3269,11 +3290,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -3309,235 +3330,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="296"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="296"/>
-      <c r="AH3" s="296"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="277"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="277"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="296"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="296"/>
-      <c r="W4" s="296"/>
-      <c r="X4" s="296"/>
-      <c r="Y4" s="296"/>
-      <c r="Z4" s="296"/>
-      <c r="AA4" s="296"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="296"/>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="296"/>
-      <c r="AH4" s="296"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="296"/>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="296"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="296"/>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="296"/>
-      <c r="S5" s="296"/>
-      <c r="T5" s="296"/>
-      <c r="U5" s="296"/>
-      <c r="V5" s="296"/>
-      <c r="W5" s="296"/>
-      <c r="X5" s="296"/>
-      <c r="Y5" s="296"/>
-      <c r="Z5" s="296"/>
-      <c r="AA5" s="296"/>
-      <c r="AB5" s="296"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="296"/>
-      <c r="AE5" s="296"/>
+      <c r="A4" s="277" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="277"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="277"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="277"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="277"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="277"/>
+      <c r="AE5" s="277"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="298" t="s">
+      <c r="C6" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="300"/>
-      <c r="AC6" s="300"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="300"/>
-      <c r="AF6" s="300"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="282"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="282"/>
+      <c r="AE6" s="282"/>
+      <c r="AF6" s="282"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="278" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302" t="s">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="302"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="284"/>
+      <c r="F7" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="303" t="s">
+      <c r="G7" s="278"/>
+      <c r="H7" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="285"/>
+      <c r="J7" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="278" t="s">
+      <c r="K7" s="278"/>
+      <c r="L7" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="299"/>
+      <c r="N7" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="273" t="s">
+      <c r="O7" s="278"/>
+      <c r="P7" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="302"/>
+      <c r="R7" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="275" t="s">
+      <c r="S7" s="278"/>
+      <c r="T7" s="303" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="275"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="303"/>
+      <c r="V7" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="293" t="s">
+      <c r="W7" s="278"/>
+      <c r="X7" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="272" t="s">
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="276" t="s">
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="276" t="s">
+      <c r="AG7" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="278"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="298"/>
+      <c r="A8" s="278"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="280"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3622,9 +3643,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="278"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -3908,7 +3929,7 @@
       </c>
       <c r="AH13" s="88"/>
     </row>
-    <row r="14" spans="1:34" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="143">
         <v>6</v>
       </c>
@@ -4332,7 +4353,7 @@
       </c>
       <c r="AH21" s="88"/>
     </row>
-    <row r="22" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="143">
         <v>14</v>
       </c>
@@ -4486,7 +4507,7 @@
       </c>
       <c r="AH24" s="88"/>
     </row>
-    <row r="25" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>17</v>
       </c>
@@ -4542,7 +4563,7 @@
       </c>
       <c r="AH25" s="88"/>
     </row>
-    <row r="26" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="143">
         <v>18</v>
       </c>
@@ -4596,7 +4617,7 @@
       </c>
       <c r="AH26" s="88"/>
     </row>
-    <row r="27" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>19</v>
       </c>
@@ -4604,7 +4625,7 @@
         <v>43967</v>
       </c>
       <c r="C27" s="170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="171"/>
       <c r="E27" s="171"/>
@@ -4650,7 +4671,7 @@
       </c>
       <c r="AH27" s="88"/>
     </row>
-    <row r="28" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="143">
         <v>20</v>
       </c>
@@ -4658,7 +4679,7 @@
         <v>43967</v>
       </c>
       <c r="C28" s="170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="171"/>
       <c r="E28" s="171"/>
@@ -4700,7 +4721,7 @@
       </c>
       <c r="AH28" s="88"/>
     </row>
-    <row r="29" spans="1:34" s="87" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>21</v>
       </c>
@@ -4708,7 +4729,7 @@
         <v>43967</v>
       </c>
       <c r="C29" s="170" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" s="171"/>
       <c r="E29" s="171"/>
@@ -4750,7 +4771,7 @@
       </c>
       <c r="AH29" s="88"/>
     </row>
-    <row r="30" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="143">
         <v>22</v>
       </c>
@@ -4758,7 +4779,7 @@
         <v>43969</v>
       </c>
       <c r="C30" s="170" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D30" s="171"/>
       <c r="E30" s="171"/>
@@ -4800,7 +4821,7 @@
       </c>
       <c r="AH30" s="88"/>
     </row>
-    <row r="31" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>23</v>
       </c>
@@ -4808,7 +4829,7 @@
         <v>43971</v>
       </c>
       <c r="C31" s="170" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="171"/>
       <c r="E31" s="171"/>
@@ -4858,7 +4879,7 @@
         <v>43969</v>
       </c>
       <c r="C32" s="170" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="171"/>
       <c r="E32" s="171">
@@ -4902,7 +4923,7 @@
       </c>
       <c r="AH32" s="88"/>
     </row>
-    <row r="33" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>25</v>
       </c>
@@ -4910,7 +4931,7 @@
         <v>43969</v>
       </c>
       <c r="C33" s="170" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="171"/>
       <c r="E33" s="171"/>
@@ -4952,7 +4973,7 @@
       </c>
       <c r="AH33" s="88"/>
     </row>
-    <row r="34" spans="1:34" s="87" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="143">
         <v>26</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>43969</v>
       </c>
       <c r="C34" s="170" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" s="171"/>
       <c r="E34" s="171"/>
@@ -5012,7 +5033,7 @@
         <v>43974</v>
       </c>
       <c r="C35" s="170" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D35" s="171"/>
       <c r="E35" s="171"/>
@@ -5062,7 +5083,7 @@
         <v>43974</v>
       </c>
       <c r="C36" s="170" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D36" s="171"/>
       <c r="E36" s="171"/>
@@ -5114,7 +5135,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="170" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D37" s="171"/>
       <c r="E37" s="171">
@@ -5166,7 +5187,7 @@
         <v>43981</v>
       </c>
       <c r="C38" s="170" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="171"/>
       <c r="E38" s="171"/>
@@ -5218,7 +5239,7 @@
         <v>43976</v>
       </c>
       <c r="C39" s="170" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D39" s="171">
         <v>1</v>
@@ -5268,7 +5289,7 @@
         <v>43976</v>
       </c>
       <c r="C40" s="196" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" s="197"/>
       <c r="E40" s="197"/>
@@ -5314,7 +5335,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>33</v>
       </c>
@@ -5322,7 +5343,7 @@
         <v>43980</v>
       </c>
       <c r="C41" s="196" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D41" s="197"/>
       <c r="E41" s="197"/>
@@ -5374,7 +5395,7 @@
         <v>43982</v>
       </c>
       <c r="C42" s="196" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D42" s="197"/>
       <c r="E42" s="197"/>
@@ -5454,78 +5475,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="290"/>
-      <c r="C44" s="291"/>
-      <c r="D44" s="292">
+      <c r="B44" s="296"/>
+      <c r="C44" s="297"/>
+      <c r="D44" s="298">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="292"/>
-      <c r="F44" s="281">
+      <c r="E44" s="298"/>
+      <c r="F44" s="275">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="281"/>
-      <c r="H44" s="294">
+      <c r="G44" s="275"/>
+      <c r="H44" s="274">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="294"/>
-      <c r="J44" s="281">
+      <c r="I44" s="274"/>
+      <c r="J44" s="275">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="281"/>
-      <c r="L44" s="289">
+      <c r="K44" s="275"/>
+      <c r="L44" s="295">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="289"/>
-      <c r="N44" s="281">
+      <c r="M44" s="295"/>
+      <c r="N44" s="275">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="281"/>
-      <c r="P44" s="282">
+      <c r="O44" s="275"/>
+      <c r="P44" s="288">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="282"/>
-      <c r="R44" s="281">
+      <c r="Q44" s="288"/>
+      <c r="R44" s="275">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="281"/>
-      <c r="T44" s="283">
+      <c r="S44" s="275"/>
+      <c r="T44" s="289">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="283"/>
-      <c r="V44" s="281">
+      <c r="U44" s="289"/>
+      <c r="V44" s="275">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="281"/>
-      <c r="X44" s="284">
+      <c r="W44" s="275"/>
+      <c r="X44" s="290">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="284"/>
-      <c r="Z44" s="281">
+      <c r="Y44" s="290"/>
+      <c r="Z44" s="275">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="281"/>
-      <c r="AB44" s="285">
+      <c r="AA44" s="275"/>
+      <c r="AB44" s="291">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="285"/>
-      <c r="AD44" s="281">
+      <c r="AC44" s="291"/>
+      <c r="AD44" s="275">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="281"/>
+      <c r="AE44" s="275"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5534,39 +5555,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="286" t="s">
+      <c r="A45" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="287"/>
-      <c r="C45" s="287"/>
-      <c r="D45" s="287"/>
-      <c r="E45" s="287"/>
-      <c r="F45" s="287"/>
-      <c r="G45" s="287"/>
-      <c r="H45" s="287"/>
-      <c r="I45" s="287"/>
-      <c r="J45" s="287"/>
-      <c r="K45" s="287"/>
-      <c r="L45" s="287"/>
-      <c r="M45" s="287"/>
-      <c r="N45" s="287"/>
-      <c r="O45" s="287"/>
-      <c r="P45" s="287"/>
-      <c r="Q45" s="287"/>
-      <c r="R45" s="287"/>
-      <c r="S45" s="287"/>
-      <c r="T45" s="287"/>
-      <c r="U45" s="287"/>
-      <c r="V45" s="287"/>
-      <c r="W45" s="287"/>
-      <c r="X45" s="287"/>
-      <c r="Y45" s="287"/>
-      <c r="Z45" s="287"/>
-      <c r="AA45" s="287"/>
-      <c r="AB45" s="287"/>
-      <c r="AC45" s="287"/>
-      <c r="AD45" s="287"/>
-      <c r="AE45" s="288"/>
+      <c r="B45" s="293"/>
+      <c r="C45" s="293"/>
+      <c r="D45" s="293"/>
+      <c r="E45" s="293"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="293"/>
+      <c r="H45" s="293"/>
+      <c r="I45" s="293"/>
+      <c r="J45" s="293"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="293"/>
+      <c r="M45" s="293"/>
+      <c r="N45" s="293"/>
+      <c r="O45" s="293"/>
+      <c r="P45" s="293"/>
+      <c r="Q45" s="293"/>
+      <c r="R45" s="293"/>
+      <c r="S45" s="293"/>
+      <c r="T45" s="293"/>
+      <c r="U45" s="293"/>
+      <c r="V45" s="293"/>
+      <c r="W45" s="293"/>
+      <c r="X45" s="293"/>
+      <c r="Y45" s="293"/>
+      <c r="Z45" s="293"/>
+      <c r="AA45" s="293"/>
+      <c r="AB45" s="293"/>
+      <c r="AC45" s="293"/>
+      <c r="AD45" s="293"/>
+      <c r="AE45" s="294"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5578,48 +5599,76 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="286" t="s">
+      <c r="A46" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="287"/>
-      <c r="C46" s="287"/>
-      <c r="D46" s="287"/>
-      <c r="E46" s="287"/>
-      <c r="F46" s="287"/>
-      <c r="G46" s="287"/>
-      <c r="H46" s="287"/>
-      <c r="I46" s="287"/>
-      <c r="J46" s="287"/>
-      <c r="K46" s="287"/>
-      <c r="L46" s="287"/>
-      <c r="M46" s="287"/>
-      <c r="N46" s="287"/>
-      <c r="O46" s="287"/>
-      <c r="P46" s="287"/>
-      <c r="Q46" s="287"/>
-      <c r="R46" s="287"/>
-      <c r="S46" s="287"/>
-      <c r="T46" s="287"/>
-      <c r="U46" s="287"/>
-      <c r="V46" s="287"/>
-      <c r="W46" s="287"/>
-      <c r="X46" s="287"/>
-      <c r="Y46" s="287"/>
-      <c r="Z46" s="287"/>
-      <c r="AA46" s="287"/>
-      <c r="AB46" s="287"/>
-      <c r="AC46" s="287"/>
-      <c r="AD46" s="287"/>
-      <c r="AE46" s="288"/>
-      <c r="AF46" s="279">
+      <c r="B46" s="293"/>
+      <c r="C46" s="293"/>
+      <c r="D46" s="293"/>
+      <c r="E46" s="293"/>
+      <c r="F46" s="293"/>
+      <c r="G46" s="293"/>
+      <c r="H46" s="293"/>
+      <c r="I46" s="293"/>
+      <c r="J46" s="293"/>
+      <c r="K46" s="293"/>
+      <c r="L46" s="293"/>
+      <c r="M46" s="293"/>
+      <c r="N46" s="293"/>
+      <c r="O46" s="293"/>
+      <c r="P46" s="293"/>
+      <c r="Q46" s="293"/>
+      <c r="R46" s="293"/>
+      <c r="S46" s="293"/>
+      <c r="T46" s="293"/>
+      <c r="U46" s="293"/>
+      <c r="V46" s="293"/>
+      <c r="W46" s="293"/>
+      <c r="X46" s="293"/>
+      <c r="Y46" s="293"/>
+      <c r="Z46" s="293"/>
+      <c r="AA46" s="293"/>
+      <c r="AB46" s="293"/>
+      <c r="AC46" s="293"/>
+      <c r="AD46" s="293"/>
+      <c r="AE46" s="294"/>
+      <c r="AF46" s="286">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="280"/>
+      <c r="AG46" s="287"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="H44:I44"/>
@@ -5636,34 +5685,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5680,27 +5701,27 @@
       <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="105" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="105" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
+      <c r="A1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
       <c r="G1" s="212"/>
       <c r="H1" s="212"/>
       <c r="I1" s="212"/>
@@ -5733,11 +5754,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
       <c r="F2" s="218"/>
@@ -5773,235 +5794,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="296"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="296"/>
-      <c r="AH3" s="296"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="277"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="277"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="296"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="296"/>
-      <c r="W4" s="296"/>
-      <c r="X4" s="296"/>
-      <c r="Y4" s="296"/>
-      <c r="Z4" s="296"/>
-      <c r="AA4" s="296"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="296"/>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="296"/>
-      <c r="AH4" s="296"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="296"/>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="296"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="296"/>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="296"/>
-      <c r="S5" s="296"/>
-      <c r="T5" s="296"/>
-      <c r="U5" s="296"/>
-      <c r="V5" s="296"/>
-      <c r="W5" s="296"/>
-      <c r="X5" s="296"/>
-      <c r="Y5" s="296"/>
-      <c r="Z5" s="296"/>
-      <c r="AA5" s="296"/>
-      <c r="AB5" s="296"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="296"/>
-      <c r="AE5" s="296"/>
+      <c r="A4" s="277" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="277"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="277"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="277"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="277"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="277"/>
+      <c r="AE5" s="277"/>
       <c r="AF5" s="219"/>
       <c r="AG5" s="219"/>
       <c r="AH5" s="219"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="298" t="s">
+      <c r="C6" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="300"/>
-      <c r="AC6" s="300"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="300"/>
-      <c r="AF6" s="300"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="282"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="282"/>
+      <c r="AE6" s="282"/>
+      <c r="AF6" s="282"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="278" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302" t="s">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="302"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="284"/>
+      <c r="F7" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="303" t="s">
+      <c r="G7" s="278"/>
+      <c r="H7" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="285"/>
+      <c r="J7" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="278" t="s">
+      <c r="K7" s="278"/>
+      <c r="L7" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="299"/>
+      <c r="N7" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="273" t="s">
+      <c r="O7" s="278"/>
+      <c r="P7" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="302"/>
+      <c r="R7" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="306" t="s">
+      <c r="S7" s="278"/>
+      <c r="T7" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="306"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="305"/>
+      <c r="V7" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="293" t="s">
+      <c r="W7" s="278"/>
+      <c r="X7" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="272" t="s">
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="276" t="s">
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="276" t="s">
+      <c r="AG7" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="278"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="298"/>
+      <c r="A8" s="278"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="280"/>
       <c r="D8" s="220" t="s">
         <v>23</v>
       </c>
@@ -6086,9 +6107,9 @@
       <c r="AE8" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="278"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -6098,7 +6119,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="179" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="180"/>
       <c r="E9" s="180"/>
@@ -6162,7 +6183,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="232" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -6212,7 +6233,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="229" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -6262,7 +6283,7 @@
         <v>43990</v>
       </c>
       <c r="C12" s="229" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -6312,7 +6333,7 @@
         <v>43990</v>
       </c>
       <c r="C13" s="229" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -6364,7 +6385,7 @@
         <v>43990</v>
       </c>
       <c r="C14" s="225" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -6414,7 +6435,7 @@
         <v>43991</v>
       </c>
       <c r="C15" s="225" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -6468,7 +6489,7 @@
         <v>43993</v>
       </c>
       <c r="C16" s="225" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -6518,7 +6539,7 @@
         <v>43993</v>
       </c>
       <c r="C17" s="225" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -6570,7 +6591,7 @@
         <v>43993</v>
       </c>
       <c r="C18" s="225" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -6620,7 +6641,7 @@
         <v>43994</v>
       </c>
       <c r="C19" s="225" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -6670,7 +6691,7 @@
         <v>43995</v>
       </c>
       <c r="C20" s="225" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
@@ -6720,7 +6741,7 @@
         <v>43995</v>
       </c>
       <c r="C21" s="225" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -6770,7 +6791,7 @@
         <v>43995</v>
       </c>
       <c r="C22" s="225" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -6822,7 +6843,7 @@
         <v>43994</v>
       </c>
       <c r="C23" s="225" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -6872,7 +6893,7 @@
         <v>43995</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -6922,7 +6943,7 @@
         <v>43995</v>
       </c>
       <c r="C25" s="102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -6974,7 +6995,7 @@
         <v>43997</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -7028,7 +7049,7 @@
         <v>43998</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -7078,7 +7099,7 @@
         <v>44000</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
@@ -7120,7 +7141,7 @@
       </c>
       <c r="AH28" s="21"/>
     </row>
-    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>21</v>
       </c>
@@ -7128,7 +7149,7 @@
         <v>44000</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
@@ -7186,7 +7207,7 @@
         <v>44001</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
@@ -7240,7 +7261,7 @@
         <v>44002</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
@@ -7290,7 +7311,7 @@
         <v>44002</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
@@ -7340,7 +7361,7 @@
         <v>44004</v>
       </c>
       <c r="C33" s="102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
@@ -7390,7 +7411,7 @@
         <v>44004</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
@@ -7440,7 +7461,7 @@
         <v>44006</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -7496,7 +7517,7 @@
         <v>44006</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
@@ -7546,7 +7567,7 @@
         <v>44006</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
@@ -7596,7 +7617,7 @@
         <v>44006</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
@@ -7646,7 +7667,7 @@
         <v>44007</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
@@ -7687,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
@@ -7698,7 +7719,7 @@
         <v>44007</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
@@ -7748,7 +7769,7 @@
         <v>44007</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
@@ -7800,7 +7821,7 @@
         <v>44007</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -7850,7 +7871,7 @@
         <v>44009</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
@@ -7902,7 +7923,7 @@
         <v>44009</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -7946,7 +7967,7 @@
         <v>44011</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -7990,7 +8011,7 @@
       <c r="AG45" s="20"/>
       <c r="AH45" s="36"/>
     </row>
-    <row r="46" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>38</v>
       </c>
@@ -7998,7 +8019,7 @@
         <v>44011</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -8039,2418 +8060,6 @@
         <v>12</v>
       </c>
       <c r="AH46" s="36"/>
-    </row>
-    <row r="47" spans="1:34" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="54"/>
-    </row>
-    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="290"/>
-      <c r="C48" s="291"/>
-      <c r="D48" s="292">
-        <f>SUM(D9:D46)-SUM(E9:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="292"/>
-      <c r="F48" s="305">
-        <f>SUM(F9:F46)-SUM(G9:G46)</f>
-        <v>33</v>
-      </c>
-      <c r="G48" s="305"/>
-      <c r="H48" s="294">
-        <f>SUM(H9:H46)-SUM(I9:I46)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="294"/>
-      <c r="J48" s="281">
-        <f>SUM(J9:J46)-SUM(K9:K46)</f>
-        <v>12</v>
-      </c>
-      <c r="K48" s="281"/>
-      <c r="L48" s="289">
-        <f>SUM(L9:L46)-SUM(M9:M46)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="289"/>
-      <c r="N48" s="281">
-        <f>SUM(N9:N46)-SUM(O9:O46)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="281"/>
-      <c r="P48" s="282">
-        <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="282"/>
-      <c r="R48" s="281">
-        <f>SUM(R9:R46)-SUM(S9:S46)</f>
-        <v>28</v>
-      </c>
-      <c r="S48" s="281"/>
-      <c r="T48" s="283">
-        <f>SUM(T9:T46)-SUM(U9:U46)</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="283"/>
-      <c r="V48" s="281">
-        <f>SUM(V9:V46)-SUM(W9:W46)</f>
-        <v>24</v>
-      </c>
-      <c r="W48" s="281"/>
-      <c r="X48" s="304">
-        <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
-        <v>58</v>
-      </c>
-      <c r="Y48" s="304"/>
-      <c r="Z48" s="304">
-        <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
-        <v>18</v>
-      </c>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="304">
-        <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
-        <v>28</v>
-      </c>
-      <c r="AC48" s="304"/>
-      <c r="AD48" s="281">
-        <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="281"/>
-      <c r="AF48" s="43"/>
-      <c r="AG48" s="222">
-        <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
-        <v>201</v>
-      </c>
-      <c r="AH48" s="58"/>
-    </row>
-    <row r="49" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="286" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="287"/>
-      <c r="C49" s="287"/>
-      <c r="D49" s="287"/>
-      <c r="E49" s="287"/>
-      <c r="F49" s="287"/>
-      <c r="G49" s="287"/>
-      <c r="H49" s="287"/>
-      <c r="I49" s="287"/>
-      <c r="J49" s="287"/>
-      <c r="K49" s="287"/>
-      <c r="L49" s="287"/>
-      <c r="M49" s="287"/>
-      <c r="N49" s="287"/>
-      <c r="O49" s="287"/>
-      <c r="P49" s="287"/>
-      <c r="Q49" s="287"/>
-      <c r="R49" s="287"/>
-      <c r="S49" s="287"/>
-      <c r="T49" s="287"/>
-      <c r="U49" s="287"/>
-      <c r="V49" s="287"/>
-      <c r="W49" s="287"/>
-      <c r="X49" s="287"/>
-      <c r="Y49" s="287"/>
-      <c r="Z49" s="287"/>
-      <c r="AA49" s="287"/>
-      <c r="AB49" s="287"/>
-      <c r="AC49" s="287"/>
-      <c r="AD49" s="287"/>
-      <c r="AE49" s="288"/>
-      <c r="AF49" s="59">
-        <f>SUM(AF9:AF46)</f>
-        <v>305</v>
-      </c>
-      <c r="AG49" s="59">
-        <f>SUM(AG9:AG46)</f>
-        <v>424</v>
-      </c>
-      <c r="AH49" s="60"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="286" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="287"/>
-      <c r="C50" s="287"/>
-      <c r="D50" s="287"/>
-      <c r="E50" s="287"/>
-      <c r="F50" s="287"/>
-      <c r="G50" s="287"/>
-      <c r="H50" s="287"/>
-      <c r="I50" s="287"/>
-      <c r="J50" s="287"/>
-      <c r="K50" s="287"/>
-      <c r="L50" s="287"/>
-      <c r="M50" s="287"/>
-      <c r="N50" s="287"/>
-      <c r="O50" s="287"/>
-      <c r="P50" s="287"/>
-      <c r="Q50" s="287"/>
-      <c r="R50" s="287"/>
-      <c r="S50" s="287"/>
-      <c r="T50" s="287"/>
-      <c r="U50" s="287"/>
-      <c r="V50" s="287"/>
-      <c r="W50" s="287"/>
-      <c r="X50" s="287"/>
-      <c r="Y50" s="287"/>
-      <c r="Z50" s="287"/>
-      <c r="AA50" s="287"/>
-      <c r="AB50" s="287"/>
-      <c r="AC50" s="287"/>
-      <c r="AD50" s="287"/>
-      <c r="AE50" s="288"/>
-      <c r="AF50" s="279">
-        <f>AG49-AF49</f>
-        <v>119</v>
-      </c>
-      <c r="AG50" s="280"/>
-      <c r="AH50" s="60"/>
-    </row>
-    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="Z51" s="6">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="Z42" sqref="Z42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="105" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="296"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="296"/>
-      <c r="AH3" s="296"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="296"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="296"/>
-      <c r="W4" s="296"/>
-      <c r="X4" s="296"/>
-      <c r="Y4" s="296"/>
-      <c r="Z4" s="296"/>
-      <c r="AA4" s="296"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="296"/>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="296"/>
-      <c r="AH4" s="296"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="296"/>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="296"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="296"/>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="296"/>
-      <c r="S5" s="296"/>
-      <c r="T5" s="296"/>
-      <c r="U5" s="296"/>
-      <c r="V5" s="296"/>
-      <c r="W5" s="296"/>
-      <c r="X5" s="296"/>
-      <c r="Y5" s="296"/>
-      <c r="Z5" s="296"/>
-      <c r="AA5" s="296"/>
-      <c r="AB5" s="296"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="296"/>
-      <c r="AE5" s="296"/>
-      <c r="AF5" s="243"/>
-      <c r="AG5" s="243"/>
-      <c r="AH5" s="243"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="297" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="299" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="300"/>
-      <c r="AC6" s="300"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="300"/>
-      <c r="AF6" s="300"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="274" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="302"/>
-      <c r="F7" s="274" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="303" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="274" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="278" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="274" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="273" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="306" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="306"/>
-      <c r="V7" s="274" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="293" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="274" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="272" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="274" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="276" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG7" s="276" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH7" s="274"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="298"/>
-      <c r="D8" s="245" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="245" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="246" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="246" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="247" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="247" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="250" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="250" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="251" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="251" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="241" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="241" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA8" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB8" s="249" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC8" s="249" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE8" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="274"/>
-    </row>
-    <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
-        <v>1</v>
-      </c>
-      <c r="B9" s="178">
-        <v>44012</v>
-      </c>
-      <c r="C9" s="179" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="74">
-        <v>33</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="74">
-        <v>12</v>
-      </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="74">
-        <v>28</v>
-      </c>
-      <c r="S9" s="74"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="74">
-        <v>24</v>
-      </c>
-      <c r="W9" s="74"/>
-      <c r="X9" s="185">
-        <v>58</v>
-      </c>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="74">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="186">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="84">
-        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="84">
-        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
-        <v>201</v>
-      </c>
-      <c r="AH9" s="167"/>
-    </row>
-    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="223">
-        <v>2</v>
-      </c>
-      <c r="B10" s="231">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="232" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233">
-        <v>1</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="233"/>
-      <c r="S10" s="233"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="233"/>
-      <c r="W10" s="233"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="233"/>
-      <c r="AA10" s="233"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="233"/>
-      <c r="AE10" s="233"/>
-      <c r="AF10" s="223">
-        <f t="shared" ref="AF10:AF46" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
-        <v>1</v>
-      </c>
-      <c r="AG10" s="223">
-        <f t="shared" ref="AG10:AG14" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="233"/>
-    </row>
-    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230">
-        <v>3</v>
-      </c>
-      <c r="B11" s="228">
-        <v>44013</v>
-      </c>
-      <c r="C11" s="229" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="227"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="227"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="227">
-        <v>2</v>
-      </c>
-      <c r="T11" s="235"/>
-      <c r="U11" s="235"/>
-      <c r="V11" s="227"/>
-      <c r="W11" s="227"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="227"/>
-      <c r="AE11" s="227"/>
-      <c r="AF11" s="223">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG11" s="223">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="227"/>
-    </row>
-    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="223">
-        <v>4</v>
-      </c>
-      <c r="B12" s="228">
-        <v>44013</v>
-      </c>
-      <c r="C12" s="229" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="227">
-        <v>12</v>
-      </c>
-      <c r="G12" s="227"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="227">
-        <v>24</v>
-      </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="227"/>
-      <c r="S12" s="227"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="235"/>
-      <c r="V12" s="227"/>
-      <c r="W12" s="227"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="227"/>
-      <c r="AE12" s="227"/>
-      <c r="AF12" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="223">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="AH12" s="227"/>
-    </row>
-    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="230">
-        <v>5</v>
-      </c>
-      <c r="B13" s="228">
-        <v>44014</v>
-      </c>
-      <c r="C13" s="229" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="29">
-        <v>15</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="30">
-        <v>5</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="227"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="31">
-        <v>13</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="227"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="227"/>
-      <c r="S13" s="227"/>
-      <c r="T13" s="235">
-        <v>7</v>
-      </c>
-      <c r="U13" s="235"/>
-      <c r="V13" s="227"/>
-      <c r="W13" s="227"/>
-      <c r="X13" s="33">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="227"/>
-      <c r="AA13" s="227"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="227"/>
-      <c r="AF13" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="223">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="AH13" s="227"/>
-    </row>
-    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="223">
-        <v>6</v>
-      </c>
-      <c r="B14" s="224">
-        <v>44013</v>
-      </c>
-      <c r="C14" s="225" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37">
-        <v>1</v>
-      </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="226"/>
-      <c r="O14" s="226"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="226"/>
-      <c r="S14" s="226"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="226"/>
-      <c r="W14" s="226"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="226"/>
-      <c r="AA14" s="226"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="226"/>
-      <c r="AE14" s="226"/>
-      <c r="AF14" s="223">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG14" s="223">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="227"/>
-    </row>
-    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="230">
-        <v>7</v>
-      </c>
-      <c r="B15" s="224">
-        <v>44014</v>
-      </c>
-      <c r="C15" s="225" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="226"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="226"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="226"/>
-      <c r="S15" s="226">
-        <v>1</v>
-      </c>
-      <c r="T15" s="236"/>
-      <c r="U15" s="236"/>
-      <c r="V15" s="226"/>
-      <c r="W15" s="226"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="226"/>
-      <c r="AA15" s="226"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="226"/>
-      <c r="AE15" s="226"/>
-      <c r="AF15" s="223">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG15" s="223">
-        <f>D15+F15+H15+J15+L15+N15+P15+R15+T15+V15+X15+Z15+AB15+AD15</f>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="227"/>
-    </row>
-    <row r="16" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="223">
-        <v>8</v>
-      </c>
-      <c r="B16" s="224"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="226"/>
-      <c r="O16" s="226"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="226"/>
-      <c r="S16" s="226"/>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="226"/>
-      <c r="W16" s="226"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="226"/>
-      <c r="AA16" s="226"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="226"/>
-      <c r="AE16" s="226"/>
-      <c r="AF16" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="223">
-        <f t="shared" ref="AG16:AG46" si="2">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="227"/>
-    </row>
-    <row r="17" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="230">
-        <v>9</v>
-      </c>
-      <c r="B17" s="224"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="226"/>
-      <c r="O17" s="226"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="226"/>
-      <c r="S17" s="226"/>
-      <c r="T17" s="236"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="226"/>
-      <c r="W17" s="226"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="226"/>
-      <c r="AA17" s="226"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="226"/>
-      <c r="AE17" s="226"/>
-      <c r="AF17" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="223">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="227"/>
-    </row>
-    <row r="18" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="223">
-        <v>10</v>
-      </c>
-      <c r="B18" s="224"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="226"/>
-      <c r="O18" s="226"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="226"/>
-      <c r="S18" s="226"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="236"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="226"/>
-      <c r="AA18" s="226"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="226"/>
-      <c r="AE18" s="226"/>
-      <c r="AF18" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="223">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="227"/>
-    </row>
-    <row r="19" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="230">
-        <v>11</v>
-      </c>
-      <c r="B19" s="224"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="226"/>
-      <c r="K19" s="226"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="226"/>
-      <c r="O19" s="226"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="226"/>
-      <c r="S19" s="226"/>
-      <c r="T19" s="236"/>
-      <c r="U19" s="236"/>
-      <c r="V19" s="226"/>
-      <c r="W19" s="226"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="226"/>
-      <c r="AA19" s="226"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="226"/>
-      <c r="AE19" s="226"/>
-      <c r="AF19" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="223">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="227"/>
-    </row>
-    <row r="20" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="223">
-        <v>12</v>
-      </c>
-      <c r="B20" s="224"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="226"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="226"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="226"/>
-      <c r="S20" s="226"/>
-      <c r="T20" s="236"/>
-      <c r="U20" s="236"/>
-      <c r="V20" s="226"/>
-      <c r="W20" s="226"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="226"/>
-      <c r="AA20" s="226"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="226"/>
-      <c r="AE20" s="226"/>
-      <c r="AF20" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="223">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="227"/>
-    </row>
-    <row r="21" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="230">
-        <v>13</v>
-      </c>
-      <c r="B21" s="224"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="226"/>
-      <c r="K21" s="226"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="226"/>
-      <c r="O21" s="226"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="226"/>
-      <c r="S21" s="226"/>
-      <c r="T21" s="236"/>
-      <c r="U21" s="236"/>
-      <c r="V21" s="226"/>
-      <c r="W21" s="226"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="226"/>
-      <c r="AA21" s="226"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="226"/>
-      <c r="AE21" s="226"/>
-      <c r="AF21" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="223">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="227"/>
-    </row>
-    <row r="22" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="223">
-        <v>14</v>
-      </c>
-      <c r="B22" s="224"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="226"/>
-      <c r="K22" s="226"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="226"/>
-      <c r="O22" s="226"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="226"/>
-      <c r="S22" s="226"/>
-      <c r="T22" s="236"/>
-      <c r="U22" s="236"/>
-      <c r="V22" s="226"/>
-      <c r="W22" s="226"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="226"/>
-      <c r="AA22" s="226"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="226"/>
-      <c r="AE22" s="226"/>
-      <c r="AF22" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="223">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="227"/>
-    </row>
-    <row r="23" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="230">
-        <v>15</v>
-      </c>
-      <c r="B23" s="224"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="226"/>
-      <c r="K23" s="226"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="226"/>
-      <c r="O23" s="226"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="226"/>
-      <c r="S23" s="226"/>
-      <c r="T23" s="236"/>
-      <c r="U23" s="236"/>
-      <c r="V23" s="226"/>
-      <c r="W23" s="226"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="226"/>
-      <c r="AA23" s="226"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="226"/>
-      <c r="AE23" s="226"/>
-      <c r="AF23" s="223">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="223">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="227"/>
-    </row>
-    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>16</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="236"/>
-      <c r="U24" s="236"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="21"/>
-    </row>
-    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="74">
-        <v>17</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="236"/>
-      <c r="U25" s="236"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="21"/>
-    </row>
-    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>18</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="236"/>
-      <c r="U26" s="236"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="21"/>
-    </row>
-    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="74">
-        <v>19</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="236"/>
-      <c r="U27" s="236"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="21"/>
-    </row>
-    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>20</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="236"/>
-      <c r="U28" s="236"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="21"/>
-    </row>
-    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
-        <v>21</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="236"/>
-      <c r="U29" s="236"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="21"/>
-    </row>
-    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>22</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="236"/>
-      <c r="U30" s="236"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="21"/>
-    </row>
-    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="74">
-        <v>23</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="236"/>
-      <c r="U31" s="236"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="21"/>
-    </row>
-    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>24</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="236"/>
-      <c r="U32" s="236"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="21"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="74">
-        <v>25</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="236"/>
-      <c r="U33" s="236"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="21"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>26</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="236"/>
-      <c r="U34" s="236"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="21"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
-        <v>27</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="236"/>
-      <c r="U35" s="236"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="21"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>28</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="236"/>
-      <c r="U36" s="236"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="21"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="74">
-        <v>29</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="236"/>
-      <c r="U37" s="236"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="21"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>30</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="236"/>
-      <c r="U38" s="236"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="21"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
-        <v>31</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="236"/>
-      <c r="U39" s="236"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="21"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>32</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="236"/>
-      <c r="U40" s="236"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="21"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="74">
-        <v>33</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="236"/>
-      <c r="U41" s="236"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="42"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="21"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
-        <v>34</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="235"/>
-      <c r="U42" s="235"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="21"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="74">
-        <v>35</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="236"/>
-      <c r="U43" s="236"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="42"/>
-      <c r="AC43" s="42"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="36"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>36</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="236"/>
-      <c r="U44" s="236"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="20"/>
-      <c r="AH44" s="36"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="74">
-        <v>37</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="236"/>
-      <c r="U45" s="236"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="42"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="20">
-        <f>E45+G45+I45+K45+M45+O45+Q45+S45+U45+W45+Y45+AA45+AC45+AE45</f>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="20">
-        <f>D45+F45+H45+J45+L45+N45+P45+R45+T45+V45+X45+Z45+AB45+AD45</f>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="36"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>38</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="239"/>
-      <c r="U46" s="239"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="45"/>
     </row>
     <row r="47" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
@@ -10488,174 +8097,174 @@
       <c r="AG47" s="55"/>
       <c r="AH47" s="54"/>
     </row>
-    <row r="48" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
-      <c r="B48" s="290"/>
-      <c r="C48" s="291"/>
-      <c r="D48" s="292">
+      <c r="B48" s="296"/>
+      <c r="C48" s="297"/>
+      <c r="D48" s="298">
         <f>SUM(D9:D46)-SUM(E9:E46)</f>
-        <v>14</v>
-      </c>
-      <c r="E48" s="292"/>
-      <c r="F48" s="305">
+        <v>0</v>
+      </c>
+      <c r="E48" s="298"/>
+      <c r="F48" s="304">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
-        <v>45</v>
-      </c>
-      <c r="G48" s="305"/>
-      <c r="H48" s="294">
+        <v>33</v>
+      </c>
+      <c r="G48" s="304"/>
+      <c r="H48" s="274">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
-        <v>5</v>
-      </c>
-      <c r="I48" s="294"/>
-      <c r="J48" s="281">
+        <v>0</v>
+      </c>
+      <c r="I48" s="274"/>
+      <c r="J48" s="275">
         <f>SUM(J9:J46)-SUM(K9:K46)</f>
-        <v>35</v>
-      </c>
-      <c r="K48" s="281"/>
-      <c r="L48" s="289">
+        <v>12</v>
+      </c>
+      <c r="K48" s="275"/>
+      <c r="L48" s="295">
         <f>SUM(L9:L46)-SUM(M9:M46)</f>
-        <v>13</v>
-      </c>
-      <c r="M48" s="289"/>
-      <c r="N48" s="281">
+        <v>0</v>
+      </c>
+      <c r="M48" s="295"/>
+      <c r="N48" s="275">
         <f>SUM(N9:N46)-SUM(O9:O46)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="281"/>
-      <c r="P48" s="282">
+      <c r="O48" s="275"/>
+      <c r="P48" s="288">
         <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="282"/>
-      <c r="R48" s="281">
+      <c r="Q48" s="288"/>
+      <c r="R48" s="275">
         <f>SUM(R9:R46)-SUM(S9:S46)</f>
-        <v>25</v>
-      </c>
-      <c r="S48" s="281"/>
-      <c r="T48" s="283">
+        <v>28</v>
+      </c>
+      <c r="S48" s="275"/>
+      <c r="T48" s="289">
         <f>SUM(T9:T46)-SUM(U9:U46)</f>
-        <v>7</v>
-      </c>
-      <c r="U48" s="283"/>
-      <c r="V48" s="281">
+        <v>0</v>
+      </c>
+      <c r="U48" s="289"/>
+      <c r="V48" s="275">
         <f>SUM(V9:V46)-SUM(W9:W46)</f>
         <v>24</v>
       </c>
-      <c r="W48" s="281"/>
-      <c r="X48" s="307">
+      <c r="W48" s="275"/>
+      <c r="X48" s="306">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
-        <v>61</v>
-      </c>
-      <c r="Y48" s="308"/>
-      <c r="Z48" s="309">
+        <v>58</v>
+      </c>
+      <c r="Y48" s="306"/>
+      <c r="Z48" s="306">
         <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
-        <v>16</v>
-      </c>
-      <c r="AA48" s="310"/>
-      <c r="AB48" s="311">
+        <v>18</v>
+      </c>
+      <c r="AA48" s="306"/>
+      <c r="AB48" s="306">
         <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
         <v>28</v>
       </c>
-      <c r="AC48" s="312"/>
-      <c r="AD48" s="281">
+      <c r="AC48" s="306"/>
+      <c r="AD48" s="275">
         <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="281"/>
+      <c r="AE48" s="275"/>
       <c r="AF48" s="43"/>
       <c r="AG48" s="222">
         <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="AH48" s="58"/>
     </row>
     <row r="49" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="286" t="s">
+      <c r="A49" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="287"/>
-      <c r="C49" s="287"/>
-      <c r="D49" s="287"/>
-      <c r="E49" s="287"/>
-      <c r="F49" s="287"/>
-      <c r="G49" s="287"/>
-      <c r="H49" s="287"/>
-      <c r="I49" s="287"/>
-      <c r="J49" s="287"/>
-      <c r="K49" s="287"/>
-      <c r="L49" s="287"/>
-      <c r="M49" s="287"/>
-      <c r="N49" s="287"/>
-      <c r="O49" s="287"/>
-      <c r="P49" s="287"/>
-      <c r="Q49" s="287"/>
-      <c r="R49" s="287"/>
-      <c r="S49" s="287"/>
-      <c r="T49" s="287"/>
-      <c r="U49" s="287"/>
-      <c r="V49" s="287"/>
-      <c r="W49" s="287"/>
-      <c r="X49" s="287"/>
-      <c r="Y49" s="287"/>
-      <c r="Z49" s="287"/>
-      <c r="AA49" s="287"/>
-      <c r="AB49" s="287"/>
-      <c r="AC49" s="287"/>
-      <c r="AD49" s="287"/>
-      <c r="AE49" s="288"/>
+      <c r="B49" s="293"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
+      <c r="E49" s="293"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="293"/>
+      <c r="H49" s="293"/>
+      <c r="I49" s="293"/>
+      <c r="J49" s="293"/>
+      <c r="K49" s="293"/>
+      <c r="L49" s="293"/>
+      <c r="M49" s="293"/>
+      <c r="N49" s="293"/>
+      <c r="O49" s="293"/>
+      <c r="P49" s="293"/>
+      <c r="Q49" s="293"/>
+      <c r="R49" s="293"/>
+      <c r="S49" s="293"/>
+      <c r="T49" s="293"/>
+      <c r="U49" s="293"/>
+      <c r="V49" s="293"/>
+      <c r="W49" s="293"/>
+      <c r="X49" s="293"/>
+      <c r="Y49" s="293"/>
+      <c r="Z49" s="293"/>
+      <c r="AA49" s="293"/>
+      <c r="AB49" s="293"/>
+      <c r="AC49" s="293"/>
+      <c r="AD49" s="293"/>
+      <c r="AE49" s="294"/>
       <c r="AF49" s="59">
         <f>SUM(AF9:AF46)</f>
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="AG49" s="59">
         <f>SUM(AG9:AG46)</f>
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="AH49" s="60"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="286" t="s">
+      <c r="A50" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="287"/>
-      <c r="C50" s="287"/>
-      <c r="D50" s="287"/>
-      <c r="E50" s="287"/>
-      <c r="F50" s="287"/>
-      <c r="G50" s="287"/>
-      <c r="H50" s="287"/>
-      <c r="I50" s="287"/>
-      <c r="J50" s="287"/>
-      <c r="K50" s="287"/>
-      <c r="L50" s="287"/>
-      <c r="M50" s="287"/>
-      <c r="N50" s="287"/>
-      <c r="O50" s="287"/>
-      <c r="P50" s="287"/>
-      <c r="Q50" s="287"/>
-      <c r="R50" s="287"/>
-      <c r="S50" s="287"/>
-      <c r="T50" s="287"/>
-      <c r="U50" s="287"/>
-      <c r="V50" s="287"/>
-      <c r="W50" s="287"/>
-      <c r="X50" s="287"/>
-      <c r="Y50" s="287"/>
-      <c r="Z50" s="287"/>
-      <c r="AA50" s="287"/>
-      <c r="AB50" s="287"/>
-      <c r="AC50" s="287"/>
-      <c r="AD50" s="287"/>
-      <c r="AE50" s="288"/>
-      <c r="AF50" s="279">
+      <c r="B50" s="293"/>
+      <c r="C50" s="293"/>
+      <c r="D50" s="293"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="293"/>
+      <c r="H50" s="293"/>
+      <c r="I50" s="293"/>
+      <c r="J50" s="293"/>
+      <c r="K50" s="293"/>
+      <c r="L50" s="293"/>
+      <c r="M50" s="293"/>
+      <c r="N50" s="293"/>
+      <c r="O50" s="293"/>
+      <c r="P50" s="293"/>
+      <c r="Q50" s="293"/>
+      <c r="R50" s="293"/>
+      <c r="S50" s="293"/>
+      <c r="T50" s="293"/>
+      <c r="U50" s="293"/>
+      <c r="V50" s="293"/>
+      <c r="W50" s="293"/>
+      <c r="X50" s="293"/>
+      <c r="Y50" s="293"/>
+      <c r="Z50" s="293"/>
+      <c r="AA50" s="293"/>
+      <c r="AB50" s="293"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="293"/>
+      <c r="AE50" s="294"/>
+      <c r="AF50" s="286">
         <f>AG49-AF49</f>
-        <v>273</v>
-      </c>
-      <c r="AG50" s="280"/>
+        <v>119</v>
+      </c>
+      <c r="AG50" s="287"/>
       <c r="AH50" s="60"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AA51" s="6">
+      <c r="Z51" s="6">
         <v>16</v>
       </c>
     </row>
@@ -10707,6 +8316,2498 @@
     <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="105" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="276" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="277" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="277"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="277"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="277" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="277"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="277"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="277"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="277"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="277"/>
+      <c r="AE5" s="277"/>
+      <c r="AF5" s="243"/>
+      <c r="AG5" s="243"/>
+      <c r="AH5" s="243"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="281" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="282"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="282"/>
+      <c r="AE6" s="282"/>
+      <c r="AF6" s="282"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="284"/>
+      <c r="F7" s="278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="278"/>
+      <c r="H7" s="285" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="285"/>
+      <c r="J7" s="278" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="278"/>
+      <c r="L7" s="299" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="299"/>
+      <c r="N7" s="278" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="278"/>
+      <c r="P7" s="302" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="302"/>
+      <c r="R7" s="278" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="278"/>
+      <c r="T7" s="305" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="305"/>
+      <c r="V7" s="278" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="278"/>
+      <c r="X7" s="273" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="278" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="301" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="278" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="271" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="271" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="278"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="278"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="280"/>
+      <c r="D8" s="245" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="246" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="246" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="247" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="247" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="250" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="251" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="251" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="241" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="241" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="249" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="249" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD8" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="244" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="278"/>
+    </row>
+    <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>1</v>
+      </c>
+      <c r="B9" s="178">
+        <v>44012</v>
+      </c>
+      <c r="C9" s="179" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="74">
+        <v>33</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="74">
+        <v>12</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="74">
+        <v>28</v>
+      </c>
+      <c r="S9" s="74"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="74">
+        <v>24</v>
+      </c>
+      <c r="W9" s="74"/>
+      <c r="X9" s="185">
+        <v>58</v>
+      </c>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="74">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="186">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="84">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="84">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>201</v>
+      </c>
+      <c r="AH9" s="167"/>
+    </row>
+    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="223">
+        <v>2</v>
+      </c>
+      <c r="B10" s="231">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="232" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="233">
+        <v>1</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="233"/>
+      <c r="S10" s="233"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="233"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="233"/>
+      <c r="AA10" s="233"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="233"/>
+      <c r="AE10" s="233"/>
+      <c r="AF10" s="223">
+        <f t="shared" ref="AF10:AF47" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="223">
+        <f t="shared" ref="AG10:AG15" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="233" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="230">
+        <v>3</v>
+      </c>
+      <c r="B11" s="228">
+        <v>44013</v>
+      </c>
+      <c r="C11" s="229" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="227"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="227"/>
+      <c r="S11" s="227">
+        <v>2</v>
+      </c>
+      <c r="T11" s="235"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="227"/>
+      <c r="W11" s="227"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="227"/>
+      <c r="AA11" s="227">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="227"/>
+      <c r="AE11" s="227"/>
+      <c r="AF11" s="223">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AG11" s="223">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="227"/>
+    </row>
+    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="223">
+        <v>4</v>
+      </c>
+      <c r="B12" s="228">
+        <v>44013</v>
+      </c>
+      <c r="C12" s="229" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="227">
+        <v>12</v>
+      </c>
+      <c r="G12" s="227"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="227">
+        <v>24</v>
+      </c>
+      <c r="K12" s="227"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="227"/>
+      <c r="S12" s="227"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="235"/>
+      <c r="V12" s="227"/>
+      <c r="W12" s="227"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="227"/>
+      <c r="AE12" s="227"/>
+      <c r="AF12" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="223">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AH12" s="227"/>
+    </row>
+    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="223"/>
+      <c r="B13" s="228">
+        <v>44013</v>
+      </c>
+      <c r="C13" s="229" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="227"/>
+      <c r="S13" s="227"/>
+      <c r="T13" s="235"/>
+      <c r="U13" s="235"/>
+      <c r="V13" s="227"/>
+      <c r="W13" s="227"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="227"/>
+      <c r="AA13" s="227"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="227"/>
+      <c r="AF13" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="223">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="227"/>
+    </row>
+    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="223"/>
+      <c r="B14" s="228">
+        <v>44013</v>
+      </c>
+      <c r="C14" s="229" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="227"/>
+      <c r="S14" s="227"/>
+      <c r="T14" s="235"/>
+      <c r="U14" s="235"/>
+      <c r="V14" s="227"/>
+      <c r="W14" s="227"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="227"/>
+      <c r="AA14" s="227"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="227"/>
+      <c r="AE14" s="227"/>
+      <c r="AF14" s="223">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG14" s="223">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="227"/>
+    </row>
+    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="230">
+        <v>5</v>
+      </c>
+      <c r="B15" s="228">
+        <v>44014</v>
+      </c>
+      <c r="C15" s="229" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="29">
+        <v>14</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="30">
+        <v>5</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="227"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="31">
+        <v>13</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="227"/>
+      <c r="T15" s="235">
+        <v>7</v>
+      </c>
+      <c r="U15" s="235"/>
+      <c r="V15" s="227"/>
+      <c r="W15" s="227"/>
+      <c r="X15" s="33">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="227"/>
+      <c r="AA15" s="227"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="227"/>
+      <c r="AE15" s="227"/>
+      <c r="AF15" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="223">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AH15" s="227"/>
+    </row>
+    <row r="16" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="230">
+        <v>7</v>
+      </c>
+      <c r="B16" s="224">
+        <v>44014</v>
+      </c>
+      <c r="C16" s="225" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="226"/>
+      <c r="S16" s="226">
+        <v>1</v>
+      </c>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="226"/>
+      <c r="AE16" s="226"/>
+      <c r="AF16" s="223">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="223">
+        <f>D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="227"/>
+    </row>
+    <row r="17" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="223">
+        <v>8</v>
+      </c>
+      <c r="B17" s="224">
+        <v>44018</v>
+      </c>
+      <c r="C17" s="225" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="226">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="226"/>
+      <c r="AE17" s="226"/>
+      <c r="AF17" s="223">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG17" s="223">
+        <f t="shared" ref="AG17:AG47" si="2">D17+F17+H17+J17+L17+N17+P17+R17+T17+V17+X17+Z17+AB17+AD17</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="227"/>
+    </row>
+    <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="230">
+        <v>9</v>
+      </c>
+      <c r="B18" s="224">
+        <v>44016</v>
+      </c>
+      <c r="C18" s="225" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="226">
+        <v>1</v>
+      </c>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="226"/>
+      <c r="AA18" s="226"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="226"/>
+      <c r="AE18" s="226"/>
+      <c r="AF18" s="223">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG18" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="227"/>
+    </row>
+    <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="223">
+        <v>10</v>
+      </c>
+      <c r="B19" s="224">
+        <v>44018</v>
+      </c>
+      <c r="C19" s="225" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226">
+        <v>2</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="226"/>
+      <c r="O19" s="226"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="226"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="236"/>
+      <c r="V19" s="226"/>
+      <c r="W19" s="226"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="226"/>
+      <c r="AA19" s="226"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="226"/>
+      <c r="AE19" s="226"/>
+      <c r="AF19" s="223">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG19" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="227"/>
+    </row>
+    <row r="20" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="230">
+        <v>11</v>
+      </c>
+      <c r="B20" s="224">
+        <v>44015</v>
+      </c>
+      <c r="C20" s="225" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="226">
+        <v>1</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="236"/>
+      <c r="U20" s="236"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="226"/>
+      <c r="AA20" s="226"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="226"/>
+      <c r="AE20" s="226"/>
+      <c r="AF20" s="223">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="227"/>
+    </row>
+    <row r="21" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="223">
+        <v>12</v>
+      </c>
+      <c r="B21" s="224">
+        <v>44015</v>
+      </c>
+      <c r="C21" s="225" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="226"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="226"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="226"/>
+      <c r="S21" s="226">
+        <v>1</v>
+      </c>
+      <c r="T21" s="236"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="226"/>
+      <c r="W21" s="226"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="226"/>
+      <c r="AA21" s="226"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="226"/>
+      <c r="AE21" s="226"/>
+      <c r="AF21" s="223">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG21" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="227"/>
+    </row>
+    <row r="22" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="230">
+        <v>13</v>
+      </c>
+      <c r="B22" s="224"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="226"/>
+      <c r="O22" s="226"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="226"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="236"/>
+      <c r="U22" s="236"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="226"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="226"/>
+      <c r="AA22" s="226"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="226"/>
+      <c r="AE22" s="226"/>
+      <c r="AF22" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="227"/>
+    </row>
+    <row r="23" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="223">
+        <v>14</v>
+      </c>
+      <c r="B23" s="224"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="226"/>
+      <c r="O23" s="226"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="226"/>
+      <c r="S23" s="226"/>
+      <c r="T23" s="236"/>
+      <c r="U23" s="236"/>
+      <c r="V23" s="226"/>
+      <c r="W23" s="226"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="226"/>
+      <c r="AA23" s="226"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="226"/>
+      <c r="AE23" s="226"/>
+      <c r="AF23" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="227"/>
+    </row>
+    <row r="24" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="230">
+        <v>15</v>
+      </c>
+      <c r="B24" s="224"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="226"/>
+      <c r="O24" s="226"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="226"/>
+      <c r="S24" s="226"/>
+      <c r="T24" s="236"/>
+      <c r="U24" s="236"/>
+      <c r="V24" s="226"/>
+      <c r="W24" s="226"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="226"/>
+      <c r="AA24" s="226"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="226"/>
+      <c r="AE24" s="226"/>
+      <c r="AF24" s="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="223">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="227"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>16</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="21"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>17</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="236"/>
+      <c r="U26" s="236"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="21"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>18</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="236"/>
+      <c r="U27" s="236"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="21"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>19</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="236"/>
+      <c r="U28" s="236"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="21"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>20</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="236"/>
+      <c r="U29" s="236"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="21"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>21</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="236"/>
+      <c r="U30" s="236"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="21"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>22</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="236"/>
+      <c r="U31" s="236"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="21"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>23</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="236"/>
+      <c r="U32" s="236"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="21"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>24</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="21"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="74">
+        <v>25</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="236"/>
+      <c r="U34" s="236"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="21"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>26</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="236"/>
+      <c r="U35" s="236"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="21"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="74">
+        <v>27</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="236"/>
+      <c r="U36" s="236"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="21"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>28</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="236"/>
+      <c r="U37" s="236"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="21"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="74">
+        <v>29</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="236"/>
+      <c r="U38" s="236"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="21"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>30</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="236"/>
+      <c r="U39" s="236"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="21"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="74">
+        <v>31</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="236"/>
+      <c r="U40" s="236"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="21"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>32</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="236"/>
+      <c r="U41" s="236"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="21"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="74">
+        <v>33</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="236"/>
+      <c r="U42" s="236"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="21"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>34</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="235"/>
+      <c r="U43" s="235"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="21"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="74">
+        <v>35</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="236"/>
+      <c r="U44" s="236"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="36"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>36</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="236"/>
+      <c r="U45" s="236"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="36"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="74">
+        <v>37</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="236"/>
+      <c r="U46" s="236"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="20">
+        <f>E46+G46+I46+K46+M46+O46+Q46+S46+U46+W46+Y46+AA46+AC46+AE46</f>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="20">
+        <f>D46+F46+H46+J46+L46+N46+P46+R46+T46+V46+X46+Z46+AB46+AD46</f>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="36"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>38</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="239"/>
+      <c r="U47" s="239"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="45"/>
+    </row>
+    <row r="48" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54"/>
+      <c r="AC48" s="54"/>
+      <c r="AD48" s="54"/>
+      <c r="AE48" s="54"/>
+      <c r="AF48" s="54"/>
+      <c r="AG48" s="55"/>
+      <c r="AH48" s="54"/>
+    </row>
+    <row r="49" spans="1:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="57"/>
+      <c r="B49" s="296"/>
+      <c r="C49" s="297"/>
+      <c r="D49" s="298">
+        <f>SUM(D9:D47)-SUM(E9:E47)</f>
+        <v>14</v>
+      </c>
+      <c r="E49" s="298"/>
+      <c r="F49" s="304">
+        <f>SUM(F9:F47)-SUM(G9:G47)</f>
+        <v>43</v>
+      </c>
+      <c r="G49" s="304"/>
+      <c r="H49" s="274">
+        <f>SUM(H9:H47)-SUM(I9:I47)</f>
+        <v>5</v>
+      </c>
+      <c r="I49" s="274"/>
+      <c r="J49" s="275">
+        <f>SUM(J9:J47)-SUM(K9:K47)</f>
+        <v>34</v>
+      </c>
+      <c r="K49" s="275"/>
+      <c r="L49" s="295">
+        <f>SUM(L9:L47)-SUM(M9:M47)</f>
+        <v>13</v>
+      </c>
+      <c r="M49" s="295"/>
+      <c r="N49" s="275">
+        <f>SUM(N9:N47)-SUM(O9:O47)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="275"/>
+      <c r="P49" s="288">
+        <f>SUM(P9:P47)-SUM(Q9:Q47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="288"/>
+      <c r="R49" s="275">
+        <f>SUM(R9:R47)-SUM(S9:S47)</f>
+        <v>23</v>
+      </c>
+      <c r="S49" s="275"/>
+      <c r="T49" s="289">
+        <f>SUM(T9:T47)-SUM(U9:U47)</f>
+        <v>7</v>
+      </c>
+      <c r="U49" s="289"/>
+      <c r="V49" s="275">
+        <f>SUM(V9:V47)-SUM(W9:W47)</f>
+        <v>24</v>
+      </c>
+      <c r="W49" s="275"/>
+      <c r="X49" s="307">
+        <f>SUM(X9:X47)-SUM(Y9:Y47)</f>
+        <v>59</v>
+      </c>
+      <c r="Y49" s="308"/>
+      <c r="Z49" s="309">
+        <f>SUM(Z9:Z47)-SUM(AA9:AA47)</f>
+        <v>15</v>
+      </c>
+      <c r="AA49" s="310"/>
+      <c r="AB49" s="311">
+        <f>SUM(AB9:AB47)-SUM(AC9:AC47)</f>
+        <v>28</v>
+      </c>
+      <c r="AC49" s="312"/>
+      <c r="AD49" s="275">
+        <f>SUM(AD9:AD47)-SUM(AE9:AE47)</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="275"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="222">
+        <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
+        <v>265</v>
+      </c>
+      <c r="AH49" s="58"/>
+    </row>
+    <row r="50" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="292" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="293"/>
+      <c r="C50" s="293"/>
+      <c r="D50" s="293"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="293"/>
+      <c r="H50" s="293"/>
+      <c r="I50" s="293"/>
+      <c r="J50" s="293"/>
+      <c r="K50" s="293"/>
+      <c r="L50" s="293"/>
+      <c r="M50" s="293"/>
+      <c r="N50" s="293"/>
+      <c r="O50" s="293"/>
+      <c r="P50" s="293"/>
+      <c r="Q50" s="293"/>
+      <c r="R50" s="293"/>
+      <c r="S50" s="293"/>
+      <c r="T50" s="293"/>
+      <c r="U50" s="293"/>
+      <c r="V50" s="293"/>
+      <c r="W50" s="293"/>
+      <c r="X50" s="293"/>
+      <c r="Y50" s="293"/>
+      <c r="Z50" s="293"/>
+      <c r="AA50" s="293"/>
+      <c r="AB50" s="293"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="293"/>
+      <c r="AE50" s="294"/>
+      <c r="AF50" s="59">
+        <f>SUM(AF9:AF47)</f>
+        <v>15</v>
+      </c>
+      <c r="AG50" s="59">
+        <f>SUM(AG9:AG47)</f>
+        <v>280</v>
+      </c>
+      <c r="AH50" s="60"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="292" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="293"/>
+      <c r="C51" s="293"/>
+      <c r="D51" s="293"/>
+      <c r="E51" s="293"/>
+      <c r="F51" s="293"/>
+      <c r="G51" s="293"/>
+      <c r="H51" s="293"/>
+      <c r="I51" s="293"/>
+      <c r="J51" s="293"/>
+      <c r="K51" s="293"/>
+      <c r="L51" s="293"/>
+      <c r="M51" s="293"/>
+      <c r="N51" s="293"/>
+      <c r="O51" s="293"/>
+      <c r="P51" s="293"/>
+      <c r="Q51" s="293"/>
+      <c r="R51" s="293"/>
+      <c r="S51" s="293"/>
+      <c r="T51" s="293"/>
+      <c r="U51" s="293"/>
+      <c r="V51" s="293"/>
+      <c r="W51" s="293"/>
+      <c r="X51" s="293"/>
+      <c r="Y51" s="293"/>
+      <c r="Z51" s="293"/>
+      <c r="AA51" s="293"/>
+      <c r="AB51" s="293"/>
+      <c r="AC51" s="293"/>
+      <c r="AD51" s="293"/>
+      <c r="AE51" s="294"/>
+      <c r="AF51" s="286">
+        <f>AG50-AF50</f>
+        <v>265</v>
+      </c>
+      <c r="AG51" s="287"/>
+      <c r="AH51" s="60"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA52" s="6">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -10716,30 +10817,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:K29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="92" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="91" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="91" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="73" customWidth="1"/>
     <col min="5" max="5" width="5" style="73" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="93" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="93" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="94"/>
+    <col min="6" max="6" width="10.85546875" style="93" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="93" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="94"/>
     <col min="10" max="10" width="13" style="93" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="93" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="93" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="73" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="73"/>
+    <col min="11" max="11" width="11.85546875" style="93" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="93" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="93" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="73" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
@@ -10755,7 +10856,7 @@
       <c r="M1" s="67"/>
       <c r="N1" s="68"/>
     </row>
-    <row r="2" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
@@ -10771,147 +10872,147 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="340" t="s">
+    <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="340"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
     </row>
-    <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="340" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="340"/>
-      <c r="N4" s="340"/>
+    <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="313" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
       <c r="O4" s="100"/>
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
-    <row r="5" spans="1:17" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="340"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
+    <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="313"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="342" t="s">
+    <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="344" t="s">
+      <c r="B6" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="344"/>
-      <c r="D6" s="345" t="s">
+      <c r="C6" s="317"/>
+      <c r="D6" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="348" t="s">
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="318"/>
+      <c r="J6" s="318"/>
+      <c r="K6" s="323" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="348"/>
-      <c r="M6" s="348"/>
-      <c r="N6" s="349" t="s">
+      <c r="L6" s="323"/>
+      <c r="M6" s="323"/>
+      <c r="N6" s="324" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="343"/>
-      <c r="B7" s="346" t="s">
+    <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="316"/>
+      <c r="B7" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="346" t="s">
+      <c r="C7" s="319" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="346" t="s">
+      <c r="D7" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="346" t="s">
+      <c r="E7" s="319" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="313" t="s">
+      <c r="F7" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="313" t="s">
+      <c r="G7" s="321" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="324" t="s">
+      <c r="H7" s="350" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="324"/>
-      <c r="J7" s="313" t="s">
+      <c r="I7" s="350"/>
+      <c r="J7" s="321" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="313" t="s">
+      <c r="K7" s="321" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="313" t="s">
+      <c r="L7" s="321" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="313" t="s">
+      <c r="M7" s="321" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="350"/>
-    </row>
-    <row r="8" spans="1:17" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="343"/>
-      <c r="B8" s="347"/>
-      <c r="C8" s="347"/>
-      <c r="D8" s="347"/>
-      <c r="E8" s="347"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="314"/>
+      <c r="N7" s="325"/>
+    </row>
+    <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="316"/>
+      <c r="B8" s="320"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="320"/>
+      <c r="E8" s="320"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
       <c r="H8" s="240" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="314"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="350"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="325"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
@@ -10949,14 +11050,14 @@
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
       <c r="N9" s="109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="321">
+      <c r="A10" s="335">
         <v>43958</v>
       </c>
-      <c r="B10" s="315" t="s">
+      <c r="B10" s="343" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="95"/>
@@ -10987,8 +11088,8 @@
       <c r="N10" s="74"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="323"/>
-      <c r="B11" s="317"/>
+      <c r="A11" s="336"/>
+      <c r="B11" s="345"/>
       <c r="C11" s="112"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
@@ -11017,10 +11118,10 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="321">
+      <c r="A12" s="335">
         <v>43958</v>
       </c>
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="343" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="95"/>
@@ -11051,8 +11152,8 @@
       <c r="N12" s="74"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="323"/>
-      <c r="B13" s="317"/>
+      <c r="A13" s="336"/>
+      <c r="B13" s="345"/>
       <c r="C13" s="83"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
@@ -11080,7 +11181,7 @@
       <c r="M13" s="115"/>
       <c r="N13" s="116"/>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="117">
         <v>43958</v>
       </c>
@@ -11115,10 +11216,10 @@
       <c r="N14" s="120"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="321">
+      <c r="A15" s="335">
         <v>43958</v>
       </c>
-      <c r="B15" s="315" t="s">
+      <c r="B15" s="343" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="95"/>
@@ -11135,7 +11236,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="318">
+      <c r="H15" s="346">
         <v>288000</v>
       </c>
       <c r="I15" s="76">
@@ -11151,13 +11252,13 @@
       </c>
       <c r="L15" s="114"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="328" t="s">
-        <v>135</v>
+      <c r="N15" s="332" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="322"/>
-      <c r="B16" s="316"/>
+      <c r="A16" s="349"/>
+      <c r="B16" s="344"/>
       <c r="C16" s="96"/>
       <c r="D16" s="84" t="s">
         <v>20</v>
@@ -11172,7 +11273,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="319"/>
+      <c r="H16" s="347"/>
       <c r="I16" s="86">
         <v>0.1</v>
       </c>
@@ -11186,11 +11287,11 @@
       </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="329"/>
+      <c r="N16" s="333"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="322"/>
-      <c r="B17" s="316"/>
+      <c r="A17" s="349"/>
+      <c r="B17" s="344"/>
       <c r="C17" s="96"/>
       <c r="D17" s="84" t="s">
         <v>10</v>
@@ -11205,7 +11306,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="319"/>
+      <c r="H17" s="347"/>
       <c r="I17" s="86">
         <v>0.1</v>
       </c>
@@ -11219,11 +11320,11 @@
       </c>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="329"/>
+      <c r="N17" s="333"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="323"/>
-      <c r="B18" s="317"/>
+      <c r="A18" s="336"/>
+      <c r="B18" s="345"/>
       <c r="C18" s="83"/>
       <c r="D18" s="83" t="s">
         <v>21</v>
@@ -11238,7 +11339,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="320"/>
+      <c r="H18" s="348"/>
       <c r="I18" s="124">
         <v>0.1</v>
       </c>
@@ -11252,13 +11353,13 @@
       </c>
       <c r="L18" s="123"/>
       <c r="M18" s="123"/>
-      <c r="N18" s="330"/>
+      <c r="N18" s="334"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="321">
+      <c r="A19" s="335">
         <v>43958</v>
       </c>
-      <c r="B19" s="315" t="s">
+      <c r="B19" s="343" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="113"/>
@@ -11291,13 +11392,13 @@
       </c>
       <c r="L19" s="121"/>
       <c r="M19" s="121"/>
-      <c r="N19" s="332" t="s">
-        <v>134</v>
+      <c r="N19" s="338" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="322"/>
-      <c r="B20" s="316"/>
+      <c r="A20" s="349"/>
+      <c r="B20" s="344"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
         <v>21</v>
@@ -11328,11 +11429,11 @@
       </c>
       <c r="L20" s="81"/>
       <c r="M20" s="81"/>
-      <c r="N20" s="333"/>
+      <c r="N20" s="339"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="323"/>
-      <c r="B21" s="317"/>
+      <c r="A21" s="336"/>
+      <c r="B21" s="345"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125" t="s">
         <v>14</v>
@@ -11363,7 +11464,7 @@
       </c>
       <c r="L21" s="126"/>
       <c r="M21" s="126"/>
-      <c r="N21" s="334"/>
+      <c r="N21" s="340"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="117">
@@ -11401,7 +11502,7 @@
       </c>
       <c r="M22" s="129"/>
       <c r="N22" s="118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -11445,7 +11546,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="321">
+      <c r="A24" s="335">
         <v>43962</v>
       </c>
       <c r="B24" s="144" t="s">
@@ -11476,17 +11577,17 @@
         <v>405000</v>
       </c>
       <c r="K24" s="75">
-        <f>J24</f>
+        <f t="shared" ref="K24:K29" si="3">J24</f>
         <v>405000</v>
       </c>
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
-      <c r="N24" s="335" t="s">
-        <v>136</v>
+      <c r="N24" s="341" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="323"/>
+      <c r="A25" s="336"/>
       <c r="B25" s="83" t="s">
         <v>68</v>
       </c>
@@ -11515,12 +11616,12 @@
         <v>430000</v>
       </c>
       <c r="K25" s="78">
-        <f>J25</f>
+        <f t="shared" si="3"/>
         <v>430000</v>
       </c>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="336"/>
+      <c r="N25" s="342"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="117">
@@ -11540,7 +11641,7 @@
         <v>475000</v>
       </c>
       <c r="G26" s="110">
-        <f t="shared" ref="G26" si="3">F26*E26</f>
+        <f t="shared" ref="G26" si="4">F26*E26</f>
         <v>475000</v>
       </c>
       <c r="H26" s="110"/>
@@ -11548,17 +11649,17 @@
         <v>0</v>
       </c>
       <c r="J26" s="110">
-        <f t="shared" ref="J26" si="4">G26*(1-I26)-H26</f>
+        <f t="shared" ref="J26" si="5">G26*(1-I26)-H26</f>
         <v>475000</v>
       </c>
       <c r="K26" s="110">
-        <f>J26</f>
+        <f t="shared" si="3"/>
         <v>475000</v>
       </c>
       <c r="L26" s="110"/>
       <c r="M26" s="110"/>
       <c r="N26" s="109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -11570,7 +11671,7 @@
       </c>
       <c r="C27" s="96"/>
       <c r="D27" s="84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E27" s="84">
         <v>1</v>
@@ -11591,13 +11692,13 @@
         <v>250000</v>
       </c>
       <c r="K27" s="85">
-        <f>J27</f>
+        <f t="shared" si="3"/>
         <v>250000</v>
       </c>
       <c r="L27" s="85"/>
       <c r="M27" s="85"/>
       <c r="N27" s="84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -11630,21 +11731,21 @@
         <v>970000</v>
       </c>
       <c r="K28" s="85">
-        <f>J28</f>
+        <f t="shared" si="3"/>
         <v>970000</v>
       </c>
       <c r="L28" s="85"/>
       <c r="M28" s="85"/>
       <c r="N28" s="84" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="97">
         <v>44013</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29" s="96"/>
       <c r="D29" s="84" t="s">
@@ -11669,38 +11770,54 @@
         <v>220000</v>
       </c>
       <c r="K29" s="85">
-        <f>J29</f>
+        <f t="shared" si="3"/>
         <v>220000</v>
       </c>
       <c r="L29" s="85"/>
       <c r="M29" s="85"/>
       <c r="N29" s="84" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="96"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="97">
+        <v>44018</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>68</v>
+      </c>
       <c r="C30" s="96"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="D30" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="84">
+        <v>1</v>
+      </c>
+      <c r="F30" s="85">
+        <v>150000</v>
+      </c>
       <c r="G30" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
+      <c r="I30" s="86">
+        <v>0</v>
+      </c>
       <c r="J30" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="85"/>
+        <v>150000</v>
+      </c>
+      <c r="K30" s="85">
+        <v>150000</v>
+      </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85"/>
-      <c r="N30" s="84"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N30" s="84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="98"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -11722,7 +11839,7 @@
       <c r="M31" s="85"/>
       <c r="N31" s="84"/>
     </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="98"/>
       <c r="B32" s="80"/>
       <c r="C32" s="80"/>
@@ -11744,7 +11861,7 @@
       <c r="M32" s="85"/>
       <c r="N32" s="84"/>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="98"/>
       <c r="B33" s="80"/>
       <c r="C33" s="80"/>
@@ -11766,7 +11883,7 @@
       <c r="M33" s="85"/>
       <c r="N33" s="84"/>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="98"/>
       <c r="B34" s="80"/>
       <c r="C34" s="80"/>
@@ -11808,7 +11925,7 @@
       <c r="K35" s="85"/>
       <c r="L35" s="85"/>
       <c r="M35" s="85"/>
-      <c r="N35" s="339"/>
+      <c r="N35" s="330"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="98"/>
@@ -11830,7 +11947,7 @@
       <c r="K36" s="85"/>
       <c r="L36" s="85"/>
       <c r="M36" s="85"/>
-      <c r="N36" s="339"/>
+      <c r="N36" s="330"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="98"/>
@@ -11852,7 +11969,7 @@
       <c r="K37" s="85"/>
       <c r="L37" s="85"/>
       <c r="M37" s="85"/>
-      <c r="N37" s="339"/>
+      <c r="N37" s="330"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="98"/>
@@ -11874,7 +11991,7 @@
       <c r="K38" s="85"/>
       <c r="L38" s="85"/>
       <c r="M38" s="85"/>
-      <c r="N38" s="339"/>
+      <c r="N38" s="330"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="98"/>
@@ -11896,7 +12013,7 @@
       <c r="K39" s="85"/>
       <c r="L39" s="85"/>
       <c r="M39" s="85"/>
-      <c r="N39" s="339"/>
+      <c r="N39" s="330"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="98"/>
@@ -11918,7 +12035,7 @@
       <c r="K40" s="85"/>
       <c r="L40" s="85"/>
       <c r="M40" s="85"/>
-      <c r="N40" s="339"/>
+      <c r="N40" s="330"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="97"/>
@@ -11984,7 +12101,7 @@
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
       <c r="M43" s="85"/>
-      <c r="N43" s="339"/>
+      <c r="N43" s="330"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="98"/>
@@ -12006,7 +12123,7 @@
       <c r="K44" s="85"/>
       <c r="L44" s="85"/>
       <c r="M44" s="85"/>
-      <c r="N44" s="339"/>
+      <c r="N44" s="330"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="98"/>
@@ -12028,7 +12145,7 @@
       <c r="K45" s="85"/>
       <c r="L45" s="85"/>
       <c r="M45" s="85"/>
-      <c r="N45" s="339"/>
+      <c r="N45" s="330"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="97"/>
@@ -12456,7 +12573,7 @@
       <c r="E65" s="84"/>
       <c r="F65" s="85"/>
       <c r="G65" s="85">
-        <f t="shared" ref="G65:G71" si="5">E65*F65</f>
+        <f t="shared" ref="G65:G71" si="6">E65*F65</f>
         <v>0</v>
       </c>
       <c r="H65" s="85"/>
@@ -12478,7 +12595,7 @@
       <c r="E66" s="84"/>
       <c r="F66" s="85"/>
       <c r="G66" s="85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H66" s="85"/>
@@ -12500,7 +12617,7 @@
       <c r="E67" s="84"/>
       <c r="F67" s="85"/>
       <c r="G67" s="85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H67" s="85"/>
@@ -12522,7 +12639,7 @@
       <c r="E68" s="84"/>
       <c r="F68" s="85"/>
       <c r="G68" s="85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H68" s="85"/>
@@ -12544,13 +12661,13 @@
       <c r="E69" s="84"/>
       <c r="F69" s="85"/>
       <c r="G69" s="85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H69" s="85"/>
       <c r="I69" s="86"/>
       <c r="J69" s="85">
-        <f t="shared" ref="J69:J71" si="6">G69*(1-I69)-H69</f>
+        <f t="shared" ref="J69:J71" si="7">G69*(1-I69)-H69</f>
         <v>0</v>
       </c>
       <c r="K69" s="85"/>
@@ -12566,13 +12683,13 @@
       <c r="E70" s="84"/>
       <c r="F70" s="85"/>
       <c r="G70" s="85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H70" s="85"/>
       <c r="I70" s="86"/>
       <c r="J70" s="85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K70" s="85"/>
@@ -12588,13 +12705,13 @@
       <c r="E71" s="77"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H71" s="78"/>
       <c r="I71" s="79"/>
       <c r="J71" s="78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K71" s="78"/>
@@ -12602,31 +12719,31 @@
       <c r="M71" s="78"/>
       <c r="N71" s="77"/>
     </row>
-    <row r="72" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A72" s="337" t="s">
+    <row r="72" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A72" s="328" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="338"/>
-      <c r="C72" s="338"/>
-      <c r="D72" s="338"/>
+      <c r="B72" s="329"/>
+      <c r="C72" s="329"/>
+      <c r="D72" s="329"/>
       <c r="E72" s="252">
         <f>SUM(E9:E71)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" s="252"/>
       <c r="G72" s="253">
         <f>SUM(G9:G71)</f>
-        <v>17300000</v>
+        <v>17450000</v>
       </c>
       <c r="H72" s="254"/>
       <c r="I72" s="253"/>
       <c r="J72" s="255">
         <f>SUM(J9:J71)</f>
-        <v>8119000</v>
+        <v>8269000</v>
       </c>
       <c r="K72" s="256">
         <f>SUM(K9:K71)</f>
-        <v>6839000</v>
+        <v>6989000</v>
       </c>
       <c r="L72" s="256">
         <f>SUM(L10:L23)</f>
@@ -12634,9 +12751,9 @@
       </c>
       <c r="M72" s="256"/>
       <c r="N72" s="257"/>
-      <c r="O72" s="325"/>
-    </row>
-    <row r="73" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="O72" s="331"/>
+    </row>
+    <row r="73" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="326" t="s">
         <v>77</v>
       </c>
@@ -12647,7 +12764,7 @@
       <c r="F73" s="259"/>
       <c r="G73" s="260">
         <f>G72</f>
-        <v>17300000</v>
+        <v>17450000</v>
       </c>
       <c r="H73" s="261"/>
       <c r="I73" s="260"/>
@@ -12656,20 +12773,20 @@
       <c r="L73" s="261"/>
       <c r="M73" s="261"/>
       <c r="N73" s="257"/>
-      <c r="O73" s="325"/>
-    </row>
-    <row r="74" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="O73" s="331"/>
+    </row>
+    <row r="74" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="326" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="327"/>
       <c r="C74" s="327"/>
-      <c r="D74" s="331"/>
+      <c r="D74" s="337"/>
       <c r="E74" s="259"/>
       <c r="F74" s="259"/>
       <c r="G74" s="260">
         <f>J72</f>
-        <v>8119000</v>
+        <v>8269000</v>
       </c>
       <c r="H74" s="261"/>
       <c r="I74" s="260"/>
@@ -12680,7 +12797,7 @@
       <c r="N74" s="257"/>
       <c r="O74" s="263"/>
     </row>
-    <row r="75" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="326" t="s">
         <v>74</v>
       </c>
@@ -12691,7 +12808,7 @@
       <c r="F75" s="259"/>
       <c r="G75" s="264">
         <f>K72</f>
-        <v>6839000</v>
+        <v>6989000</v>
       </c>
       <c r="H75" s="265"/>
       <c r="I75" s="265"/>
@@ -12701,7 +12818,7 @@
       <c r="M75" s="261"/>
       <c r="N75" s="257"/>
     </row>
-    <row r="76" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="326" t="s">
         <v>75</v>
       </c>
@@ -12722,7 +12839,7 @@
       <c r="M76" s="261"/>
       <c r="N76" s="257"/>
     </row>
-    <row r="77" spans="1:15" s="258" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="326" t="s">
         <v>76</v>
       </c>
@@ -12785,6 +12902,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -12801,32 +12944,6 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -12837,22 +12954,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A55:A56"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="165" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="166" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="148" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="148" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="149" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="149" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="149"/>
+    <col min="1" max="1" width="10.140625" style="165" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="166" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="148" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="148" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="149" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="149" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="352" t="s">
         <v>0</v>
       </c>
@@ -12868,7 +12985,7 @@
       <c r="O1" s="134"/>
       <c r="P1" s="135"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
         <v>2</v>
       </c>
@@ -12902,7 +13019,7 @@
       <c r="O3" s="134"/>
       <c r="P3" s="135"/>
     </row>
-    <row r="4" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="353" t="s">
         <v>78</v>
       </c>
@@ -12922,10 +13039,8 @@
       <c r="O4" s="139"/>
       <c r="P4" s="139"/>
     </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="354" t="s">
-        <v>126</v>
-      </c>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="354"/>
       <c r="B5" s="354"/>
       <c r="C5" s="354"/>
       <c r="D5" s="354"/>
@@ -12942,7 +13057,7 @@
       <c r="O5" s="139"/>
       <c r="P5" s="139"/>
     </row>
-    <row r="7" spans="1:16" s="140" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="140" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="355" t="s">
         <v>79</v>
       </c>
@@ -12960,7 +13075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="145" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="145" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="355"/>
       <c r="B8" s="356"/>
       <c r="C8" s="146" t="s">
@@ -12972,7 +13087,7 @@
       <c r="E8" s="359"/>
       <c r="F8" s="356"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="150">
         <v>43955</v>
       </c>
@@ -12986,7 +13101,7 @@
       <c r="E9" s="153"/>
       <c r="F9" s="153"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="154"/>
       <c r="B10" s="155" t="s">
         <v>87</v>
@@ -12998,7 +13113,7 @@
       <c r="E10" s="157"/>
       <c r="F10" s="157"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="154"/>
       <c r="B11" s="155" t="s">
         <v>88</v>
@@ -13010,7 +13125,7 @@
       <c r="E11" s="157"/>
       <c r="F11" s="157"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="154"/>
       <c r="B12" s="155" t="s">
         <v>89</v>
@@ -13022,7 +13137,7 @@
       <c r="E12" s="157"/>
       <c r="F12" s="157"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="155" t="s">
         <v>90</v>
@@ -13034,7 +13149,7 @@
       <c r="E13" s="157"/>
       <c r="F13" s="157"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="154"/>
       <c r="B14" s="155" t="s">
         <v>91</v>
@@ -13046,7 +13161,7 @@
       <c r="E14" s="157"/>
       <c r="F14" s="157"/>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="154"/>
       <c r="B15" s="155" t="s">
         <v>92</v>
@@ -13058,7 +13173,7 @@
       <c r="E15" s="157"/>
       <c r="F15" s="157"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="154"/>
       <c r="B16" s="155" t="s">
         <v>93</v>
@@ -13070,7 +13185,7 @@
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="154"/>
       <c r="B17" s="155" t="s">
         <v>94</v>
@@ -13082,7 +13197,7 @@
       <c r="E17" s="157"/>
       <c r="F17" s="157"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="154"/>
       <c r="B18" s="155" t="s">
         <v>95</v>
@@ -13094,7 +13209,7 @@
       <c r="E18" s="157"/>
       <c r="F18" s="157"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="154"/>
       <c r="B19" s="155" t="s">
         <v>96</v>
@@ -13106,7 +13221,7 @@
       <c r="E19" s="157"/>
       <c r="F19" s="157"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="154"/>
       <c r="B20" s="155" t="s">
         <v>97</v>
@@ -13118,7 +13233,7 @@
       <c r="E20" s="157"/>
       <c r="F20" s="157"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="154"/>
       <c r="B21" s="155" t="s">
         <v>98</v>
@@ -13130,7 +13245,7 @@
       <c r="E21" s="157"/>
       <c r="F21" s="157"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="154"/>
       <c r="B22" s="155" t="s">
         <v>99</v>
@@ -13142,7 +13257,7 @@
       <c r="E22" s="157"/>
       <c r="F22" s="157"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="154"/>
       <c r="B23" s="155" t="s">
         <v>100</v>
@@ -13155,7 +13270,7 @@
       <c r="E23" s="157"/>
       <c r="F23" s="157"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="154">
         <v>43957</v>
       </c>
@@ -13169,7 +13284,7 @@
       <c r="E24" s="157"/>
       <c r="F24" s="157"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="154"/>
       <c r="B25" s="155" t="s">
         <v>102</v>
@@ -13181,7 +13296,7 @@
       <c r="E25" s="157"/>
       <c r="F25" s="157"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="154"/>
       <c r="B26" s="155" t="s">
         <v>103</v>
@@ -13193,7 +13308,7 @@
       <c r="E26" s="157"/>
       <c r="F26" s="157"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="154"/>
       <c r="B27" s="155" t="s">
         <v>104</v>
@@ -13205,7 +13320,7 @@
       <c r="E27" s="157"/>
       <c r="F27" s="157"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="154"/>
       <c r="B28" s="155" t="s">
         <v>105</v>
@@ -13217,7 +13332,7 @@
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="154"/>
       <c r="B29" s="155" t="s">
         <v>106</v>
@@ -13230,7 +13345,7 @@
       <c r="E29" s="157"/>
       <c r="F29" s="157"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="154"/>
       <c r="B30" s="155" t="s">
         <v>107</v>
@@ -13243,7 +13358,7 @@
       <c r="E30" s="157"/>
       <c r="F30" s="157"/>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="154"/>
       <c r="B31" s="155" t="s">
         <v>108</v>
@@ -13255,7 +13370,7 @@
       <c r="E31" s="157"/>
       <c r="F31" s="157"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="154"/>
       <c r="B32" s="155" t="s">
         <v>109</v>
@@ -13267,7 +13382,7 @@
       <c r="E32" s="157"/>
       <c r="F32" s="157"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="154"/>
       <c r="B33" s="155" t="s">
         <v>110</v>
@@ -13279,7 +13394,7 @@
       <c r="E33" s="157"/>
       <c r="F33" s="157"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="154"/>
       <c r="B34" s="155" t="s">
         <v>111</v>
@@ -13292,7 +13407,7 @@
       <c r="E34" s="157"/>
       <c r="F34" s="157"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154"/>
       <c r="B35" s="155" t="s">
         <v>91</v>
@@ -13304,7 +13419,7 @@
       <c r="E35" s="157"/>
       <c r="F35" s="157"/>
     </row>
-    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="154">
         <v>43958</v>
       </c>
@@ -13318,7 +13433,7 @@
       <c r="E36" s="157"/>
       <c r="F36" s="157"/>
     </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154">
         <v>43959</v>
       </c>
@@ -13332,7 +13447,7 @@
       <c r="E37" s="157"/>
       <c r="F37" s="157"/>
     </row>
-    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="154">
         <v>43959</v>
       </c>
@@ -13346,7 +13461,7 @@
       <c r="E38" s="157"/>
       <c r="F38" s="157"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="154">
         <v>43959</v>
       </c>
@@ -13360,44 +13475,40 @@
       <c r="E39" s="157"/>
       <c r="F39" s="157"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="154">
         <v>43962</v>
       </c>
       <c r="B40" s="155" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C40" s="156">
         <v>835000</v>
       </c>
       <c r="D40" s="156"/>
       <c r="E40" s="157"/>
-      <c r="F40" s="157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="157"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="154">
         <v>43964</v>
       </c>
       <c r="B41" s="155" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C41" s="156">
         <v>475000</v>
       </c>
       <c r="D41" s="156"/>
       <c r="E41" s="157"/>
-      <c r="F41" s="157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="157"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="154">
         <v>43964</v>
       </c>
       <c r="B42" s="155" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="156"/>
       <c r="D42" s="156">
@@ -13406,7 +13517,7 @@
       <c r="E42" s="157"/>
       <c r="F42" s="157"/>
     </row>
-    <row r="43" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="154"/>
       <c r="B43" s="155"/>
       <c r="C43" s="156"/>
@@ -13414,7 +13525,7 @@
       <c r="E43" s="157"/>
       <c r="F43" s="157"/>
     </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="154"/>
       <c r="B44" s="155"/>
       <c r="C44" s="156"/>
@@ -13422,7 +13533,7 @@
       <c r="E44" s="157"/>
       <c r="F44" s="157"/>
     </row>
-    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="154"/>
       <c r="B45" s="155"/>
       <c r="C45" s="156"/>
@@ -13430,7 +13541,7 @@
       <c r="E45" s="157"/>
       <c r="F45" s="157"/>
     </row>
-    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="158"/>
       <c r="B46" s="159"/>
       <c r="C46" s="160"/>
@@ -13438,12 +13549,12 @@
       <c r="E46" s="161"/>
       <c r="F46" s="161"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="154">
         <v>43962</v>
       </c>
       <c r="B47" s="155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="156"/>
       <c r="D47" s="156">
@@ -13452,10 +13563,10 @@
       <c r="E47" s="157"/>
       <c r="F47" s="157"/>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="154"/>
       <c r="B48" s="155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="156"/>
       <c r="D48" s="156">
@@ -13464,10 +13575,10 @@
       <c r="E48" s="157"/>
       <c r="F48" s="157"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="154"/>
       <c r="B49" s="155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="156"/>
       <c r="D49" s="156">
@@ -13476,10 +13587,10 @@
       <c r="E49" s="157"/>
       <c r="F49" s="157"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="154"/>
       <c r="B50" s="155" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="156"/>
       <c r="D50" s="156">
@@ -13488,10 +13599,10 @@
       <c r="E50" s="157"/>
       <c r="F50" s="157"/>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="154"/>
       <c r="B51" s="155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C51" s="156"/>
       <c r="D51" s="156">
@@ -13500,10 +13611,10 @@
       <c r="E51" s="157"/>
       <c r="F51" s="157"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="154"/>
       <c r="B52" s="155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="156"/>
       <c r="D52" s="156">
@@ -13512,12 +13623,12 @@
       <c r="E52" s="157"/>
       <c r="F52" s="157"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="207">
         <v>43987</v>
       </c>
       <c r="B53" s="208" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="209"/>
       <c r="D53" s="209">
@@ -13526,12 +13637,12 @@
       <c r="E53" s="210"/>
       <c r="F53" s="210"/>
     </row>
-    <row r="54" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="207">
         <v>43988</v>
       </c>
       <c r="B54" s="208" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C54" s="209">
         <f>250000</f>
@@ -13539,43 +13650,51 @@
       </c>
       <c r="D54" s="209"/>
       <c r="E54" s="210"/>
-      <c r="F54" s="210" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F54" s="210"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="207">
         <v>44009</v>
       </c>
       <c r="B55" s="208" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C55" s="209">
         <v>970000</v>
       </c>
       <c r="D55" s="209"/>
       <c r="E55" s="210"/>
-      <c r="F55" s="210" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="207"/>
-      <c r="B56" s="208"/>
-      <c r="C56" s="209"/>
+      <c r="F55" s="210"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="207">
+        <v>44013</v>
+      </c>
+      <c r="B56" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="209">
+        <v>220000</v>
+      </c>
       <c r="D56" s="209"/>
       <c r="E56" s="210"/>
       <c r="F56" s="210"/>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="207"/>
-      <c r="B57" s="208"/>
-      <c r="C57" s="209"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="207">
+        <v>44018</v>
+      </c>
+      <c r="B57" s="208" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="209">
+        <v>150000</v>
+      </c>
       <c r="D57" s="209"/>
       <c r="E57" s="210"/>
       <c r="F57" s="210"/>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="207"/>
       <c r="B58" s="208"/>
       <c r="C58" s="209"/>
@@ -13583,7 +13702,7 @@
       <c r="E58" s="210"/>
       <c r="F58" s="210"/>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="207"/>
       <c r="B59" s="208"/>
       <c r="C59" s="209"/>
@@ -13591,7 +13710,7 @@
       <c r="E59" s="210"/>
       <c r="F59" s="210"/>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="207"/>
       <c r="B60" s="208"/>
       <c r="C60" s="209"/>
@@ -13599,7 +13718,7 @@
       <c r="E60" s="210"/>
       <c r="F60" s="210"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="207"/>
       <c r="B61" s="208"/>
       <c r="C61" s="209"/>
@@ -13607,7 +13726,7 @@
       <c r="E61" s="210"/>
       <c r="F61" s="210"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="207"/>
       <c r="B62" s="208"/>
       <c r="C62" s="209"/>
@@ -13615,7 +13734,7 @@
       <c r="E62" s="210"/>
       <c r="F62" s="210"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="207"/>
       <c r="B63" s="208"/>
       <c r="C63" s="209"/>
@@ -13623,7 +13742,7 @@
       <c r="E63" s="210"/>
       <c r="F63" s="210"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="207"/>
       <c r="B64" s="208"/>
       <c r="C64" s="209"/>
@@ -13631,7 +13750,7 @@
       <c r="E64" s="210"/>
       <c r="F64" s="210"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="207"/>
       <c r="B65" s="208"/>
       <c r="C65" s="209"/>
@@ -13639,7 +13758,7 @@
       <c r="E65" s="210"/>
       <c r="F65" s="210"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="207"/>
       <c r="B66" s="208"/>
       <c r="C66" s="209"/>
@@ -13647,7 +13766,7 @@
       <c r="E66" s="210"/>
       <c r="F66" s="210"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="207"/>
       <c r="B67" s="208"/>
       <c r="C67" s="209"/>
@@ -13655,7 +13774,7 @@
       <c r="E67" s="210"/>
       <c r="F67" s="210"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="207"/>
       <c r="B68" s="208"/>
       <c r="C68" s="209"/>
@@ -13663,14 +13782,14 @@
       <c r="E68" s="210"/>
       <c r="F68" s="210"/>
     </row>
-    <row r="69" spans="1:6" s="164" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="164" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A69" s="351" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" s="351"/>
       <c r="C69" s="162">
-        <f>SUM(C9:C52)</f>
-        <v>6864000</v>
+        <f>SUM(C9:C68)</f>
+        <v>8454000</v>
       </c>
       <c r="D69" s="162">
         <f>SUM(D9:D68)</f>
@@ -13679,7 +13798,7 @@
       <c r="E69" s="163"/>
       <c r="F69" s="163"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="149" t="s">
         <v>85</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -2653,30 +2653,84 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2698,59 +2752,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2758,9 +2761,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2779,6 +2779,87 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2803,12 +2884,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2817,81 +2892,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3250,14 +3250,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3290,11 +3290,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -3330,235 +3330,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="277"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="277"/>
-      <c r="T3" s="277"/>
-      <c r="U3" s="277"/>
-      <c r="V3" s="277"/>
-      <c r="W3" s="277"/>
-      <c r="X3" s="277"/>
-      <c r="Y3" s="277"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="277"/>
-      <c r="AB3" s="277"/>
-      <c r="AC3" s="277"/>
-      <c r="AD3" s="277"/>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="277"/>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="277"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="296"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="296"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="296" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="277"/>
-      <c r="U4" s="277"/>
-      <c r="V4" s="277"/>
-      <c r="W4" s="277"/>
-      <c r="X4" s="277"/>
-      <c r="Y4" s="277"/>
-      <c r="Z4" s="277"/>
-      <c r="AA4" s="277"/>
-      <c r="AB4" s="277"/>
-      <c r="AC4" s="277"/>
-      <c r="AD4" s="277"/>
-      <c r="AE4" s="277"/>
-      <c r="AF4" s="277"/>
-      <c r="AG4" s="277"/>
-      <c r="AH4" s="277"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="296"/>
+      <c r="AH4" s="296"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="277"/>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
+      <c r="O5" s="296"/>
+      <c r="P5" s="296"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="296"/>
+      <c r="S5" s="296"/>
+      <c r="T5" s="296"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="296"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="296"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="280" t="s">
+      <c r="C6" s="298" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="281" t="s">
+      <c r="D6" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="282"/>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="282"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="282"/>
-      <c r="X6" s="282"/>
-      <c r="Y6" s="282"/>
-      <c r="Z6" s="282"/>
-      <c r="AA6" s="282"/>
-      <c r="AB6" s="282"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="282"/>
-      <c r="AE6" s="282"/>
-      <c r="AF6" s="282"/>
-      <c r="AG6" s="283"/>
-      <c r="AH6" s="278" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="300"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="300"/>
+      <c r="AF6" s="300"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="278"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="284" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="302"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="278"/>
-      <c r="H7" s="285" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="278" t="s">
+      <c r="I7" s="303"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="278"/>
-      <c r="L7" s="299" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="299"/>
-      <c r="N7" s="278" t="s">
+      <c r="M7" s="278"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="278"/>
-      <c r="P7" s="302" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="302"/>
-      <c r="R7" s="278" t="s">
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="278"/>
-      <c r="T7" s="303" t="s">
+      <c r="S7" s="274"/>
+      <c r="T7" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="303"/>
-      <c r="V7" s="278" t="s">
+      <c r="U7" s="275"/>
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="278"/>
-      <c r="X7" s="273" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="278" t="s">
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="278"/>
-      <c r="AB7" s="301" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="301"/>
-      <c r="AD7" s="278" t="s">
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="278"/>
-      <c r="AF7" s="271" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="271" t="s">
+      <c r="AG7" s="276" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="278"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="278"/>
-      <c r="B8" s="279"/>
-      <c r="C8" s="280"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3643,9 +3643,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="278"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -5475,78 +5475,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="296"/>
-      <c r="C44" s="297"/>
-      <c r="D44" s="298">
+      <c r="B44" s="290"/>
+      <c r="C44" s="291"/>
+      <c r="D44" s="292">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="298"/>
-      <c r="F44" s="275">
+      <c r="E44" s="292"/>
+      <c r="F44" s="281">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="275"/>
-      <c r="H44" s="274">
+      <c r="G44" s="281"/>
+      <c r="H44" s="294">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="274"/>
-      <c r="J44" s="275">
+      <c r="I44" s="294"/>
+      <c r="J44" s="281">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="275"/>
-      <c r="L44" s="295">
+      <c r="K44" s="281"/>
+      <c r="L44" s="289">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="295"/>
-      <c r="N44" s="275">
+      <c r="M44" s="289"/>
+      <c r="N44" s="281">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="275"/>
-      <c r="P44" s="288">
+      <c r="O44" s="281"/>
+      <c r="P44" s="282">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="288"/>
-      <c r="R44" s="275">
+      <c r="Q44" s="282"/>
+      <c r="R44" s="281">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="275"/>
-      <c r="T44" s="289">
+      <c r="S44" s="281"/>
+      <c r="T44" s="283">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="289"/>
-      <c r="V44" s="275">
+      <c r="U44" s="283"/>
+      <c r="V44" s="281">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="275"/>
-      <c r="X44" s="290">
+      <c r="W44" s="281"/>
+      <c r="X44" s="284">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="290"/>
-      <c r="Z44" s="275">
+      <c r="Y44" s="284"/>
+      <c r="Z44" s="281">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="275"/>
-      <c r="AB44" s="291">
+      <c r="AA44" s="281"/>
+      <c r="AB44" s="285">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="291"/>
-      <c r="AD44" s="275">
+      <c r="AC44" s="285"/>
+      <c r="AD44" s="281">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="275"/>
+      <c r="AE44" s="281"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5555,39 +5555,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="292" t="s">
+      <c r="A45" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="293"/>
-      <c r="C45" s="293"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="293"/>
-      <c r="F45" s="293"/>
-      <c r="G45" s="293"/>
-      <c r="H45" s="293"/>
-      <c r="I45" s="293"/>
-      <c r="J45" s="293"/>
-      <c r="K45" s="293"/>
-      <c r="L45" s="293"/>
-      <c r="M45" s="293"/>
-      <c r="N45" s="293"/>
-      <c r="O45" s="293"/>
-      <c r="P45" s="293"/>
-      <c r="Q45" s="293"/>
-      <c r="R45" s="293"/>
-      <c r="S45" s="293"/>
-      <c r="T45" s="293"/>
-      <c r="U45" s="293"/>
-      <c r="V45" s="293"/>
-      <c r="W45" s="293"/>
-      <c r="X45" s="293"/>
-      <c r="Y45" s="293"/>
-      <c r="Z45" s="293"/>
-      <c r="AA45" s="293"/>
-      <c r="AB45" s="293"/>
-      <c r="AC45" s="293"/>
-      <c r="AD45" s="293"/>
-      <c r="AE45" s="294"/>
+      <c r="B45" s="287"/>
+      <c r="C45" s="287"/>
+      <c r="D45" s="287"/>
+      <c r="E45" s="287"/>
+      <c r="F45" s="287"/>
+      <c r="G45" s="287"/>
+      <c r="H45" s="287"/>
+      <c r="I45" s="287"/>
+      <c r="J45" s="287"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="287"/>
+      <c r="N45" s="287"/>
+      <c r="O45" s="287"/>
+      <c r="P45" s="287"/>
+      <c r="Q45" s="287"/>
+      <c r="R45" s="287"/>
+      <c r="S45" s="287"/>
+      <c r="T45" s="287"/>
+      <c r="U45" s="287"/>
+      <c r="V45" s="287"/>
+      <c r="W45" s="287"/>
+      <c r="X45" s="287"/>
+      <c r="Y45" s="287"/>
+      <c r="Z45" s="287"/>
+      <c r="AA45" s="287"/>
+      <c r="AB45" s="287"/>
+      <c r="AC45" s="287"/>
+      <c r="AD45" s="287"/>
+      <c r="AE45" s="288"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5599,60 +5599,64 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="292" t="s">
+      <c r="A46" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="293"/>
-      <c r="C46" s="293"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="293"/>
-      <c r="F46" s="293"/>
-      <c r="G46" s="293"/>
-      <c r="H46" s="293"/>
-      <c r="I46" s="293"/>
-      <c r="J46" s="293"/>
-      <c r="K46" s="293"/>
-      <c r="L46" s="293"/>
-      <c r="M46" s="293"/>
-      <c r="N46" s="293"/>
-      <c r="O46" s="293"/>
-      <c r="P46" s="293"/>
-      <c r="Q46" s="293"/>
-      <c r="R46" s="293"/>
-      <c r="S46" s="293"/>
-      <c r="T46" s="293"/>
-      <c r="U46" s="293"/>
-      <c r="V46" s="293"/>
-      <c r="W46" s="293"/>
-      <c r="X46" s="293"/>
-      <c r="Y46" s="293"/>
-      <c r="Z46" s="293"/>
-      <c r="AA46" s="293"/>
-      <c r="AB46" s="293"/>
-      <c r="AC46" s="293"/>
-      <c r="AD46" s="293"/>
-      <c r="AE46" s="294"/>
-      <c r="AF46" s="286">
+      <c r="B46" s="287"/>
+      <c r="C46" s="287"/>
+      <c r="D46" s="287"/>
+      <c r="E46" s="287"/>
+      <c r="F46" s="287"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="287"/>
+      <c r="I46" s="287"/>
+      <c r="J46" s="287"/>
+      <c r="K46" s="287"/>
+      <c r="L46" s="287"/>
+      <c r="M46" s="287"/>
+      <c r="N46" s="287"/>
+      <c r="O46" s="287"/>
+      <c r="P46" s="287"/>
+      <c r="Q46" s="287"/>
+      <c r="R46" s="287"/>
+      <c r="S46" s="287"/>
+      <c r="T46" s="287"/>
+      <c r="U46" s="287"/>
+      <c r="V46" s="287"/>
+      <c r="W46" s="287"/>
+      <c r="X46" s="287"/>
+      <c r="Y46" s="287"/>
+      <c r="Z46" s="287"/>
+      <c r="AA46" s="287"/>
+      <c r="AB46" s="287"/>
+      <c r="AC46" s="287"/>
+      <c r="AD46" s="287"/>
+      <c r="AE46" s="288"/>
+      <c r="AF46" s="279">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="287"/>
+      <c r="AG46" s="280"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="AF46:AG46"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
@@ -5669,22 +5673,18 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5698,7 +5698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
+      <selection pane="bottomLeft" activeCell="R48" sqref="R48:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5714,14 +5714,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
       <c r="G1" s="212"/>
       <c r="H1" s="212"/>
       <c r="I1" s="212"/>
@@ -5754,11 +5754,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
       <c r="F2" s="218"/>
@@ -5794,235 +5794,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="277"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="277"/>
-      <c r="T3" s="277"/>
-      <c r="U3" s="277"/>
-      <c r="V3" s="277"/>
-      <c r="W3" s="277"/>
-      <c r="X3" s="277"/>
-      <c r="Y3" s="277"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="277"/>
-      <c r="AB3" s="277"/>
-      <c r="AC3" s="277"/>
-      <c r="AD3" s="277"/>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="277"/>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="277"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="296"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="296"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="277"/>
-      <c r="U4" s="277"/>
-      <c r="V4" s="277"/>
-      <c r="W4" s="277"/>
-      <c r="X4" s="277"/>
-      <c r="Y4" s="277"/>
-      <c r="Z4" s="277"/>
-      <c r="AA4" s="277"/>
-      <c r="AB4" s="277"/>
-      <c r="AC4" s="277"/>
-      <c r="AD4" s="277"/>
-      <c r="AE4" s="277"/>
-      <c r="AF4" s="277"/>
-      <c r="AG4" s="277"/>
-      <c r="AH4" s="277"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="296"/>
+      <c r="AH4" s="296"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="277"/>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
+      <c r="O5" s="296"/>
+      <c r="P5" s="296"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="296"/>
+      <c r="S5" s="296"/>
+      <c r="T5" s="296"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="296"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="296"/>
       <c r="AF5" s="219"/>
       <c r="AG5" s="219"/>
       <c r="AH5" s="219"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="280" t="s">
+      <c r="C6" s="298" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="281" t="s">
+      <c r="D6" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="282"/>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="282"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="282"/>
-      <c r="X6" s="282"/>
-      <c r="Y6" s="282"/>
-      <c r="Z6" s="282"/>
-      <c r="AA6" s="282"/>
-      <c r="AB6" s="282"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="282"/>
-      <c r="AE6" s="282"/>
-      <c r="AF6" s="282"/>
-      <c r="AG6" s="283"/>
-      <c r="AH6" s="278" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="300"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="300"/>
+      <c r="AF6" s="300"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="278"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="284" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="302"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="278"/>
-      <c r="H7" s="285" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="278" t="s">
+      <c r="I7" s="303"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="278"/>
-      <c r="L7" s="299" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="299"/>
-      <c r="N7" s="278" t="s">
+      <c r="M7" s="278"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="278"/>
-      <c r="P7" s="302" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="302"/>
-      <c r="R7" s="278" t="s">
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="278"/>
-      <c r="T7" s="305" t="s">
+      <c r="S7" s="274"/>
+      <c r="T7" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="305"/>
-      <c r="V7" s="278" t="s">
+      <c r="U7" s="306"/>
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="278"/>
-      <c r="X7" s="273" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="278" t="s">
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="278"/>
-      <c r="AB7" s="301" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="301"/>
-      <c r="AD7" s="278" t="s">
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="278"/>
-      <c r="AF7" s="271" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="271" t="s">
+      <c r="AG7" s="276" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="278"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="278"/>
-      <c r="B8" s="279"/>
-      <c r="C8" s="280"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="220" t="s">
         <v>23</v>
       </c>
@@ -6107,9 +6107,9 @@
       <c r="AE8" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="278"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -8099,78 +8099,78 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
-      <c r="B48" s="296"/>
-      <c r="C48" s="297"/>
-      <c r="D48" s="298">
+      <c r="B48" s="290"/>
+      <c r="C48" s="291"/>
+      <c r="D48" s="292">
         <f>SUM(D9:D46)-SUM(E9:E46)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="298"/>
-      <c r="F48" s="304">
+      <c r="E48" s="292"/>
+      <c r="F48" s="305">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
         <v>33</v>
       </c>
-      <c r="G48" s="304"/>
-      <c r="H48" s="274">
+      <c r="G48" s="305"/>
+      <c r="H48" s="294">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="274"/>
-      <c r="J48" s="275">
+      <c r="I48" s="294"/>
+      <c r="J48" s="281">
         <f>SUM(J9:J46)-SUM(K9:K46)</f>
         <v>12</v>
       </c>
-      <c r="K48" s="275"/>
-      <c r="L48" s="295">
+      <c r="K48" s="281"/>
+      <c r="L48" s="289">
         <f>SUM(L9:L46)-SUM(M9:M46)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="295"/>
-      <c r="N48" s="275">
+      <c r="M48" s="289"/>
+      <c r="N48" s="281">
         <f>SUM(N9:N46)-SUM(O9:O46)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="275"/>
-      <c r="P48" s="288">
+      <c r="O48" s="281"/>
+      <c r="P48" s="282">
         <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="288"/>
-      <c r="R48" s="275">
+      <c r="Q48" s="282"/>
+      <c r="R48" s="281">
         <f>SUM(R9:R46)-SUM(S9:S46)</f>
         <v>28</v>
       </c>
-      <c r="S48" s="275"/>
-      <c r="T48" s="289">
+      <c r="S48" s="281"/>
+      <c r="T48" s="283">
         <f>SUM(T9:T46)-SUM(U9:U46)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="289"/>
-      <c r="V48" s="275">
+      <c r="U48" s="283"/>
+      <c r="V48" s="281">
         <f>SUM(V9:V46)-SUM(W9:W46)</f>
         <v>24</v>
       </c>
-      <c r="W48" s="275"/>
-      <c r="X48" s="306">
+      <c r="W48" s="281"/>
+      <c r="X48" s="304">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
         <v>58</v>
       </c>
-      <c r="Y48" s="306"/>
-      <c r="Z48" s="306">
+      <c r="Y48" s="304"/>
+      <c r="Z48" s="304">
         <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
         <v>18</v>
       </c>
-      <c r="AA48" s="306"/>
-      <c r="AB48" s="306">
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="304">
         <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
         <v>28</v>
       </c>
-      <c r="AC48" s="306"/>
-      <c r="AD48" s="275">
+      <c r="AC48" s="304"/>
+      <c r="AD48" s="281">
         <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="275"/>
+      <c r="AE48" s="281"/>
       <c r="AF48" s="43"/>
       <c r="AG48" s="222">
         <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
@@ -8179,39 +8179,39 @@
       <c r="AH48" s="58"/>
     </row>
     <row r="49" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="292" t="s">
+      <c r="A49" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="293"/>
-      <c r="C49" s="293"/>
-      <c r="D49" s="293"/>
-      <c r="E49" s="293"/>
-      <c r="F49" s="293"/>
-      <c r="G49" s="293"/>
-      <c r="H49" s="293"/>
-      <c r="I49" s="293"/>
-      <c r="J49" s="293"/>
-      <c r="K49" s="293"/>
-      <c r="L49" s="293"/>
-      <c r="M49" s="293"/>
-      <c r="N49" s="293"/>
-      <c r="O49" s="293"/>
-      <c r="P49" s="293"/>
-      <c r="Q49" s="293"/>
-      <c r="R49" s="293"/>
-      <c r="S49" s="293"/>
-      <c r="T49" s="293"/>
-      <c r="U49" s="293"/>
-      <c r="V49" s="293"/>
-      <c r="W49" s="293"/>
-      <c r="X49" s="293"/>
-      <c r="Y49" s="293"/>
-      <c r="Z49" s="293"/>
-      <c r="AA49" s="293"/>
-      <c r="AB49" s="293"/>
-      <c r="AC49" s="293"/>
-      <c r="AD49" s="293"/>
-      <c r="AE49" s="294"/>
+      <c r="B49" s="287"/>
+      <c r="C49" s="287"/>
+      <c r="D49" s="287"/>
+      <c r="E49" s="287"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="287"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="287"/>
+      <c r="K49" s="287"/>
+      <c r="L49" s="287"/>
+      <c r="M49" s="287"/>
+      <c r="N49" s="287"/>
+      <c r="O49" s="287"/>
+      <c r="P49" s="287"/>
+      <c r="Q49" s="287"/>
+      <c r="R49" s="287"/>
+      <c r="S49" s="287"/>
+      <c r="T49" s="287"/>
+      <c r="U49" s="287"/>
+      <c r="V49" s="287"/>
+      <c r="W49" s="287"/>
+      <c r="X49" s="287"/>
+      <c r="Y49" s="287"/>
+      <c r="Z49" s="287"/>
+      <c r="AA49" s="287"/>
+      <c r="AB49" s="287"/>
+      <c r="AC49" s="287"/>
+      <c r="AD49" s="287"/>
+      <c r="AE49" s="288"/>
       <c r="AF49" s="59">
         <f>SUM(AF9:AF46)</f>
         <v>305</v>
@@ -8223,44 +8223,44 @@
       <c r="AH49" s="60"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="292" t="s">
+      <c r="A50" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="293"/>
-      <c r="C50" s="293"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="293"/>
-      <c r="F50" s="293"/>
-      <c r="G50" s="293"/>
-      <c r="H50" s="293"/>
-      <c r="I50" s="293"/>
-      <c r="J50" s="293"/>
-      <c r="K50" s="293"/>
-      <c r="L50" s="293"/>
-      <c r="M50" s="293"/>
-      <c r="N50" s="293"/>
-      <c r="O50" s="293"/>
-      <c r="P50" s="293"/>
-      <c r="Q50" s="293"/>
-      <c r="R50" s="293"/>
-      <c r="S50" s="293"/>
-      <c r="T50" s="293"/>
-      <c r="U50" s="293"/>
-      <c r="V50" s="293"/>
-      <c r="W50" s="293"/>
-      <c r="X50" s="293"/>
-      <c r="Y50" s="293"/>
-      <c r="Z50" s="293"/>
-      <c r="AA50" s="293"/>
-      <c r="AB50" s="293"/>
-      <c r="AC50" s="293"/>
-      <c r="AD50" s="293"/>
-      <c r="AE50" s="294"/>
-      <c r="AF50" s="286">
+      <c r="B50" s="287"/>
+      <c r="C50" s="287"/>
+      <c r="D50" s="287"/>
+      <c r="E50" s="287"/>
+      <c r="F50" s="287"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="287"/>
+      <c r="I50" s="287"/>
+      <c r="J50" s="287"/>
+      <c r="K50" s="287"/>
+      <c r="L50" s="287"/>
+      <c r="M50" s="287"/>
+      <c r="N50" s="287"/>
+      <c r="O50" s="287"/>
+      <c r="P50" s="287"/>
+      <c r="Q50" s="287"/>
+      <c r="R50" s="287"/>
+      <c r="S50" s="287"/>
+      <c r="T50" s="287"/>
+      <c r="U50" s="287"/>
+      <c r="V50" s="287"/>
+      <c r="W50" s="287"/>
+      <c r="X50" s="287"/>
+      <c r="Y50" s="287"/>
+      <c r="Z50" s="287"/>
+      <c r="AA50" s="287"/>
+      <c r="AB50" s="287"/>
+      <c r="AC50" s="287"/>
+      <c r="AD50" s="287"/>
+      <c r="AE50" s="288"/>
+      <c r="AF50" s="279">
         <f>AG49-AF49</f>
         <v>119</v>
       </c>
-      <c r="AG50" s="287"/>
+      <c r="AG50" s="280"/>
       <c r="AH50" s="60"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
@@ -8270,18 +8270,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -8298,22 +8302,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8326,9 +8326,9 @@
   <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomLeft" activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8344,14 +8344,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
       <c r="G1" s="248"/>
       <c r="H1" s="248"/>
       <c r="I1" s="248"/>
@@ -8384,11 +8384,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
       <c r="D2" s="242"/>
       <c r="E2" s="242"/>
       <c r="F2" s="242"/>
@@ -8424,235 +8424,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="277"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="277"/>
-      <c r="T3" s="277"/>
-      <c r="U3" s="277"/>
-      <c r="V3" s="277"/>
-      <c r="W3" s="277"/>
-      <c r="X3" s="277"/>
-      <c r="Y3" s="277"/>
-      <c r="Z3" s="277"/>
-      <c r="AA3" s="277"/>
-      <c r="AB3" s="277"/>
-      <c r="AC3" s="277"/>
-      <c r="AD3" s="277"/>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="277"/>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="277"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="296"/>
+      <c r="X3" s="296"/>
+      <c r="Y3" s="296"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="296"/>
+      <c r="AC3" s="296"/>
+      <c r="AD3" s="296"/>
+      <c r="AE3" s="296"/>
+      <c r="AF3" s="296"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="296"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="296" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="277"/>
-      <c r="U4" s="277"/>
-      <c r="V4" s="277"/>
-      <c r="W4" s="277"/>
-      <c r="X4" s="277"/>
-      <c r="Y4" s="277"/>
-      <c r="Z4" s="277"/>
-      <c r="AA4" s="277"/>
-      <c r="AB4" s="277"/>
-      <c r="AC4" s="277"/>
-      <c r="AD4" s="277"/>
-      <c r="AE4" s="277"/>
-      <c r="AF4" s="277"/>
-      <c r="AG4" s="277"/>
-      <c r="AH4" s="277"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="296"/>
+      <c r="W4" s="296"/>
+      <c r="X4" s="296"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="296"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="296"/>
+      <c r="AH4" s="296"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="277"/>
-      <c r="B5" s="277"/>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="277"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="277"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="277"/>
-      <c r="AE5" s="277"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
+      <c r="O5" s="296"/>
+      <c r="P5" s="296"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="296"/>
+      <c r="S5" s="296"/>
+      <c r="T5" s="296"/>
+      <c r="U5" s="296"/>
+      <c r="V5" s="296"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="296"/>
+      <c r="Y5" s="296"/>
+      <c r="Z5" s="296"/>
+      <c r="AA5" s="296"/>
+      <c r="AB5" s="296"/>
+      <c r="AC5" s="296"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="296"/>
       <c r="AF5" s="243"/>
       <c r="AG5" s="243"/>
       <c r="AH5" s="243"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="280" t="s">
+      <c r="C6" s="298" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="281" t="s">
+      <c r="D6" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="282"/>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="282"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="282"/>
-      <c r="X6" s="282"/>
-      <c r="Y6" s="282"/>
-      <c r="Z6" s="282"/>
-      <c r="AA6" s="282"/>
-      <c r="AB6" s="282"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="282"/>
-      <c r="AE6" s="282"/>
-      <c r="AF6" s="282"/>
-      <c r="AG6" s="283"/>
-      <c r="AH6" s="278" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="300"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="300"/>
+      <c r="AF6" s="300"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="274" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="278"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="284" t="s">
+      <c r="A7" s="274"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="302"/>
+      <c r="F7" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="278"/>
-      <c r="H7" s="285" t="s">
+      <c r="G7" s="274"/>
+      <c r="H7" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="278" t="s">
+      <c r="I7" s="303"/>
+      <c r="J7" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="278"/>
-      <c r="L7" s="299" t="s">
+      <c r="K7" s="274"/>
+      <c r="L7" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="299"/>
-      <c r="N7" s="278" t="s">
+      <c r="M7" s="278"/>
+      <c r="N7" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="278"/>
-      <c r="P7" s="302" t="s">
+      <c r="O7" s="274"/>
+      <c r="P7" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="302"/>
-      <c r="R7" s="278" t="s">
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="278"/>
-      <c r="T7" s="305" t="s">
+      <c r="S7" s="274"/>
+      <c r="T7" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="305"/>
-      <c r="V7" s="278" t="s">
+      <c r="U7" s="306"/>
+      <c r="V7" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="278"/>
-      <c r="X7" s="273" t="s">
+      <c r="W7" s="274"/>
+      <c r="X7" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="278" t="s">
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="278"/>
-      <c r="AB7" s="301" t="s">
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="301"/>
-      <c r="AD7" s="278" t="s">
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="278"/>
-      <c r="AF7" s="271" t="s">
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="271" t="s">
+      <c r="AG7" s="276" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="278"/>
+      <c r="AH7" s="274"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="278"/>
-      <c r="B8" s="279"/>
-      <c r="C8" s="280"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="245" t="s">
         <v>23</v>
       </c>
@@ -8737,9 +8737,9 @@
       <c r="AE8" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="278"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="274"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -8856,7 +8856,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230">
+      <c r="A11" s="223">
         <v>3</v>
       </c>
       <c r="B11" s="228">
@@ -9056,7 +9056,7 @@
       <c r="AH14" s="227"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="230">
+      <c r="A15" s="223">
         <v>5</v>
       </c>
       <c r="B15" s="228">
@@ -9114,7 +9114,7 @@
       <c r="AH15" s="227"/>
     </row>
     <row r="16" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230">
+      <c r="A16" s="223">
         <v>7</v>
       </c>
       <c r="B16" s="224">
@@ -9164,14 +9164,12 @@
       <c r="AH16" s="227"/>
     </row>
     <row r="17" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="223">
-        <v>8</v>
-      </c>
+      <c r="A17" s="223"/>
       <c r="B17" s="224">
-        <v>44018</v>
+        <v>44015</v>
       </c>
       <c r="C17" s="225" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -9195,35 +9193,33 @@
       <c r="W17" s="226"/>
       <c r="X17" s="41"/>
       <c r="Y17" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="226"/>
-      <c r="AA17" s="226">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="226"/>
       <c r="AB17" s="42"/>
       <c r="AC17" s="42"/>
       <c r="AD17" s="226"/>
       <c r="AE17" s="226"/>
       <c r="AF17" s="223">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="223">
-        <f t="shared" ref="AG17:AG47" si="2">D17+F17+H17+J17+L17+N17+P17+R17+T17+V17+X17+Z17+AB17+AD17</f>
+        <f>D17+F17+H17+J17+L17+N17+P17+R17+T17+V17+X17+Z17+AB17+AD17</f>
         <v>0</v>
       </c>
       <c r="AH17" s="227"/>
     </row>
     <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="230">
-        <v>9</v>
+      <c r="A18" s="223">
+        <v>8</v>
       </c>
       <c r="B18" s="224">
-        <v>44016</v>
+        <v>44018</v>
       </c>
       <c r="C18" s="225" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -9240,47 +9236,47 @@
       <c r="P18" s="40"/>
       <c r="Q18" s="40"/>
       <c r="R18" s="226"/>
-      <c r="S18" s="226">
-        <v>1</v>
-      </c>
+      <c r="S18" s="226"/>
       <c r="T18" s="236"/>
       <c r="U18" s="236"/>
       <c r="V18" s="226"/>
       <c r="W18" s="226"/>
       <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
+      <c r="Y18" s="41">
+        <v>2</v>
+      </c>
       <c r="Z18" s="226"/>
-      <c r="AA18" s="226"/>
+      <c r="AA18" s="226">
+        <v>1</v>
+      </c>
       <c r="AB18" s="42"/>
       <c r="AC18" s="42"/>
       <c r="AD18" s="226"/>
       <c r="AE18" s="226"/>
       <c r="AF18" s="223">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="223">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AG18:AG47" si="2">D18+F18+H18+J18+L18+N18+P18+R18+T18+V18+X18+Z18+AB18+AD18</f>
         <v>0</v>
       </c>
       <c r="AH18" s="227"/>
     </row>
     <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="223">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="224">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="C19" s="225" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="226"/>
-      <c r="G19" s="226">
-        <v>2</v>
-      </c>
+      <c r="G19" s="226"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="226"/>
@@ -9292,7 +9288,9 @@
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
       <c r="R19" s="226"/>
-      <c r="S19" s="226"/>
+      <c r="S19" s="226">
+        <v>1</v>
+      </c>
       <c r="T19" s="236"/>
       <c r="U19" s="236"/>
       <c r="V19" s="226"/>
@@ -9307,7 +9305,7 @@
       <c r="AE19" s="226"/>
       <c r="AF19" s="223">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="223">
         <f t="shared" si="2"/>
@@ -9316,25 +9314,25 @@
       <c r="AH19" s="227"/>
     </row>
     <row r="20" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="230">
-        <v>11</v>
+      <c r="A20" s="223">
+        <v>10</v>
       </c>
       <c r="B20" s="224">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="C20" s="225" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
+      <c r="G20" s="226">
+        <v>2</v>
+      </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="226"/>
-      <c r="K20" s="226">
-        <v>1</v>
-      </c>
+      <c r="K20" s="226"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
       <c r="N20" s="226"/>
@@ -9357,7 +9355,7 @@
       <c r="AE20" s="226"/>
       <c r="AF20" s="223">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG20" s="223">
         <f t="shared" si="2"/>
@@ -9367,13 +9365,13 @@
     </row>
     <row r="21" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="223">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="224">
         <v>44015</v>
       </c>
       <c r="C21" s="225" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -9382,7 +9380,9 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="226"/>
-      <c r="K21" s="226"/>
+      <c r="K21" s="226">
+        <v>1</v>
+      </c>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="226"/>
@@ -9390,9 +9390,7 @@
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="226"/>
-      <c r="S21" s="226">
-        <v>1</v>
-      </c>
+      <c r="S21" s="226"/>
       <c r="T21" s="236"/>
       <c r="U21" s="236"/>
       <c r="V21" s="226"/>
@@ -10591,61 +10589,61 @@
     </row>
     <row r="49" spans="1:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
-      <c r="B49" s="296"/>
-      <c r="C49" s="297"/>
-      <c r="D49" s="298">
+      <c r="B49" s="290"/>
+      <c r="C49" s="291"/>
+      <c r="D49" s="292">
         <f>SUM(D9:D47)-SUM(E9:E47)</f>
         <v>14</v>
       </c>
-      <c r="E49" s="298"/>
-      <c r="F49" s="304">
+      <c r="E49" s="292"/>
+      <c r="F49" s="305">
         <f>SUM(F9:F47)-SUM(G9:G47)</f>
         <v>43</v>
       </c>
-      <c r="G49" s="304"/>
-      <c r="H49" s="274">
+      <c r="G49" s="305"/>
+      <c r="H49" s="294">
         <f>SUM(H9:H47)-SUM(I9:I47)</f>
         <v>5</v>
       </c>
-      <c r="I49" s="274"/>
-      <c r="J49" s="275">
+      <c r="I49" s="294"/>
+      <c r="J49" s="281">
         <f>SUM(J9:J47)-SUM(K9:K47)</f>
         <v>34</v>
       </c>
-      <c r="K49" s="275"/>
-      <c r="L49" s="295">
+      <c r="K49" s="281"/>
+      <c r="L49" s="289">
         <f>SUM(L9:L47)-SUM(M9:M47)</f>
         <v>13</v>
       </c>
-      <c r="M49" s="295"/>
-      <c r="N49" s="275">
+      <c r="M49" s="289"/>
+      <c r="N49" s="281">
         <f>SUM(N9:N47)-SUM(O9:O47)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="275"/>
-      <c r="P49" s="288">
+      <c r="O49" s="281"/>
+      <c r="P49" s="282">
         <f>SUM(P9:P47)-SUM(Q9:Q47)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="288"/>
-      <c r="R49" s="275">
+      <c r="Q49" s="282"/>
+      <c r="R49" s="281">
         <f>SUM(R9:R47)-SUM(S9:S47)</f>
-        <v>23</v>
-      </c>
-      <c r="S49" s="275"/>
-      <c r="T49" s="289">
+        <v>24</v>
+      </c>
+      <c r="S49" s="281"/>
+      <c r="T49" s="283">
         <f>SUM(T9:T47)-SUM(U9:U47)</f>
         <v>7</v>
       </c>
-      <c r="U49" s="289"/>
-      <c r="V49" s="275">
+      <c r="U49" s="283"/>
+      <c r="V49" s="281">
         <f>SUM(V9:V47)-SUM(W9:W47)</f>
         <v>24</v>
       </c>
-      <c r="W49" s="275"/>
+      <c r="W49" s="281"/>
       <c r="X49" s="307">
         <f>SUM(X9:X47)-SUM(Y9:Y47)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y49" s="308"/>
       <c r="Z49" s="309">
@@ -10658,11 +10656,11 @@
         <v>28</v>
       </c>
       <c r="AC49" s="312"/>
-      <c r="AD49" s="275">
+      <c r="AD49" s="281">
         <f>SUM(AD9:AD47)-SUM(AE9:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="275"/>
+      <c r="AE49" s="281"/>
       <c r="AF49" s="43"/>
       <c r="AG49" s="222">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -10671,39 +10669,39 @@
       <c r="AH49" s="58"/>
     </row>
     <row r="50" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="292" t="s">
+      <c r="A50" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="293"/>
-      <c r="C50" s="293"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="293"/>
-      <c r="F50" s="293"/>
-      <c r="G50" s="293"/>
-      <c r="H50" s="293"/>
-      <c r="I50" s="293"/>
-      <c r="J50" s="293"/>
-      <c r="K50" s="293"/>
-      <c r="L50" s="293"/>
-      <c r="M50" s="293"/>
-      <c r="N50" s="293"/>
-      <c r="O50" s="293"/>
-      <c r="P50" s="293"/>
-      <c r="Q50" s="293"/>
-      <c r="R50" s="293"/>
-      <c r="S50" s="293"/>
-      <c r="T50" s="293"/>
-      <c r="U50" s="293"/>
-      <c r="V50" s="293"/>
-      <c r="W50" s="293"/>
-      <c r="X50" s="293"/>
-      <c r="Y50" s="293"/>
-      <c r="Z50" s="293"/>
-      <c r="AA50" s="293"/>
-      <c r="AB50" s="293"/>
-      <c r="AC50" s="293"/>
-      <c r="AD50" s="293"/>
-      <c r="AE50" s="294"/>
+      <c r="B50" s="287"/>
+      <c r="C50" s="287"/>
+      <c r="D50" s="287"/>
+      <c r="E50" s="287"/>
+      <c r="F50" s="287"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="287"/>
+      <c r="I50" s="287"/>
+      <c r="J50" s="287"/>
+      <c r="K50" s="287"/>
+      <c r="L50" s="287"/>
+      <c r="M50" s="287"/>
+      <c r="N50" s="287"/>
+      <c r="O50" s="287"/>
+      <c r="P50" s="287"/>
+      <c r="Q50" s="287"/>
+      <c r="R50" s="287"/>
+      <c r="S50" s="287"/>
+      <c r="T50" s="287"/>
+      <c r="U50" s="287"/>
+      <c r="V50" s="287"/>
+      <c r="W50" s="287"/>
+      <c r="X50" s="287"/>
+      <c r="Y50" s="287"/>
+      <c r="Z50" s="287"/>
+      <c r="AA50" s="287"/>
+      <c r="AB50" s="287"/>
+      <c r="AC50" s="287"/>
+      <c r="AD50" s="287"/>
+      <c r="AE50" s="288"/>
       <c r="AF50" s="59">
         <f>SUM(AF9:AF47)</f>
         <v>15</v>
@@ -10715,44 +10713,44 @@
       <c r="AH50" s="60"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="292" t="s">
+      <c r="A51" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="293"/>
-      <c r="C51" s="293"/>
-      <c r="D51" s="293"/>
-      <c r="E51" s="293"/>
-      <c r="F51" s="293"/>
-      <c r="G51" s="293"/>
-      <c r="H51" s="293"/>
-      <c r="I51" s="293"/>
-      <c r="J51" s="293"/>
-      <c r="K51" s="293"/>
-      <c r="L51" s="293"/>
-      <c r="M51" s="293"/>
-      <c r="N51" s="293"/>
-      <c r="O51" s="293"/>
-      <c r="P51" s="293"/>
-      <c r="Q51" s="293"/>
-      <c r="R51" s="293"/>
-      <c r="S51" s="293"/>
-      <c r="T51" s="293"/>
-      <c r="U51" s="293"/>
-      <c r="V51" s="293"/>
-      <c r="W51" s="293"/>
-      <c r="X51" s="293"/>
-      <c r="Y51" s="293"/>
-      <c r="Z51" s="293"/>
-      <c r="AA51" s="293"/>
-      <c r="AB51" s="293"/>
-      <c r="AC51" s="293"/>
-      <c r="AD51" s="293"/>
-      <c r="AE51" s="294"/>
-      <c r="AF51" s="286">
+      <c r="B51" s="287"/>
+      <c r="C51" s="287"/>
+      <c r="D51" s="287"/>
+      <c r="E51" s="287"/>
+      <c r="F51" s="287"/>
+      <c r="G51" s="287"/>
+      <c r="H51" s="287"/>
+      <c r="I51" s="287"/>
+      <c r="J51" s="287"/>
+      <c r="K51" s="287"/>
+      <c r="L51" s="287"/>
+      <c r="M51" s="287"/>
+      <c r="N51" s="287"/>
+      <c r="O51" s="287"/>
+      <c r="P51" s="287"/>
+      <c r="Q51" s="287"/>
+      <c r="R51" s="287"/>
+      <c r="S51" s="287"/>
+      <c r="T51" s="287"/>
+      <c r="U51" s="287"/>
+      <c r="V51" s="287"/>
+      <c r="W51" s="287"/>
+      <c r="X51" s="287"/>
+      <c r="Y51" s="287"/>
+      <c r="Z51" s="287"/>
+      <c r="AA51" s="287"/>
+      <c r="AB51" s="287"/>
+      <c r="AC51" s="287"/>
+      <c r="AD51" s="287"/>
+      <c r="AE51" s="288"/>
+      <c r="AF51" s="279">
         <f>AG50-AF50</f>
         <v>265</v>
       </c>
-      <c r="AG51" s="287"/>
+      <c r="AG51" s="280"/>
       <c r="AH51" s="60"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
@@ -10762,6 +10760,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -10778,34 +10804,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10873,146 +10871,146 @@
       <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="340" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="313"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="340"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="313" t="s">
+      <c r="A4" s="340" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="313"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="313"/>
-      <c r="I4" s="313"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="313"/>
-      <c r="L4" s="313"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="313"/>
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="340"/>
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="340"/>
+      <c r="N4" s="340"/>
       <c r="O4" s="100"/>
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="313"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="313"/>
-      <c r="H5" s="313"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="314"/>
+      <c r="A5" s="340"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="340"/>
+      <c r="D5" s="340"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="340"/>
+      <c r="G5" s="340"/>
+      <c r="H5" s="340"/>
+      <c r="I5" s="341"/>
+      <c r="J5" s="341"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="315" t="s">
+      <c r="A6" s="342" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="317"/>
-      <c r="D6" s="318" t="s">
+      <c r="C6" s="344"/>
+      <c r="D6" s="345" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="323" t="s">
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="345"/>
+      <c r="K6" s="348" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="323"/>
-      <c r="M6" s="323"/>
-      <c r="N6" s="324" t="s">
+      <c r="L6" s="348"/>
+      <c r="M6" s="348"/>
+      <c r="N6" s="349" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="316"/>
-      <c r="B7" s="319" t="s">
+      <c r="A7" s="343"/>
+      <c r="B7" s="346" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="319" t="s">
+      <c r="C7" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="319" t="s">
+      <c r="D7" s="346" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="319" t="s">
+      <c r="E7" s="346" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="321" t="s">
+      <c r="F7" s="313" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="321" t="s">
+      <c r="G7" s="313" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="350" t="s">
+      <c r="H7" s="324" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="350"/>
-      <c r="J7" s="321" t="s">
+      <c r="I7" s="324"/>
+      <c r="J7" s="313" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="321" t="s">
+      <c r="K7" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="321" t="s">
+      <c r="L7" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="321" t="s">
+      <c r="M7" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="325"/>
+      <c r="N7" s="350"/>
     </row>
     <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="316"/>
-      <c r="B8" s="320"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="320"/>
-      <c r="E8" s="320"/>
-      <c r="F8" s="322"/>
-      <c r="G8" s="322"/>
+      <c r="A8" s="343"/>
+      <c r="B8" s="347"/>
+      <c r="C8" s="347"/>
+      <c r="D8" s="347"/>
+      <c r="E8" s="347"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="314"/>
       <c r="H8" s="240" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="322"/>
-      <c r="K8" s="322"/>
-      <c r="L8" s="322"/>
-      <c r="M8" s="322"/>
-      <c r="N8" s="325"/>
+      <c r="J8" s="314"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="314"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="350"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
@@ -11054,10 +11052,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="335">
+      <c r="A10" s="321">
         <v>43958</v>
       </c>
-      <c r="B10" s="343" t="s">
+      <c r="B10" s="315" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="95"/>
@@ -11088,8 +11086,8 @@
       <c r="N10" s="74"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="336"/>
-      <c r="B11" s="345"/>
+      <c r="A11" s="323"/>
+      <c r="B11" s="317"/>
       <c r="C11" s="112"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
@@ -11118,10 +11116,10 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="335">
+      <c r="A12" s="321">
         <v>43958</v>
       </c>
-      <c r="B12" s="343" t="s">
+      <c r="B12" s="315" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="95"/>
@@ -11152,8 +11150,8 @@
       <c r="N12" s="74"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="336"/>
-      <c r="B13" s="345"/>
+      <c r="A13" s="323"/>
+      <c r="B13" s="317"/>
       <c r="C13" s="83"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
@@ -11216,10 +11214,10 @@
       <c r="N14" s="120"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="335">
+      <c r="A15" s="321">
         <v>43958</v>
       </c>
-      <c r="B15" s="343" t="s">
+      <c r="B15" s="315" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="95"/>
@@ -11236,7 +11234,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="346">
+      <c r="H15" s="318">
         <v>288000</v>
       </c>
       <c r="I15" s="76">
@@ -11252,13 +11250,13 @@
       </c>
       <c r="L15" s="114"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="332" t="s">
+      <c r="N15" s="328" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="349"/>
-      <c r="B16" s="344"/>
+      <c r="A16" s="322"/>
+      <c r="B16" s="316"/>
       <c r="C16" s="96"/>
       <c r="D16" s="84" t="s">
         <v>20</v>
@@ -11273,7 +11271,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="347"/>
+      <c r="H16" s="319"/>
       <c r="I16" s="86">
         <v>0.1</v>
       </c>
@@ -11287,11 +11285,11 @@
       </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="333"/>
+      <c r="N16" s="329"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="349"/>
-      <c r="B17" s="344"/>
+      <c r="A17" s="322"/>
+      <c r="B17" s="316"/>
       <c r="C17" s="96"/>
       <c r="D17" s="84" t="s">
         <v>10</v>
@@ -11306,7 +11304,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="347"/>
+      <c r="H17" s="319"/>
       <c r="I17" s="86">
         <v>0.1</v>
       </c>
@@ -11320,11 +11318,11 @@
       </c>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="333"/>
+      <c r="N17" s="329"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="336"/>
-      <c r="B18" s="345"/>
+      <c r="A18" s="323"/>
+      <c r="B18" s="317"/>
       <c r="C18" s="83"/>
       <c r="D18" s="83" t="s">
         <v>21</v>
@@ -11339,7 +11337,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="348"/>
+      <c r="H18" s="320"/>
       <c r="I18" s="124">
         <v>0.1</v>
       </c>
@@ -11353,13 +11351,13 @@
       </c>
       <c r="L18" s="123"/>
       <c r="M18" s="123"/>
-      <c r="N18" s="334"/>
+      <c r="N18" s="330"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="335">
+      <c r="A19" s="321">
         <v>43958</v>
       </c>
-      <c r="B19" s="343" t="s">
+      <c r="B19" s="315" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="113"/>
@@ -11392,13 +11390,13 @@
       </c>
       <c r="L19" s="121"/>
       <c r="M19" s="121"/>
-      <c r="N19" s="338" t="s">
+      <c r="N19" s="332" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="349"/>
-      <c r="B20" s="344"/>
+      <c r="A20" s="322"/>
+      <c r="B20" s="316"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
         <v>21</v>
@@ -11429,11 +11427,11 @@
       </c>
       <c r="L20" s="81"/>
       <c r="M20" s="81"/>
-      <c r="N20" s="339"/>
+      <c r="N20" s="333"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="336"/>
-      <c r="B21" s="345"/>
+      <c r="A21" s="323"/>
+      <c r="B21" s="317"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125" t="s">
         <v>14</v>
@@ -11464,7 +11462,7 @@
       </c>
       <c r="L21" s="126"/>
       <c r="M21" s="126"/>
-      <c r="N21" s="340"/>
+      <c r="N21" s="334"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="117">
@@ -11546,7 +11544,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="335">
+      <c r="A24" s="321">
         <v>43962</v>
       </c>
       <c r="B24" s="144" t="s">
@@ -11582,12 +11580,12 @@
       </c>
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
-      <c r="N24" s="341" t="s">
+      <c r="N24" s="335" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="336"/>
+      <c r="A25" s="323"/>
       <c r="B25" s="83" t="s">
         <v>68</v>
       </c>
@@ -11621,7 +11619,7 @@
       </c>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="342"/>
+      <c r="N25" s="336"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="117">
@@ -11925,7 +11923,7 @@
       <c r="K35" s="85"/>
       <c r="L35" s="85"/>
       <c r="M35" s="85"/>
-      <c r="N35" s="330"/>
+      <c r="N35" s="339"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="98"/>
@@ -11947,7 +11945,7 @@
       <c r="K36" s="85"/>
       <c r="L36" s="85"/>
       <c r="M36" s="85"/>
-      <c r="N36" s="330"/>
+      <c r="N36" s="339"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="98"/>
@@ -11969,7 +11967,7 @@
       <c r="K37" s="85"/>
       <c r="L37" s="85"/>
       <c r="M37" s="85"/>
-      <c r="N37" s="330"/>
+      <c r="N37" s="339"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="98"/>
@@ -11991,7 +11989,7 @@
       <c r="K38" s="85"/>
       <c r="L38" s="85"/>
       <c r="M38" s="85"/>
-      <c r="N38" s="330"/>
+      <c r="N38" s="339"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="98"/>
@@ -12013,7 +12011,7 @@
       <c r="K39" s="85"/>
       <c r="L39" s="85"/>
       <c r="M39" s="85"/>
-      <c r="N39" s="330"/>
+      <c r="N39" s="339"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="98"/>
@@ -12035,7 +12033,7 @@
       <c r="K40" s="85"/>
       <c r="L40" s="85"/>
       <c r="M40" s="85"/>
-      <c r="N40" s="330"/>
+      <c r="N40" s="339"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="97"/>
@@ -12101,7 +12099,7 @@
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
       <c r="M43" s="85"/>
-      <c r="N43" s="330"/>
+      <c r="N43" s="339"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="98"/>
@@ -12123,7 +12121,7 @@
       <c r="K44" s="85"/>
       <c r="L44" s="85"/>
       <c r="M44" s="85"/>
-      <c r="N44" s="330"/>
+      <c r="N44" s="339"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="98"/>
@@ -12145,7 +12143,7 @@
       <c r="K45" s="85"/>
       <c r="L45" s="85"/>
       <c r="M45" s="85"/>
-      <c r="N45" s="330"/>
+      <c r="N45" s="339"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="97"/>
@@ -12720,12 +12718,12 @@
       <c r="N71" s="77"/>
     </row>
     <row r="72" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="328" t="s">
+      <c r="A72" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="329"/>
-      <c r="C72" s="329"/>
-      <c r="D72" s="329"/>
+      <c r="B72" s="338"/>
+      <c r="C72" s="338"/>
+      <c r="D72" s="338"/>
       <c r="E72" s="252">
         <f>SUM(E9:E71)</f>
         <v>38</v>
@@ -12751,7 +12749,7 @@
       </c>
       <c r="M72" s="256"/>
       <c r="N72" s="257"/>
-      <c r="O72" s="331"/>
+      <c r="O72" s="325"/>
     </row>
     <row r="73" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="326" t="s">
@@ -12773,7 +12771,7 @@
       <c r="L73" s="261"/>
       <c r="M73" s="261"/>
       <c r="N73" s="257"/>
-      <c r="O73" s="331"/>
+      <c r="O73" s="325"/>
     </row>
     <row r="74" spans="1:15" s="258" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="326" t="s">
@@ -12781,7 +12779,7 @@
       </c>
       <c r="B74" s="327"/>
       <c r="C74" s="327"/>
-      <c r="D74" s="337"/>
+      <c r="D74" s="331"/>
       <c r="E74" s="259"/>
       <c r="F74" s="259"/>
       <c r="G74" s="260">
@@ -12902,32 +12900,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -12944,6 +12916,32 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="197">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1625,9 +1625,6 @@
     <t>Tã già</t>
   </si>
   <si>
-    <t>Hằng thu tiền</t>
-  </si>
-  <si>
     <t>Khách 1CX45 (tâm thu)</t>
   </si>
   <si>
@@ -1650,6 +1647,12 @@
   </si>
   <si>
     <t>Hương khách A Lâm</t>
+  </si>
+  <si>
+    <t>Huệ Diện Biên</t>
+  </si>
+  <si>
+    <t>Tâm thu tiền</t>
   </si>
 </sst>
 </file>
@@ -8325,10 +8328,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AI16" sqref="AI16"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8852,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="233" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9013,7 +9016,7 @@
         <v>44013</v>
       </c>
       <c r="C14" s="229" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29">
@@ -9219,7 +9222,7 @@
         <v>44018</v>
       </c>
       <c r="C18" s="225" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -9271,7 +9274,7 @@
         <v>44016</v>
       </c>
       <c r="C19" s="225" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -9371,7 +9374,7 @@
         <v>44015</v>
       </c>
       <c r="C21" s="225" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -9417,8 +9420,12 @@
       <c r="A22" s="230">
         <v>13</v>
       </c>
-      <c r="B22" s="224"/>
-      <c r="C22" s="225"/>
+      <c r="B22" s="224">
+        <v>44020</v>
+      </c>
+      <c r="C22" s="225" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="226"/>
@@ -9426,7 +9433,9 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="226"/>
-      <c r="K22" s="226"/>
+      <c r="K22" s="226">
+        <v>12</v>
+      </c>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
       <c r="N22" s="226"/>
@@ -9449,7 +9458,7 @@
       <c r="AE22" s="226"/>
       <c r="AF22" s="223">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG22" s="223">
         <f t="shared" si="2"/>
@@ -9461,14 +9470,20 @@
       <c r="A23" s="223">
         <v>14</v>
       </c>
-      <c r="B23" s="224"/>
-      <c r="C23" s="225"/>
+      <c r="B23" s="224">
+        <v>44020</v>
+      </c>
+      <c r="C23" s="225" t="s">
+        <v>178</v>
+      </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="226"/>
       <c r="G23" s="226"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="I23" s="38">
+        <v>1</v>
+      </c>
       <c r="J23" s="226"/>
       <c r="K23" s="226"/>
       <c r="L23" s="39"/>
@@ -9493,7 +9508,7 @@
       <c r="AE23" s="226"/>
       <c r="AF23" s="223">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="223">
         <f t="shared" si="2"/>
@@ -10603,12 +10618,12 @@
       <c r="G49" s="305"/>
       <c r="H49" s="294">
         <f>SUM(H9:H47)-SUM(I9:I47)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I49" s="294"/>
       <c r="J49" s="281">
         <f>SUM(J9:J47)-SUM(K9:K47)</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K49" s="281"/>
       <c r="L49" s="289">
@@ -10664,7 +10679,7 @@
       <c r="AF49" s="43"/>
       <c r="AG49" s="222">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AH49" s="58"/>
     </row>
@@ -10704,7 +10719,7 @@
       <c r="AE50" s="288"/>
       <c r="AF50" s="59">
         <f>SUM(AF9:AF47)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AG50" s="59">
         <f>SUM(AG9:AG47)</f>
@@ -10748,7 +10763,7 @@
       <c r="AE51" s="288"/>
       <c r="AF51" s="279">
         <f>AG50-AF50</f>
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AG51" s="280"/>
       <c r="AH51" s="60"/>
@@ -10815,8 +10830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11812,30 +11827,47 @@
       <c r="L30" s="85"/>
       <c r="M30" s="85"/>
       <c r="N30" s="84" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="98">
+        <v>44020</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>68</v>
+      </c>
       <c r="C31" s="80"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
+      <c r="D31" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="84">
+        <v>1</v>
+      </c>
+      <c r="F31" s="85">
+        <v>265000</v>
+      </c>
       <c r="G31" s="85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>265000</v>
       </c>
       <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
+      <c r="I31" s="86">
+        <v>0.15</v>
+      </c>
       <c r="J31" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="85"/>
+        <v>225250</v>
+      </c>
+      <c r="K31" s="85">
+        <f>J31</f>
+        <v>225250</v>
+      </c>
       <c r="L31" s="85"/>
       <c r="M31" s="85"/>
-      <c r="N31" s="84"/>
+      <c r="N31" s="84" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="98"/>
@@ -12726,22 +12758,22 @@
       <c r="D72" s="338"/>
       <c r="E72" s="252">
         <f>SUM(E9:E71)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" s="252"/>
       <c r="G72" s="253">
         <f>SUM(G9:G71)</f>
-        <v>17450000</v>
+        <v>17715000</v>
       </c>
       <c r="H72" s="254"/>
       <c r="I72" s="253"/>
       <c r="J72" s="255">
         <f>SUM(J9:J71)</f>
-        <v>8269000</v>
+        <v>8494250</v>
       </c>
       <c r="K72" s="256">
         <f>SUM(K9:K71)</f>
-        <v>6989000</v>
+        <v>7214250</v>
       </c>
       <c r="L72" s="256">
         <f>SUM(L10:L23)</f>
@@ -12762,7 +12794,7 @@
       <c r="F73" s="259"/>
       <c r="G73" s="260">
         <f>G72</f>
-        <v>17450000</v>
+        <v>17715000</v>
       </c>
       <c r="H73" s="261"/>
       <c r="I73" s="260"/>
@@ -12784,7 +12816,7 @@
       <c r="F74" s="259"/>
       <c r="G74" s="260">
         <f>J72</f>
-        <v>8269000</v>
+        <v>8494250</v>
       </c>
       <c r="H74" s="261"/>
       <c r="I74" s="260"/>
@@ -12806,7 +12838,7 @@
       <c r="F75" s="259"/>
       <c r="G75" s="264">
         <f>K72</f>
-        <v>6989000</v>
+        <v>7214250</v>
       </c>
       <c r="H75" s="265"/>
       <c r="I75" s="265"/>
@@ -13478,7 +13510,7 @@
         <v>43962</v>
       </c>
       <c r="B40" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" s="156">
         <v>835000</v>
@@ -13492,7 +13524,7 @@
         <v>43964</v>
       </c>
       <c r="B41" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="156">
         <v>475000</v>
@@ -13669,7 +13701,7 @@
         <v>44013</v>
       </c>
       <c r="B56" s="208" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C56" s="209">
         <v>220000</v>
@@ -13683,7 +13715,7 @@
         <v>44018</v>
       </c>
       <c r="B57" s="208" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57" s="209">
         <v>150000</v>

--- a/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KHO T5" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="198">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1653,6 +1653,9 @@
   </si>
   <si>
     <t>Tâm thu tiền</t>
+  </si>
+  <si>
+    <t>tặng nhân viên</t>
   </si>
 </sst>
 </file>
@@ -2656,6 +2659,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2665,105 +2755,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2782,12 +2785,96 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2806,95 +2893,11 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3253,14 +3256,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
+      <c r="A1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3293,11 +3296,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -3333,235 +3336,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="296"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="296"/>
-      <c r="AH3" s="296"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="277"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="277"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="277" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="296"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="296"/>
-      <c r="W4" s="296"/>
-      <c r="X4" s="296"/>
-      <c r="Y4" s="296"/>
-      <c r="Z4" s="296"/>
-      <c r="AA4" s="296"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="296"/>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="296"/>
-      <c r="AH4" s="296"/>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="277"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="296"/>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="296"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="296"/>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="296"/>
-      <c r="S5" s="296"/>
-      <c r="T5" s="296"/>
-      <c r="U5" s="296"/>
-      <c r="V5" s="296"/>
-      <c r="W5" s="296"/>
-      <c r="X5" s="296"/>
-      <c r="Y5" s="296"/>
-      <c r="Z5" s="296"/>
-      <c r="AA5" s="296"/>
-      <c r="AB5" s="296"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="296"/>
-      <c r="AE5" s="296"/>
+      <c r="A5" s="277"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="277"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="277"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="277"/>
+      <c r="AE5" s="277"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="298" t="s">
+      <c r="C6" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="300"/>
-      <c r="AC6" s="300"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="300"/>
-      <c r="AF6" s="300"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="282"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="282"/>
+      <c r="AE6" s="282"/>
+      <c r="AF6" s="282"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="278" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302" t="s">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="302"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="284"/>
+      <c r="F7" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="303" t="s">
+      <c r="G7" s="278"/>
+      <c r="H7" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="285"/>
+      <c r="J7" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="278" t="s">
+      <c r="K7" s="278"/>
+      <c r="L7" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="299"/>
+      <c r="N7" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="273" t="s">
+      <c r="O7" s="278"/>
+      <c r="P7" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="302"/>
+      <c r="R7" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="275" t="s">
+      <c r="S7" s="278"/>
+      <c r="T7" s="303" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="275"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="303"/>
+      <c r="V7" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="293" t="s">
+      <c r="W7" s="278"/>
+      <c r="X7" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="272" t="s">
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="276" t="s">
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="276" t="s">
+      <c r="AG7" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="278"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="298"/>
+      <c r="A8" s="278"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="280"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3646,9 +3649,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="278"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -5478,78 +5481,78 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
-      <c r="B44" s="290"/>
-      <c r="C44" s="291"/>
-      <c r="D44" s="292">
+      <c r="B44" s="296"/>
+      <c r="C44" s="297"/>
+      <c r="D44" s="298">
         <f>SUM(D9:D42)-SUM(E9:E42)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="292"/>
-      <c r="F44" s="281">
+      <c r="E44" s="298"/>
+      <c r="F44" s="275">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>19</v>
       </c>
-      <c r="G44" s="281"/>
-      <c r="H44" s="294">
+      <c r="G44" s="275"/>
+      <c r="H44" s="274">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="294"/>
-      <c r="J44" s="281">
+      <c r="I44" s="274"/>
+      <c r="J44" s="275">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>26</v>
       </c>
-      <c r="K44" s="281"/>
-      <c r="L44" s="289">
+      <c r="K44" s="275"/>
+      <c r="L44" s="295">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="289"/>
-      <c r="N44" s="281">
+      <c r="M44" s="295"/>
+      <c r="N44" s="275">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>52</v>
       </c>
-      <c r="O44" s="281"/>
-      <c r="P44" s="282">
+      <c r="O44" s="275"/>
+      <c r="P44" s="288">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="282"/>
-      <c r="R44" s="281">
+      <c r="Q44" s="288"/>
+      <c r="R44" s="275">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>74</v>
       </c>
-      <c r="S44" s="281"/>
-      <c r="T44" s="283">
+      <c r="S44" s="275"/>
+      <c r="T44" s="289">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="283"/>
-      <c r="V44" s="281">
+      <c r="U44" s="289"/>
+      <c r="V44" s="275">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W44" s="281"/>
-      <c r="X44" s="284">
+      <c r="W44" s="275"/>
+      <c r="X44" s="290">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>71</v>
       </c>
-      <c r="Y44" s="284"/>
-      <c r="Z44" s="281">
+      <c r="Y44" s="290"/>
+      <c r="Z44" s="275">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>61</v>
       </c>
-      <c r="AA44" s="281"/>
-      <c r="AB44" s="285">
+      <c r="AA44" s="275"/>
+      <c r="AB44" s="291">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>57</v>
       </c>
-      <c r="AC44" s="285"/>
-      <c r="AD44" s="281">
+      <c r="AC44" s="291"/>
+      <c r="AD44" s="275">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="281"/>
+      <c r="AE44" s="275"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -5558,39 +5561,39 @@
       <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="286" t="s">
+      <c r="A45" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="287"/>
-      <c r="C45" s="287"/>
-      <c r="D45" s="287"/>
-      <c r="E45" s="287"/>
-      <c r="F45" s="287"/>
-      <c r="G45" s="287"/>
-      <c r="H45" s="287"/>
-      <c r="I45" s="287"/>
-      <c r="J45" s="287"/>
-      <c r="K45" s="287"/>
-      <c r="L45" s="287"/>
-      <c r="M45" s="287"/>
-      <c r="N45" s="287"/>
-      <c r="O45" s="287"/>
-      <c r="P45" s="287"/>
-      <c r="Q45" s="287"/>
-      <c r="R45" s="287"/>
-      <c r="S45" s="287"/>
-      <c r="T45" s="287"/>
-      <c r="U45" s="287"/>
-      <c r="V45" s="287"/>
-      <c r="W45" s="287"/>
-      <c r="X45" s="287"/>
-      <c r="Y45" s="287"/>
-      <c r="Z45" s="287"/>
-      <c r="AA45" s="287"/>
-      <c r="AB45" s="287"/>
-      <c r="AC45" s="287"/>
-      <c r="AD45" s="287"/>
-      <c r="AE45" s="288"/>
+      <c r="B45" s="293"/>
+      <c r="C45" s="293"/>
+      <c r="D45" s="293"/>
+      <c r="E45" s="293"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="293"/>
+      <c r="H45" s="293"/>
+      <c r="I45" s="293"/>
+      <c r="J45" s="293"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="293"/>
+      <c r="M45" s="293"/>
+      <c r="N45" s="293"/>
+      <c r="O45" s="293"/>
+      <c r="P45" s="293"/>
+      <c r="Q45" s="293"/>
+      <c r="R45" s="293"/>
+      <c r="S45" s="293"/>
+      <c r="T45" s="293"/>
+      <c r="U45" s="293"/>
+      <c r="V45" s="293"/>
+      <c r="W45" s="293"/>
+      <c r="X45" s="293"/>
+      <c r="Y45" s="293"/>
+      <c r="Z45" s="293"/>
+      <c r="AA45" s="293"/>
+      <c r="AB45" s="293"/>
+      <c r="AC45" s="293"/>
+      <c r="AD45" s="293"/>
+      <c r="AE45" s="294"/>
       <c r="AF45" s="59">
         <f>SUM(AF9:AF42)</f>
         <v>341</v>
@@ -5602,48 +5605,76 @@
       <c r="AH45" s="60"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="286" t="s">
+      <c r="A46" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="287"/>
-      <c r="C46" s="287"/>
-      <c r="D46" s="287"/>
-      <c r="E46" s="287"/>
-      <c r="F46" s="287"/>
-      <c r="G46" s="287"/>
-      <c r="H46" s="287"/>
-      <c r="I46" s="287"/>
-      <c r="J46" s="287"/>
-      <c r="K46" s="287"/>
-      <c r="L46" s="287"/>
-      <c r="M46" s="287"/>
-      <c r="N46" s="287"/>
-      <c r="O46" s="287"/>
-      <c r="P46" s="287"/>
-      <c r="Q46" s="287"/>
-      <c r="R46" s="287"/>
-      <c r="S46" s="287"/>
-      <c r="T46" s="287"/>
-      <c r="U46" s="287"/>
-      <c r="V46" s="287"/>
-      <c r="W46" s="287"/>
-      <c r="X46" s="287"/>
-      <c r="Y46" s="287"/>
-      <c r="Z46" s="287"/>
-      <c r="AA46" s="287"/>
-      <c r="AB46" s="287"/>
-      <c r="AC46" s="287"/>
-      <c r="AD46" s="287"/>
-      <c r="AE46" s="288"/>
-      <c r="AF46" s="279">
+      <c r="B46" s="293"/>
+      <c r="C46" s="293"/>
+      <c r="D46" s="293"/>
+      <c r="E46" s="293"/>
+      <c r="F46" s="293"/>
+      <c r="G46" s="293"/>
+      <c r="H46" s="293"/>
+      <c r="I46" s="293"/>
+      <c r="J46" s="293"/>
+      <c r="K46" s="293"/>
+      <c r="L46" s="293"/>
+      <c r="M46" s="293"/>
+      <c r="N46" s="293"/>
+      <c r="O46" s="293"/>
+      <c r="P46" s="293"/>
+      <c r="Q46" s="293"/>
+      <c r="R46" s="293"/>
+      <c r="S46" s="293"/>
+      <c r="T46" s="293"/>
+      <c r="U46" s="293"/>
+      <c r="V46" s="293"/>
+      <c r="W46" s="293"/>
+      <c r="X46" s="293"/>
+      <c r="Y46" s="293"/>
+      <c r="Z46" s="293"/>
+      <c r="AA46" s="293"/>
+      <c r="AB46" s="293"/>
+      <c r="AC46" s="293"/>
+      <c r="AD46" s="293"/>
+      <c r="AE46" s="294"/>
+      <c r="AF46" s="286">
         <f>AG45-AF45</f>
         <v>372</v>
       </c>
-      <c r="AG46" s="280"/>
+      <c r="AG46" s="287"/>
       <c r="AH46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="H44:I44"/>
@@ -5660,34 +5691,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5717,14 +5720,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
+      <c r="A1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
       <c r="G1" s="212"/>
       <c r="H1" s="212"/>
       <c r="I1" s="212"/>
@@ -5757,11 +5760,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
       <c r="F2" s="218"/>
@@ -5797,235 +5800,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="296"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="296"/>
-      <c r="AH3" s="296"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="277"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="277"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="277" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="296"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="296"/>
-      <c r="W4" s="296"/>
-      <c r="X4" s="296"/>
-      <c r="Y4" s="296"/>
-      <c r="Z4" s="296"/>
-      <c r="AA4" s="296"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="296"/>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="296"/>
-      <c r="AH4" s="296"/>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="277"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="296"/>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="296"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="296"/>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="296"/>
-      <c r="S5" s="296"/>
-      <c r="T5" s="296"/>
-      <c r="U5" s="296"/>
-      <c r="V5" s="296"/>
-      <c r="W5" s="296"/>
-      <c r="X5" s="296"/>
-      <c r="Y5" s="296"/>
-      <c r="Z5" s="296"/>
-      <c r="AA5" s="296"/>
-      <c r="AB5" s="296"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="296"/>
-      <c r="AE5" s="296"/>
+      <c r="A5" s="277"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="277"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="277"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="277"/>
+      <c r="AE5" s="277"/>
       <c r="AF5" s="219"/>
       <c r="AG5" s="219"/>
       <c r="AH5" s="219"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="298" t="s">
+      <c r="C6" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="300"/>
-      <c r="AC6" s="300"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="300"/>
-      <c r="AF6" s="300"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="282"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="282"/>
+      <c r="AE6" s="282"/>
+      <c r="AF6" s="282"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="278" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302" t="s">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="302"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="284"/>
+      <c r="F7" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="303" t="s">
+      <c r="G7" s="278"/>
+      <c r="H7" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="285"/>
+      <c r="J7" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="278" t="s">
+      <c r="K7" s="278"/>
+      <c r="L7" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="299"/>
+      <c r="N7" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="273" t="s">
+      <c r="O7" s="278"/>
+      <c r="P7" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="302"/>
+      <c r="R7" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="306" t="s">
+      <c r="S7" s="278"/>
+      <c r="T7" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="306"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="305"/>
+      <c r="V7" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="293" t="s">
+      <c r="W7" s="278"/>
+      <c r="X7" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="272" t="s">
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="276" t="s">
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="276" t="s">
+      <c r="AG7" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="278"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="298"/>
+      <c r="A8" s="278"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="280"/>
       <c r="D8" s="220" t="s">
         <v>23</v>
       </c>
@@ -6110,9 +6113,9 @@
       <c r="AE8" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="278"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -8102,78 +8105,78 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
-      <c r="B48" s="290"/>
-      <c r="C48" s="291"/>
-      <c r="D48" s="292">
+      <c r="B48" s="296"/>
+      <c r="C48" s="297"/>
+      <c r="D48" s="298">
         <f>SUM(D9:D46)-SUM(E9:E46)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="292"/>
-      <c r="F48" s="305">
+      <c r="E48" s="298"/>
+      <c r="F48" s="304">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
         <v>33</v>
       </c>
-      <c r="G48" s="305"/>
-      <c r="H48" s="294">
+      <c r="G48" s="304"/>
+      <c r="H48" s="274">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="294"/>
-      <c r="J48" s="281">
+      <c r="I48" s="274"/>
+      <c r="J48" s="275">
         <f>SUM(J9:J46)-SUM(K9:K46)</f>
         <v>12</v>
       </c>
-      <c r="K48" s="281"/>
-      <c r="L48" s="289">
+      <c r="K48" s="275"/>
+      <c r="L48" s="295">
         <f>SUM(L9:L46)-SUM(M9:M46)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="289"/>
-      <c r="N48" s="281">
+      <c r="M48" s="295"/>
+      <c r="N48" s="275">
         <f>SUM(N9:N46)-SUM(O9:O46)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="281"/>
-      <c r="P48" s="282">
+      <c r="O48" s="275"/>
+      <c r="P48" s="288">
         <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="282"/>
-      <c r="R48" s="281">
+      <c r="Q48" s="288"/>
+      <c r="R48" s="275">
         <f>SUM(R9:R46)-SUM(S9:S46)</f>
         <v>28</v>
       </c>
-      <c r="S48" s="281"/>
-      <c r="T48" s="283">
+      <c r="S48" s="275"/>
+      <c r="T48" s="289">
         <f>SUM(T9:T46)-SUM(U9:U46)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="283"/>
-      <c r="V48" s="281">
+      <c r="U48" s="289"/>
+      <c r="V48" s="275">
         <f>SUM(V9:V46)-SUM(W9:W46)</f>
         <v>24</v>
       </c>
-      <c r="W48" s="281"/>
-      <c r="X48" s="304">
+      <c r="W48" s="275"/>
+      <c r="X48" s="306">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
         <v>58</v>
       </c>
-      <c r="Y48" s="304"/>
-      <c r="Z48" s="304">
+      <c r="Y48" s="306"/>
+      <c r="Z48" s="306">
         <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
         <v>18</v>
       </c>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="304">
+      <c r="AA48" s="306"/>
+      <c r="AB48" s="306">
         <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
         <v>28</v>
       </c>
-      <c r="AC48" s="304"/>
-      <c r="AD48" s="281">
+      <c r="AC48" s="306"/>
+      <c r="AD48" s="275">
         <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="281"/>
+      <c r="AE48" s="275"/>
       <c r="AF48" s="43"/>
       <c r="AG48" s="222">
         <f>D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48+AB48+AD48</f>
@@ -8182,39 +8185,39 @@
       <c r="AH48" s="58"/>
     </row>
     <row r="49" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="286" t="s">
+      <c r="A49" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="287"/>
-      <c r="C49" s="287"/>
-      <c r="D49" s="287"/>
-      <c r="E49" s="287"/>
-      <c r="F49" s="287"/>
-      <c r="G49" s="287"/>
-      <c r="H49" s="287"/>
-      <c r="I49" s="287"/>
-      <c r="J49" s="287"/>
-      <c r="K49" s="287"/>
-      <c r="L49" s="287"/>
-      <c r="M49" s="287"/>
-      <c r="N49" s="287"/>
-      <c r="O49" s="287"/>
-      <c r="P49" s="287"/>
-      <c r="Q49" s="287"/>
-      <c r="R49" s="287"/>
-      <c r="S49" s="287"/>
-      <c r="T49" s="287"/>
-      <c r="U49" s="287"/>
-      <c r="V49" s="287"/>
-      <c r="W49" s="287"/>
-      <c r="X49" s="287"/>
-      <c r="Y49" s="287"/>
-      <c r="Z49" s="287"/>
-      <c r="AA49" s="287"/>
-      <c r="AB49" s="287"/>
-      <c r="AC49" s="287"/>
-      <c r="AD49" s="287"/>
-      <c r="AE49" s="288"/>
+      <c r="B49" s="293"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
+      <c r="E49" s="293"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="293"/>
+      <c r="H49" s="293"/>
+      <c r="I49" s="293"/>
+      <c r="J49" s="293"/>
+      <c r="K49" s="293"/>
+      <c r="L49" s="293"/>
+      <c r="M49" s="293"/>
+      <c r="N49" s="293"/>
+      <c r="O49" s="293"/>
+      <c r="P49" s="293"/>
+      <c r="Q49" s="293"/>
+      <c r="R49" s="293"/>
+      <c r="S49" s="293"/>
+      <c r="T49" s="293"/>
+      <c r="U49" s="293"/>
+      <c r="V49" s="293"/>
+      <c r="W49" s="293"/>
+      <c r="X49" s="293"/>
+      <c r="Y49" s="293"/>
+      <c r="Z49" s="293"/>
+      <c r="AA49" s="293"/>
+      <c r="AB49" s="293"/>
+      <c r="AC49" s="293"/>
+      <c r="AD49" s="293"/>
+      <c r="AE49" s="294"/>
       <c r="AF49" s="59">
         <f>SUM(AF9:AF46)</f>
         <v>305</v>
@@ -8226,44 +8229,44 @@
       <c r="AH49" s="60"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="286" t="s">
+      <c r="A50" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="287"/>
-      <c r="C50" s="287"/>
-      <c r="D50" s="287"/>
-      <c r="E50" s="287"/>
-      <c r="F50" s="287"/>
-      <c r="G50" s="287"/>
-      <c r="H50" s="287"/>
-      <c r="I50" s="287"/>
-      <c r="J50" s="287"/>
-      <c r="K50" s="287"/>
-      <c r="L50" s="287"/>
-      <c r="M50" s="287"/>
-      <c r="N50" s="287"/>
-      <c r="O50" s="287"/>
-      <c r="P50" s="287"/>
-      <c r="Q50" s="287"/>
-      <c r="R50" s="287"/>
-      <c r="S50" s="287"/>
-      <c r="T50" s="287"/>
-      <c r="U50" s="287"/>
-      <c r="V50" s="287"/>
-      <c r="W50" s="287"/>
-      <c r="X50" s="287"/>
-      <c r="Y50" s="287"/>
-      <c r="Z50" s="287"/>
-      <c r="AA50" s="287"/>
-      <c r="AB50" s="287"/>
-      <c r="AC50" s="287"/>
-      <c r="AD50" s="287"/>
-      <c r="AE50" s="288"/>
-      <c r="AF50" s="279">
+      <c r="B50" s="293"/>
+      <c r="C50" s="293"/>
+      <c r="D50" s="293"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="293"/>
+      <c r="H50" s="293"/>
+      <c r="I50" s="293"/>
+      <c r="J50" s="293"/>
+      <c r="K50" s="293"/>
+      <c r="L50" s="293"/>
+      <c r="M50" s="293"/>
+      <c r="N50" s="293"/>
+      <c r="O50" s="293"/>
+      <c r="P50" s="293"/>
+      <c r="Q50" s="293"/>
+      <c r="R50" s="293"/>
+      <c r="S50" s="293"/>
+      <c r="T50" s="293"/>
+      <c r="U50" s="293"/>
+      <c r="V50" s="293"/>
+      <c r="W50" s="293"/>
+      <c r="X50" s="293"/>
+      <c r="Y50" s="293"/>
+      <c r="Z50" s="293"/>
+      <c r="AA50" s="293"/>
+      <c r="AB50" s="293"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="293"/>
+      <c r="AE50" s="294"/>
+      <c r="AF50" s="286">
         <f>AG49-AF49</f>
         <v>119</v>
       </c>
-      <c r="AG50" s="280"/>
+      <c r="AG50" s="287"/>
       <c r="AH50" s="60"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
@@ -8273,6 +8276,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -8289,34 +8320,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8328,10 +8331,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8347,14 +8350,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
+      <c r="A1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
       <c r="G1" s="248"/>
       <c r="H1" s="248"/>
       <c r="I1" s="248"/>
@@ -8387,11 +8390,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="242"/>
       <c r="E2" s="242"/>
       <c r="F2" s="242"/>
@@ -8427,235 +8430,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="296"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="296"/>
-      <c r="AH3" s="296"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="277"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="277"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="277" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="296"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="296"/>
-      <c r="W4" s="296"/>
-      <c r="X4" s="296"/>
-      <c r="Y4" s="296"/>
-      <c r="Z4" s="296"/>
-      <c r="AA4" s="296"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="296"/>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="296"/>
-      <c r="AH4" s="296"/>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="277"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="296"/>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="296"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="296"/>
-      <c r="Q5" s="296"/>
-      <c r="R5" s="296"/>
-      <c r="S5" s="296"/>
-      <c r="T5" s="296"/>
-      <c r="U5" s="296"/>
-      <c r="V5" s="296"/>
-      <c r="W5" s="296"/>
-      <c r="X5" s="296"/>
-      <c r="Y5" s="296"/>
-      <c r="Z5" s="296"/>
-      <c r="AA5" s="296"/>
-      <c r="AB5" s="296"/>
-      <c r="AC5" s="296"/>
-      <c r="AD5" s="296"/>
-      <c r="AE5" s="296"/>
+      <c r="A5" s="277"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="277"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="277"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="277"/>
+      <c r="AE5" s="277"/>
       <c r="AF5" s="243"/>
       <c r="AG5" s="243"/>
       <c r="AH5" s="243"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="274" t="s">
+      <c r="A6" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="298" t="s">
+      <c r="C6" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="299" t="s">
+      <c r="D6" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="300"/>
-      <c r="AC6" s="300"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="300"/>
-      <c r="AF6" s="300"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="274" t="s">
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="282"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="282"/>
+      <c r="AE6" s="282"/>
+      <c r="AF6" s="282"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="278" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="274"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302" t="s">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="302"/>
-      <c r="F7" s="274" t="s">
+      <c r="E7" s="284"/>
+      <c r="F7" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="274"/>
-      <c r="H7" s="303" t="s">
+      <c r="G7" s="278"/>
+      <c r="H7" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="285"/>
+      <c r="J7" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="278" t="s">
+      <c r="K7" s="278"/>
+      <c r="L7" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="274" t="s">
+      <c r="M7" s="299"/>
+      <c r="N7" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="274"/>
-      <c r="P7" s="273" t="s">
+      <c r="O7" s="278"/>
+      <c r="P7" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="274" t="s">
+      <c r="Q7" s="302"/>
+      <c r="R7" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="274"/>
-      <c r="T7" s="306" t="s">
+      <c r="S7" s="278"/>
+      <c r="T7" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="306"/>
-      <c r="V7" s="274" t="s">
+      <c r="U7" s="305"/>
+      <c r="V7" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="274"/>
-      <c r="X7" s="293" t="s">
+      <c r="W7" s="278"/>
+      <c r="X7" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="274" t="s">
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="272" t="s">
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="274" t="s">
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="276" t="s">
+      <c r="AE7" s="278"/>
+      <c r="AF7" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="276" t="s">
+      <c r="AG7" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="274"/>
+      <c r="AH7" s="278"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="298"/>
+      <c r="A8" s="278"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="280"/>
       <c r="D8" s="245" t="s">
         <v>23</v>
       </c>
@@ -8740,9 +8743,9 @@
       <c r="AE8" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="274"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="278"/>
     </row>
     <row r="9" spans="1:34" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -9477,13 +9480,13 @@
         <v>178</v>
       </c>
       <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="E23" s="37">
+        <v>1</v>
+      </c>
       <c r="F23" s="226"/>
       <c r="G23" s="226"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="38">
-        <v>1</v>
-      </c>
+      <c r="I23" s="38"/>
       <c r="J23" s="226"/>
       <c r="K23" s="226"/>
       <c r="L23" s="39"/>
@@ -9521,7 +9524,9 @@
         <v>15</v>
       </c>
       <c r="B24" s="224"/>
-      <c r="C24" s="225"/>
+      <c r="C24" s="225" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
       <c r="F24" s="226"/>
@@ -9541,7 +9546,9 @@
       <c r="T24" s="236"/>
       <c r="U24" s="236"/>
       <c r="V24" s="226"/>
-      <c r="W24" s="226"/>
+      <c r="W24" s="226">
+        <v>1</v>
+      </c>
       <c r="X24" s="41"/>
       <c r="Y24" s="41"/>
       <c r="Z24" s="226"/>
@@ -9552,7 +9559,7 @@
       <c r="AE24" s="226"/>
       <c r="AF24" s="223">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="223">
         <f t="shared" si="2"/>
@@ -10604,58 +10611,58 @@
     </row>
     <row r="49" spans="1:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
-      <c r="B49" s="290"/>
-      <c r="C49" s="291"/>
-      <c r="D49" s="292">
+      <c r="B49" s="296"/>
+      <c r="C49" s="297"/>
+      <c r="D49" s="298">
         <f>SUM(D9:D47)-SUM(E9:E47)</f>
-        <v>14</v>
-      </c>
-      <c r="E49" s="292"/>
-      <c r="F49" s="305">
+        <v>13</v>
+      </c>
+      <c r="E49" s="298"/>
+      <c r="F49" s="304">
         <f>SUM(F9:F47)-SUM(G9:G47)</f>
         <v>43</v>
       </c>
-      <c r="G49" s="305"/>
-      <c r="H49" s="294">
+      <c r="G49" s="304"/>
+      <c r="H49" s="274">
         <f>SUM(H9:H47)-SUM(I9:I47)</f>
-        <v>4</v>
-      </c>
-      <c r="I49" s="294"/>
-      <c r="J49" s="281">
+        <v>5</v>
+      </c>
+      <c r="I49" s="274"/>
+      <c r="J49" s="275">
         <f>SUM(J9:J47)-SUM(K9:K47)</f>
         <v>22</v>
       </c>
-      <c r="K49" s="281"/>
-      <c r="L49" s="289">
+      <c r="K49" s="275"/>
+      <c r="L49" s="295">
         <f>SUM(L9:L47)-SUM(M9:M47)</f>
         <v>13</v>
       </c>
-      <c r="M49" s="289"/>
-      <c r="N49" s="281">
+      <c r="M49" s="295"/>
+      <c r="N49" s="275">
         <f>SUM(N9:N47)-SUM(O9:O47)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="281"/>
-      <c r="P49" s="282">
+      <c r="O49" s="275"/>
+      <c r="P49" s="288">
         <f>SUM(P9:P47)-SUM(Q9:Q47)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="282"/>
-      <c r="R49" s="281">
+      <c r="Q49" s="288"/>
+      <c r="R49" s="275">
         <f>SUM(R9:R47)-SUM(S9:S47)</f>
         <v>24</v>
       </c>
-      <c r="S49" s="281"/>
-      <c r="T49" s="283">
+      <c r="S49" s="275"/>
+      <c r="T49" s="289">
         <f>SUM(T9:T47)-SUM(U9:U47)</f>
         <v>7</v>
       </c>
-      <c r="U49" s="283"/>
-      <c r="V49" s="281">
+      <c r="U49" s="289"/>
+      <c r="V49" s="275">
         <f>SUM(V9:V47)-SUM(W9:W47)</f>
-        <v>24</v>
-      </c>
-      <c r="W49" s="281"/>
+        <v>23</v>
+      </c>
+      <c r="W49" s="275"/>
       <c r="X49" s="307">
         <f>SUM(X9:X47)-SUM(Y9:Y47)</f>
         <v>58</v>
@@ -10671,55 +10678,55 @@
         <v>28</v>
       </c>
       <c r="AC49" s="312"/>
-      <c r="AD49" s="281">
+      <c r="AD49" s="275">
         <f>SUM(AD9:AD47)-SUM(AE9:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="281"/>
+      <c r="AE49" s="275"/>
       <c r="AF49" s="43"/>
       <c r="AG49" s="222">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH49" s="58"/>
     </row>
     <row r="50" spans="1:34" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="286" t="s">
+      <c r="A50" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="287"/>
-      <c r="C50" s="287"/>
-      <c r="D50" s="287"/>
-      <c r="E50" s="287"/>
-      <c r="F50" s="287"/>
-      <c r="G50" s="287"/>
-      <c r="H50" s="287"/>
-      <c r="I50" s="287"/>
-      <c r="J50" s="287"/>
-      <c r="K50" s="287"/>
-      <c r="L50" s="287"/>
-      <c r="M50" s="287"/>
-      <c r="N50" s="287"/>
-      <c r="O50" s="287"/>
-      <c r="P50" s="287"/>
-      <c r="Q50" s="287"/>
-      <c r="R50" s="287"/>
-      <c r="S50" s="287"/>
-      <c r="T50" s="287"/>
-      <c r="U50" s="287"/>
-      <c r="V50" s="287"/>
-      <c r="W50" s="287"/>
-      <c r="X50" s="287"/>
-      <c r="Y50" s="287"/>
-      <c r="Z50" s="287"/>
-      <c r="AA50" s="287"/>
-      <c r="AB50" s="287"/>
-      <c r="AC50" s="287"/>
-      <c r="AD50" s="287"/>
-      <c r="AE50" s="288"/>
+      <c r="B50" s="293"/>
+      <c r="C50" s="293"/>
+      <c r="D50" s="293"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="293"/>
+      <c r="H50" s="293"/>
+      <c r="I50" s="293"/>
+      <c r="J50" s="293"/>
+      <c r="K50" s="293"/>
+      <c r="L50" s="293"/>
+      <c r="M50" s="293"/>
+      <c r="N50" s="293"/>
+      <c r="O50" s="293"/>
+      <c r="P50" s="293"/>
+      <c r="Q50" s="293"/>
+      <c r="R50" s="293"/>
+      <c r="S50" s="293"/>
+      <c r="T50" s="293"/>
+      <c r="U50" s="293"/>
+      <c r="V50" s="293"/>
+      <c r="W50" s="293"/>
+      <c r="X50" s="293"/>
+      <c r="Y50" s="293"/>
+      <c r="Z50" s="293"/>
+      <c r="AA50" s="293"/>
+      <c r="AB50" s="293"/>
+      <c r="AC50" s="293"/>
+      <c r="AD50" s="293"/>
+      <c r="AE50" s="294"/>
       <c r="AF50" s="59">
         <f>SUM(AF9:AF47)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG50" s="59">
         <f>SUM(AG9:AG47)</f>
@@ -10728,44 +10735,44 @@
       <c r="AH50" s="60"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="286" t="s">
+      <c r="A51" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="287"/>
-      <c r="C51" s="287"/>
-      <c r="D51" s="287"/>
-      <c r="E51" s="287"/>
-      <c r="F51" s="287"/>
-      <c r="G51" s="287"/>
-      <c r="H51" s="287"/>
-      <c r="I51" s="287"/>
-      <c r="J51" s="287"/>
-      <c r="K51" s="287"/>
-      <c r="L51" s="287"/>
-      <c r="M51" s="287"/>
-      <c r="N51" s="287"/>
-      <c r="O51" s="287"/>
-      <c r="P51" s="287"/>
-      <c r="Q51" s="287"/>
-      <c r="R51" s="287"/>
-      <c r="S51" s="287"/>
-      <c r="T51" s="287"/>
-      <c r="U51" s="287"/>
-      <c r="V51" s="287"/>
-      <c r="W51" s="287"/>
-      <c r="X51" s="287"/>
-      <c r="Y51" s="287"/>
-      <c r="Z51" s="287"/>
-      <c r="AA51" s="287"/>
-      <c r="AB51" s="287"/>
-      <c r="AC51" s="287"/>
-      <c r="AD51" s="287"/>
-      <c r="AE51" s="288"/>
-      <c r="AF51" s="279">
+      <c r="B51" s="293"/>
+      <c r="C51" s="293"/>
+      <c r="D51" s="293"/>
+      <c r="E51" s="293"/>
+      <c r="F51" s="293"/>
+      <c r="G51" s="293"/>
+      <c r="H51" s="293"/>
+      <c r="I51" s="293"/>
+      <c r="J51" s="293"/>
+      <c r="K51" s="293"/>
+      <c r="L51" s="293"/>
+      <c r="M51" s="293"/>
+      <c r="N51" s="293"/>
+      <c r="O51" s="293"/>
+      <c r="P51" s="293"/>
+      <c r="Q51" s="293"/>
+      <c r="R51" s="293"/>
+      <c r="S51" s="293"/>
+      <c r="T51" s="293"/>
+      <c r="U51" s="293"/>
+      <c r="V51" s="293"/>
+      <c r="W51" s="293"/>
+      <c r="X51" s="293"/>
+      <c r="Y51" s="293"/>
+      <c r="Z51" s="293"/>
+      <c r="AA51" s="293"/>
+      <c r="AB51" s="293"/>
+      <c r="AC51" s="293"/>
+      <c r="AD51" s="293"/>
+      <c r="AE51" s="294"/>
+      <c r="AF51" s="286">
         <f>AG50-AF50</f>
-        <v>252</v>
-      </c>
-      <c r="AG51" s="280"/>
+        <v>251</v>
+      </c>
+      <c r="AG51" s="287"/>
       <c r="AH51" s="60"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
@@ -10775,18 +10782,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -10803,22 +10814,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10830,7 +10837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -10886,146 +10893,146 @@
       <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="340"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="313" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="340"/>
-      <c r="N4" s="340"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
       <c r="O4" s="100"/>
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="340"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
+      <c r="A5" s="313"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="342" t="s">
+      <c r="A6" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="344" t="s">
+      <c r="B6" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="344"/>
-      <c r="D6" s="345" t="s">
+      <c r="C6" s="317"/>
+      <c r="D6" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="348" t="s">
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="318"/>
+      <c r="J6" s="318"/>
+      <c r="K6" s="323" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="348"/>
-      <c r="M6" s="348"/>
-      <c r="N6" s="349" t="s">
+      <c r="L6" s="323"/>
+      <c r="M6" s="323"/>
+      <c r="N6" s="324" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="343"/>
-      <c r="B7" s="346" t="s">
+      <c r="A7" s="316"/>
+      <c r="B7" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="346" t="s">
+      <c r="C7" s="319" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="346" t="s">
+      <c r="D7" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="346" t="s">
+      <c r="E7" s="319" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="313" t="s">
+      <c r="F7" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="313" t="s">
+      <c r="G7" s="321" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="324" t="s">
+      <c r="H7" s="350" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="324"/>
-      <c r="J7" s="313" t="s">
+      <c r="I7" s="350"/>
+      <c r="J7" s="321" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="313" t="s">
+      <c r="K7" s="321" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="313" t="s">
+      <c r="L7" s="321" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="313" t="s">
+      <c r="M7" s="321" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="350"/>
+      <c r="N7" s="325"/>
     </row>
     <row r="8" spans="1:17" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="343"/>
-      <c r="B8" s="347"/>
-      <c r="C8" s="347"/>
-      <c r="D8" s="347"/>
-      <c r="E8" s="347"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="314"/>
+      <c r="A8" s="316"/>
+      <c r="B8" s="320"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="320"/>
+      <c r="E8" s="320"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
       <c r="H8" s="240" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="314"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="350"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="325"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="107">
@@ -11067,10 +11074,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="321">
+      <c r="A10" s="335">
         <v>43958</v>
       </c>
-      <c r="B10" s="315" t="s">
+      <c r="B10" s="343" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="95"/>
@@ -11101,8 +11108,8 @@
       <c r="N10" s="74"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="323"/>
-      <c r="B11" s="317"/>
+      <c r="A11" s="336"/>
+      <c r="B11" s="345"/>
       <c r="C11" s="112"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
@@ -11131,10 +11138,10 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="321">
+      <c r="A12" s="335">
         <v>43958</v>
       </c>
-      <c r="B12" s="315" t="s">
+      <c r="B12" s="343" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="95"/>
@@ -11165,8 +11172,8 @@
       <c r="N12" s="74"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="323"/>
-      <c r="B13" s="317"/>
+      <c r="A13" s="336"/>
+      <c r="B13" s="345"/>
       <c r="C13" s="83"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
@@ -11229,10 +11236,10 @@
       <c r="N14" s="120"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="321">
+      <c r="A15" s="335">
         <v>43958</v>
       </c>
-      <c r="B15" s="315" t="s">
+      <c r="B15" s="343" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="95"/>
@@ -11249,7 +11256,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="318">
+      <c r="H15" s="346">
         <v>288000</v>
       </c>
       <c r="I15" s="76">
@@ -11265,13 +11272,13 @@
       </c>
       <c r="L15" s="114"/>
       <c r="M15" s="114"/>
-      <c r="N15" s="328" t="s">
+      <c r="N15" s="332" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="322"/>
-      <c r="B16" s="316"/>
+      <c r="A16" s="349"/>
+      <c r="B16" s="344"/>
       <c r="C16" s="96"/>
       <c r="D16" s="84" t="s">
         <v>20</v>
@@ -11286,7 +11293,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="319"/>
+      <c r="H16" s="347"/>
       <c r="I16" s="86">
         <v>0.1</v>
       </c>
@@ -11300,11 +11307,11 @@
       </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="329"/>
+      <c r="N16" s="333"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="322"/>
-      <c r="B17" s="316"/>
+      <c r="A17" s="349"/>
+      <c r="B17" s="344"/>
       <c r="C17" s="96"/>
       <c r="D17" s="84" t="s">
         <v>10</v>
@@ -11319,7 +11326,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="319"/>
+      <c r="H17" s="347"/>
       <c r="I17" s="86">
         <v>0.1</v>
       </c>
@@ -11333,11 +11340,11 @@
       </c>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
-      <c r="N17" s="329"/>
+      <c r="N17" s="333"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="323"/>
-      <c r="B18" s="317"/>
+      <c r="A18" s="336"/>
+      <c r="B18" s="345"/>
       <c r="C18" s="83"/>
       <c r="D18" s="83" t="s">
         <v>21</v>
@@ -11352,7 +11359,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="320"/>
+      <c r="H18" s="348"/>
       <c r="I18" s="124">
         <v>0.1</v>
       </c>
@@ -11366,13 +11373,13 @@
       </c>
       <c r="L18" s="123"/>
       <c r="M18" s="123"/>
-      <c r="N18" s="330"/>
+      <c r="N18" s="334"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="321">
+      <c r="A19" s="335">
         <v>43958</v>
       </c>
-      <c r="B19" s="315" t="s">
+      <c r="B19" s="343" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="113"/>
@@ -11405,13 +11412,13 @@
       </c>
       <c r="L19" s="121"/>
       <c r="M19" s="121"/>
-      <c r="N19" s="332" t="s">
+      <c r="N19" s="338" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="322"/>
-      <c r="B20" s="316"/>
+      <c r="A20" s="349"/>
+      <c r="B20" s="344"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
         <v>21</v>
@@ -11442,11 +11449,11 @@
       </c>
       <c r="L20" s="81"/>
       <c r="M20" s="81"/>
-      <c r="N20" s="333"/